--- a/AAII_Financials/Quarterly/AMTD_QTR_FIN.xlsx
+++ b/AAII_Financials/Quarterly/AMTD_QTR_FIN.xlsx
@@ -5,7 +5,7 @@
   <workbookPr codeName="ThisWorkbook" defaultThemeVersion="124226"/>
   <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
     <mc:Choice Requires="x15">
-      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\sundeep\Stocks_Automation\Financials\Quarterly\"/>
+      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\sundeep\Stocks_Automation\AAII_Financials\Quarterly\"/>
     </mc:Choice>
   </mc:AlternateContent>
   <bookViews>
@@ -22,7 +22,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="167" uniqueCount="92">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="170" uniqueCount="92">
   <si>
     <t>AMTD</t>
   </si>
@@ -656,7 +656,7 @@
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
   <sheetPr codeName="Sheet2"/>
-  <dimension ref="A5:Q102"/>
+  <dimension ref="A5:R102"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0"/>
   </sheetViews>
@@ -665,124 +665,131 @@
     <col min="1" max="1" width="7.85546875" style="1" bestFit="1" customWidth="1"/>
     <col min="2" max="2" width="26.85546875" style="1" bestFit="1" customWidth="1"/>
     <col min="3" max="3" width="69.140625" style="1" bestFit="1" customWidth="1"/>
-    <col min="4" max="5" width="14.7109375" style="1" bestFit="1" customWidth="1"/>
-    <col min="6" max="6" width="14.5703125" style="1" bestFit="1" customWidth="1"/>
-    <col min="7" max="7" width="14.85546875" style="1" bestFit="1" customWidth="1"/>
-    <col min="8" max="9" width="14.7109375" style="1" bestFit="1" customWidth="1"/>
-    <col min="10" max="10" width="14.5703125" style="1" bestFit="1" customWidth="1"/>
-    <col min="11" max="11" width="14.85546875" style="1" bestFit="1" customWidth="1"/>
-    <col min="12" max="13" width="14.7109375" style="1" bestFit="1" customWidth="1"/>
-    <col min="14" max="14" width="14.5703125" style="1" bestFit="1" customWidth="1"/>
-    <col min="15" max="15" width="14.85546875" style="1" bestFit="1" customWidth="1"/>
-    <col min="16" max="17" width="14.7109375" style="1" bestFit="1" customWidth="1"/>
-    <col min="18" max="16384" width="9.140625" style="1"/>
+    <col min="4" max="4" width="14.85546875" style="1" bestFit="1" customWidth="1"/>
+    <col min="5" max="6" width="14.7109375" style="1" bestFit="1" customWidth="1"/>
+    <col min="7" max="7" width="14.5703125" style="1" bestFit="1" customWidth="1"/>
+    <col min="8" max="8" width="14.85546875" style="1" bestFit="1" customWidth="1"/>
+    <col min="9" max="10" width="14.7109375" style="1" bestFit="1" customWidth="1"/>
+    <col min="11" max="11" width="14.5703125" style="1" bestFit="1" customWidth="1"/>
+    <col min="12" max="12" width="14.85546875" style="1" bestFit="1" customWidth="1"/>
+    <col min="13" max="14" width="14.7109375" style="1" bestFit="1" customWidth="1"/>
+    <col min="15" max="15" width="14.5703125" style="1" bestFit="1" customWidth="1"/>
+    <col min="16" max="16" width="14.85546875" style="1" bestFit="1" customWidth="1"/>
+    <col min="17" max="18" width="14.7109375" style="1" bestFit="1" customWidth="1"/>
+    <col min="19" max="16384" width="9.140625" style="1"/>
   </cols>
   <sheetData>
-    <row r="5" spans="1:17" x14ac:dyDescent="0.2">
+    <row r="5" spans="1:18" x14ac:dyDescent="0.2">
       <c r="A5" s="1" t="s">
         <v>0</v>
       </c>
     </row>
-    <row r="6" spans="1:17" x14ac:dyDescent="0.2">
+    <row r="6" spans="1:18" x14ac:dyDescent="0.2">
       <c r="B6" s="1" t="s">
         <v>1</v>
       </c>
     </row>
-    <row r="7" spans="1:17" x14ac:dyDescent="0.2">
+    <row r="7" spans="1:18" x14ac:dyDescent="0.2">
       <c r="C7" s="1" t="s">
         <v>2</v>
       </c>
       <c r="D7" s="2">
+        <v>43921</v>
+      </c>
+      <c r="E7" s="2">
         <v>43830</v>
       </c>
-      <c r="E7" s="2">
+      <c r="F7" s="2">
         <v>43738</v>
       </c>
-      <c r="F7" s="2">
+      <c r="G7" s="2">
         <v>43646</v>
       </c>
-      <c r="G7" s="2">
+      <c r="H7" s="2">
         <v>43555</v>
       </c>
-      <c r="H7" s="2">
+      <c r="I7" s="2">
         <v>43465</v>
       </c>
-      <c r="I7" s="2">
+      <c r="J7" s="2">
         <v>43373</v>
       </c>
-      <c r="J7" s="2">
+      <c r="K7" s="2">
         <v>43281</v>
       </c>
-      <c r="K7" s="2">
+      <c r="L7" s="2">
         <v>43190</v>
       </c>
-      <c r="L7" s="2">
+      <c r="M7" s="2">
         <v>43100</v>
       </c>
-      <c r="M7" s="2">
+      <c r="N7" s="2">
         <v>43008</v>
       </c>
-      <c r="N7" s="2">
+      <c r="O7" s="2">
         <v>42916</v>
       </c>
-      <c r="O7" s="2">
+      <c r="P7" s="2">
         <v>42825</v>
       </c>
-      <c r="P7" s="2">
+      <c r="Q7" s="2">
         <v>42735</v>
       </c>
-      <c r="Q7" s="2">
+      <c r="R7" s="2">
         <v>42643</v>
       </c>
     </row>
-    <row r="8" spans="1:17" x14ac:dyDescent="0.2">
+    <row r="8" spans="1:18" x14ac:dyDescent="0.2">
       <c r="C8" s="1" t="s">
         <v>3</v>
       </c>
       <c r="D8" s="3">
+        <v>1480000</v>
+      </c>
+      <c r="E8" s="3">
         <v>1291000</v>
       </c>
-      <c r="E8" s="3">
+      <c r="F8" s="3">
         <v>1559000</v>
       </c>
-      <c r="F8" s="3">
+      <c r="G8" s="3">
         <v>1491000</v>
       </c>
-      <c r="G8" s="3">
+      <c r="H8" s="3">
         <v>1451000</v>
       </c>
-      <c r="H8" s="3">
+      <c r="I8" s="3">
         <v>1516000</v>
       </c>
-      <c r="I8" s="3">
+      <c r="J8" s="3">
         <v>1398000</v>
       </c>
-      <c r="J8" s="3">
+      <c r="K8" s="3">
         <v>1382000</v>
       </c>
-      <c r="K8" s="3">
+      <c r="L8" s="3">
         <v>1415000</v>
       </c>
-      <c r="L8" s="3">
+      <c r="M8" s="3">
         <v>1257000</v>
       </c>
-      <c r="M8" s="3">
+      <c r="N8" s="3">
         <v>983000</v>
       </c>
-      <c r="N8" s="3">
+      <c r="O8" s="3">
         <v>931000</v>
       </c>
-      <c r="O8" s="3">
+      <c r="P8" s="3">
         <v>904000</v>
       </c>
-      <c r="P8" s="3">
+      <c r="Q8" s="3">
         <v>859000</v>
       </c>
-      <c r="Q8" s="3">
+      <c r="R8" s="3">
         <v>830000</v>
       </c>
     </row>
-    <row r="9" spans="1:17" x14ac:dyDescent="0.2">
+    <row r="9" spans="1:18" x14ac:dyDescent="0.2">
       <c r="C9" s="1" t="s">
         <v>4</v>
       </c>
@@ -828,8 +835,11 @@
       <c r="Q9" s="3" t="s">
         <v>5</v>
       </c>
-    </row>
-    <row r="10" spans="1:17" x14ac:dyDescent="0.2">
+      <c r="R9" s="3" t="s">
+        <v>5</v>
+      </c>
+    </row>
+    <row r="10" spans="1:18" x14ac:dyDescent="0.2">
       <c r="C10" s="1" t="s">
         <v>6</v>
       </c>
@@ -875,8 +885,11 @@
       <c r="Q10" s="3" t="s">
         <v>5</v>
       </c>
-    </row>
-    <row r="11" spans="1:17" x14ac:dyDescent="0.2">
+      <c r="R10" s="3" t="s">
+        <v>5</v>
+      </c>
+    </row>
+    <row r="11" spans="1:18" x14ac:dyDescent="0.2">
       <c r="C11" s="1" t="s">
         <v>7</v>
       </c>
@@ -894,8 +907,9 @@
       <c r="O11" s="3"/>
       <c r="P11" s="3"/>
       <c r="Q11" s="3"/>
-    </row>
-    <row r="12" spans="1:17" x14ac:dyDescent="0.2">
+      <c r="R11" s="3"/>
+    </row>
+    <row r="12" spans="1:18" x14ac:dyDescent="0.2">
       <c r="C12" s="1" t="s">
         <v>8</v>
       </c>
@@ -941,8 +955,11 @@
       <c r="Q12" s="3" t="s">
         <v>5</v>
       </c>
-    </row>
-    <row r="13" spans="1:17" x14ac:dyDescent="0.2">
+      <c r="R12" s="3" t="s">
+        <v>5</v>
+      </c>
+    </row>
+    <row r="13" spans="1:18" x14ac:dyDescent="0.2">
       <c r="C13" s="1" t="s">
         <v>9</v>
       </c>
@@ -988,102 +1005,111 @@
       <c r="Q13" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="14" spans="1:17" x14ac:dyDescent="0.2">
+      <c r="R13" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="14" spans="1:18" x14ac:dyDescent="0.2">
       <c r="C14" s="1" t="s">
         <v>10</v>
       </c>
-      <c r="D14" s="3" t="s">
-        <v>5</v>
+      <c r="D14" s="3">
+        <v>8000</v>
       </c>
       <c r="E14" s="3">
-        <v>0</v>
+        <v>25000</v>
       </c>
       <c r="F14" s="3">
+        <v>0</v>
+      </c>
+      <c r="G14" s="3">
         <v>-60000</v>
       </c>
-      <c r="G14" s="3" t="s">
-        <v>5</v>
-      </c>
       <c r="H14" s="3" t="s">
         <v>5</v>
       </c>
-      <c r="I14" s="3">
+      <c r="I14" s="3" t="s">
+        <v>5</v>
+      </c>
+      <c r="J14" s="3">
         <v>1000</v>
       </c>
-      <c r="J14" s="3" t="s">
-        <v>5</v>
-      </c>
       <c r="K14" s="3" t="s">
         <v>5</v>
       </c>
       <c r="L14" s="3" t="s">
         <v>5</v>
       </c>
-      <c r="M14" s="3">
-        <v>0</v>
+      <c r="M14" s="3" t="s">
+        <v>5</v>
       </c>
       <c r="N14" s="3">
+        <v>0</v>
+      </c>
+      <c r="O14" s="3">
         <v>1000</v>
       </c>
-      <c r="O14" s="3" t="s">
-        <v>5</v>
-      </c>
       <c r="P14" s="3" t="s">
         <v>5</v>
       </c>
       <c r="Q14" s="3" t="s">
         <v>5</v>
       </c>
-    </row>
-    <row r="15" spans="1:17" x14ac:dyDescent="0.2">
+      <c r="R14" s="3" t="s">
+        <v>5</v>
+      </c>
+    </row>
+    <row r="15" spans="1:18" x14ac:dyDescent="0.2">
       <c r="C15" s="1" t="s">
         <v>11</v>
       </c>
       <c r="D15" s="3">
+        <v>73000</v>
+      </c>
+      <c r="E15" s="3">
         <v>72000</v>
       </c>
-      <c r="E15" s="3">
+      <c r="F15" s="3">
         <v>71000</v>
       </c>
-      <c r="F15" s="3">
+      <c r="G15" s="3">
         <v>69000</v>
       </c>
-      <c r="G15" s="3">
+      <c r="H15" s="3">
         <v>67000</v>
       </c>
-      <c r="H15" s="3">
+      <c r="I15" s="3">
         <v>66000</v>
       </c>
-      <c r="I15" s="3">
+      <c r="J15" s="3">
         <v>70000</v>
       </c>
-      <c r="J15" s="3">
+      <c r="K15" s="3">
         <v>69000</v>
-      </c>
-      <c r="K15" s="3">
-        <v>72000</v>
       </c>
       <c r="L15" s="3">
         <v>72000</v>
       </c>
       <c r="M15" s="3">
+        <v>72000</v>
+      </c>
+      <c r="N15" s="3">
         <v>50000</v>
-      </c>
-      <c r="N15" s="3">
-        <v>44000</v>
       </c>
       <c r="O15" s="3">
         <v>44000</v>
       </c>
       <c r="P15" s="3">
+        <v>44000</v>
+      </c>
+      <c r="Q15" s="3">
         <v>43000</v>
       </c>
-      <c r="Q15" s="3">
+      <c r="R15" s="3">
         <v>45000</v>
       </c>
     </row>
-    <row r="16" spans="1:17" x14ac:dyDescent="0.2">
+    <row r="16" spans="1:18" x14ac:dyDescent="0.2">
       <c r="D16" s="3"/>
       <c r="E16" s="3"/>
       <c r="F16" s="3"/>
@@ -1098,102 +1124,109 @@
       <c r="O16" s="3"/>
       <c r="P16" s="3"/>
       <c r="Q16" s="3"/>
-    </row>
-    <row r="17" spans="3:17" x14ac:dyDescent="0.2">
+      <c r="R16" s="3"/>
+    </row>
+    <row r="17" spans="3:18" x14ac:dyDescent="0.2">
       <c r="C17" s="1" t="s">
         <v>12</v>
       </c>
       <c r="D17" s="3">
+        <v>849000</v>
+      </c>
+      <c r="E17" s="3">
         <v>770000</v>
       </c>
-      <c r="E17" s="3">
+      <c r="F17" s="3">
         <v>779000</v>
       </c>
-      <c r="F17" s="3">
+      <c r="G17" s="3">
         <v>711000</v>
       </c>
-      <c r="G17" s="3">
+      <c r="H17" s="3">
         <v>746000</v>
       </c>
-      <c r="H17" s="3">
+      <c r="I17" s="3">
         <v>720000</v>
       </c>
-      <c r="I17" s="3">
+      <c r="J17" s="3">
         <v>764000</v>
       </c>
-      <c r="J17" s="3">
+      <c r="K17" s="3">
         <v>751000</v>
       </c>
-      <c r="K17" s="3">
+      <c r="L17" s="3">
         <v>1019000</v>
       </c>
-      <c r="L17" s="3">
+      <c r="M17" s="3">
         <v>921000</v>
       </c>
-      <c r="M17" s="3">
+      <c r="N17" s="3">
         <v>622000</v>
       </c>
-      <c r="N17" s="3">
+      <c r="O17" s="3">
         <v>538000</v>
       </c>
-      <c r="O17" s="3">
+      <c r="P17" s="3">
         <v>546000</v>
       </c>
-      <c r="P17" s="3">
+      <c r="Q17" s="3">
         <v>506000</v>
       </c>
-      <c r="Q17" s="3">
+      <c r="R17" s="3">
         <v>546000</v>
       </c>
     </row>
-    <row r="18" spans="3:17" x14ac:dyDescent="0.2">
+    <row r="18" spans="3:18" x14ac:dyDescent="0.2">
       <c r="C18" s="1" t="s">
         <v>13</v>
       </c>
       <c r="D18" s="3">
+        <v>631000</v>
+      </c>
+      <c r="E18" s="3">
         <v>521000</v>
-      </c>
-      <c r="E18" s="3">
-        <v>780000</v>
       </c>
       <c r="F18" s="3">
         <v>780000</v>
       </c>
       <c r="G18" s="3">
+        <v>780000</v>
+      </c>
+      <c r="H18" s="3">
         <v>705000</v>
       </c>
-      <c r="H18" s="3">
+      <c r="I18" s="3">
         <v>796000</v>
       </c>
-      <c r="I18" s="3">
+      <c r="J18" s="3">
         <v>634000</v>
       </c>
-      <c r="J18" s="3">
+      <c r="K18" s="3">
         <v>631000</v>
       </c>
-      <c r="K18" s="3">
+      <c r="L18" s="3">
         <v>396000</v>
       </c>
-      <c r="L18" s="3">
+      <c r="M18" s="3">
         <v>336000</v>
       </c>
-      <c r="M18" s="3">
+      <c r="N18" s="3">
         <v>361000</v>
       </c>
-      <c r="N18" s="3">
+      <c r="O18" s="3">
         <v>393000</v>
       </c>
-      <c r="O18" s="3">
+      <c r="P18" s="3">
         <v>358000</v>
       </c>
-      <c r="P18" s="3">
+      <c r="Q18" s="3">
         <v>353000</v>
       </c>
-      <c r="Q18" s="3">
+      <c r="R18" s="3">
         <v>284000</v>
       </c>
     </row>
-    <row r="19" spans="3:17" x14ac:dyDescent="0.2">
+    <row r="19" spans="3:18" x14ac:dyDescent="0.2">
       <c r="C19" s="1" t="s">
         <v>14</v>
       </c>
@@ -1211,41 +1244,42 @@
       <c r="O19" s="3"/>
       <c r="P19" s="3"/>
       <c r="Q19" s="3"/>
-    </row>
-    <row r="20" spans="3:17" x14ac:dyDescent="0.2">
+      <c r="R19" s="3"/>
+    </row>
+    <row r="20" spans="3:18" x14ac:dyDescent="0.2">
       <c r="C20" s="1" t="s">
         <v>15</v>
       </c>
       <c r="D20" s="3">
+        <v>-1000</v>
+      </c>
+      <c r="E20" s="3">
         <v>2000</v>
       </c>
-      <c r="E20" s="3">
+      <c r="F20" s="3">
         <v>-2000</v>
       </c>
-      <c r="F20" s="3">
-        <v>0</v>
-      </c>
       <c r="G20" s="3">
         <v>0</v>
       </c>
       <c r="H20" s="3">
+        <v>0</v>
+      </c>
+      <c r="I20" s="3">
         <v>14000</v>
       </c>
-      <c r="I20" s="3">
+      <c r="J20" s="3">
         <v>2000</v>
       </c>
-      <c r="J20" s="3">
-        <v>0</v>
-      </c>
       <c r="K20" s="3">
         <v>0</v>
       </c>
       <c r="L20" s="3">
+        <v>0</v>
+      </c>
+      <c r="M20" s="3">
         <v>-13000</v>
       </c>
-      <c r="M20" s="3">
-        <v>0</v>
-      </c>
       <c r="N20" s="3">
         <v>0</v>
       </c>
@@ -1258,63 +1292,69 @@
       <c r="Q20" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="21" spans="3:17" x14ac:dyDescent="0.2">
+      <c r="R20" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="21" spans="3:18" x14ac:dyDescent="0.2">
       <c r="C21" s="1" t="s">
         <v>16</v>
       </c>
       <c r="D21" s="3">
+        <v>702000</v>
+      </c>
+      <c r="E21" s="3">
         <v>595000</v>
-      </c>
-      <c r="E21" s="3">
-        <v>849000</v>
       </c>
       <c r="F21" s="3">
         <v>849000</v>
       </c>
       <c r="G21" s="3">
+        <v>849000</v>
+      </c>
+      <c r="H21" s="3">
         <v>772000</v>
       </c>
-      <c r="H21" s="3">
+      <c r="I21" s="3">
         <v>876000</v>
       </c>
-      <c r="I21" s="3">
+      <c r="J21" s="3">
         <v>706000</v>
       </c>
-      <c r="J21" s="3">
+      <c r="K21" s="3">
         <v>700000</v>
       </c>
-      <c r="K21" s="3">
+      <c r="L21" s="3">
         <v>468000</v>
       </c>
-      <c r="L21" s="3">
+      <c r="M21" s="3">
         <v>395000</v>
       </c>
-      <c r="M21" s="3">
+      <c r="N21" s="3">
         <v>411000</v>
       </c>
-      <c r="N21" s="3">
+      <c r="O21" s="3">
         <v>437000</v>
       </c>
-      <c r="O21" s="3">
+      <c r="P21" s="3">
         <v>402000</v>
       </c>
-      <c r="P21" s="3">
+      <c r="Q21" s="3">
         <v>396000</v>
       </c>
-      <c r="Q21" s="3">
+      <c r="R21" s="3">
         <v>329000</v>
       </c>
     </row>
-    <row r="22" spans="3:17" x14ac:dyDescent="0.2">
+    <row r="22" spans="3:18" x14ac:dyDescent="0.2">
       <c r="C22" s="1" t="s">
         <v>17</v>
       </c>
       <c r="D22" s="3">
+        <v>31000</v>
+      </c>
+      <c r="E22" s="3">
         <v>32000</v>
-      </c>
-      <c r="E22" s="3">
-        <v>37000</v>
       </c>
       <c r="F22" s="3">
         <v>37000</v>
@@ -1323,28 +1363,28 @@
         <v>37000</v>
       </c>
       <c r="H22" s="3">
+        <v>37000</v>
+      </c>
+      <c r="I22" s="3">
         <v>32000</v>
       </c>
-      <c r="I22" s="3">
+      <c r="J22" s="3">
         <v>27000</v>
       </c>
-      <c r="J22" s="3">
+      <c r="K22" s="3">
         <v>28000</v>
       </c>
-      <c r="K22" s="3">
+      <c r="L22" s="3">
         <v>24000</v>
       </c>
-      <c r="L22" s="3">
+      <c r="M22" s="3">
         <v>20000</v>
       </c>
-      <c r="M22" s="3">
+      <c r="N22" s="3">
         <v>23000</v>
       </c>
-      <c r="N22" s="3">
+      <c r="O22" s="3">
         <v>20000</v>
-      </c>
-      <c r="O22" s="3">
-        <v>14000</v>
       </c>
       <c r="P22" s="3">
         <v>14000</v>
@@ -1352,102 +1392,111 @@
       <c r="Q22" s="3">
         <v>14000</v>
       </c>
-    </row>
-    <row r="23" spans="3:17" x14ac:dyDescent="0.2">
+      <c r="R22" s="3">
+        <v>14000</v>
+      </c>
+    </row>
+    <row r="23" spans="3:18" x14ac:dyDescent="0.2">
       <c r="C23" s="1" t="s">
         <v>18</v>
       </c>
       <c r="D23" s="3">
+        <v>599000</v>
+      </c>
+      <c r="E23" s="3">
         <v>491000</v>
       </c>
-      <c r="E23" s="3">
+      <c r="F23" s="3">
         <v>741000</v>
       </c>
-      <c r="F23" s="3">
+      <c r="G23" s="3">
         <v>743000</v>
       </c>
-      <c r="G23" s="3">
+      <c r="H23" s="3">
         <v>668000</v>
       </c>
-      <c r="H23" s="3">
+      <c r="I23" s="3">
         <v>778000</v>
       </c>
-      <c r="I23" s="3">
+      <c r="J23" s="3">
         <v>609000</v>
       </c>
-      <c r="J23" s="3">
+      <c r="K23" s="3">
         <v>603000</v>
       </c>
-      <c r="K23" s="3">
+      <c r="L23" s="3">
         <v>372000</v>
       </c>
-      <c r="L23" s="3">
+      <c r="M23" s="3">
         <v>303000</v>
       </c>
-      <c r="M23" s="3">
+      <c r="N23" s="3">
         <v>338000</v>
       </c>
-      <c r="N23" s="3">
+      <c r="O23" s="3">
         <v>373000</v>
       </c>
-      <c r="O23" s="3">
+      <c r="P23" s="3">
         <v>344000</v>
       </c>
-      <c r="P23" s="3">
+      <c r="Q23" s="3">
         <v>339000</v>
       </c>
-      <c r="Q23" s="3">
+      <c r="R23" s="3">
         <v>270000</v>
       </c>
     </row>
-    <row r="24" spans="3:17" x14ac:dyDescent="0.2">
+    <row r="24" spans="3:18" x14ac:dyDescent="0.2">
       <c r="C24" s="1" t="s">
         <v>19</v>
       </c>
       <c r="D24" s="3">
+        <v>153000</v>
+      </c>
+      <c r="E24" s="3">
         <v>112000</v>
       </c>
-      <c r="E24" s="3">
+      <c r="F24" s="3">
         <v>191000</v>
       </c>
-      <c r="F24" s="3">
+      <c r="G24" s="3">
         <v>188000</v>
       </c>
-      <c r="G24" s="3">
+      <c r="H24" s="3">
         <v>169000</v>
       </c>
-      <c r="H24" s="3">
+      <c r="I24" s="3">
         <v>174000</v>
-      </c>
-      <c r="I24" s="3">
-        <v>155000</v>
       </c>
       <c r="J24" s="3">
         <v>155000</v>
       </c>
       <c r="K24" s="3">
+        <v>155000</v>
+      </c>
+      <c r="L24" s="3">
         <v>101000</v>
       </c>
-      <c r="L24" s="3">
+      <c r="M24" s="3">
         <v>74000</v>
       </c>
-      <c r="M24" s="3">
+      <c r="N24" s="3">
         <v>127000</v>
       </c>
-      <c r="N24" s="3">
+      <c r="O24" s="3">
         <v>142000</v>
       </c>
-      <c r="O24" s="3">
+      <c r="P24" s="3">
         <v>130000</v>
       </c>
-      <c r="P24" s="3">
+      <c r="Q24" s="3">
         <v>123000</v>
       </c>
-      <c r="Q24" s="3">
+      <c r="R24" s="3">
         <v>85000</v>
       </c>
     </row>
-    <row r="25" spans="3:17" x14ac:dyDescent="0.2">
+    <row r="25" spans="3:18" x14ac:dyDescent="0.2">
       <c r="C25" s="1" t="s">
         <v>20</v>
       </c>
@@ -1493,102 +1542,111 @@
       <c r="Q25" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="26" spans="3:17" x14ac:dyDescent="0.2">
+      <c r="R25" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="26" spans="3:18" x14ac:dyDescent="0.2">
       <c r="C26" s="1" t="s">
         <v>21</v>
       </c>
       <c r="D26" s="3">
+        <v>446000</v>
+      </c>
+      <c r="E26" s="3">
         <v>379000</v>
       </c>
-      <c r="E26" s="3">
+      <c r="F26" s="3">
         <v>550000</v>
       </c>
-      <c r="F26" s="3">
+      <c r="G26" s="3">
         <v>555000</v>
       </c>
-      <c r="G26" s="3">
+      <c r="H26" s="3">
         <v>499000</v>
       </c>
-      <c r="H26" s="3">
+      <c r="I26" s="3">
         <v>604000</v>
       </c>
-      <c r="I26" s="3">
+      <c r="J26" s="3">
         <v>454000</v>
       </c>
-      <c r="J26" s="3">
+      <c r="K26" s="3">
         <v>448000</v>
       </c>
-      <c r="K26" s="3">
+      <c r="L26" s="3">
         <v>271000</v>
       </c>
-      <c r="L26" s="3">
+      <c r="M26" s="3">
         <v>229000</v>
       </c>
-      <c r="M26" s="3">
+      <c r="N26" s="3">
         <v>211000</v>
       </c>
-      <c r="N26" s="3">
+      <c r="O26" s="3">
         <v>231000</v>
       </c>
-      <c r="O26" s="3">
+      <c r="P26" s="3">
         <v>214000</v>
       </c>
-      <c r="P26" s="3">
+      <c r="Q26" s="3">
         <v>216000</v>
       </c>
-      <c r="Q26" s="3">
+      <c r="R26" s="3">
         <v>185000</v>
       </c>
     </row>
-    <row r="27" spans="3:17" x14ac:dyDescent="0.2">
+    <row r="27" spans="3:18" x14ac:dyDescent="0.2">
       <c r="C27" s="1" t="s">
         <v>22</v>
       </c>
       <c r="D27" s="3">
+        <v>446000</v>
+      </c>
+      <c r="E27" s="3">
         <v>379000</v>
       </c>
-      <c r="E27" s="3">
+      <c r="F27" s="3">
         <v>550000</v>
       </c>
-      <c r="F27" s="3">
+      <c r="G27" s="3">
         <v>555000</v>
       </c>
-      <c r="G27" s="3">
+      <c r="H27" s="3">
         <v>499000</v>
       </c>
-      <c r="H27" s="3">
+      <c r="I27" s="3">
         <v>604000</v>
       </c>
-      <c r="I27" s="3">
+      <c r="J27" s="3">
         <v>454000</v>
       </c>
-      <c r="J27" s="3">
+      <c r="K27" s="3">
         <v>448000</v>
       </c>
-      <c r="K27" s="3">
+      <c r="L27" s="3">
         <v>271000</v>
       </c>
-      <c r="L27" s="3">
+      <c r="M27" s="3">
         <v>229000</v>
       </c>
-      <c r="M27" s="3">
+      <c r="N27" s="3">
         <v>211000</v>
       </c>
-      <c r="N27" s="3">
+      <c r="O27" s="3">
         <v>231000</v>
       </c>
-      <c r="O27" s="3">
+      <c r="P27" s="3">
         <v>214000</v>
       </c>
-      <c r="P27" s="3">
+      <c r="Q27" s="3">
         <v>216000</v>
       </c>
-      <c r="Q27" s="3">
+      <c r="R27" s="3">
         <v>185000</v>
       </c>
     </row>
-    <row r="28" spans="3:17" x14ac:dyDescent="0.2">
+    <row r="28" spans="3:18" x14ac:dyDescent="0.2">
       <c r="C28" s="1" t="s">
         <v>23</v>
       </c>
@@ -1634,8 +1692,11 @@
       <c r="Q28" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="29" spans="3:17" x14ac:dyDescent="0.2">
+      <c r="R28" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="29" spans="3:18" x14ac:dyDescent="0.2">
       <c r="C29" s="1" t="s">
         <v>24</v>
       </c>
@@ -1654,21 +1715,21 @@
       <c r="H29" s="3" t="s">
         <v>5</v>
       </c>
-      <c r="I29" s="3">
-        <v>0</v>
+      <c r="I29" s="3" t="s">
+        <v>5</v>
       </c>
       <c r="J29" s="3">
+        <v>0</v>
+      </c>
+      <c r="K29" s="3">
         <v>3000</v>
       </c>
-      <c r="K29" s="3">
-        <v>0</v>
-      </c>
       <c r="L29" s="3">
+        <v>0</v>
+      </c>
+      <c r="M29" s="3">
         <v>68000</v>
       </c>
-      <c r="M29" s="3" t="s">
-        <v>5</v>
-      </c>
       <c r="N29" s="3" t="s">
         <v>5</v>
       </c>
@@ -1681,8 +1742,11 @@
       <c r="Q29" s="3" t="s">
         <v>5</v>
       </c>
-    </row>
-    <row r="30" spans="3:17" x14ac:dyDescent="0.2">
+      <c r="R29" s="3" t="s">
+        <v>5</v>
+      </c>
+    </row>
+    <row r="30" spans="3:18" x14ac:dyDescent="0.2">
       <c r="C30" s="1" t="s">
         <v>25</v>
       </c>
@@ -1728,8 +1792,11 @@
       <c r="Q30" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="31" spans="3:17" x14ac:dyDescent="0.2">
+      <c r="R30" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="31" spans="3:18" x14ac:dyDescent="0.2">
       <c r="C31" s="1" t="s">
         <v>26</v>
       </c>
@@ -1775,41 +1842,44 @@
       <c r="Q31" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="32" spans="3:17" x14ac:dyDescent="0.2">
+      <c r="R31" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="32" spans="3:18" x14ac:dyDescent="0.2">
       <c r="C32" s="1" t="s">
         <v>27</v>
       </c>
       <c r="D32" s="3">
+        <v>1000</v>
+      </c>
+      <c r="E32" s="3">
         <v>-2000</v>
       </c>
-      <c r="E32" s="3">
+      <c r="F32" s="3">
         <v>2000</v>
       </c>
-      <c r="F32" s="3">
-        <v>0</v>
-      </c>
       <c r="G32" s="3">
         <v>0</v>
       </c>
       <c r="H32" s="3">
+        <v>0</v>
+      </c>
+      <c r="I32" s="3">
         <v>-14000</v>
       </c>
-      <c r="I32" s="3">
+      <c r="J32" s="3">
         <v>-2000</v>
       </c>
-      <c r="J32" s="3">
-        <v>0</v>
-      </c>
       <c r="K32" s="3">
         <v>0</v>
       </c>
       <c r="L32" s="3">
+        <v>0</v>
+      </c>
+      <c r="M32" s="3">
         <v>13000</v>
       </c>
-      <c r="M32" s="3">
-        <v>0</v>
-      </c>
       <c r="N32" s="3">
         <v>0</v>
       </c>
@@ -1822,55 +1892,61 @@
       <c r="Q32" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="33" spans="2:17" x14ac:dyDescent="0.2">
+      <c r="R32" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="33" spans="2:18" x14ac:dyDescent="0.2">
       <c r="C33" s="1" t="s">
         <v>28</v>
       </c>
       <c r="D33" s="3">
+        <v>446000</v>
+      </c>
+      <c r="E33" s="3">
         <v>379000</v>
       </c>
-      <c r="E33" s="3">
+      <c r="F33" s="3">
         <v>550000</v>
       </c>
-      <c r="F33" s="3">
+      <c r="G33" s="3">
         <v>555000</v>
       </c>
-      <c r="G33" s="3">
+      <c r="H33" s="3">
         <v>499000</v>
       </c>
-      <c r="H33" s="3">
+      <c r="I33" s="3">
         <v>604000</v>
       </c>
-      <c r="I33" s="3">
+      <c r="J33" s="3">
         <v>454000</v>
       </c>
-      <c r="J33" s="3">
+      <c r="K33" s="3">
         <v>451000</v>
       </c>
-      <c r="K33" s="3">
+      <c r="L33" s="3">
         <v>271000</v>
       </c>
-      <c r="L33" s="3">
+      <c r="M33" s="3">
         <v>297000</v>
       </c>
-      <c r="M33" s="3">
+      <c r="N33" s="3">
         <v>211000</v>
       </c>
-      <c r="N33" s="3">
+      <c r="O33" s="3">
         <v>231000</v>
       </c>
-      <c r="O33" s="3">
+      <c r="P33" s="3">
         <v>214000</v>
       </c>
-      <c r="P33" s="3">
+      <c r="Q33" s="3">
         <v>216000</v>
       </c>
-      <c r="Q33" s="3">
+      <c r="R33" s="3">
         <v>185000</v>
       </c>
     </row>
-    <row r="34" spans="2:17" x14ac:dyDescent="0.2">
+    <row r="34" spans="2:18" x14ac:dyDescent="0.2">
       <c r="C34" s="1" t="s">
         <v>29</v>
       </c>
@@ -1916,107 +1992,116 @@
       <c r="Q34" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="35" spans="2:17" x14ac:dyDescent="0.2">
+      <c r="R34" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="35" spans="2:18" x14ac:dyDescent="0.2">
       <c r="C35" s="1" t="s">
         <v>30</v>
       </c>
       <c r="D35" s="3">
+        <v>446000</v>
+      </c>
+      <c r="E35" s="3">
         <v>379000</v>
       </c>
-      <c r="E35" s="3">
+      <c r="F35" s="3">
         <v>550000</v>
       </c>
-      <c r="F35" s="3">
+      <c r="G35" s="3">
         <v>555000</v>
       </c>
-      <c r="G35" s="3">
+      <c r="H35" s="3">
         <v>499000</v>
       </c>
-      <c r="H35" s="3">
+      <c r="I35" s="3">
         <v>604000</v>
       </c>
-      <c r="I35" s="3">
+      <c r="J35" s="3">
         <v>454000</v>
       </c>
-      <c r="J35" s="3">
+      <c r="K35" s="3">
         <v>451000</v>
       </c>
-      <c r="K35" s="3">
+      <c r="L35" s="3">
         <v>271000</v>
       </c>
-      <c r="L35" s="3">
+      <c r="M35" s="3">
         <v>297000</v>
       </c>
-      <c r="M35" s="3">
+      <c r="N35" s="3">
         <v>211000</v>
       </c>
-      <c r="N35" s="3">
+      <c r="O35" s="3">
         <v>231000</v>
       </c>
-      <c r="O35" s="3">
+      <c r="P35" s="3">
         <v>214000</v>
       </c>
-      <c r="P35" s="3">
+      <c r="Q35" s="3">
         <v>216000</v>
       </c>
-      <c r="Q35" s="3">
+      <c r="R35" s="3">
         <v>185000</v>
       </c>
     </row>
-    <row r="37" spans="2:17" x14ac:dyDescent="0.2">
+    <row r="37" spans="2:18" x14ac:dyDescent="0.2">
       <c r="B37" s="1" t="s">
         <v>31</v>
       </c>
     </row>
-    <row r="38" spans="2:17" x14ac:dyDescent="0.2">
+    <row r="38" spans="2:18" x14ac:dyDescent="0.2">
       <c r="C38" s="1" t="s">
         <v>2</v>
       </c>
       <c r="D38" s="2">
+        <v>43921</v>
+      </c>
+      <c r="E38" s="2">
         <v>43830</v>
       </c>
-      <c r="E38" s="2">
+      <c r="F38" s="2">
         <v>43738</v>
       </c>
-      <c r="F38" s="2">
+      <c r="G38" s="2">
         <v>43646</v>
       </c>
-      <c r="G38" s="2">
+      <c r="H38" s="2">
         <v>43555</v>
       </c>
-      <c r="H38" s="2">
+      <c r="I38" s="2">
         <v>43465</v>
       </c>
-      <c r="I38" s="2">
+      <c r="J38" s="2">
         <v>43373</v>
       </c>
-      <c r="J38" s="2">
+      <c r="K38" s="2">
         <v>43281</v>
       </c>
-      <c r="K38" s="2">
+      <c r="L38" s="2">
         <v>43190</v>
       </c>
-      <c r="L38" s="2">
+      <c r="M38" s="2">
         <v>43100</v>
       </c>
-      <c r="M38" s="2">
+      <c r="N38" s="2">
         <v>43008</v>
       </c>
-      <c r="N38" s="2">
+      <c r="O38" s="2">
         <v>42916</v>
       </c>
-      <c r="O38" s="2">
+      <c r="P38" s="2">
         <v>42825</v>
       </c>
-      <c r="P38" s="2">
+      <c r="Q38" s="2">
         <v>42735</v>
       </c>
-      <c r="Q38" s="2">
+      <c r="R38" s="2">
         <v>42643</v>
       </c>
     </row>
-    <row r="39" spans="2:17" x14ac:dyDescent="0.2">
+    <row r="39" spans="2:18" x14ac:dyDescent="0.2">
       <c r="C39" s="1" t="s">
         <v>32</v>
       </c>
@@ -2034,8 +2119,9 @@
       <c r="O39" s="3"/>
       <c r="P39" s="3"/>
       <c r="Q39" s="3"/>
-    </row>
-    <row r="40" spans="2:17" x14ac:dyDescent="0.2">
+      <c r="R39" s="3"/>
+    </row>
+    <row r="40" spans="2:18" x14ac:dyDescent="0.2">
       <c r="C40" s="1" t="s">
         <v>33</v>
       </c>
@@ -2053,55 +2139,59 @@
       <c r="O40" s="3"/>
       <c r="P40" s="3"/>
       <c r="Q40" s="3"/>
-    </row>
-    <row r="41" spans="2:17" x14ac:dyDescent="0.2">
+      <c r="R40" s="3"/>
+    </row>
+    <row r="41" spans="2:18" x14ac:dyDescent="0.2">
       <c r="C41" s="1" t="s">
         <v>34</v>
       </c>
       <c r="D41" s="3">
+        <v>3729000</v>
+      </c>
+      <c r="E41" s="3">
         <v>2551000</v>
       </c>
-      <c r="E41" s="3">
+      <c r="F41" s="3">
         <v>2852000</v>
       </c>
-      <c r="F41" s="3">
+      <c r="G41" s="3">
         <v>2953000</v>
       </c>
-      <c r="G41" s="3">
+      <c r="H41" s="3">
         <v>2674000</v>
       </c>
-      <c r="H41" s="3">
+      <c r="I41" s="3">
         <v>5117000</v>
       </c>
-      <c r="I41" s="3">
+      <c r="J41" s="3">
         <v>2690000</v>
       </c>
-      <c r="J41" s="3">
+      <c r="K41" s="3">
         <v>1343000</v>
       </c>
-      <c r="K41" s="3">
+      <c r="L41" s="3">
         <v>1373000</v>
       </c>
-      <c r="L41" s="3">
+      <c r="M41" s="3">
         <v>1644000</v>
       </c>
-      <c r="M41" s="3">
+      <c r="N41" s="3">
         <v>1472000</v>
       </c>
-      <c r="N41" s="3">
+      <c r="O41" s="3">
         <v>2880000</v>
       </c>
-      <c r="O41" s="3">
+      <c r="P41" s="3">
         <v>2231000</v>
       </c>
-      <c r="P41" s="3">
+      <c r="Q41" s="3">
         <v>1662000</v>
       </c>
-      <c r="Q41" s="3">
+      <c r="R41" s="3">
         <v>1855000</v>
       </c>
     </row>
-    <row r="42" spans="2:17" x14ac:dyDescent="0.2">
+    <row r="42" spans="2:18" x14ac:dyDescent="0.2">
       <c r="C42" s="1" t="s">
         <v>35</v>
       </c>
@@ -2147,55 +2237,61 @@
       <c r="Q42" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="43" spans="2:17" x14ac:dyDescent="0.2">
+      <c r="R42" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="43" spans="2:18" x14ac:dyDescent="0.2">
       <c r="C43" s="1" t="s">
         <v>36</v>
       </c>
       <c r="D43" s="3">
+        <v>18547000</v>
+      </c>
+      <c r="E43" s="3">
         <v>23313000</v>
       </c>
-      <c r="E43" s="3">
+      <c r="F43" s="3">
         <v>23474000</v>
       </c>
-      <c r="F43" s="3">
+      <c r="G43" s="3">
         <v>23014000</v>
       </c>
-      <c r="G43" s="3">
+      <c r="H43" s="3">
         <v>22790000</v>
       </c>
-      <c r="H43" s="3">
+      <c r="I43" s="3">
         <v>21312000</v>
       </c>
-      <c r="I43" s="3">
+      <c r="J43" s="3">
         <v>24445000</v>
       </c>
-      <c r="J43" s="3">
+      <c r="K43" s="3">
         <v>24345000</v>
       </c>
-      <c r="K43" s="3">
+      <c r="L43" s="3">
         <v>22709000</v>
       </c>
-      <c r="L43" s="3">
+      <c r="M43" s="3">
         <v>20287000</v>
       </c>
-      <c r="M43" s="3">
+      <c r="N43" s="3">
         <v>18796000</v>
       </c>
-      <c r="N43" s="3">
+      <c r="O43" s="3">
         <v>15020000</v>
       </c>
-      <c r="O43" s="3">
+      <c r="P43" s="3">
         <v>13393000</v>
       </c>
-      <c r="P43" s="3">
+      <c r="Q43" s="3">
         <v>13277000</v>
       </c>
-      <c r="Q43" s="3">
+      <c r="R43" s="3">
         <v>13397000</v>
       </c>
     </row>
-    <row r="44" spans="2:17" x14ac:dyDescent="0.2">
+    <row r="44" spans="2:18" x14ac:dyDescent="0.2">
       <c r="C44" s="1" t="s">
         <v>37</v>
       </c>
@@ -2241,55 +2337,61 @@
       <c r="Q44" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="45" spans="2:17" x14ac:dyDescent="0.2">
+      <c r="R44" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="45" spans="2:18" x14ac:dyDescent="0.2">
       <c r="C45" s="1" t="s">
         <v>38</v>
       </c>
       <c r="D45" s="3">
-        <v>8536000</v>
+        <v>0</v>
       </c>
       <c r="E45" s="3">
-        <v>8684000</v>
+        <v>0</v>
       </c>
       <c r="F45" s="3">
-        <v>7124000</v>
+        <v>0</v>
       </c>
       <c r="G45" s="3">
-        <v>5580000</v>
+        <v>0</v>
       </c>
       <c r="H45" s="3">
-        <v>3185000</v>
+        <v>0</v>
       </c>
       <c r="I45" s="3">
-        <v>3185000</v>
+        <v>0</v>
       </c>
       <c r="J45" s="3">
+        <v>0</v>
+      </c>
+      <c r="K45" s="3">
         <v>4609000</v>
       </c>
-      <c r="K45" s="3">
+      <c r="L45" s="3">
         <v>6863000</v>
       </c>
-      <c r="L45" s="3">
+      <c r="M45" s="3">
         <v>10136000</v>
       </c>
-      <c r="M45" s="3">
+      <c r="N45" s="3">
         <v>10446000</v>
       </c>
-      <c r="N45" s="3">
+      <c r="O45" s="3">
         <v>7328000</v>
       </c>
-      <c r="O45" s="3">
-        <v>0</v>
-      </c>
       <c r="P45" s="3">
         <v>0</v>
       </c>
       <c r="Q45" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="46" spans="2:17" x14ac:dyDescent="0.2">
+      <c r="R45" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="46" spans="2:18" x14ac:dyDescent="0.2">
       <c r="C46" s="1" t="s">
         <v>39</v>
       </c>
@@ -2335,149 +2437,161 @@
       <c r="Q46" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="47" spans="2:17" x14ac:dyDescent="0.2">
+      <c r="R46" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="47" spans="2:18" x14ac:dyDescent="0.2">
       <c r="C47" s="1" t="s">
         <v>40</v>
       </c>
       <c r="D47" s="3">
+        <v>2213000</v>
+      </c>
+      <c r="E47" s="3">
         <v>2156000</v>
       </c>
-      <c r="E47" s="3">
+      <c r="F47" s="3">
         <v>2200000</v>
       </c>
-      <c r="F47" s="3">
+      <c r="G47" s="3">
         <v>1447000</v>
       </c>
-      <c r="G47" s="3">
+      <c r="H47" s="3">
         <v>1053000</v>
       </c>
-      <c r="H47" s="3">
+      <c r="I47" s="3">
         <v>993000</v>
       </c>
-      <c r="I47" s="3">
+      <c r="J47" s="3">
         <v>640000</v>
       </c>
-      <c r="J47" s="3">
+      <c r="K47" s="3">
         <v>682000</v>
       </c>
-      <c r="K47" s="3">
+      <c r="L47" s="3">
         <v>901000</v>
       </c>
-      <c r="L47" s="3">
+      <c r="M47" s="3">
         <v>692000</v>
       </c>
-      <c r="M47" s="3">
+      <c r="N47" s="3">
         <v>1249000</v>
       </c>
-      <c r="N47" s="3">
+      <c r="O47" s="3">
         <v>1154000</v>
       </c>
-      <c r="O47" s="3">
+      <c r="P47" s="3">
         <v>9831000</v>
       </c>
-      <c r="P47" s="3">
+      <c r="Q47" s="3">
         <v>10187000</v>
       </c>
-      <c r="Q47" s="3">
+      <c r="R47" s="3">
         <v>9817000</v>
       </c>
     </row>
-    <row r="48" spans="2:17" x14ac:dyDescent="0.2">
+    <row r="48" spans="2:18" x14ac:dyDescent="0.2">
       <c r="C48" s="1" t="s">
         <v>41</v>
       </c>
       <c r="D48" s="3">
+        <v>1230000</v>
+      </c>
+      <c r="E48" s="3">
         <v>1235000</v>
       </c>
-      <c r="E48" s="3">
+      <c r="F48" s="3">
         <v>837000</v>
       </c>
-      <c r="F48" s="3">
+      <c r="G48" s="3">
         <v>833000</v>
       </c>
-      <c r="G48" s="3">
+      <c r="H48" s="3">
         <v>812000</v>
       </c>
-      <c r="H48" s="3">
+      <c r="I48" s="3">
         <v>797000</v>
       </c>
-      <c r="I48" s="3">
+      <c r="J48" s="3">
         <v>792000</v>
       </c>
-      <c r="J48" s="3">
+      <c r="K48" s="3">
         <v>778000</v>
       </c>
-      <c r="K48" s="3">
+      <c r="L48" s="3">
         <v>801000</v>
       </c>
-      <c r="L48" s="3">
+      <c r="M48" s="3">
         <v>780000</v>
       </c>
-      <c r="M48" s="3">
+      <c r="N48" s="3">
         <v>752000</v>
       </c>
-      <c r="N48" s="3">
+      <c r="O48" s="3">
         <v>592000</v>
       </c>
-      <c r="O48" s="3">
+      <c r="P48" s="3">
         <v>555000</v>
       </c>
-      <c r="P48" s="3">
+      <c r="Q48" s="3">
         <v>531000</v>
       </c>
-      <c r="Q48" s="3">
+      <c r="R48" s="3">
         <v>526000</v>
       </c>
     </row>
-    <row r="49" spans="3:17" x14ac:dyDescent="0.2">
+    <row r="49" spans="3:18" x14ac:dyDescent="0.2">
       <c r="C49" s="1" t="s">
         <v>42</v>
       </c>
       <c r="D49" s="3">
+        <v>5371000</v>
+      </c>
+      <c r="E49" s="3">
         <v>5401000</v>
       </c>
-      <c r="E49" s="3">
+      <c r="F49" s="3">
         <v>5431000</v>
       </c>
-      <c r="F49" s="3">
+      <c r="G49" s="3">
         <v>5463000</v>
       </c>
-      <c r="G49" s="3">
+      <c r="H49" s="3">
         <v>5494000</v>
       </c>
-      <c r="H49" s="3">
+      <c r="I49" s="3">
         <v>5525000</v>
       </c>
-      <c r="I49" s="3">
+      <c r="J49" s="3">
         <v>5556000</v>
       </c>
-      <c r="J49" s="3">
+      <c r="K49" s="3">
         <v>5561000</v>
       </c>
-      <c r="K49" s="3">
+      <c r="L49" s="3">
         <v>5597000</v>
       </c>
-      <c r="L49" s="3">
+      <c r="M49" s="3">
         <v>5629000</v>
       </c>
-      <c r="M49" s="3">
+      <c r="N49" s="3">
         <v>5683000</v>
       </c>
-      <c r="N49" s="3">
+      <c r="O49" s="3">
         <v>2985000</v>
       </c>
-      <c r="O49" s="3">
+      <c r="P49" s="3">
         <v>3004000</v>
       </c>
-      <c r="P49" s="3">
+      <c r="Q49" s="3">
         <v>3023000</v>
       </c>
-      <c r="Q49" s="3">
+      <c r="R49" s="3">
         <v>3042000</v>
       </c>
     </row>
-    <row r="50" spans="3:17" x14ac:dyDescent="0.2">
+    <row r="50" spans="3:18" x14ac:dyDescent="0.2">
       <c r="C50" s="1" t="s">
         <v>43</v>
       </c>
@@ -2523,8 +2637,11 @@
       <c r="Q50" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="51" spans="3:17" x14ac:dyDescent="0.2">
+      <c r="R50" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="51" spans="3:18" x14ac:dyDescent="0.2">
       <c r="C51" s="1" t="s">
         <v>44</v>
       </c>
@@ -2570,31 +2687,34 @@
       <c r="Q51" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="52" spans="3:17" x14ac:dyDescent="0.2">
+      <c r="R51" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="52" spans="3:18" x14ac:dyDescent="0.2">
       <c r="C52" s="1" t="s">
         <v>45</v>
       </c>
       <c r="D52" s="3">
-        <v>0</v>
+        <v>19501000</v>
       </c>
       <c r="E52" s="3">
-        <v>0</v>
+        <v>8536000</v>
       </c>
       <c r="F52" s="3">
-        <v>0</v>
+        <v>8684000</v>
       </c>
       <c r="G52" s="3">
-        <v>0</v>
+        <v>7124000</v>
       </c>
       <c r="H52" s="3">
-        <v>0</v>
+        <v>5580000</v>
       </c>
       <c r="I52" s="3">
-        <v>0</v>
+        <v>3185000</v>
       </c>
       <c r="J52" s="3">
-        <v>0</v>
+        <v>3185000</v>
       </c>
       <c r="K52" s="3">
         <v>0</v>
@@ -2617,8 +2737,11 @@
       <c r="Q52" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="53" spans="3:17" x14ac:dyDescent="0.2">
+      <c r="R52" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="53" spans="3:18" x14ac:dyDescent="0.2">
       <c r="C53" s="1" t="s">
         <v>46</v>
       </c>
@@ -2664,55 +2787,61 @@
       <c r="Q53" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="54" spans="3:17" x14ac:dyDescent="0.2">
+      <c r="R53" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="54" spans="3:18" x14ac:dyDescent="0.2">
       <c r="C54" s="1" t="s">
         <v>47</v>
       </c>
       <c r="D54" s="3">
+        <v>51005000</v>
+      </c>
+      <c r="E54" s="3">
         <v>43481000</v>
       </c>
-      <c r="E54" s="3">
+      <c r="F54" s="3">
         <v>43786000</v>
       </c>
-      <c r="F54" s="3">
+      <c r="G54" s="3">
         <v>41119000</v>
       </c>
-      <c r="G54" s="3">
+      <c r="H54" s="3">
         <v>38679000</v>
       </c>
-      <c r="H54" s="3">
+      <c r="I54" s="3">
         <v>37191000</v>
       </c>
-      <c r="I54" s="3">
+      <c r="J54" s="3">
         <v>37520000</v>
       </c>
-      <c r="J54" s="3">
+      <c r="K54" s="3">
         <v>37511000</v>
       </c>
-      <c r="K54" s="3">
+      <c r="L54" s="3">
         <v>38410000</v>
       </c>
-      <c r="L54" s="3">
+      <c r="M54" s="3">
         <v>39412000</v>
       </c>
-      <c r="M54" s="3">
+      <c r="N54" s="3">
         <v>38627000</v>
       </c>
-      <c r="N54" s="3">
+      <c r="O54" s="3">
         <v>30110000</v>
       </c>
-      <c r="O54" s="3">
+      <c r="P54" s="3">
         <v>29165000</v>
       </c>
-      <c r="P54" s="3">
+      <c r="Q54" s="3">
         <v>28834000</v>
       </c>
-      <c r="Q54" s="3">
+      <c r="R54" s="3">
         <v>28818000</v>
       </c>
     </row>
-    <row r="55" spans="3:17" x14ac:dyDescent="0.2">
+    <row r="55" spans="3:18" x14ac:dyDescent="0.2">
       <c r="C55" s="1" t="s">
         <v>48</v>
       </c>
@@ -2730,8 +2859,9 @@
       <c r="O55" s="3"/>
       <c r="P55" s="3"/>
       <c r="Q55" s="3"/>
-    </row>
-    <row r="56" spans="3:17" x14ac:dyDescent="0.2">
+      <c r="R55" s="3"/>
+    </row>
+    <row r="56" spans="3:18" x14ac:dyDescent="0.2">
       <c r="C56" s="1" t="s">
         <v>49</v>
       </c>
@@ -2749,63 +2879,67 @@
       <c r="O56" s="3"/>
       <c r="P56" s="3"/>
       <c r="Q56" s="3"/>
-    </row>
-    <row r="57" spans="3:17" x14ac:dyDescent="0.2">
+      <c r="R56" s="3"/>
+    </row>
+    <row r="57" spans="3:18" x14ac:dyDescent="0.2">
       <c r="C57" s="1" t="s">
         <v>50</v>
       </c>
       <c r="D57" s="3">
+        <v>36269000</v>
+      </c>
+      <c r="E57" s="3">
         <v>30550000</v>
       </c>
-      <c r="E57" s="3">
+      <c r="F57" s="3">
         <v>31264000</v>
       </c>
-      <c r="F57" s="3">
+      <c r="G57" s="3">
         <v>28833000</v>
       </c>
-      <c r="G57" s="3">
+      <c r="H57" s="3">
         <v>26621000</v>
       </c>
-      <c r="H57" s="3">
+      <c r="I57" s="3">
         <v>25139000</v>
       </c>
-      <c r="I57" s="3">
+      <c r="J57" s="3">
         <v>26805000</v>
       </c>
-      <c r="J57" s="3">
+      <c r="K57" s="3">
         <v>26859000</v>
       </c>
-      <c r="K57" s="3">
+      <c r="L57" s="3">
         <v>27889000</v>
       </c>
-      <c r="L57" s="3">
+      <c r="M57" s="3">
         <v>29119000</v>
       </c>
-      <c r="M57" s="3">
+      <c r="N57" s="3">
         <v>28535000</v>
       </c>
-      <c r="N57" s="3">
+      <c r="O57" s="3">
         <v>21821000</v>
       </c>
-      <c r="O57" s="3">
+      <c r="P57" s="3">
         <v>21806000</v>
       </c>
-      <c r="P57" s="3">
+      <c r="Q57" s="3">
         <v>21582000</v>
       </c>
-      <c r="Q57" s="3">
+      <c r="R57" s="3">
         <v>21669000</v>
       </c>
     </row>
-    <row r="58" spans="3:17" x14ac:dyDescent="0.2">
+    <row r="58" spans="3:18" x14ac:dyDescent="0.2">
       <c r="C58" s="1" t="s">
         <v>51</v>
       </c>
-      <c r="D58" s="3" t="s">
-        <v>5</v>
-      </c>
-      <c r="E58" s="3">
-        <v>0</v>
+      <c r="D58" s="3">
+        <v>1223000</v>
+      </c>
+      <c r="E58" s="3" t="s">
+        <v>5</v>
       </c>
       <c r="F58" s="3">
         <v>0</v>
@@ -2817,23 +2951,23 @@
         <v>0</v>
       </c>
       <c r="I58" s="3">
+        <v>0</v>
+      </c>
+      <c r="J58" s="3">
         <v>96000</v>
       </c>
-      <c r="J58" s="3">
+      <c r="K58" s="3">
         <v>97000</v>
       </c>
-      <c r="K58" s="3">
+      <c r="L58" s="3">
         <v>318000</v>
       </c>
-      <c r="L58" s="3">
+      <c r="M58" s="3">
         <v>147000</v>
       </c>
-      <c r="M58" s="3">
+      <c r="N58" s="3">
         <v>97000</v>
       </c>
-      <c r="N58" s="3" t="s">
-        <v>5</v>
-      </c>
       <c r="O58" s="3" t="s">
         <v>5</v>
       </c>
@@ -2843,17 +2977,20 @@
       <c r="Q58" s="3" t="s">
         <v>5</v>
       </c>
-    </row>
-    <row r="59" spans="3:17" x14ac:dyDescent="0.2">
+      <c r="R58" s="3" t="s">
+        <v>5</v>
+      </c>
+    </row>
+    <row r="59" spans="3:18" x14ac:dyDescent="0.2">
       <c r="C59" s="1" t="s">
         <v>52</v>
       </c>
       <c r="D59" s="3">
+        <v>360000</v>
+      </c>
+      <c r="E59" s="3">
         <v>373000</v>
       </c>
-      <c r="E59" s="3" t="s">
-        <v>5</v>
-      </c>
       <c r="F59" s="3" t="s">
         <v>5</v>
       </c>
@@ -2869,8 +3006,8 @@
       <c r="J59" s="3" t="s">
         <v>5</v>
       </c>
-      <c r="K59" s="3">
-        <v>0</v>
+      <c r="K59" s="3" t="s">
+        <v>5</v>
       </c>
       <c r="L59" s="3">
         <v>0</v>
@@ -2890,8 +3027,11 @@
       <c r="Q59" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="60" spans="3:17" x14ac:dyDescent="0.2">
+      <c r="R59" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="60" spans="3:18" x14ac:dyDescent="0.2">
       <c r="C60" s="1" t="s">
         <v>53</v>
       </c>
@@ -2937,102 +3077,111 @@
       <c r="Q60" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="61" spans="3:17" x14ac:dyDescent="0.2">
+      <c r="R60" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="61" spans="3:18" x14ac:dyDescent="0.2">
       <c r="C61" s="1" t="s">
         <v>54</v>
       </c>
       <c r="D61" s="3">
+        <v>3721000</v>
+      </c>
+      <c r="E61" s="3">
         <v>3555000</v>
       </c>
-      <c r="E61" s="3">
+      <c r="F61" s="3">
         <v>3594000</v>
       </c>
-      <c r="F61" s="3">
+      <c r="G61" s="3">
         <v>3574000</v>
       </c>
-      <c r="G61" s="3">
+      <c r="H61" s="3">
         <v>3520000</v>
       </c>
-      <c r="H61" s="3">
+      <c r="I61" s="3">
         <v>3484000</v>
       </c>
-      <c r="I61" s="3">
+      <c r="J61" s="3">
         <v>2439000</v>
       </c>
-      <c r="J61" s="3">
+      <c r="K61" s="3">
         <v>2456000</v>
       </c>
-      <c r="K61" s="3">
+      <c r="L61" s="3">
         <v>2477000</v>
       </c>
-      <c r="L61" s="3">
+      <c r="M61" s="3">
         <v>2531000</v>
       </c>
-      <c r="M61" s="3">
+      <c r="N61" s="3">
         <v>2555000</v>
       </c>
-      <c r="N61" s="3">
+      <c r="O61" s="3">
         <v>2561000</v>
       </c>
-      <c r="O61" s="3">
+      <c r="P61" s="3">
         <v>1765000</v>
       </c>
-      <c r="P61" s="3">
+      <c r="Q61" s="3">
         <v>1769000</v>
       </c>
-      <c r="Q61" s="3">
+      <c r="R61" s="3">
         <v>1817000</v>
       </c>
     </row>
-    <row r="62" spans="3:17" x14ac:dyDescent="0.2">
+    <row r="62" spans="3:18" x14ac:dyDescent="0.2">
       <c r="C62" s="1" t="s">
         <v>55</v>
       </c>
       <c r="D62" s="3">
+        <v>279000</v>
+      </c>
+      <c r="E62" s="3">
         <v>256000</v>
       </c>
-      <c r="E62" s="3">
+      <c r="F62" s="3">
         <v>228000</v>
       </c>
-      <c r="F62" s="3">
+      <c r="G62" s="3">
         <v>219000</v>
       </c>
-      <c r="G62" s="3">
+      <c r="H62" s="3">
         <v>215000</v>
       </c>
-      <c r="H62" s="3">
+      <c r="I62" s="3">
         <v>211000</v>
       </c>
-      <c r="I62" s="3">
+      <c r="J62" s="3">
         <v>177000</v>
       </c>
-      <c r="J62" s="3">
+      <c r="K62" s="3">
         <v>163000</v>
       </c>
-      <c r="K62" s="3">
+      <c r="L62" s="3">
         <v>131000</v>
       </c>
-      <c r="L62" s="3">
+      <c r="M62" s="3">
         <v>182000</v>
       </c>
-      <c r="M62" s="3">
+      <c r="N62" s="3">
         <v>193000</v>
       </c>
-      <c r="N62" s="3">
+      <c r="O62" s="3">
         <v>268000</v>
       </c>
-      <c r="O62" s="3">
+      <c r="P62" s="3">
         <v>269000</v>
       </c>
-      <c r="P62" s="3">
+      <c r="Q62" s="3">
         <v>284000</v>
       </c>
-      <c r="Q62" s="3">
+      <c r="R62" s="3">
         <v>281000</v>
       </c>
     </row>
-    <row r="63" spans="3:17" x14ac:dyDescent="0.2">
+    <row r="63" spans="3:18" x14ac:dyDescent="0.2">
       <c r="C63" s="1" t="s">
         <v>56</v>
       </c>
@@ -3078,8 +3227,11 @@
       <c r="Q63" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="64" spans="3:17" x14ac:dyDescent="0.2">
+      <c r="R63" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="64" spans="3:18" x14ac:dyDescent="0.2">
       <c r="C64" s="1" t="s">
         <v>20</v>
       </c>
@@ -3125,8 +3277,11 @@
       <c r="Q64" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="65" spans="2:17" x14ac:dyDescent="0.2">
+      <c r="R64" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="65" spans="2:18" x14ac:dyDescent="0.2">
       <c r="C65" s="1" t="s">
         <v>57</v>
       </c>
@@ -3172,55 +3327,61 @@
       <c r="Q65" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="66" spans="2:17" x14ac:dyDescent="0.2">
+      <c r="R65" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="66" spans="2:18" x14ac:dyDescent="0.2">
       <c r="C66" s="1" t="s">
         <v>58</v>
       </c>
       <c r="D66" s="3">
+        <v>41852000</v>
+      </c>
+      <c r="E66" s="3">
         <v>34734000</v>
       </c>
-      <c r="E66" s="3">
+      <c r="F66" s="3">
         <v>35086000</v>
       </c>
-      <c r="F66" s="3">
+      <c r="G66" s="3">
         <v>32626000</v>
       </c>
-      <c r="G66" s="3">
+      <c r="H66" s="3">
         <v>30356000</v>
       </c>
-      <c r="H66" s="3">
+      <c r="I66" s="3">
         <v>28834000</v>
       </c>
-      <c r="I66" s="3">
+      <c r="J66" s="3">
         <v>29517000</v>
       </c>
-      <c r="J66" s="3">
+      <c r="K66" s="3">
         <v>29575000</v>
       </c>
-      <c r="K66" s="3">
+      <c r="L66" s="3">
         <v>30815000</v>
       </c>
-      <c r="L66" s="3">
+      <c r="M66" s="3">
         <v>31979000</v>
       </c>
-      <c r="M66" s="3">
+      <c r="N66" s="3">
         <v>31380000</v>
       </c>
-      <c r="N66" s="3">
+      <c r="O66" s="3">
         <v>24650000</v>
       </c>
-      <c r="O66" s="3">
+      <c r="P66" s="3">
         <v>23840000</v>
       </c>
-      <c r="P66" s="3">
+      <c r="Q66" s="3">
         <v>23635000</v>
       </c>
-      <c r="Q66" s="3">
+      <c r="R66" s="3">
         <v>23767000</v>
       </c>
     </row>
-    <row r="67" spans="2:17" x14ac:dyDescent="0.2">
+    <row r="67" spans="2:18" x14ac:dyDescent="0.2">
       <c r="C67" s="1" t="s">
         <v>59</v>
       </c>
@@ -3238,8 +3399,9 @@
       <c r="O67" s="3"/>
       <c r="P67" s="3"/>
       <c r="Q67" s="3"/>
-    </row>
-    <row r="68" spans="2:17" x14ac:dyDescent="0.2">
+      <c r="R67" s="3"/>
+    </row>
+    <row r="68" spans="2:18" x14ac:dyDescent="0.2">
       <c r="C68" s="1" t="s">
         <v>60</v>
       </c>
@@ -3285,8 +3447,11 @@
       <c r="Q68" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="69" spans="2:17" x14ac:dyDescent="0.2">
+      <c r="R68" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="69" spans="2:18" x14ac:dyDescent="0.2">
       <c r="C69" s="1" t="s">
         <v>61</v>
       </c>
@@ -3332,8 +3497,11 @@
       <c r="Q69" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="70" spans="2:17" x14ac:dyDescent="0.2">
+      <c r="R69" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="70" spans="2:18" x14ac:dyDescent="0.2">
       <c r="C70" s="1" t="s">
         <v>62</v>
       </c>
@@ -3379,8 +3547,11 @@
       <c r="Q70" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="71" spans="2:17" x14ac:dyDescent="0.2">
+      <c r="R70" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="71" spans="2:18" x14ac:dyDescent="0.2">
       <c r="C71" s="1" t="s">
         <v>63</v>
       </c>
@@ -3426,55 +3597,61 @@
       <c r="Q71" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="72" spans="2:17" x14ac:dyDescent="0.2">
+      <c r="R71" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="72" spans="2:18" x14ac:dyDescent="0.2">
       <c r="C72" s="1" t="s">
         <v>64</v>
       </c>
       <c r="D72" s="3">
+        <v>9068000</v>
+      </c>
+      <c r="E72" s="3">
         <v>8790000</v>
       </c>
-      <c r="E72" s="3">
+      <c r="F72" s="3">
         <v>8580000</v>
       </c>
-      <c r="F72" s="3">
+      <c r="G72" s="3">
         <v>8194000</v>
       </c>
-      <c r="G72" s="3">
+      <c r="H72" s="3">
         <v>7805000</v>
       </c>
-      <c r="H72" s="3">
+      <c r="I72" s="3">
         <v>7475000</v>
       </c>
-      <c r="I72" s="3">
+      <c r="J72" s="3">
         <v>7011000</v>
       </c>
-      <c r="J72" s="3">
+      <c r="K72" s="3">
         <v>6673000</v>
       </c>
-      <c r="K72" s="3">
+      <c r="L72" s="3">
         <v>6341000</v>
       </c>
-      <c r="L72" s="3">
+      <c r="M72" s="3">
         <v>6189000</v>
       </c>
-      <c r="M72" s="3">
+      <c r="N72" s="3">
         <v>6011000</v>
       </c>
-      <c r="N72" s="3">
+      <c r="O72" s="3">
         <v>5895000</v>
       </c>
-      <c r="O72" s="3">
+      <c r="P72" s="3">
         <v>5759000</v>
       </c>
-      <c r="P72" s="3">
+      <c r="Q72" s="3">
         <v>5640000</v>
       </c>
-      <c r="Q72" s="3">
+      <c r="R72" s="3">
         <v>5518000</v>
       </c>
     </row>
-    <row r="73" spans="2:17" x14ac:dyDescent="0.2">
+    <row r="73" spans="2:18" x14ac:dyDescent="0.2">
       <c r="C73" s="1" t="s">
         <v>65</v>
       </c>
@@ -3520,8 +3697,11 @@
       <c r="Q73" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="74" spans="2:17" x14ac:dyDescent="0.2">
+      <c r="R73" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="74" spans="2:18" x14ac:dyDescent="0.2">
       <c r="C74" s="1" t="s">
         <v>66</v>
       </c>
@@ -3567,8 +3747,11 @@
       <c r="Q74" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="75" spans="2:17" x14ac:dyDescent="0.2">
+      <c r="R74" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="75" spans="2:18" x14ac:dyDescent="0.2">
       <c r="C75" s="1" t="s">
         <v>67</v>
       </c>
@@ -3614,55 +3797,61 @@
       <c r="Q75" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="76" spans="2:17" x14ac:dyDescent="0.2">
+      <c r="R75" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="76" spans="2:18" x14ac:dyDescent="0.2">
       <c r="C76" s="1" t="s">
         <v>68</v>
       </c>
       <c r="D76" s="3">
+        <v>9153000</v>
+      </c>
+      <c r="E76" s="3">
         <v>8747000</v>
       </c>
-      <c r="E76" s="3">
+      <c r="F76" s="3">
         <v>8700000</v>
       </c>
-      <c r="F76" s="3">
+      <c r="G76" s="3">
         <v>8493000</v>
       </c>
-      <c r="G76" s="3">
+      <c r="H76" s="3">
         <v>8323000</v>
       </c>
-      <c r="H76" s="3">
+      <c r="I76" s="3">
         <v>8357000</v>
       </c>
-      <c r="I76" s="3">
+      <c r="J76" s="3">
         <v>8003000</v>
       </c>
-      <c r="J76" s="3">
+      <c r="K76" s="3">
         <v>7936000</v>
       </c>
-      <c r="K76" s="3">
+      <c r="L76" s="3">
         <v>7595000</v>
       </c>
-      <c r="L76" s="3">
+      <c r="M76" s="3">
         <v>7433000</v>
       </c>
-      <c r="M76" s="3">
+      <c r="N76" s="3">
         <v>7247000</v>
       </c>
-      <c r="N76" s="3">
+      <c r="O76" s="3">
         <v>5460000</v>
       </c>
-      <c r="O76" s="3">
+      <c r="P76" s="3">
         <v>5325000</v>
       </c>
-      <c r="P76" s="3">
+      <c r="Q76" s="3">
         <v>5199000</v>
       </c>
-      <c r="Q76" s="3">
+      <c r="R76" s="3">
         <v>5051000</v>
       </c>
     </row>
-    <row r="77" spans="2:17" x14ac:dyDescent="0.2">
+    <row r="77" spans="2:18" x14ac:dyDescent="0.2">
       <c r="C77" s="1" t="s">
         <v>69</v>
       </c>
@@ -3708,107 +3897,116 @@
       <c r="Q77" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="79" spans="2:17" x14ac:dyDescent="0.2">
+      <c r="R77" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="79" spans="2:18" x14ac:dyDescent="0.2">
       <c r="B79" s="1" t="s">
         <v>70</v>
       </c>
     </row>
-    <row r="80" spans="2:17" x14ac:dyDescent="0.2">
+    <row r="80" spans="2:18" x14ac:dyDescent="0.2">
       <c r="C80" s="1" t="s">
         <v>2</v>
       </c>
       <c r="D80" s="2">
+        <v>43921</v>
+      </c>
+      <c r="E80" s="2">
         <v>43830</v>
       </c>
-      <c r="E80" s="2">
+      <c r="F80" s="2">
         <v>43738</v>
       </c>
-      <c r="F80" s="2">
+      <c r="G80" s="2">
         <v>43646</v>
       </c>
-      <c r="G80" s="2">
+      <c r="H80" s="2">
         <v>43555</v>
       </c>
-      <c r="H80" s="2">
+      <c r="I80" s="2">
         <v>43465</v>
       </c>
-      <c r="I80" s="2">
+      <c r="J80" s="2">
         <v>43373</v>
       </c>
-      <c r="J80" s="2">
+      <c r="K80" s="2">
         <v>43281</v>
       </c>
-      <c r="K80" s="2">
+      <c r="L80" s="2">
         <v>43190</v>
       </c>
-      <c r="L80" s="2">
+      <c r="M80" s="2">
         <v>43100</v>
       </c>
-      <c r="M80" s="2">
+      <c r="N80" s="2">
         <v>43008</v>
       </c>
-      <c r="N80" s="2">
+      <c r="O80" s="2">
         <v>42916</v>
       </c>
-      <c r="O80" s="2">
+      <c r="P80" s="2">
         <v>42825</v>
       </c>
-      <c r="P80" s="2">
+      <c r="Q80" s="2">
         <v>42735</v>
       </c>
-      <c r="Q80" s="2">
+      <c r="R80" s="2">
         <v>42643</v>
       </c>
     </row>
-    <row r="81" spans="3:17" x14ac:dyDescent="0.2">
+    <row r="81" spans="3:18" x14ac:dyDescent="0.2">
       <c r="C81" s="1" t="s">
         <v>28</v>
       </c>
       <c r="D81" s="3">
+        <v>446000</v>
+      </c>
+      <c r="E81" s="3">
         <v>379000</v>
       </c>
-      <c r="E81" s="3">
+      <c r="F81" s="3">
         <v>550000</v>
       </c>
-      <c r="F81" s="3">
+      <c r="G81" s="3">
         <v>555000</v>
       </c>
-      <c r="G81" s="3">
+      <c r="H81" s="3">
         <v>499000</v>
       </c>
-      <c r="H81" s="3">
+      <c r="I81" s="3">
         <v>604000</v>
       </c>
-      <c r="I81" s="3">
+      <c r="J81" s="3">
         <v>454000</v>
       </c>
-      <c r="J81" s="3">
+      <c r="K81" s="3">
         <v>451000</v>
       </c>
-      <c r="K81" s="3">
+      <c r="L81" s="3">
         <v>271000</v>
       </c>
-      <c r="L81" s="3">
+      <c r="M81" s="3">
         <v>297000</v>
       </c>
-      <c r="M81" s="3">
+      <c r="N81" s="3">
         <v>211000</v>
       </c>
-      <c r="N81" s="3">
+      <c r="O81" s="3">
         <v>231000</v>
       </c>
-      <c r="O81" s="3">
+      <c r="P81" s="3">
         <v>214000</v>
       </c>
-      <c r="P81" s="3">
+      <c r="Q81" s="3">
         <v>216000</v>
       </c>
-      <c r="Q81" s="3">
+      <c r="R81" s="3">
         <v>185000</v>
       </c>
     </row>
-    <row r="82" spans="3:17" x14ac:dyDescent="0.2">
+    <row r="82" spans="3:18" x14ac:dyDescent="0.2">
       <c r="C82" s="1" t="s">
         <v>71</v>
       </c>
@@ -3826,8 +4024,9 @@
       <c r="O82" s="3"/>
       <c r="P82" s="3"/>
       <c r="Q82" s="3"/>
-    </row>
-    <row r="83" spans="3:17" x14ac:dyDescent="0.2">
+      <c r="R82" s="3"/>
+    </row>
+    <row r="83" spans="3:18" x14ac:dyDescent="0.2">
       <c r="C83" s="1" t="s">
         <v>72</v>
       </c>
@@ -3835,46 +4034,49 @@
         <v>72000</v>
       </c>
       <c r="E83" s="3">
+        <v>72000</v>
+      </c>
+      <c r="F83" s="3">
         <v>71000</v>
       </c>
-      <c r="F83" s="3">
+      <c r="G83" s="3">
         <v>69000</v>
       </c>
-      <c r="G83" s="3">
+      <c r="H83" s="3">
         <v>67000</v>
       </c>
-      <c r="H83" s="3">
+      <c r="I83" s="3">
         <v>66000</v>
       </c>
-      <c r="I83" s="3">
+      <c r="J83" s="3">
         <v>70000</v>
       </c>
-      <c r="J83" s="3">
+      <c r="K83" s="3">
         <v>69000</v>
-      </c>
-      <c r="K83" s="3">
-        <v>72000</v>
       </c>
       <c r="L83" s="3">
         <v>72000</v>
       </c>
       <c r="M83" s="3">
+        <v>72000</v>
+      </c>
+      <c r="N83" s="3">
         <v>50000</v>
-      </c>
-      <c r="N83" s="3">
-        <v>44000</v>
       </c>
       <c r="O83" s="3">
         <v>44000</v>
       </c>
       <c r="P83" s="3">
+        <v>44000</v>
+      </c>
+      <c r="Q83" s="3">
         <v>43000</v>
       </c>
-      <c r="Q83" s="3">
+      <c r="R83" s="3">
         <v>45000</v>
       </c>
     </row>
-    <row r="84" spans="3:17" x14ac:dyDescent="0.2">
+    <row r="84" spans="3:18" x14ac:dyDescent="0.2">
       <c r="C84" s="1" t="s">
         <v>73</v>
       </c>
@@ -3920,8 +4122,11 @@
       <c r="Q84" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="85" spans="3:17" x14ac:dyDescent="0.2">
+      <c r="R84" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="85" spans="3:18" x14ac:dyDescent="0.2">
       <c r="C85" s="1" t="s">
         <v>74</v>
       </c>
@@ -3967,8 +4172,11 @@
       <c r="Q85" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="86" spans="3:17" x14ac:dyDescent="0.2">
+      <c r="R85" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="86" spans="3:18" x14ac:dyDescent="0.2">
       <c r="C86" s="1" t="s">
         <v>75</v>
       </c>
@@ -4014,8 +4222,11 @@
       <c r="Q86" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="87" spans="3:17" x14ac:dyDescent="0.2">
+      <c r="R86" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="87" spans="3:18" x14ac:dyDescent="0.2">
       <c r="C87" s="1" t="s">
         <v>76</v>
       </c>
@@ -4061,8 +4272,11 @@
       <c r="Q87" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="88" spans="3:17" x14ac:dyDescent="0.2">
+      <c r="R87" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="88" spans="3:18" x14ac:dyDescent="0.2">
       <c r="C88" s="1" t="s">
         <v>77</v>
       </c>
@@ -4108,55 +4322,61 @@
       <c r="Q88" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="89" spans="3:17" x14ac:dyDescent="0.2">
+      <c r="R88" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="89" spans="3:18" x14ac:dyDescent="0.2">
       <c r="C89" s="1" t="s">
         <v>78</v>
       </c>
       <c r="D89" s="3">
+        <v>10067000</v>
+      </c>
+      <c r="E89" s="3">
         <v>-473000</v>
       </c>
-      <c r="E89" s="3">
+      <c r="F89" s="3">
         <v>1847000</v>
       </c>
-      <c r="F89" s="3">
+      <c r="G89" s="3">
         <v>2438000</v>
       </c>
-      <c r="G89" s="3">
+      <c r="H89" s="3">
         <v>573000</v>
       </c>
-      <c r="H89" s="3">
+      <c r="I89" s="3">
         <v>2762000</v>
       </c>
-      <c r="I89" s="3">
+      <c r="J89" s="3">
         <v>1821000</v>
       </c>
-      <c r="J89" s="3">
+      <c r="K89" s="3">
         <v>349000</v>
       </c>
-      <c r="K89" s="3">
+      <c r="L89" s="3">
         <v>124000</v>
       </c>
-      <c r="L89" s="3">
+      <c r="M89" s="3">
         <v>-386000</v>
       </c>
-      <c r="M89" s="3">
+      <c r="N89" s="3">
         <v>23000</v>
       </c>
-      <c r="N89" s="3">
+      <c r="O89" s="3">
         <v>27000</v>
       </c>
-      <c r="O89" s="3">
+      <c r="P89" s="3">
         <v>718000</v>
       </c>
-      <c r="P89" s="3">
+      <c r="Q89" s="3">
         <v>-81000</v>
       </c>
-      <c r="Q89" s="3">
+      <c r="R89" s="3">
         <v>436000</v>
       </c>
     </row>
-    <row r="90" spans="3:17" x14ac:dyDescent="0.2">
+    <row r="90" spans="3:18" x14ac:dyDescent="0.2">
       <c r="C90" s="1" t="s">
         <v>79</v>
       </c>
@@ -4174,55 +4394,59 @@
       <c r="O90" s="3"/>
       <c r="P90" s="3"/>
       <c r="Q90" s="3"/>
-    </row>
-    <row r="91" spans="3:17" x14ac:dyDescent="0.2">
+      <c r="R90" s="3"/>
+    </row>
+    <row r="91" spans="3:18" x14ac:dyDescent="0.2">
       <c r="C91" s="1" t="s">
         <v>80</v>
       </c>
       <c r="D91" s="3">
+        <v>-53000</v>
+      </c>
+      <c r="E91" s="3">
         <v>-102000</v>
       </c>
-      <c r="E91" s="3">
+      <c r="F91" s="3">
         <v>-48000</v>
       </c>
-      <c r="F91" s="3">
+      <c r="G91" s="3">
         <v>-59000</v>
       </c>
-      <c r="G91" s="3">
+      <c r="H91" s="3">
         <v>-48000</v>
       </c>
-      <c r="H91" s="3">
+      <c r="I91" s="3">
         <v>-44000</v>
       </c>
-      <c r="I91" s="3">
+      <c r="J91" s="3">
         <v>-63000</v>
       </c>
-      <c r="J91" s="3">
+      <c r="K91" s="3">
         <v>-47000</v>
       </c>
-      <c r="K91" s="3">
+      <c r="L91" s="3">
         <v>-56000</v>
       </c>
-      <c r="L91" s="3">
+      <c r="M91" s="3">
         <v>-63000</v>
       </c>
-      <c r="M91" s="3">
+      <c r="N91" s="3">
         <v>-56000</v>
       </c>
-      <c r="N91" s="3">
+      <c r="O91" s="3">
         <v>-62000</v>
       </c>
-      <c r="O91" s="3">
+      <c r="P91" s="3">
         <v>-100000</v>
       </c>
-      <c r="P91" s="3">
+      <c r="Q91" s="3">
         <v>-58000</v>
       </c>
-      <c r="Q91" s="3">
+      <c r="R91" s="3">
         <v>-27000</v>
       </c>
     </row>
-    <row r="92" spans="3:17" x14ac:dyDescent="0.2">
+    <row r="92" spans="3:18" x14ac:dyDescent="0.2">
       <c r="C92" s="1" t="s">
         <v>81</v>
       </c>
@@ -4268,8 +4492,11 @@
       <c r="Q92" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="93" spans="3:17" x14ac:dyDescent="0.2">
+      <c r="R92" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="93" spans="3:18" x14ac:dyDescent="0.2">
       <c r="C93" s="1" t="s">
         <v>82</v>
       </c>
@@ -4315,55 +4542,61 @@
       <c r="Q93" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="94" spans="3:17" x14ac:dyDescent="0.2">
+      <c r="R93" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="94" spans="3:18" x14ac:dyDescent="0.2">
       <c r="C94" s="1" t="s">
         <v>83</v>
       </c>
       <c r="D94" s="3">
+        <v>-51000</v>
+      </c>
+      <c r="E94" s="3">
         <v>-106000</v>
       </c>
-      <c r="E94" s="3">
+      <c r="F94" s="3">
         <v>-543000</v>
       </c>
-      <c r="F94" s="3">
+      <c r="G94" s="3">
         <v>-195000</v>
       </c>
-      <c r="G94" s="3">
+      <c r="H94" s="3">
         <v>-48000</v>
       </c>
-      <c r="H94" s="3">
+      <c r="I94" s="3">
         <v>-426000</v>
       </c>
-      <c r="I94" s="3">
+      <c r="J94" s="3">
         <v>-66000</v>
       </c>
-      <c r="J94" s="3">
+      <c r="K94" s="3">
         <v>-35000</v>
       </c>
-      <c r="K94" s="3">
+      <c r="L94" s="3">
         <v>-440000</v>
       </c>
-      <c r="L94" s="3">
+      <c r="M94" s="3">
         <v>633000</v>
       </c>
-      <c r="M94" s="3">
+      <c r="N94" s="3">
         <v>-1406000</v>
       </c>
-      <c r="N94" s="3">
+      <c r="O94" s="3">
         <v>-62000</v>
       </c>
-      <c r="O94" s="3">
+      <c r="P94" s="3">
         <v>-50000</v>
       </c>
-      <c r="P94" s="3">
+      <c r="Q94" s="3">
         <v>-29000</v>
       </c>
-      <c r="Q94" s="3">
+      <c r="R94" s="3">
         <v>-384000</v>
       </c>
     </row>
-    <row r="95" spans="3:17" x14ac:dyDescent="0.2">
+    <row r="95" spans="3:18" x14ac:dyDescent="0.2">
       <c r="C95" s="1" t="s">
         <v>84</v>
       </c>
@@ -4381,31 +4614,32 @@
       <c r="O95" s="3"/>
       <c r="P95" s="3"/>
       <c r="Q95" s="3"/>
-    </row>
-    <row r="96" spans="3:17" x14ac:dyDescent="0.2">
+      <c r="R95" s="3"/>
+    </row>
+    <row r="96" spans="3:18" x14ac:dyDescent="0.2">
       <c r="C96" s="1" t="s">
         <v>85</v>
       </c>
       <c r="D96" s="3">
+        <v>-167000</v>
+      </c>
+      <c r="E96" s="3">
         <v>-168000</v>
       </c>
-      <c r="E96" s="3">
+      <c r="F96" s="3">
         <v>-164000</v>
       </c>
-      <c r="F96" s="3">
+      <c r="G96" s="3">
         <v>-166000</v>
       </c>
-      <c r="G96" s="3">
+      <c r="H96" s="3">
         <v>-169000</v>
       </c>
-      <c r="H96" s="3">
+      <c r="I96" s="3">
         <v>-168000</v>
       </c>
-      <c r="I96" s="3">
+      <c r="J96" s="3">
         <v>-120000</v>
-      </c>
-      <c r="J96" s="3">
-        <v>-119000</v>
       </c>
       <c r="K96" s="3">
         <v>-119000</v>
@@ -4414,10 +4648,10 @@
         <v>-119000</v>
       </c>
       <c r="M96" s="3">
+        <v>-119000</v>
+      </c>
+      <c r="N96" s="3">
         <v>-94000</v>
-      </c>
-      <c r="N96" s="3">
-        <v>-95000</v>
       </c>
       <c r="O96" s="3">
         <v>-95000</v>
@@ -4426,10 +4660,13 @@
         <v>-95000</v>
       </c>
       <c r="Q96" s="3">
+        <v>-95000</v>
+      </c>
+      <c r="R96" s="3">
         <v>-90000</v>
       </c>
     </row>
-    <row r="97" spans="3:17" x14ac:dyDescent="0.2">
+    <row r="97" spans="3:18" x14ac:dyDescent="0.2">
       <c r="C97" s="1" t="s">
         <v>86</v>
       </c>
@@ -4475,8 +4712,11 @@
       <c r="Q97" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="98" spans="3:17" x14ac:dyDescent="0.2">
+      <c r="R97" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="98" spans="3:18" x14ac:dyDescent="0.2">
       <c r="C98" s="1" t="s">
         <v>87</v>
       </c>
@@ -4522,8 +4762,11 @@
       <c r="Q98" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="99" spans="3:17" x14ac:dyDescent="0.2">
+      <c r="R98" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="99" spans="3:18" x14ac:dyDescent="0.2">
       <c r="C99" s="1" t="s">
         <v>88</v>
       </c>
@@ -4569,55 +4812,61 @@
       <c r="Q99" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="100" spans="3:17" x14ac:dyDescent="0.2">
+      <c r="R99" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="100" spans="3:18" x14ac:dyDescent="0.2">
       <c r="C100" s="1" t="s">
         <v>89</v>
       </c>
       <c r="D100" s="3">
+        <v>1047000</v>
+      </c>
+      <c r="E100" s="3">
         <v>-323000</v>
       </c>
-      <c r="E100" s="3">
+      <c r="F100" s="3">
         <v>-396000</v>
       </c>
-      <c r="F100" s="3">
+      <c r="G100" s="3">
         <v>-409000</v>
       </c>
-      <c r="G100" s="3">
+      <c r="H100" s="3">
         <v>-552000</v>
       </c>
-      <c r="H100" s="3">
+      <c r="I100" s="3">
         <v>594000</v>
       </c>
-      <c r="I100" s="3">
+      <c r="J100" s="3">
         <v>-408000</v>
       </c>
-      <c r="J100" s="3">
+      <c r="K100" s="3">
         <v>-344000</v>
       </c>
-      <c r="K100" s="3">
+      <c r="L100" s="3">
         <v>45000</v>
       </c>
-      <c r="L100" s="3">
+      <c r="M100" s="3">
         <v>-75000</v>
       </c>
-      <c r="M100" s="3">
+      <c r="N100" s="3">
         <v>-37000</v>
       </c>
-      <c r="N100" s="3">
+      <c r="O100" s="3">
         <v>685000</v>
       </c>
-      <c r="O100" s="3">
+      <c r="P100" s="3">
         <v>-97000</v>
       </c>
-      <c r="P100" s="3">
+      <c r="Q100" s="3">
         <v>-74000</v>
       </c>
-      <c r="Q100" s="3">
+      <c r="R100" s="3">
         <v>-114000</v>
       </c>
     </row>
-    <row r="101" spans="3:17" x14ac:dyDescent="0.2">
+    <row r="101" spans="3:18" x14ac:dyDescent="0.2">
       <c r="C101" s="1" t="s">
         <v>90</v>
       </c>
@@ -4663,51 +4912,57 @@
       <c r="Q101" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="102" spans="3:17" x14ac:dyDescent="0.2">
+      <c r="R101" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="102" spans="3:18" x14ac:dyDescent="0.2">
       <c r="C102" s="1" t="s">
         <v>91</v>
       </c>
       <c r="D102" s="3">
+        <v>11063000</v>
+      </c>
+      <c r="E102" s="3">
         <v>-902000</v>
       </c>
-      <c r="E102" s="3">
+      <c r="F102" s="3">
         <v>908000</v>
       </c>
-      <c r="F102" s="3">
+      <c r="G102" s="3">
         <v>1834000</v>
       </c>
-      <c r="G102" s="3">
+      <c r="H102" s="3">
         <v>-27000</v>
       </c>
-      <c r="H102" s="3">
+      <c r="I102" s="3">
         <v>2930000</v>
       </c>
-      <c r="I102" s="3">
+      <c r="J102" s="3">
         <v>1347000</v>
       </c>
-      <c r="J102" s="3">
+      <c r="K102" s="3">
         <v>-30000</v>
       </c>
-      <c r="K102" s="3">
+      <c r="L102" s="3">
         <v>-271000</v>
       </c>
-      <c r="L102" s="3">
+      <c r="M102" s="3">
         <v>172000</v>
       </c>
-      <c r="M102" s="3">
+      <c r="N102" s="3">
         <v>-1408000</v>
       </c>
-      <c r="N102" s="3">
+      <c r="O102" s="3">
         <v>649000</v>
       </c>
-      <c r="O102" s="3">
+      <c r="P102" s="3">
         <v>569000</v>
       </c>
-      <c r="P102" s="3">
+      <c r="Q102" s="3">
         <v>-193000</v>
       </c>
-      <c r="Q102" s="3">
+      <c r="R102" s="3">
         <v>-62000</v>
       </c>
     </row>

--- a/AAII_Financials/Quarterly/AMTD_QTR_FIN.xlsx
+++ b/AAII_Financials/Quarterly/AMTD_QTR_FIN.xlsx
@@ -22,7 +22,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="170" uniqueCount="92">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="168" uniqueCount="92">
   <si>
     <t>AMTD</t>
   </si>
@@ -656,7 +656,7 @@
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
   <sheetPr codeName="Sheet2"/>
-  <dimension ref="A5:R102"/>
+  <dimension ref="A5:S102"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0"/>
   </sheetViews>
@@ -665,154 +665,161 @@
     <col min="1" max="1" width="7.85546875" style="1" bestFit="1" customWidth="1"/>
     <col min="2" max="2" width="26.85546875" style="1" bestFit="1" customWidth="1"/>
     <col min="3" max="3" width="69.140625" style="1" bestFit="1" customWidth="1"/>
-    <col min="4" max="4" width="14.85546875" style="1" bestFit="1" customWidth="1"/>
-    <col min="5" max="6" width="14.7109375" style="1" bestFit="1" customWidth="1"/>
-    <col min="7" max="7" width="14.5703125" style="1" bestFit="1" customWidth="1"/>
-    <col min="8" max="8" width="14.85546875" style="1" bestFit="1" customWidth="1"/>
-    <col min="9" max="10" width="14.7109375" style="1" bestFit="1" customWidth="1"/>
-    <col min="11" max="11" width="14.5703125" style="1" bestFit="1" customWidth="1"/>
-    <col min="12" max="12" width="14.85546875" style="1" bestFit="1" customWidth="1"/>
-    <col min="13" max="14" width="14.7109375" style="1" bestFit="1" customWidth="1"/>
-    <col min="15" max="15" width="14.5703125" style="1" bestFit="1" customWidth="1"/>
-    <col min="16" max="16" width="14.85546875" style="1" bestFit="1" customWidth="1"/>
-    <col min="17" max="18" width="14.7109375" style="1" bestFit="1" customWidth="1"/>
-    <col min="19" max="16384" width="9.140625" style="1"/>
+    <col min="4" max="4" width="14.5703125" style="1" bestFit="1" customWidth="1"/>
+    <col min="5" max="5" width="14.85546875" style="1" bestFit="1" customWidth="1"/>
+    <col min="6" max="7" width="14.7109375" style="1" bestFit="1" customWidth="1"/>
+    <col min="8" max="8" width="14.5703125" style="1" bestFit="1" customWidth="1"/>
+    <col min="9" max="9" width="14.85546875" style="1" bestFit="1" customWidth="1"/>
+    <col min="10" max="11" width="14.7109375" style="1" bestFit="1" customWidth="1"/>
+    <col min="12" max="12" width="14.5703125" style="1" bestFit="1" customWidth="1"/>
+    <col min="13" max="13" width="14.85546875" style="1" bestFit="1" customWidth="1"/>
+    <col min="14" max="15" width="14.7109375" style="1" bestFit="1" customWidth="1"/>
+    <col min="16" max="16" width="14.5703125" style="1" bestFit="1" customWidth="1"/>
+    <col min="17" max="17" width="14.85546875" style="1" bestFit="1" customWidth="1"/>
+    <col min="18" max="19" width="14.7109375" style="1" bestFit="1" customWidth="1"/>
+    <col min="20" max="16384" width="9.140625" style="1"/>
   </cols>
   <sheetData>
-    <row r="5" spans="1:18" x14ac:dyDescent="0.2">
+    <row r="5" spans="1:19" x14ac:dyDescent="0.2">
       <c r="A5" s="1" t="s">
         <v>0</v>
       </c>
     </row>
-    <row r="6" spans="1:18" x14ac:dyDescent="0.2">
+    <row r="6" spans="1:19" x14ac:dyDescent="0.2">
       <c r="B6" s="1" t="s">
         <v>1</v>
       </c>
     </row>
-    <row r="7" spans="1:18" x14ac:dyDescent="0.2">
+    <row r="7" spans="1:19" x14ac:dyDescent="0.2">
       <c r="C7" s="1" t="s">
         <v>2</v>
       </c>
       <c r="D7" s="2">
+        <v>44012</v>
+      </c>
+      <c r="E7" s="2">
         <v>43921</v>
       </c>
-      <c r="E7" s="2">
+      <c r="F7" s="2">
         <v>43830</v>
       </c>
-      <c r="F7" s="2">
+      <c r="G7" s="2">
         <v>43738</v>
       </c>
-      <c r="G7" s="2">
+      <c r="H7" s="2">
         <v>43646</v>
       </c>
-      <c r="H7" s="2">
+      <c r="I7" s="2">
         <v>43555</v>
       </c>
-      <c r="I7" s="2">
+      <c r="J7" s="2">
         <v>43465</v>
       </c>
-      <c r="J7" s="2">
+      <c r="K7" s="2">
         <v>43373</v>
       </c>
-      <c r="K7" s="2">
+      <c r="L7" s="2">
         <v>43281</v>
       </c>
-      <c r="L7" s="2">
+      <c r="M7" s="2">
         <v>43190</v>
       </c>
-      <c r="M7" s="2">
+      <c r="N7" s="2">
         <v>43100</v>
       </c>
-      <c r="N7" s="2">
+      <c r="O7" s="2">
         <v>43008</v>
       </c>
-      <c r="O7" s="2">
+      <c r="P7" s="2">
         <v>42916</v>
       </c>
-      <c r="P7" s="2">
+      <c r="Q7" s="2">
         <v>42825</v>
       </c>
-      <c r="Q7" s="2">
+      <c r="R7" s="2">
         <v>42735</v>
       </c>
-      <c r="R7" s="2">
+      <c r="S7" s="2">
         <v>42643</v>
       </c>
     </row>
-    <row r="8" spans="1:18" x14ac:dyDescent="0.2">
+    <row r="8" spans="1:19" x14ac:dyDescent="0.2">
       <c r="C8" s="1" t="s">
         <v>3</v>
       </c>
       <c r="D8" s="3">
+        <v>1586000</v>
+      </c>
+      <c r="E8" s="3">
         <v>1480000</v>
       </c>
-      <c r="E8" s="3">
+      <c r="F8" s="3">
         <v>1291000</v>
       </c>
-      <c r="F8" s="3">
+      <c r="G8" s="3">
         <v>1559000</v>
       </c>
-      <c r="G8" s="3">
+      <c r="H8" s="3">
         <v>1491000</v>
       </c>
-      <c r="H8" s="3">
+      <c r="I8" s="3">
         <v>1451000</v>
       </c>
-      <c r="I8" s="3">
+      <c r="J8" s="3">
         <v>1516000</v>
       </c>
-      <c r="J8" s="3">
+      <c r="K8" s="3">
         <v>1398000</v>
       </c>
-      <c r="K8" s="3">
+      <c r="L8" s="3">
         <v>1382000</v>
       </c>
-      <c r="L8" s="3">
+      <c r="M8" s="3">
         <v>1415000</v>
       </c>
-      <c r="M8" s="3">
+      <c r="N8" s="3">
         <v>1257000</v>
       </c>
-      <c r="N8" s="3">
+      <c r="O8" s="3">
         <v>983000</v>
       </c>
-      <c r="O8" s="3">
+      <c r="P8" s="3">
         <v>931000</v>
       </c>
-      <c r="P8" s="3">
+      <c r="Q8" s="3">
         <v>904000</v>
       </c>
-      <c r="Q8" s="3">
+      <c r="R8" s="3">
         <v>859000</v>
       </c>
-      <c r="R8" s="3">
+      <c r="S8" s="3">
         <v>830000</v>
       </c>
     </row>
-    <row r="9" spans="1:18" x14ac:dyDescent="0.2">
+    <row r="9" spans="1:19" x14ac:dyDescent="0.2">
       <c r="C9" s="1" t="s">
         <v>4</v>
       </c>
-      <c r="D9" s="3" t="s">
-        <v>5</v>
-      </c>
-      <c r="E9" s="3" t="s">
-        <v>5</v>
-      </c>
-      <c r="F9" s="3" t="s">
-        <v>5</v>
-      </c>
-      <c r="G9" s="3" t="s">
-        <v>5</v>
-      </c>
-      <c r="H9" s="3" t="s">
-        <v>5</v>
-      </c>
-      <c r="I9" s="3" t="s">
-        <v>5</v>
-      </c>
-      <c r="J9" s="3" t="s">
-        <v>5</v>
+      <c r="D9" s="3">
+        <v>88000</v>
+      </c>
+      <c r="E9" s="3">
+        <v>75000</v>
+      </c>
+      <c r="F9" s="3">
+        <v>50000</v>
+      </c>
+      <c r="G9" s="3">
+        <v>48000</v>
+      </c>
+      <c r="H9" s="3">
+        <v>59000</v>
+      </c>
+      <c r="I9" s="3">
+        <v>53000</v>
+      </c>
+      <c r="J9" s="3">
+        <v>49000</v>
       </c>
       <c r="K9" s="3" t="s">
         <v>5</v>
@@ -838,31 +845,34 @@
       <c r="R9" s="3" t="s">
         <v>5</v>
       </c>
-    </row>
-    <row r="10" spans="1:18" x14ac:dyDescent="0.2">
+      <c r="S9" s="3" t="s">
+        <v>5</v>
+      </c>
+    </row>
+    <row r="10" spans="1:19" x14ac:dyDescent="0.2">
       <c r="C10" s="1" t="s">
         <v>6</v>
       </c>
-      <c r="D10" s="3" t="s">
-        <v>5</v>
-      </c>
-      <c r="E10" s="3" t="s">
-        <v>5</v>
-      </c>
-      <c r="F10" s="3" t="s">
-        <v>5</v>
-      </c>
-      <c r="G10" s="3" t="s">
-        <v>5</v>
-      </c>
-      <c r="H10" s="3" t="s">
-        <v>5</v>
-      </c>
-      <c r="I10" s="3" t="s">
-        <v>5</v>
-      </c>
-      <c r="J10" s="3" t="s">
-        <v>5</v>
+      <c r="D10" s="3">
+        <v>1498000</v>
+      </c>
+      <c r="E10" s="3">
+        <v>1405000</v>
+      </c>
+      <c r="F10" s="3">
+        <v>1241000</v>
+      </c>
+      <c r="G10" s="3">
+        <v>1511000</v>
+      </c>
+      <c r="H10" s="3">
+        <v>1432000</v>
+      </c>
+      <c r="I10" s="3">
+        <v>1398000</v>
+      </c>
+      <c r="J10" s="3">
+        <v>1467000</v>
       </c>
       <c r="K10" s="3" t="s">
         <v>5</v>
@@ -888,8 +898,11 @@
       <c r="R10" s="3" t="s">
         <v>5</v>
       </c>
-    </row>
-    <row r="11" spans="1:18" x14ac:dyDescent="0.2">
+      <c r="S10" s="3" t="s">
+        <v>5</v>
+      </c>
+    </row>
+    <row r="11" spans="1:19" x14ac:dyDescent="0.2">
       <c r="C11" s="1" t="s">
         <v>7</v>
       </c>
@@ -908,8 +921,9 @@
       <c r="P11" s="3"/>
       <c r="Q11" s="3"/>
       <c r="R11" s="3"/>
-    </row>
-    <row r="12" spans="1:18" x14ac:dyDescent="0.2">
+      <c r="S11" s="3"/>
+    </row>
+    <row r="12" spans="1:19" x14ac:dyDescent="0.2">
       <c r="C12" s="1" t="s">
         <v>8</v>
       </c>
@@ -958,8 +972,11 @@
       <c r="R12" s="3" t="s">
         <v>5</v>
       </c>
-    </row>
-    <row r="13" spans="1:18" x14ac:dyDescent="0.2">
+      <c r="S12" s="3" t="s">
+        <v>5</v>
+      </c>
+    </row>
+    <row r="13" spans="1:19" x14ac:dyDescent="0.2">
       <c r="C13" s="1" t="s">
         <v>9</v>
       </c>
@@ -1008,108 +1025,117 @@
       <c r="R13" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="14" spans="1:18" x14ac:dyDescent="0.2">
+      <c r="S13" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="14" spans="1:19" x14ac:dyDescent="0.2">
       <c r="C14" s="1" t="s">
         <v>10</v>
       </c>
       <c r="D14" s="3">
+        <v>10000</v>
+      </c>
+      <c r="E14" s="3">
         <v>8000</v>
       </c>
-      <c r="E14" s="3">
+      <c r="F14" s="3">
         <v>25000</v>
       </c>
-      <c r="F14" s="3">
-        <v>0</v>
-      </c>
       <c r="G14" s="3">
+        <v>0</v>
+      </c>
+      <c r="H14" s="3">
         <v>-60000</v>
       </c>
-      <c r="H14" s="3" t="s">
-        <v>5</v>
-      </c>
       <c r="I14" s="3" t="s">
         <v>5</v>
       </c>
-      <c r="J14" s="3">
+      <c r="J14" s="3" t="s">
+        <v>5</v>
+      </c>
+      <c r="K14" s="3">
         <v>1000</v>
       </c>
-      <c r="K14" s="3" t="s">
-        <v>5</v>
-      </c>
       <c r="L14" s="3" t="s">
         <v>5</v>
       </c>
       <c r="M14" s="3" t="s">
         <v>5</v>
       </c>
-      <c r="N14" s="3">
-        <v>0</v>
+      <c r="N14" s="3" t="s">
+        <v>5</v>
       </c>
       <c r="O14" s="3">
+        <v>0</v>
+      </c>
+      <c r="P14" s="3">
         <v>1000</v>
       </c>
-      <c r="P14" s="3" t="s">
-        <v>5</v>
-      </c>
       <c r="Q14" s="3" t="s">
         <v>5</v>
       </c>
       <c r="R14" s="3" t="s">
         <v>5</v>
       </c>
-    </row>
-    <row r="15" spans="1:18" x14ac:dyDescent="0.2">
+      <c r="S14" s="3" t="s">
+        <v>5</v>
+      </c>
+    </row>
+    <row r="15" spans="1:19" x14ac:dyDescent="0.2">
       <c r="C15" s="1" t="s">
         <v>11</v>
       </c>
       <c r="D15" s="3">
+        <v>72000</v>
+      </c>
+      <c r="E15" s="3">
         <v>73000</v>
       </c>
-      <c r="E15" s="3">
+      <c r="F15" s="3">
         <v>72000</v>
       </c>
-      <c r="F15" s="3">
+      <c r="G15" s="3">
         <v>71000</v>
       </c>
-      <c r="G15" s="3">
+      <c r="H15" s="3">
         <v>69000</v>
       </c>
-      <c r="H15" s="3">
+      <c r="I15" s="3">
         <v>67000</v>
       </c>
-      <c r="I15" s="3">
+      <c r="J15" s="3">
         <v>66000</v>
       </c>
-      <c r="J15" s="3">
+      <c r="K15" s="3">
         <v>70000</v>
       </c>
-      <c r="K15" s="3">
+      <c r="L15" s="3">
         <v>69000</v>
-      </c>
-      <c r="L15" s="3">
-        <v>72000</v>
       </c>
       <c r="M15" s="3">
         <v>72000</v>
       </c>
       <c r="N15" s="3">
+        <v>72000</v>
+      </c>
+      <c r="O15" s="3">
         <v>50000</v>
-      </c>
-      <c r="O15" s="3">
-        <v>44000</v>
       </c>
       <c r="P15" s="3">
         <v>44000</v>
       </c>
       <c r="Q15" s="3">
+        <v>44000</v>
+      </c>
+      <c r="R15" s="3">
         <v>43000</v>
       </c>
-      <c r="R15" s="3">
+      <c r="S15" s="3">
         <v>45000</v>
       </c>
     </row>
-    <row r="16" spans="1:18" x14ac:dyDescent="0.2">
+    <row r="16" spans="1:19" x14ac:dyDescent="0.2">
       <c r="D16" s="3"/>
       <c r="E16" s="3"/>
       <c r="F16" s="3"/>
@@ -1125,108 +1151,115 @@
       <c r="P16" s="3"/>
       <c r="Q16" s="3"/>
       <c r="R16" s="3"/>
-    </row>
-    <row r="17" spans="3:18" x14ac:dyDescent="0.2">
+      <c r="S16" s="3"/>
+    </row>
+    <row r="17" spans="3:19" x14ac:dyDescent="0.2">
       <c r="C17" s="1" t="s">
         <v>12</v>
       </c>
       <c r="D17" s="3">
+        <v>808000</v>
+      </c>
+      <c r="E17" s="3">
         <v>849000</v>
       </c>
-      <c r="E17" s="3">
+      <c r="F17" s="3">
         <v>770000</v>
       </c>
-      <c r="F17" s="3">
+      <c r="G17" s="3">
         <v>779000</v>
       </c>
-      <c r="G17" s="3">
+      <c r="H17" s="3">
         <v>711000</v>
       </c>
-      <c r="H17" s="3">
+      <c r="I17" s="3">
         <v>746000</v>
       </c>
-      <c r="I17" s="3">
+      <c r="J17" s="3">
         <v>720000</v>
       </c>
-      <c r="J17" s="3">
+      <c r="K17" s="3">
         <v>764000</v>
       </c>
-      <c r="K17" s="3">
+      <c r="L17" s="3">
         <v>751000</v>
       </c>
-      <c r="L17" s="3">
+      <c r="M17" s="3">
         <v>1019000</v>
       </c>
-      <c r="M17" s="3">
+      <c r="N17" s="3">
         <v>921000</v>
       </c>
-      <c r="N17" s="3">
+      <c r="O17" s="3">
         <v>622000</v>
       </c>
-      <c r="O17" s="3">
+      <c r="P17" s="3">
         <v>538000</v>
       </c>
-      <c r="P17" s="3">
+      <c r="Q17" s="3">
         <v>546000</v>
       </c>
-      <c r="Q17" s="3">
+      <c r="R17" s="3">
         <v>506000</v>
       </c>
-      <c r="R17" s="3">
+      <c r="S17" s="3">
         <v>546000</v>
       </c>
     </row>
-    <row r="18" spans="3:18" x14ac:dyDescent="0.2">
+    <row r="18" spans="3:19" x14ac:dyDescent="0.2">
       <c r="C18" s="1" t="s">
         <v>13</v>
       </c>
       <c r="D18" s="3">
+        <v>778000</v>
+      </c>
+      <c r="E18" s="3">
         <v>631000</v>
       </c>
-      <c r="E18" s="3">
+      <c r="F18" s="3">
         <v>521000</v>
-      </c>
-      <c r="F18" s="3">
-        <v>780000</v>
       </c>
       <c r="G18" s="3">
         <v>780000</v>
       </c>
       <c r="H18" s="3">
+        <v>780000</v>
+      </c>
+      <c r="I18" s="3">
         <v>705000</v>
       </c>
-      <c r="I18" s="3">
+      <c r="J18" s="3">
         <v>796000</v>
       </c>
-      <c r="J18" s="3">
+      <c r="K18" s="3">
         <v>634000</v>
       </c>
-      <c r="K18" s="3">
+      <c r="L18" s="3">
         <v>631000</v>
       </c>
-      <c r="L18" s="3">
+      <c r="M18" s="3">
         <v>396000</v>
       </c>
-      <c r="M18" s="3">
+      <c r="N18" s="3">
         <v>336000</v>
       </c>
-      <c r="N18" s="3">
+      <c r="O18" s="3">
         <v>361000</v>
       </c>
-      <c r="O18" s="3">
+      <c r="P18" s="3">
         <v>393000</v>
       </c>
-      <c r="P18" s="3">
+      <c r="Q18" s="3">
         <v>358000</v>
       </c>
-      <c r="Q18" s="3">
+      <c r="R18" s="3">
         <v>353000</v>
       </c>
-      <c r="R18" s="3">
+      <c r="S18" s="3">
         <v>284000</v>
       </c>
     </row>
-    <row r="19" spans="3:18" x14ac:dyDescent="0.2">
+    <row r="19" spans="3:19" x14ac:dyDescent="0.2">
       <c r="C19" s="1" t="s">
         <v>14</v>
       </c>
@@ -1245,44 +1278,45 @@
       <c r="P19" s="3"/>
       <c r="Q19" s="3"/>
       <c r="R19" s="3"/>
-    </row>
-    <row r="20" spans="3:18" x14ac:dyDescent="0.2">
+      <c r="S19" s="3"/>
+    </row>
+    <row r="20" spans="3:19" x14ac:dyDescent="0.2">
       <c r="C20" s="1" t="s">
         <v>15</v>
       </c>
       <c r="D20" s="3">
+        <v>0</v>
+      </c>
+      <c r="E20" s="3">
         <v>-1000</v>
       </c>
-      <c r="E20" s="3">
+      <c r="F20" s="3">
         <v>2000</v>
       </c>
-      <c r="F20" s="3">
+      <c r="G20" s="3">
         <v>-2000</v>
       </c>
-      <c r="G20" s="3">
-        <v>0</v>
-      </c>
       <c r="H20" s="3">
         <v>0</v>
       </c>
       <c r="I20" s="3">
+        <v>0</v>
+      </c>
+      <c r="J20" s="3">
         <v>14000</v>
       </c>
-      <c r="J20" s="3">
+      <c r="K20" s="3">
         <v>2000</v>
       </c>
-      <c r="K20" s="3">
-        <v>0</v>
-      </c>
       <c r="L20" s="3">
         <v>0</v>
       </c>
       <c r="M20" s="3">
+        <v>0</v>
+      </c>
+      <c r="N20" s="3">
         <v>-13000</v>
       </c>
-      <c r="N20" s="3">
-        <v>0</v>
-      </c>
       <c r="O20" s="3">
         <v>0</v>
       </c>
@@ -1295,69 +1329,75 @@
       <c r="R20" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="21" spans="3:18" x14ac:dyDescent="0.2">
+      <c r="S20" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="21" spans="3:19" x14ac:dyDescent="0.2">
       <c r="C21" s="1" t="s">
         <v>16</v>
       </c>
       <c r="D21" s="3">
+        <v>851000</v>
+      </c>
+      <c r="E21" s="3">
         <v>702000</v>
       </c>
-      <c r="E21" s="3">
+      <c r="F21" s="3">
         <v>595000</v>
-      </c>
-      <c r="F21" s="3">
-        <v>849000</v>
       </c>
       <c r="G21" s="3">
         <v>849000</v>
       </c>
       <c r="H21" s="3">
+        <v>849000</v>
+      </c>
+      <c r="I21" s="3">
         <v>772000</v>
       </c>
-      <c r="I21" s="3">
+      <c r="J21" s="3">
         <v>876000</v>
       </c>
-      <c r="J21" s="3">
+      <c r="K21" s="3">
         <v>706000</v>
       </c>
-      <c r="K21" s="3">
+      <c r="L21" s="3">
         <v>700000</v>
       </c>
-      <c r="L21" s="3">
+      <c r="M21" s="3">
         <v>468000</v>
       </c>
-      <c r="M21" s="3">
+      <c r="N21" s="3">
         <v>395000</v>
       </c>
-      <c r="N21" s="3">
+      <c r="O21" s="3">
         <v>411000</v>
       </c>
-      <c r="O21" s="3">
+      <c r="P21" s="3">
         <v>437000</v>
       </c>
-      <c r="P21" s="3">
+      <c r="Q21" s="3">
         <v>402000</v>
       </c>
-      <c r="Q21" s="3">
+      <c r="R21" s="3">
         <v>396000</v>
       </c>
-      <c r="R21" s="3">
+      <c r="S21" s="3">
         <v>329000</v>
       </c>
     </row>
-    <row r="22" spans="3:18" x14ac:dyDescent="0.2">
+    <row r="22" spans="3:19" x14ac:dyDescent="0.2">
       <c r="C22" s="1" t="s">
         <v>17</v>
       </c>
       <c r="D22" s="3">
+        <v>25000</v>
+      </c>
+      <c r="E22" s="3">
         <v>31000</v>
       </c>
-      <c r="E22" s="3">
+      <c r="F22" s="3">
         <v>32000</v>
-      </c>
-      <c r="F22" s="3">
-        <v>37000</v>
       </c>
       <c r="G22" s="3">
         <v>37000</v>
@@ -1366,28 +1406,28 @@
         <v>37000</v>
       </c>
       <c r="I22" s="3">
+        <v>37000</v>
+      </c>
+      <c r="J22" s="3">
         <v>32000</v>
       </c>
-      <c r="J22" s="3">
+      <c r="K22" s="3">
         <v>27000</v>
       </c>
-      <c r="K22" s="3">
+      <c r="L22" s="3">
         <v>28000</v>
       </c>
-      <c r="L22" s="3">
+      <c r="M22" s="3">
         <v>24000</v>
       </c>
-      <c r="M22" s="3">
+      <c r="N22" s="3">
         <v>20000</v>
       </c>
-      <c r="N22" s="3">
+      <c r="O22" s="3">
         <v>23000</v>
       </c>
-      <c r="O22" s="3">
+      <c r="P22" s="3">
         <v>20000</v>
-      </c>
-      <c r="P22" s="3">
-        <v>14000</v>
       </c>
       <c r="Q22" s="3">
         <v>14000</v>
@@ -1395,108 +1435,117 @@
       <c r="R22" s="3">
         <v>14000</v>
       </c>
-    </row>
-    <row r="23" spans="3:18" x14ac:dyDescent="0.2">
+      <c r="S22" s="3">
+        <v>14000</v>
+      </c>
+    </row>
+    <row r="23" spans="3:19" x14ac:dyDescent="0.2">
       <c r="C23" s="1" t="s">
         <v>18</v>
       </c>
       <c r="D23" s="3">
+        <v>753000</v>
+      </c>
+      <c r="E23" s="3">
         <v>599000</v>
       </c>
-      <c r="E23" s="3">
+      <c r="F23" s="3">
         <v>491000</v>
       </c>
-      <c r="F23" s="3">
+      <c r="G23" s="3">
         <v>741000</v>
       </c>
-      <c r="G23" s="3">
+      <c r="H23" s="3">
         <v>743000</v>
       </c>
-      <c r="H23" s="3">
+      <c r="I23" s="3">
         <v>668000</v>
       </c>
-      <c r="I23" s="3">
+      <c r="J23" s="3">
         <v>778000</v>
       </c>
-      <c r="J23" s="3">
+      <c r="K23" s="3">
         <v>609000</v>
       </c>
-      <c r="K23" s="3">
+      <c r="L23" s="3">
         <v>603000</v>
       </c>
-      <c r="L23" s="3">
+      <c r="M23" s="3">
         <v>372000</v>
       </c>
-      <c r="M23" s="3">
+      <c r="N23" s="3">
         <v>303000</v>
       </c>
-      <c r="N23" s="3">
+      <c r="O23" s="3">
         <v>338000</v>
       </c>
-      <c r="O23" s="3">
+      <c r="P23" s="3">
         <v>373000</v>
       </c>
-      <c r="P23" s="3">
+      <c r="Q23" s="3">
         <v>344000</v>
       </c>
-      <c r="Q23" s="3">
+      <c r="R23" s="3">
         <v>339000</v>
       </c>
-      <c r="R23" s="3">
+      <c r="S23" s="3">
         <v>270000</v>
       </c>
     </row>
-    <row r="24" spans="3:18" x14ac:dyDescent="0.2">
+    <row r="24" spans="3:19" x14ac:dyDescent="0.2">
       <c r="C24" s="1" t="s">
         <v>19</v>
       </c>
       <c r="D24" s="3">
+        <v>184000</v>
+      </c>
+      <c r="E24" s="3">
         <v>153000</v>
       </c>
-      <c r="E24" s="3">
+      <c r="F24" s="3">
         <v>112000</v>
       </c>
-      <c r="F24" s="3">
+      <c r="G24" s="3">
         <v>191000</v>
       </c>
-      <c r="G24" s="3">
+      <c r="H24" s="3">
         <v>188000</v>
       </c>
-      <c r="H24" s="3">
+      <c r="I24" s="3">
         <v>169000</v>
       </c>
-      <c r="I24" s="3">
+      <c r="J24" s="3">
         <v>174000</v>
-      </c>
-      <c r="J24" s="3">
-        <v>155000</v>
       </c>
       <c r="K24" s="3">
         <v>155000</v>
       </c>
       <c r="L24" s="3">
+        <v>155000</v>
+      </c>
+      <c r="M24" s="3">
         <v>101000</v>
       </c>
-      <c r="M24" s="3">
+      <c r="N24" s="3">
         <v>74000</v>
       </c>
-      <c r="N24" s="3">
+      <c r="O24" s="3">
         <v>127000</v>
       </c>
-      <c r="O24" s="3">
+      <c r="P24" s="3">
         <v>142000</v>
       </c>
-      <c r="P24" s="3">
+      <c r="Q24" s="3">
         <v>130000</v>
       </c>
-      <c r="Q24" s="3">
+      <c r="R24" s="3">
         <v>123000</v>
       </c>
-      <c r="R24" s="3">
+      <c r="S24" s="3">
         <v>85000</v>
       </c>
     </row>
-    <row r="25" spans="3:18" x14ac:dyDescent="0.2">
+    <row r="25" spans="3:19" x14ac:dyDescent="0.2">
       <c r="C25" s="1" t="s">
         <v>20</v>
       </c>
@@ -1545,108 +1594,117 @@
       <c r="R25" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="26" spans="3:18" x14ac:dyDescent="0.2">
+      <c r="S25" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="26" spans="3:19" x14ac:dyDescent="0.2">
       <c r="C26" s="1" t="s">
         <v>21</v>
       </c>
       <c r="D26" s="3">
+        <v>569000</v>
+      </c>
+      <c r="E26" s="3">
         <v>446000</v>
       </c>
-      <c r="E26" s="3">
+      <c r="F26" s="3">
         <v>379000</v>
       </c>
-      <c r="F26" s="3">
+      <c r="G26" s="3">
         <v>550000</v>
       </c>
-      <c r="G26" s="3">
+      <c r="H26" s="3">
         <v>555000</v>
       </c>
-      <c r="H26" s="3">
+      <c r="I26" s="3">
         <v>499000</v>
       </c>
-      <c r="I26" s="3">
+      <c r="J26" s="3">
         <v>604000</v>
       </c>
-      <c r="J26" s="3">
+      <c r="K26" s="3">
         <v>454000</v>
       </c>
-      <c r="K26" s="3">
+      <c r="L26" s="3">
         <v>448000</v>
       </c>
-      <c r="L26" s="3">
+      <c r="M26" s="3">
         <v>271000</v>
       </c>
-      <c r="M26" s="3">
+      <c r="N26" s="3">
         <v>229000</v>
       </c>
-      <c r="N26" s="3">
+      <c r="O26" s="3">
         <v>211000</v>
       </c>
-      <c r="O26" s="3">
+      <c r="P26" s="3">
         <v>231000</v>
       </c>
-      <c r="P26" s="3">
+      <c r="Q26" s="3">
         <v>214000</v>
       </c>
-      <c r="Q26" s="3">
+      <c r="R26" s="3">
         <v>216000</v>
       </c>
-      <c r="R26" s="3">
+      <c r="S26" s="3">
         <v>185000</v>
       </c>
     </row>
-    <row r="27" spans="3:18" x14ac:dyDescent="0.2">
+    <row r="27" spans="3:19" x14ac:dyDescent="0.2">
       <c r="C27" s="1" t="s">
         <v>22</v>
       </c>
       <c r="D27" s="3">
+        <v>569000</v>
+      </c>
+      <c r="E27" s="3">
         <v>446000</v>
       </c>
-      <c r="E27" s="3">
+      <c r="F27" s="3">
         <v>379000</v>
       </c>
-      <c r="F27" s="3">
+      <c r="G27" s="3">
         <v>550000</v>
       </c>
-      <c r="G27" s="3">
+      <c r="H27" s="3">
         <v>555000</v>
       </c>
-      <c r="H27" s="3">
+      <c r="I27" s="3">
         <v>499000</v>
       </c>
-      <c r="I27" s="3">
+      <c r="J27" s="3">
         <v>604000</v>
       </c>
-      <c r="J27" s="3">
+      <c r="K27" s="3">
         <v>454000</v>
       </c>
-      <c r="K27" s="3">
+      <c r="L27" s="3">
         <v>448000</v>
       </c>
-      <c r="L27" s="3">
+      <c r="M27" s="3">
         <v>271000</v>
       </c>
-      <c r="M27" s="3">
+      <c r="N27" s="3">
         <v>229000</v>
       </c>
-      <c r="N27" s="3">
+      <c r="O27" s="3">
         <v>211000</v>
       </c>
-      <c r="O27" s="3">
+      <c r="P27" s="3">
         <v>231000</v>
       </c>
-      <c r="P27" s="3">
+      <c r="Q27" s="3">
         <v>214000</v>
       </c>
-      <c r="Q27" s="3">
+      <c r="R27" s="3">
         <v>216000</v>
       </c>
-      <c r="R27" s="3">
+      <c r="S27" s="3">
         <v>185000</v>
       </c>
     </row>
-    <row r="28" spans="3:18" x14ac:dyDescent="0.2">
+    <row r="28" spans="3:19" x14ac:dyDescent="0.2">
       <c r="C28" s="1" t="s">
         <v>23</v>
       </c>
@@ -1695,8 +1753,11 @@
       <c r="R28" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="29" spans="3:18" x14ac:dyDescent="0.2">
+      <c r="S28" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="29" spans="3:19" x14ac:dyDescent="0.2">
       <c r="C29" s="1" t="s">
         <v>24</v>
       </c>
@@ -1718,21 +1779,21 @@
       <c r="I29" s="3" t="s">
         <v>5</v>
       </c>
-      <c r="J29" s="3">
-        <v>0</v>
+      <c r="J29" s="3" t="s">
+        <v>5</v>
       </c>
       <c r="K29" s="3">
+        <v>0</v>
+      </c>
+      <c r="L29" s="3">
         <v>3000</v>
       </c>
-      <c r="L29" s="3">
-        <v>0</v>
-      </c>
       <c r="M29" s="3">
+        <v>0</v>
+      </c>
+      <c r="N29" s="3">
         <v>68000</v>
       </c>
-      <c r="N29" s="3" t="s">
-        <v>5</v>
-      </c>
       <c r="O29" s="3" t="s">
         <v>5</v>
       </c>
@@ -1745,8 +1806,11 @@
       <c r="R29" s="3" t="s">
         <v>5</v>
       </c>
-    </row>
-    <row r="30" spans="3:18" x14ac:dyDescent="0.2">
+      <c r="S29" s="3" t="s">
+        <v>5</v>
+      </c>
+    </row>
+    <row r="30" spans="3:19" x14ac:dyDescent="0.2">
       <c r="C30" s="1" t="s">
         <v>25</v>
       </c>
@@ -1795,8 +1859,11 @@
       <c r="R30" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="31" spans="3:18" x14ac:dyDescent="0.2">
+      <c r="S30" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="31" spans="3:19" x14ac:dyDescent="0.2">
       <c r="C31" s="1" t="s">
         <v>26</v>
       </c>
@@ -1845,44 +1912,47 @@
       <c r="R31" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="32" spans="3:18" x14ac:dyDescent="0.2">
+      <c r="S31" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="32" spans="3:19" x14ac:dyDescent="0.2">
       <c r="C32" s="1" t="s">
         <v>27</v>
       </c>
       <c r="D32" s="3">
+        <v>0</v>
+      </c>
+      <c r="E32" s="3">
         <v>1000</v>
       </c>
-      <c r="E32" s="3">
+      <c r="F32" s="3">
         <v>-2000</v>
       </c>
-      <c r="F32" s="3">
+      <c r="G32" s="3">
         <v>2000</v>
       </c>
-      <c r="G32" s="3">
-        <v>0</v>
-      </c>
       <c r="H32" s="3">
         <v>0</v>
       </c>
       <c r="I32" s="3">
+        <v>0</v>
+      </c>
+      <c r="J32" s="3">
         <v>-14000</v>
       </c>
-      <c r="J32" s="3">
+      <c r="K32" s="3">
         <v>-2000</v>
       </c>
-      <c r="K32" s="3">
-        <v>0</v>
-      </c>
       <c r="L32" s="3">
         <v>0</v>
       </c>
       <c r="M32" s="3">
+        <v>0</v>
+      </c>
+      <c r="N32" s="3">
         <v>13000</v>
       </c>
-      <c r="N32" s="3">
-        <v>0</v>
-      </c>
       <c r="O32" s="3">
         <v>0</v>
       </c>
@@ -1895,58 +1965,64 @@
       <c r="R32" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="33" spans="2:18" x14ac:dyDescent="0.2">
+      <c r="S32" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="33" spans="2:19" x14ac:dyDescent="0.2">
       <c r="C33" s="1" t="s">
         <v>28</v>
       </c>
       <c r="D33" s="3">
+        <v>569000</v>
+      </c>
+      <c r="E33" s="3">
         <v>446000</v>
       </c>
-      <c r="E33" s="3">
+      <c r="F33" s="3">
         <v>379000</v>
       </c>
-      <c r="F33" s="3">
+      <c r="G33" s="3">
         <v>550000</v>
       </c>
-      <c r="G33" s="3">
+      <c r="H33" s="3">
         <v>555000</v>
       </c>
-      <c r="H33" s="3">
+      <c r="I33" s="3">
         <v>499000</v>
       </c>
-      <c r="I33" s="3">
+      <c r="J33" s="3">
         <v>604000</v>
       </c>
-      <c r="J33" s="3">
+      <c r="K33" s="3">
         <v>454000</v>
       </c>
-      <c r="K33" s="3">
+      <c r="L33" s="3">
         <v>451000</v>
       </c>
-      <c r="L33" s="3">
+      <c r="M33" s="3">
         <v>271000</v>
       </c>
-      <c r="M33" s="3">
+      <c r="N33" s="3">
         <v>297000</v>
       </c>
-      <c r="N33" s="3">
+      <c r="O33" s="3">
         <v>211000</v>
       </c>
-      <c r="O33" s="3">
+      <c r="P33" s="3">
         <v>231000</v>
       </c>
-      <c r="P33" s="3">
+      <c r="Q33" s="3">
         <v>214000</v>
       </c>
-      <c r="Q33" s="3">
+      <c r="R33" s="3">
         <v>216000</v>
       </c>
-      <c r="R33" s="3">
+      <c r="S33" s="3">
         <v>185000</v>
       </c>
     </row>
-    <row r="34" spans="2:18" x14ac:dyDescent="0.2">
+    <row r="34" spans="2:19" x14ac:dyDescent="0.2">
       <c r="C34" s="1" t="s">
         <v>29</v>
       </c>
@@ -1995,113 +2071,122 @@
       <c r="R34" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="35" spans="2:18" x14ac:dyDescent="0.2">
+      <c r="S34" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="35" spans="2:19" x14ac:dyDescent="0.2">
       <c r="C35" s="1" t="s">
         <v>30</v>
       </c>
       <c r="D35" s="3">
+        <v>569000</v>
+      </c>
+      <c r="E35" s="3">
         <v>446000</v>
       </c>
-      <c r="E35" s="3">
+      <c r="F35" s="3">
         <v>379000</v>
       </c>
-      <c r="F35" s="3">
+      <c r="G35" s="3">
         <v>550000</v>
       </c>
-      <c r="G35" s="3">
+      <c r="H35" s="3">
         <v>555000</v>
       </c>
-      <c r="H35" s="3">
+      <c r="I35" s="3">
         <v>499000</v>
       </c>
-      <c r="I35" s="3">
+      <c r="J35" s="3">
         <v>604000</v>
       </c>
-      <c r="J35" s="3">
+      <c r="K35" s="3">
         <v>454000</v>
       </c>
-      <c r="K35" s="3">
+      <c r="L35" s="3">
         <v>451000</v>
       </c>
-      <c r="L35" s="3">
+      <c r="M35" s="3">
         <v>271000</v>
       </c>
-      <c r="M35" s="3">
+      <c r="N35" s="3">
         <v>297000</v>
       </c>
-      <c r="N35" s="3">
+      <c r="O35" s="3">
         <v>211000</v>
       </c>
-      <c r="O35" s="3">
+      <c r="P35" s="3">
         <v>231000</v>
       </c>
-      <c r="P35" s="3">
+      <c r="Q35" s="3">
         <v>214000</v>
       </c>
-      <c r="Q35" s="3">
+      <c r="R35" s="3">
         <v>216000</v>
       </c>
-      <c r="R35" s="3">
+      <c r="S35" s="3">
         <v>185000</v>
       </c>
     </row>
-    <row r="37" spans="2:18" x14ac:dyDescent="0.2">
+    <row r="37" spans="2:19" x14ac:dyDescent="0.2">
       <c r="B37" s="1" t="s">
         <v>31</v>
       </c>
     </row>
-    <row r="38" spans="2:18" x14ac:dyDescent="0.2">
+    <row r="38" spans="2:19" x14ac:dyDescent="0.2">
       <c r="C38" s="1" t="s">
         <v>2</v>
       </c>
       <c r="D38" s="2">
+        <v>44012</v>
+      </c>
+      <c r="E38" s="2">
         <v>43921</v>
       </c>
-      <c r="E38" s="2">
+      <c r="F38" s="2">
         <v>43830</v>
       </c>
-      <c r="F38" s="2">
+      <c r="G38" s="2">
         <v>43738</v>
       </c>
-      <c r="G38" s="2">
+      <c r="H38" s="2">
         <v>43646</v>
       </c>
-      <c r="H38" s="2">
+      <c r="I38" s="2">
         <v>43555</v>
       </c>
-      <c r="I38" s="2">
+      <c r="J38" s="2">
         <v>43465</v>
       </c>
-      <c r="J38" s="2">
+      <c r="K38" s="2">
         <v>43373</v>
       </c>
-      <c r="K38" s="2">
+      <c r="L38" s="2">
         <v>43281</v>
       </c>
-      <c r="L38" s="2">
+      <c r="M38" s="2">
         <v>43190</v>
       </c>
-      <c r="M38" s="2">
+      <c r="N38" s="2">
         <v>43100</v>
       </c>
-      <c r="N38" s="2">
+      <c r="O38" s="2">
         <v>43008</v>
       </c>
-      <c r="O38" s="2">
+      <c r="P38" s="2">
         <v>42916</v>
       </c>
-      <c r="P38" s="2">
+      <c r="Q38" s="2">
         <v>42825</v>
       </c>
-      <c r="Q38" s="2">
+      <c r="R38" s="2">
         <v>42735</v>
       </c>
-      <c r="R38" s="2">
+      <c r="S38" s="2">
         <v>42643</v>
       </c>
     </row>
-    <row r="39" spans="2:18" x14ac:dyDescent="0.2">
+    <row r="39" spans="2:19" x14ac:dyDescent="0.2">
       <c r="C39" s="1" t="s">
         <v>32</v>
       </c>
@@ -2120,8 +2205,9 @@
       <c r="P39" s="3"/>
       <c r="Q39" s="3"/>
       <c r="R39" s="3"/>
-    </row>
-    <row r="40" spans="2:18" x14ac:dyDescent="0.2">
+      <c r="S39" s="3"/>
+    </row>
+    <row r="40" spans="2:19" x14ac:dyDescent="0.2">
       <c r="C40" s="1" t="s">
         <v>33</v>
       </c>
@@ -2140,58 +2226,62 @@
       <c r="P40" s="3"/>
       <c r="Q40" s="3"/>
       <c r="R40" s="3"/>
-    </row>
-    <row r="41" spans="2:18" x14ac:dyDescent="0.2">
+      <c r="S40" s="3"/>
+    </row>
+    <row r="41" spans="2:19" x14ac:dyDescent="0.2">
       <c r="C41" s="1" t="s">
         <v>34</v>
       </c>
       <c r="D41" s="3">
+        <v>2577000</v>
+      </c>
+      <c r="E41" s="3">
         <v>3729000</v>
       </c>
-      <c r="E41" s="3">
+      <c r="F41" s="3">
         <v>2551000</v>
       </c>
-      <c r="F41" s="3">
+      <c r="G41" s="3">
         <v>2852000</v>
       </c>
-      <c r="G41" s="3">
+      <c r="H41" s="3">
         <v>2953000</v>
       </c>
-      <c r="H41" s="3">
+      <c r="I41" s="3">
         <v>2674000</v>
       </c>
-      <c r="I41" s="3">
+      <c r="J41" s="3">
         <v>5117000</v>
       </c>
-      <c r="J41" s="3">
+      <c r="K41" s="3">
         <v>2690000</v>
       </c>
-      <c r="K41" s="3">
+      <c r="L41" s="3">
         <v>1343000</v>
       </c>
-      <c r="L41" s="3">
+      <c r="M41" s="3">
         <v>1373000</v>
       </c>
-      <c r="M41" s="3">
+      <c r="N41" s="3">
         <v>1644000</v>
       </c>
-      <c r="N41" s="3">
+      <c r="O41" s="3">
         <v>1472000</v>
       </c>
-      <c r="O41" s="3">
+      <c r="P41" s="3">
         <v>2880000</v>
       </c>
-      <c r="P41" s="3">
+      <c r="Q41" s="3">
         <v>2231000</v>
       </c>
-      <c r="Q41" s="3">
+      <c r="R41" s="3">
         <v>1662000</v>
       </c>
-      <c r="R41" s="3">
+      <c r="S41" s="3">
         <v>1855000</v>
       </c>
     </row>
-    <row r="42" spans="2:18" x14ac:dyDescent="0.2">
+    <row r="42" spans="2:19" x14ac:dyDescent="0.2">
       <c r="C42" s="1" t="s">
         <v>35</v>
       </c>
@@ -2240,58 +2330,64 @@
       <c r="R42" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="43" spans="2:18" x14ac:dyDescent="0.2">
+      <c r="S42" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="43" spans="2:19" x14ac:dyDescent="0.2">
       <c r="C43" s="1" t="s">
         <v>36</v>
       </c>
       <c r="D43" s="3">
+        <v>24311000</v>
+      </c>
+      <c r="E43" s="3">
         <v>18547000</v>
       </c>
-      <c r="E43" s="3">
+      <c r="F43" s="3">
         <v>23313000</v>
       </c>
-      <c r="F43" s="3">
+      <c r="G43" s="3">
         <v>23474000</v>
       </c>
-      <c r="G43" s="3">
+      <c r="H43" s="3">
         <v>23014000</v>
       </c>
-      <c r="H43" s="3">
+      <c r="I43" s="3">
         <v>22790000</v>
       </c>
-      <c r="I43" s="3">
+      <c r="J43" s="3">
         <v>21312000</v>
       </c>
-      <c r="J43" s="3">
+      <c r="K43" s="3">
         <v>24445000</v>
       </c>
-      <c r="K43" s="3">
+      <c r="L43" s="3">
         <v>24345000</v>
       </c>
-      <c r="L43" s="3">
+      <c r="M43" s="3">
         <v>22709000</v>
       </c>
-      <c r="M43" s="3">
+      <c r="N43" s="3">
         <v>20287000</v>
       </c>
-      <c r="N43" s="3">
+      <c r="O43" s="3">
         <v>18796000</v>
       </c>
-      <c r="O43" s="3">
+      <c r="P43" s="3">
         <v>15020000</v>
       </c>
-      <c r="P43" s="3">
+      <c r="Q43" s="3">
         <v>13393000</v>
       </c>
-      <c r="Q43" s="3">
+      <c r="R43" s="3">
         <v>13277000</v>
       </c>
-      <c r="R43" s="3">
+      <c r="S43" s="3">
         <v>13397000</v>
       </c>
     </row>
-    <row r="44" spans="2:18" x14ac:dyDescent="0.2">
+    <row r="44" spans="2:19" x14ac:dyDescent="0.2">
       <c r="C44" s="1" t="s">
         <v>37</v>
       </c>
@@ -2340,58 +2436,64 @@
       <c r="R44" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="45" spans="2:18" x14ac:dyDescent="0.2">
+      <c r="S44" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="45" spans="2:19" x14ac:dyDescent="0.2">
       <c r="C45" s="1" t="s">
         <v>38</v>
       </c>
       <c r="D45" s="3">
-        <v>0</v>
+        <v>18316000</v>
       </c>
       <c r="E45" s="3">
-        <v>0</v>
-      </c>
-      <c r="F45" s="3">
-        <v>0</v>
-      </c>
-      <c r="G45" s="3">
-        <v>0</v>
-      </c>
-      <c r="H45" s="3">
-        <v>0</v>
-      </c>
-      <c r="I45" s="3">
-        <v>0</v>
-      </c>
-      <c r="J45" s="3">
-        <v>0</v>
+        <v>19501000</v>
+      </c>
+      <c r="F45" s="3" t="s">
+        <v>5</v>
+      </c>
+      <c r="G45" s="3" t="s">
+        <v>5</v>
+      </c>
+      <c r="H45" s="3" t="s">
+        <v>5</v>
+      </c>
+      <c r="I45" s="3" t="s">
+        <v>5</v>
+      </c>
+      <c r="J45" s="3" t="s">
+        <v>5</v>
       </c>
       <c r="K45" s="3">
+        <v>0</v>
+      </c>
+      <c r="L45" s="3">
         <v>4609000</v>
       </c>
-      <c r="L45" s="3">
+      <c r="M45" s="3">
         <v>6863000</v>
       </c>
-      <c r="M45" s="3">
+      <c r="N45" s="3">
         <v>10136000</v>
       </c>
-      <c r="N45" s="3">
+      <c r="O45" s="3">
         <v>10446000</v>
       </c>
-      <c r="O45" s="3">
+      <c r="P45" s="3">
         <v>7328000</v>
       </c>
-      <c r="P45" s="3">
-        <v>0</v>
-      </c>
       <c r="Q45" s="3">
         <v>0</v>
       </c>
       <c r="R45" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="46" spans="2:18" x14ac:dyDescent="0.2">
+      <c r="S45" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="46" spans="2:19" x14ac:dyDescent="0.2">
       <c r="C46" s="1" t="s">
         <v>39</v>
       </c>
@@ -2440,158 +2542,170 @@
       <c r="R46" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="47" spans="2:18" x14ac:dyDescent="0.2">
+      <c r="S46" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="47" spans="2:19" x14ac:dyDescent="0.2">
       <c r="C47" s="1" t="s">
         <v>40</v>
       </c>
       <c r="D47" s="3">
+        <v>2224000</v>
+      </c>
+      <c r="E47" s="3">
         <v>2213000</v>
       </c>
-      <c r="E47" s="3">
+      <c r="F47" s="3">
         <v>2156000</v>
       </c>
-      <c r="F47" s="3">
+      <c r="G47" s="3">
         <v>2200000</v>
       </c>
-      <c r="G47" s="3">
+      <c r="H47" s="3">
         <v>1447000</v>
       </c>
-      <c r="H47" s="3">
+      <c r="I47" s="3">
         <v>1053000</v>
       </c>
-      <c r="I47" s="3">
+      <c r="J47" s="3">
         <v>993000</v>
       </c>
-      <c r="J47" s="3">
+      <c r="K47" s="3">
         <v>640000</v>
       </c>
-      <c r="K47" s="3">
+      <c r="L47" s="3">
         <v>682000</v>
       </c>
-      <c r="L47" s="3">
+      <c r="M47" s="3">
         <v>901000</v>
       </c>
-      <c r="M47" s="3">
+      <c r="N47" s="3">
         <v>692000</v>
       </c>
-      <c r="N47" s="3">
+      <c r="O47" s="3">
         <v>1249000</v>
       </c>
-      <c r="O47" s="3">
+      <c r="P47" s="3">
         <v>1154000</v>
       </c>
-      <c r="P47" s="3">
+      <c r="Q47" s="3">
         <v>9831000</v>
       </c>
-      <c r="Q47" s="3">
+      <c r="R47" s="3">
         <v>10187000</v>
       </c>
-      <c r="R47" s="3">
+      <c r="S47" s="3">
         <v>9817000</v>
       </c>
     </row>
-    <row r="48" spans="2:18" x14ac:dyDescent="0.2">
+    <row r="48" spans="2:19" x14ac:dyDescent="0.2">
       <c r="C48" s="1" t="s">
         <v>41</v>
       </c>
       <c r="D48" s="3">
+        <v>1210000</v>
+      </c>
+      <c r="E48" s="3">
         <v>1230000</v>
       </c>
-      <c r="E48" s="3">
+      <c r="F48" s="3">
         <v>1235000</v>
       </c>
-      <c r="F48" s="3">
+      <c r="G48" s="3">
         <v>837000</v>
       </c>
-      <c r="G48" s="3">
+      <c r="H48" s="3">
         <v>833000</v>
       </c>
-      <c r="H48" s="3">
+      <c r="I48" s="3">
         <v>812000</v>
       </c>
-      <c r="I48" s="3">
+      <c r="J48" s="3">
         <v>797000</v>
       </c>
-      <c r="J48" s="3">
+      <c r="K48" s="3">
         <v>792000</v>
       </c>
-      <c r="K48" s="3">
+      <c r="L48" s="3">
         <v>778000</v>
       </c>
-      <c r="L48" s="3">
+      <c r="M48" s="3">
         <v>801000</v>
       </c>
-      <c r="M48" s="3">
+      <c r="N48" s="3">
         <v>780000</v>
       </c>
-      <c r="N48" s="3">
+      <c r="O48" s="3">
         <v>752000</v>
       </c>
-      <c r="O48" s="3">
+      <c r="P48" s="3">
         <v>592000</v>
       </c>
-      <c r="P48" s="3">
+      <c r="Q48" s="3">
         <v>555000</v>
       </c>
-      <c r="Q48" s="3">
+      <c r="R48" s="3">
         <v>531000</v>
       </c>
-      <c r="R48" s="3">
+      <c r="S48" s="3">
         <v>526000</v>
       </c>
     </row>
-    <row r="49" spans="3:18" x14ac:dyDescent="0.2">
+    <row r="49" spans="3:19" x14ac:dyDescent="0.2">
       <c r="C49" s="1" t="s">
         <v>42</v>
       </c>
       <c r="D49" s="3">
+        <v>5341000</v>
+      </c>
+      <c r="E49" s="3">
         <v>5371000</v>
       </c>
-      <c r="E49" s="3">
+      <c r="F49" s="3">
         <v>5401000</v>
       </c>
-      <c r="F49" s="3">
+      <c r="G49" s="3">
         <v>5431000</v>
       </c>
-      <c r="G49" s="3">
+      <c r="H49" s="3">
         <v>5463000</v>
       </c>
-      <c r="H49" s="3">
+      <c r="I49" s="3">
         <v>5494000</v>
       </c>
-      <c r="I49" s="3">
+      <c r="J49" s="3">
         <v>5525000</v>
       </c>
-      <c r="J49" s="3">
+      <c r="K49" s="3">
         <v>5556000</v>
       </c>
-      <c r="K49" s="3">
+      <c r="L49" s="3">
         <v>5561000</v>
       </c>
-      <c r="L49" s="3">
+      <c r="M49" s="3">
         <v>5597000</v>
       </c>
-      <c r="M49" s="3">
+      <c r="N49" s="3">
         <v>5629000</v>
       </c>
-      <c r="N49" s="3">
+      <c r="O49" s="3">
         <v>5683000</v>
       </c>
-      <c r="O49" s="3">
+      <c r="P49" s="3">
         <v>2985000</v>
       </c>
-      <c r="P49" s="3">
+      <c r="Q49" s="3">
         <v>3004000</v>
       </c>
-      <c r="Q49" s="3">
+      <c r="R49" s="3">
         <v>3023000</v>
       </c>
-      <c r="R49" s="3">
+      <c r="S49" s="3">
         <v>3042000</v>
       </c>
     </row>
-    <row r="50" spans="3:18" x14ac:dyDescent="0.2">
+    <row r="50" spans="3:19" x14ac:dyDescent="0.2">
       <c r="C50" s="1" t="s">
         <v>43</v>
       </c>
@@ -2640,8 +2754,11 @@
       <c r="R50" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="51" spans="3:18" x14ac:dyDescent="0.2">
+      <c r="S50" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="51" spans="3:19" x14ac:dyDescent="0.2">
       <c r="C51" s="1" t="s">
         <v>44</v>
       </c>
@@ -2690,34 +2807,37 @@
       <c r="R51" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="52" spans="3:18" x14ac:dyDescent="0.2">
+      <c r="S51" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="52" spans="3:19" x14ac:dyDescent="0.2">
       <c r="C52" s="1" t="s">
         <v>45</v>
       </c>
-      <c r="D52" s="3">
-        <v>19501000</v>
-      </c>
-      <c r="E52" s="3">
+      <c r="D52" s="3" t="s">
+        <v>5</v>
+      </c>
+      <c r="E52" s="3" t="s">
+        <v>5</v>
+      </c>
+      <c r="F52" s="3">
         <v>8536000</v>
       </c>
-      <c r="F52" s="3">
+      <c r="G52" s="3">
         <v>8684000</v>
       </c>
-      <c r="G52" s="3">
+      <c r="H52" s="3">
         <v>7124000</v>
       </c>
-      <c r="H52" s="3">
+      <c r="I52" s="3">
         <v>5580000</v>
-      </c>
-      <c r="I52" s="3">
-        <v>3185000</v>
       </c>
       <c r="J52" s="3">
         <v>3185000</v>
       </c>
       <c r="K52" s="3">
-        <v>0</v>
+        <v>3185000</v>
       </c>
       <c r="L52" s="3">
         <v>0</v>
@@ -2740,8 +2860,11 @@
       <c r="R52" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="53" spans="3:18" x14ac:dyDescent="0.2">
+      <c r="S52" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="53" spans="3:19" x14ac:dyDescent="0.2">
       <c r="C53" s="1" t="s">
         <v>46</v>
       </c>
@@ -2790,58 +2913,64 @@
       <c r="R53" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="54" spans="3:18" x14ac:dyDescent="0.2">
+      <c r="S53" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="54" spans="3:19" x14ac:dyDescent="0.2">
       <c r="C54" s="1" t="s">
         <v>47</v>
       </c>
       <c r="D54" s="3">
+        <v>54394000</v>
+      </c>
+      <c r="E54" s="3">
         <v>51005000</v>
       </c>
-      <c r="E54" s="3">
+      <c r="F54" s="3">
         <v>43481000</v>
       </c>
-      <c r="F54" s="3">
+      <c r="G54" s="3">
         <v>43786000</v>
       </c>
-      <c r="G54" s="3">
+      <c r="H54" s="3">
         <v>41119000</v>
       </c>
-      <c r="H54" s="3">
+      <c r="I54" s="3">
         <v>38679000</v>
       </c>
-      <c r="I54" s="3">
+      <c r="J54" s="3">
         <v>37191000</v>
       </c>
-      <c r="J54" s="3">
+      <c r="K54" s="3">
         <v>37520000</v>
       </c>
-      <c r="K54" s="3">
+      <c r="L54" s="3">
         <v>37511000</v>
       </c>
-      <c r="L54" s="3">
+      <c r="M54" s="3">
         <v>38410000</v>
       </c>
-      <c r="M54" s="3">
+      <c r="N54" s="3">
         <v>39412000</v>
       </c>
-      <c r="N54" s="3">
+      <c r="O54" s="3">
         <v>38627000</v>
       </c>
-      <c r="O54" s="3">
+      <c r="P54" s="3">
         <v>30110000</v>
       </c>
-      <c r="P54" s="3">
+      <c r="Q54" s="3">
         <v>29165000</v>
       </c>
-      <c r="Q54" s="3">
+      <c r="R54" s="3">
         <v>28834000</v>
       </c>
-      <c r="R54" s="3">
+      <c r="S54" s="3">
         <v>28818000</v>
       </c>
     </row>
-    <row r="55" spans="3:18" x14ac:dyDescent="0.2">
+    <row r="55" spans="3:19" x14ac:dyDescent="0.2">
       <c r="C55" s="1" t="s">
         <v>48</v>
       </c>
@@ -2860,8 +2989,9 @@
       <c r="P55" s="3"/>
       <c r="Q55" s="3"/>
       <c r="R55" s="3"/>
-    </row>
-    <row r="56" spans="3:18" x14ac:dyDescent="0.2">
+      <c r="S55" s="3"/>
+    </row>
+    <row r="56" spans="3:19" x14ac:dyDescent="0.2">
       <c r="C56" s="1" t="s">
         <v>49</v>
       </c>
@@ -2880,69 +3010,73 @@
       <c r="P56" s="3"/>
       <c r="Q56" s="3"/>
       <c r="R56" s="3"/>
-    </row>
-    <row r="57" spans="3:18" x14ac:dyDescent="0.2">
+      <c r="S56" s="3"/>
+    </row>
+    <row r="57" spans="3:19" x14ac:dyDescent="0.2">
       <c r="C57" s="1" t="s">
         <v>50</v>
       </c>
       <c r="D57" s="3">
+        <v>40455000</v>
+      </c>
+      <c r="E57" s="3">
         <v>36269000</v>
       </c>
-      <c r="E57" s="3">
+      <c r="F57" s="3">
         <v>30550000</v>
       </c>
-      <c r="F57" s="3">
+      <c r="G57" s="3">
         <v>31264000</v>
       </c>
-      <c r="G57" s="3">
+      <c r="H57" s="3">
         <v>28833000</v>
       </c>
-      <c r="H57" s="3">
+      <c r="I57" s="3">
         <v>26621000</v>
       </c>
-      <c r="I57" s="3">
+      <c r="J57" s="3">
         <v>25139000</v>
       </c>
-      <c r="J57" s="3">
+      <c r="K57" s="3">
         <v>26805000</v>
       </c>
-      <c r="K57" s="3">
+      <c r="L57" s="3">
         <v>26859000</v>
       </c>
-      <c r="L57" s="3">
+      <c r="M57" s="3">
         <v>27889000</v>
       </c>
-      <c r="M57" s="3">
+      <c r="N57" s="3">
         <v>29119000</v>
       </c>
-      <c r="N57" s="3">
+      <c r="O57" s="3">
         <v>28535000</v>
       </c>
-      <c r="O57" s="3">
+      <c r="P57" s="3">
         <v>21821000</v>
       </c>
-      <c r="P57" s="3">
+      <c r="Q57" s="3">
         <v>21806000</v>
       </c>
-      <c r="Q57" s="3">
+      <c r="R57" s="3">
         <v>21582000</v>
       </c>
-      <c r="R57" s="3">
+      <c r="S57" s="3">
         <v>21669000</v>
       </c>
     </row>
-    <row r="58" spans="3:18" x14ac:dyDescent="0.2">
+    <row r="58" spans="3:19" x14ac:dyDescent="0.2">
       <c r="C58" s="1" t="s">
         <v>51</v>
       </c>
-      <c r="D58" s="3">
+      <c r="D58" s="3" t="s">
+        <v>5</v>
+      </c>
+      <c r="E58" s="3">
         <v>1223000</v>
       </c>
-      <c r="E58" s="3" t="s">
-        <v>5</v>
-      </c>
-      <c r="F58" s="3">
-        <v>0</v>
+      <c r="F58" s="3" t="s">
+        <v>5</v>
       </c>
       <c r="G58" s="3">
         <v>0</v>
@@ -2954,23 +3088,23 @@
         <v>0</v>
       </c>
       <c r="J58" s="3">
+        <v>0</v>
+      </c>
+      <c r="K58" s="3">
         <v>96000</v>
       </c>
-      <c r="K58" s="3">
+      <c r="L58" s="3">
         <v>97000</v>
       </c>
-      <c r="L58" s="3">
+      <c r="M58" s="3">
         <v>318000</v>
       </c>
-      <c r="M58" s="3">
+      <c r="N58" s="3">
         <v>147000</v>
       </c>
-      <c r="N58" s="3">
+      <c r="O58" s="3">
         <v>97000</v>
       </c>
-      <c r="O58" s="3" t="s">
-        <v>5</v>
-      </c>
       <c r="P58" s="3" t="s">
         <v>5</v>
       </c>
@@ -2980,20 +3114,23 @@
       <c r="R58" s="3" t="s">
         <v>5</v>
       </c>
-    </row>
-    <row r="59" spans="3:18" x14ac:dyDescent="0.2">
+      <c r="S58" s="3" t="s">
+        <v>5</v>
+      </c>
+    </row>
+    <row r="59" spans="3:19" x14ac:dyDescent="0.2">
       <c r="C59" s="1" t="s">
         <v>52</v>
       </c>
       <c r="D59" s="3">
+        <v>352000</v>
+      </c>
+      <c r="E59" s="3">
         <v>360000</v>
       </c>
-      <c r="E59" s="3">
+      <c r="F59" s="3">
         <v>373000</v>
       </c>
-      <c r="F59" s="3" t="s">
-        <v>5</v>
-      </c>
       <c r="G59" s="3" t="s">
         <v>5</v>
       </c>
@@ -3009,8 +3146,8 @@
       <c r="K59" s="3" t="s">
         <v>5</v>
       </c>
-      <c r="L59" s="3">
-        <v>0</v>
+      <c r="L59" s="3" t="s">
+        <v>5</v>
       </c>
       <c r="M59" s="3">
         <v>0</v>
@@ -3030,8 +3167,11 @@
       <c r="R59" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="60" spans="3:18" x14ac:dyDescent="0.2">
+      <c r="S59" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="60" spans="3:19" x14ac:dyDescent="0.2">
       <c r="C60" s="1" t="s">
         <v>53</v>
       </c>
@@ -3080,108 +3220,117 @@
       <c r="R60" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="61" spans="3:18" x14ac:dyDescent="0.2">
+      <c r="S60" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="61" spans="3:19" x14ac:dyDescent="0.2">
       <c r="C61" s="1" t="s">
         <v>54</v>
       </c>
       <c r="D61" s="3">
+        <v>3736000</v>
+      </c>
+      <c r="E61" s="3">
         <v>3721000</v>
       </c>
-      <c r="E61" s="3">
+      <c r="F61" s="3">
         <v>3555000</v>
       </c>
-      <c r="F61" s="3">
+      <c r="G61" s="3">
         <v>3594000</v>
       </c>
-      <c r="G61" s="3">
+      <c r="H61" s="3">
         <v>3574000</v>
       </c>
-      <c r="H61" s="3">
+      <c r="I61" s="3">
         <v>3520000</v>
       </c>
-      <c r="I61" s="3">
+      <c r="J61" s="3">
         <v>3484000</v>
       </c>
-      <c r="J61" s="3">
+      <c r="K61" s="3">
         <v>2439000</v>
       </c>
-      <c r="K61" s="3">
+      <c r="L61" s="3">
         <v>2456000</v>
       </c>
-      <c r="L61" s="3">
+      <c r="M61" s="3">
         <v>2477000</v>
       </c>
-      <c r="M61" s="3">
+      <c r="N61" s="3">
         <v>2531000</v>
       </c>
-      <c r="N61" s="3">
+      <c r="O61" s="3">
         <v>2555000</v>
       </c>
-      <c r="O61" s="3">
+      <c r="P61" s="3">
         <v>2561000</v>
       </c>
-      <c r="P61" s="3">
+      <c r="Q61" s="3">
         <v>1765000</v>
       </c>
-      <c r="Q61" s="3">
+      <c r="R61" s="3">
         <v>1769000</v>
       </c>
-      <c r="R61" s="3">
+      <c r="S61" s="3">
         <v>1817000</v>
       </c>
     </row>
-    <row r="62" spans="3:18" x14ac:dyDescent="0.2">
+    <row r="62" spans="3:19" x14ac:dyDescent="0.2">
       <c r="C62" s="1" t="s">
         <v>55</v>
       </c>
       <c r="D62" s="3">
+        <v>283000</v>
+      </c>
+      <c r="E62" s="3">
         <v>279000</v>
       </c>
-      <c r="E62" s="3">
+      <c r="F62" s="3">
         <v>256000</v>
       </c>
-      <c r="F62" s="3">
+      <c r="G62" s="3">
         <v>228000</v>
       </c>
-      <c r="G62" s="3">
+      <c r="H62" s="3">
         <v>219000</v>
       </c>
-      <c r="H62" s="3">
+      <c r="I62" s="3">
         <v>215000</v>
       </c>
-      <c r="I62" s="3">
+      <c r="J62" s="3">
         <v>211000</v>
       </c>
-      <c r="J62" s="3">
+      <c r="K62" s="3">
         <v>177000</v>
       </c>
-      <c r="K62" s="3">
+      <c r="L62" s="3">
         <v>163000</v>
       </c>
-      <c r="L62" s="3">
+      <c r="M62" s="3">
         <v>131000</v>
       </c>
-      <c r="M62" s="3">
+      <c r="N62" s="3">
         <v>182000</v>
       </c>
-      <c r="N62" s="3">
+      <c r="O62" s="3">
         <v>193000</v>
       </c>
-      <c r="O62" s="3">
+      <c r="P62" s="3">
         <v>268000</v>
       </c>
-      <c r="P62" s="3">
+      <c r="Q62" s="3">
         <v>269000</v>
       </c>
-      <c r="Q62" s="3">
+      <c r="R62" s="3">
         <v>284000</v>
       </c>
-      <c r="R62" s="3">
+      <c r="S62" s="3">
         <v>281000</v>
       </c>
     </row>
-    <row r="63" spans="3:18" x14ac:dyDescent="0.2">
+    <row r="63" spans="3:19" x14ac:dyDescent="0.2">
       <c r="C63" s="1" t="s">
         <v>56</v>
       </c>
@@ -3230,8 +3379,11 @@
       <c r="R63" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="64" spans="3:18" x14ac:dyDescent="0.2">
+      <c r="S63" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="64" spans="3:19" x14ac:dyDescent="0.2">
       <c r="C64" s="1" t="s">
         <v>20</v>
       </c>
@@ -3280,8 +3432,11 @@
       <c r="R64" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="65" spans="2:18" x14ac:dyDescent="0.2">
+      <c r="S64" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="65" spans="2:19" x14ac:dyDescent="0.2">
       <c r="C65" s="1" t="s">
         <v>57</v>
       </c>
@@ -3330,58 +3485,64 @@
       <c r="R65" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="66" spans="2:18" x14ac:dyDescent="0.2">
+      <c r="S65" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="66" spans="2:19" x14ac:dyDescent="0.2">
       <c r="C66" s="1" t="s">
         <v>58</v>
       </c>
       <c r="D66" s="3">
+        <v>44826000</v>
+      </c>
+      <c r="E66" s="3">
         <v>41852000</v>
       </c>
-      <c r="E66" s="3">
+      <c r="F66" s="3">
         <v>34734000</v>
       </c>
-      <c r="F66" s="3">
+      <c r="G66" s="3">
         <v>35086000</v>
       </c>
-      <c r="G66" s="3">
+      <c r="H66" s="3">
         <v>32626000</v>
       </c>
-      <c r="H66" s="3">
+      <c r="I66" s="3">
         <v>30356000</v>
       </c>
-      <c r="I66" s="3">
+      <c r="J66" s="3">
         <v>28834000</v>
       </c>
-      <c r="J66" s="3">
+      <c r="K66" s="3">
         <v>29517000</v>
       </c>
-      <c r="K66" s="3">
+      <c r="L66" s="3">
         <v>29575000</v>
       </c>
-      <c r="L66" s="3">
+      <c r="M66" s="3">
         <v>30815000</v>
       </c>
-      <c r="M66" s="3">
+      <c r="N66" s="3">
         <v>31979000</v>
       </c>
-      <c r="N66" s="3">
+      <c r="O66" s="3">
         <v>31380000</v>
       </c>
-      <c r="O66" s="3">
+      <c r="P66" s="3">
         <v>24650000</v>
       </c>
-      <c r="P66" s="3">
+      <c r="Q66" s="3">
         <v>23840000</v>
       </c>
-      <c r="Q66" s="3">
+      <c r="R66" s="3">
         <v>23635000</v>
       </c>
-      <c r="R66" s="3">
+      <c r="S66" s="3">
         <v>23767000</v>
       </c>
     </row>
-    <row r="67" spans="2:18" x14ac:dyDescent="0.2">
+    <row r="67" spans="2:19" x14ac:dyDescent="0.2">
       <c r="C67" s="1" t="s">
         <v>59</v>
       </c>
@@ -3400,8 +3561,9 @@
       <c r="P67" s="3"/>
       <c r="Q67" s="3"/>
       <c r="R67" s="3"/>
-    </row>
-    <row r="68" spans="2:18" x14ac:dyDescent="0.2">
+      <c r="S67" s="3"/>
+    </row>
+    <row r="68" spans="2:19" x14ac:dyDescent="0.2">
       <c r="C68" s="1" t="s">
         <v>60</v>
       </c>
@@ -3450,8 +3612,11 @@
       <c r="R68" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="69" spans="2:18" x14ac:dyDescent="0.2">
+      <c r="S68" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="69" spans="2:19" x14ac:dyDescent="0.2">
       <c r="C69" s="1" t="s">
         <v>61</v>
       </c>
@@ -3500,8 +3665,11 @@
       <c r="R69" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="70" spans="2:18" x14ac:dyDescent="0.2">
+      <c r="S69" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="70" spans="2:19" x14ac:dyDescent="0.2">
       <c r="C70" s="1" t="s">
         <v>62</v>
       </c>
@@ -3550,8 +3718,11 @@
       <c r="R70" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="71" spans="2:18" x14ac:dyDescent="0.2">
+      <c r="S70" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="71" spans="2:19" x14ac:dyDescent="0.2">
       <c r="C71" s="1" t="s">
         <v>63</v>
       </c>
@@ -3600,58 +3771,64 @@
       <c r="R71" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="72" spans="2:18" x14ac:dyDescent="0.2">
+      <c r="S71" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="72" spans="2:19" x14ac:dyDescent="0.2">
       <c r="C72" s="1" t="s">
         <v>64</v>
       </c>
       <c r="D72" s="3">
+        <v>9469000</v>
+      </c>
+      <c r="E72" s="3">
         <v>9068000</v>
       </c>
-      <c r="E72" s="3">
+      <c r="F72" s="3">
         <v>8790000</v>
       </c>
-      <c r="F72" s="3">
+      <c r="G72" s="3">
         <v>8580000</v>
       </c>
-      <c r="G72" s="3">
+      <c r="H72" s="3">
         <v>8194000</v>
       </c>
-      <c r="H72" s="3">
+      <c r="I72" s="3">
         <v>7805000</v>
       </c>
-      <c r="I72" s="3">
+      <c r="J72" s="3">
         <v>7475000</v>
       </c>
-      <c r="J72" s="3">
+      <c r="K72" s="3">
         <v>7011000</v>
       </c>
-      <c r="K72" s="3">
+      <c r="L72" s="3">
         <v>6673000</v>
       </c>
-      <c r="L72" s="3">
+      <c r="M72" s="3">
         <v>6341000</v>
       </c>
-      <c r="M72" s="3">
+      <c r="N72" s="3">
         <v>6189000</v>
       </c>
-      <c r="N72" s="3">
+      <c r="O72" s="3">
         <v>6011000</v>
       </c>
-      <c r="O72" s="3">
+      <c r="P72" s="3">
         <v>5895000</v>
       </c>
-      <c r="P72" s="3">
+      <c r="Q72" s="3">
         <v>5759000</v>
       </c>
-      <c r="Q72" s="3">
+      <c r="R72" s="3">
         <v>5640000</v>
       </c>
-      <c r="R72" s="3">
+      <c r="S72" s="3">
         <v>5518000</v>
       </c>
     </row>
-    <row r="73" spans="2:18" x14ac:dyDescent="0.2">
+    <row r="73" spans="2:19" x14ac:dyDescent="0.2">
       <c r="C73" s="1" t="s">
         <v>65</v>
       </c>
@@ -3700,8 +3877,11 @@
       <c r="R73" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="74" spans="2:18" x14ac:dyDescent="0.2">
+      <c r="S73" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="74" spans="2:19" x14ac:dyDescent="0.2">
       <c r="C74" s="1" t="s">
         <v>66</v>
       </c>
@@ -3750,8 +3930,11 @@
       <c r="R74" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="75" spans="2:18" x14ac:dyDescent="0.2">
+      <c r="S74" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="75" spans="2:19" x14ac:dyDescent="0.2">
       <c r="C75" s="1" t="s">
         <v>67</v>
       </c>
@@ -3800,58 +3983,64 @@
       <c r="R75" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="76" spans="2:18" x14ac:dyDescent="0.2">
+      <c r="S75" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="76" spans="2:19" x14ac:dyDescent="0.2">
       <c r="C76" s="1" t="s">
         <v>68</v>
       </c>
       <c r="D76" s="3">
+        <v>9568000</v>
+      </c>
+      <c r="E76" s="3">
         <v>9153000</v>
       </c>
-      <c r="E76" s="3">
+      <c r="F76" s="3">
         <v>8747000</v>
       </c>
-      <c r="F76" s="3">
+      <c r="G76" s="3">
         <v>8700000</v>
       </c>
-      <c r="G76" s="3">
+      <c r="H76" s="3">
         <v>8493000</v>
       </c>
-      <c r="H76" s="3">
+      <c r="I76" s="3">
         <v>8323000</v>
       </c>
-      <c r="I76" s="3">
+      <c r="J76" s="3">
         <v>8357000</v>
       </c>
-      <c r="J76" s="3">
+      <c r="K76" s="3">
         <v>8003000</v>
       </c>
-      <c r="K76" s="3">
+      <c r="L76" s="3">
         <v>7936000</v>
       </c>
-      <c r="L76" s="3">
+      <c r="M76" s="3">
         <v>7595000</v>
       </c>
-      <c r="M76" s="3">
+      <c r="N76" s="3">
         <v>7433000</v>
       </c>
-      <c r="N76" s="3">
+      <c r="O76" s="3">
         <v>7247000</v>
       </c>
-      <c r="O76" s="3">
+      <c r="P76" s="3">
         <v>5460000</v>
       </c>
-      <c r="P76" s="3">
+      <c r="Q76" s="3">
         <v>5325000</v>
       </c>
-      <c r="Q76" s="3">
+      <c r="R76" s="3">
         <v>5199000</v>
       </c>
-      <c r="R76" s="3">
+      <c r="S76" s="3">
         <v>5051000</v>
       </c>
     </row>
-    <row r="77" spans="2:18" x14ac:dyDescent="0.2">
+    <row r="77" spans="2:19" x14ac:dyDescent="0.2">
       <c r="C77" s="1" t="s">
         <v>69</v>
       </c>
@@ -3900,113 +4089,122 @@
       <c r="R77" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="79" spans="2:18" x14ac:dyDescent="0.2">
+      <c r="S77" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="79" spans="2:19" x14ac:dyDescent="0.2">
       <c r="B79" s="1" t="s">
         <v>70</v>
       </c>
     </row>
-    <row r="80" spans="2:18" x14ac:dyDescent="0.2">
+    <row r="80" spans="2:19" x14ac:dyDescent="0.2">
       <c r="C80" s="1" t="s">
         <v>2</v>
       </c>
       <c r="D80" s="2">
+        <v>44012</v>
+      </c>
+      <c r="E80" s="2">
         <v>43921</v>
       </c>
-      <c r="E80" s="2">
+      <c r="F80" s="2">
         <v>43830</v>
       </c>
-      <c r="F80" s="2">
+      <c r="G80" s="2">
         <v>43738</v>
       </c>
-      <c r="G80" s="2">
+      <c r="H80" s="2">
         <v>43646</v>
       </c>
-      <c r="H80" s="2">
+      <c r="I80" s="2">
         <v>43555</v>
       </c>
-      <c r="I80" s="2">
+      <c r="J80" s="2">
         <v>43465</v>
       </c>
-      <c r="J80" s="2">
+      <c r="K80" s="2">
         <v>43373</v>
       </c>
-      <c r="K80" s="2">
+      <c r="L80" s="2">
         <v>43281</v>
       </c>
-      <c r="L80" s="2">
+      <c r="M80" s="2">
         <v>43190</v>
       </c>
-      <c r="M80" s="2">
+      <c r="N80" s="2">
         <v>43100</v>
       </c>
-      <c r="N80" s="2">
+      <c r="O80" s="2">
         <v>43008</v>
       </c>
-      <c r="O80" s="2">
+      <c r="P80" s="2">
         <v>42916</v>
       </c>
-      <c r="P80" s="2">
+      <c r="Q80" s="2">
         <v>42825</v>
       </c>
-      <c r="Q80" s="2">
+      <c r="R80" s="2">
         <v>42735</v>
       </c>
-      <c r="R80" s="2">
+      <c r="S80" s="2">
         <v>42643</v>
       </c>
     </row>
-    <row r="81" spans="3:18" x14ac:dyDescent="0.2">
+    <row r="81" spans="3:19" x14ac:dyDescent="0.2">
       <c r="C81" s="1" t="s">
         <v>28</v>
       </c>
       <c r="D81" s="3">
+        <v>569000</v>
+      </c>
+      <c r="E81" s="3">
         <v>446000</v>
       </c>
-      <c r="E81" s="3">
+      <c r="F81" s="3">
         <v>379000</v>
       </c>
-      <c r="F81" s="3">
+      <c r="G81" s="3">
         <v>550000</v>
       </c>
-      <c r="G81" s="3">
+      <c r="H81" s="3">
         <v>555000</v>
       </c>
-      <c r="H81" s="3">
+      <c r="I81" s="3">
         <v>499000</v>
       </c>
-      <c r="I81" s="3">
+      <c r="J81" s="3">
         <v>604000</v>
       </c>
-      <c r="J81" s="3">
+      <c r="K81" s="3">
         <v>454000</v>
       </c>
-      <c r="K81" s="3">
+      <c r="L81" s="3">
         <v>451000</v>
       </c>
-      <c r="L81" s="3">
+      <c r="M81" s="3">
         <v>271000</v>
       </c>
-      <c r="M81" s="3">
+      <c r="N81" s="3">
         <v>297000</v>
       </c>
-      <c r="N81" s="3">
+      <c r="O81" s="3">
         <v>211000</v>
       </c>
-      <c r="O81" s="3">
+      <c r="P81" s="3">
         <v>231000</v>
       </c>
-      <c r="P81" s="3">
+      <c r="Q81" s="3">
         <v>214000</v>
       </c>
-      <c r="Q81" s="3">
+      <c r="R81" s="3">
         <v>216000</v>
       </c>
-      <c r="R81" s="3">
+      <c r="S81" s="3">
         <v>185000</v>
       </c>
     </row>
-    <row r="82" spans="3:18" x14ac:dyDescent="0.2">
+    <row r="82" spans="3:19" x14ac:dyDescent="0.2">
       <c r="C82" s="1" t="s">
         <v>71</v>
       </c>
@@ -4025,58 +4223,62 @@
       <c r="P82" s="3"/>
       <c r="Q82" s="3"/>
       <c r="R82" s="3"/>
-    </row>
-    <row r="83" spans="3:18" x14ac:dyDescent="0.2">
+      <c r="S82" s="3"/>
+    </row>
+    <row r="83" spans="3:19" x14ac:dyDescent="0.2">
       <c r="C83" s="1" t="s">
         <v>72</v>
       </c>
       <c r="D83" s="3">
-        <v>72000</v>
+        <v>73000</v>
       </c>
       <c r="E83" s="3">
         <v>72000</v>
       </c>
       <c r="F83" s="3">
+        <v>72000</v>
+      </c>
+      <c r="G83" s="3">
         <v>71000</v>
       </c>
-      <c r="G83" s="3">
+      <c r="H83" s="3">
         <v>69000</v>
       </c>
-      <c r="H83" s="3">
+      <c r="I83" s="3">
         <v>67000</v>
       </c>
-      <c r="I83" s="3">
+      <c r="J83" s="3">
         <v>66000</v>
       </c>
-      <c r="J83" s="3">
+      <c r="K83" s="3">
         <v>70000</v>
       </c>
-      <c r="K83" s="3">
+      <c r="L83" s="3">
         <v>69000</v>
-      </c>
-      <c r="L83" s="3">
-        <v>72000</v>
       </c>
       <c r="M83" s="3">
         <v>72000</v>
       </c>
       <c r="N83" s="3">
+        <v>72000</v>
+      </c>
+      <c r="O83" s="3">
         <v>50000</v>
-      </c>
-      <c r="O83" s="3">
-        <v>44000</v>
       </c>
       <c r="P83" s="3">
         <v>44000</v>
       </c>
       <c r="Q83" s="3">
+        <v>44000</v>
+      </c>
+      <c r="R83" s="3">
         <v>43000</v>
       </c>
-      <c r="R83" s="3">
+      <c r="S83" s="3">
         <v>45000</v>
       </c>
     </row>
-    <row r="84" spans="3:18" x14ac:dyDescent="0.2">
+    <row r="84" spans="3:19" x14ac:dyDescent="0.2">
       <c r="C84" s="1" t="s">
         <v>73</v>
       </c>
@@ -4125,8 +4327,11 @@
       <c r="R84" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="85" spans="3:18" x14ac:dyDescent="0.2">
+      <c r="S84" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="85" spans="3:19" x14ac:dyDescent="0.2">
       <c r="C85" s="1" t="s">
         <v>74</v>
       </c>
@@ -4175,8 +4380,11 @@
       <c r="R85" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="86" spans="3:18" x14ac:dyDescent="0.2">
+      <c r="S85" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="86" spans="3:19" x14ac:dyDescent="0.2">
       <c r="C86" s="1" t="s">
         <v>75</v>
       </c>
@@ -4225,8 +4433,11 @@
       <c r="R86" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="87" spans="3:18" x14ac:dyDescent="0.2">
+      <c r="S86" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="87" spans="3:19" x14ac:dyDescent="0.2">
       <c r="C87" s="1" t="s">
         <v>76</v>
       </c>
@@ -4275,8 +4486,11 @@
       <c r="R87" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="88" spans="3:18" x14ac:dyDescent="0.2">
+      <c r="S87" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="88" spans="3:19" x14ac:dyDescent="0.2">
       <c r="C88" s="1" t="s">
         <v>77</v>
       </c>
@@ -4325,58 +4539,64 @@
       <c r="R88" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="89" spans="3:18" x14ac:dyDescent="0.2">
+      <c r="S88" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="89" spans="3:19" x14ac:dyDescent="0.2">
       <c r="C89" s="1" t="s">
         <v>78</v>
       </c>
       <c r="D89" s="3">
+        <v>-4953000</v>
+      </c>
+      <c r="E89" s="3">
         <v>10067000</v>
       </c>
-      <c r="E89" s="3">
+      <c r="F89" s="3">
         <v>-473000</v>
       </c>
-      <c r="F89" s="3">
+      <c r="G89" s="3">
         <v>1847000</v>
       </c>
-      <c r="G89" s="3">
+      <c r="H89" s="3">
         <v>2438000</v>
       </c>
-      <c r="H89" s="3">
+      <c r="I89" s="3">
         <v>573000</v>
       </c>
-      <c r="I89" s="3">
+      <c r="J89" s="3">
         <v>2762000</v>
       </c>
-      <c r="J89" s="3">
+      <c r="K89" s="3">
         <v>1821000</v>
       </c>
-      <c r="K89" s="3">
+      <c r="L89" s="3">
         <v>349000</v>
       </c>
-      <c r="L89" s="3">
+      <c r="M89" s="3">
         <v>124000</v>
       </c>
-      <c r="M89" s="3">
+      <c r="N89" s="3">
         <v>-386000</v>
       </c>
-      <c r="N89" s="3">
+      <c r="O89" s="3">
         <v>23000</v>
       </c>
-      <c r="O89" s="3">
+      <c r="P89" s="3">
         <v>27000</v>
       </c>
-      <c r="P89" s="3">
+      <c r="Q89" s="3">
         <v>718000</v>
       </c>
-      <c r="Q89" s="3">
+      <c r="R89" s="3">
         <v>-81000</v>
       </c>
-      <c r="R89" s="3">
+      <c r="S89" s="3">
         <v>436000</v>
       </c>
     </row>
-    <row r="90" spans="3:18" x14ac:dyDescent="0.2">
+    <row r="90" spans="3:19" x14ac:dyDescent="0.2">
       <c r="C90" s="1" t="s">
         <v>79</v>
       </c>
@@ -4395,58 +4615,62 @@
       <c r="P90" s="3"/>
       <c r="Q90" s="3"/>
       <c r="R90" s="3"/>
-    </row>
-    <row r="91" spans="3:18" x14ac:dyDescent="0.2">
+      <c r="S90" s="3"/>
+    </row>
+    <row r="91" spans="3:19" x14ac:dyDescent="0.2">
       <c r="C91" s="1" t="s">
         <v>80</v>
       </c>
       <c r="D91" s="3">
+        <v>-32000</v>
+      </c>
+      <c r="E91" s="3">
         <v>-53000</v>
       </c>
-      <c r="E91" s="3">
+      <c r="F91" s="3">
         <v>-102000</v>
       </c>
-      <c r="F91" s="3">
+      <c r="G91" s="3">
         <v>-48000</v>
       </c>
-      <c r="G91" s="3">
+      <c r="H91" s="3">
         <v>-59000</v>
       </c>
-      <c r="H91" s="3">
+      <c r="I91" s="3">
         <v>-48000</v>
       </c>
-      <c r="I91" s="3">
+      <c r="J91" s="3">
         <v>-44000</v>
       </c>
-      <c r="J91" s="3">
+      <c r="K91" s="3">
         <v>-63000</v>
       </c>
-      <c r="K91" s="3">
+      <c r="L91" s="3">
         <v>-47000</v>
       </c>
-      <c r="L91" s="3">
+      <c r="M91" s="3">
         <v>-56000</v>
       </c>
-      <c r="M91" s="3">
+      <c r="N91" s="3">
         <v>-63000</v>
       </c>
-      <c r="N91" s="3">
+      <c r="O91" s="3">
         <v>-56000</v>
       </c>
-      <c r="O91" s="3">
+      <c r="P91" s="3">
         <v>-62000</v>
       </c>
-      <c r="P91" s="3">
+      <c r="Q91" s="3">
         <v>-100000</v>
       </c>
-      <c r="Q91" s="3">
+      <c r="R91" s="3">
         <v>-58000</v>
       </c>
-      <c r="R91" s="3">
+      <c r="S91" s="3">
         <v>-27000</v>
       </c>
     </row>
-    <row r="92" spans="3:18" x14ac:dyDescent="0.2">
+    <row r="92" spans="3:19" x14ac:dyDescent="0.2">
       <c r="C92" s="1" t="s">
         <v>81</v>
       </c>
@@ -4495,8 +4719,11 @@
       <c r="R92" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="93" spans="3:18" x14ac:dyDescent="0.2">
+      <c r="S92" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="93" spans="3:19" x14ac:dyDescent="0.2">
       <c r="C93" s="1" t="s">
         <v>82</v>
       </c>
@@ -4545,58 +4772,64 @@
       <c r="R93" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="94" spans="3:18" x14ac:dyDescent="0.2">
+      <c r="S93" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="94" spans="3:19" x14ac:dyDescent="0.2">
       <c r="C94" s="1" t="s">
         <v>83</v>
       </c>
       <c r="D94" s="3">
+        <v>-31000</v>
+      </c>
+      <c r="E94" s="3">
         <v>-51000</v>
       </c>
-      <c r="E94" s="3">
+      <c r="F94" s="3">
         <v>-106000</v>
       </c>
-      <c r="F94" s="3">
+      <c r="G94" s="3">
         <v>-543000</v>
       </c>
-      <c r="G94" s="3">
+      <c r="H94" s="3">
         <v>-195000</v>
       </c>
-      <c r="H94" s="3">
+      <c r="I94" s="3">
         <v>-48000</v>
       </c>
-      <c r="I94" s="3">
+      <c r="J94" s="3">
         <v>-426000</v>
       </c>
-      <c r="J94" s="3">
+      <c r="K94" s="3">
         <v>-66000</v>
       </c>
-      <c r="K94" s="3">
+      <c r="L94" s="3">
         <v>-35000</v>
       </c>
-      <c r="L94" s="3">
+      <c r="M94" s="3">
         <v>-440000</v>
       </c>
-      <c r="M94" s="3">
+      <c r="N94" s="3">
         <v>633000</v>
       </c>
-      <c r="N94" s="3">
+      <c r="O94" s="3">
         <v>-1406000</v>
       </c>
-      <c r="O94" s="3">
+      <c r="P94" s="3">
         <v>-62000</v>
       </c>
-      <c r="P94" s="3">
+      <c r="Q94" s="3">
         <v>-50000</v>
       </c>
-      <c r="Q94" s="3">
+      <c r="R94" s="3">
         <v>-29000</v>
       </c>
-      <c r="R94" s="3">
+      <c r="S94" s="3">
         <v>-384000</v>
       </c>
     </row>
-    <row r="95" spans="3:18" x14ac:dyDescent="0.2">
+    <row r="95" spans="3:19" x14ac:dyDescent="0.2">
       <c r="C95" s="1" t="s">
         <v>84</v>
       </c>
@@ -4615,34 +4848,35 @@
       <c r="P95" s="3"/>
       <c r="Q95" s="3"/>
       <c r="R95" s="3"/>
-    </row>
-    <row r="96" spans="3:18" x14ac:dyDescent="0.2">
+      <c r="S95" s="3"/>
+    </row>
+    <row r="96" spans="3:19" x14ac:dyDescent="0.2">
       <c r="C96" s="1" t="s">
         <v>85</v>
       </c>
       <c r="D96" s="3">
+        <v>-168000</v>
+      </c>
+      <c r="E96" s="3">
         <v>-167000</v>
       </c>
-      <c r="E96" s="3">
+      <c r="F96" s="3">
         <v>-168000</v>
       </c>
-      <c r="F96" s="3">
+      <c r="G96" s="3">
         <v>-164000</v>
       </c>
-      <c r="G96" s="3">
+      <c r="H96" s="3">
         <v>-166000</v>
       </c>
-      <c r="H96" s="3">
+      <c r="I96" s="3">
         <v>-169000</v>
       </c>
-      <c r="I96" s="3">
+      <c r="J96" s="3">
         <v>-168000</v>
       </c>
-      <c r="J96" s="3">
+      <c r="K96" s="3">
         <v>-120000</v>
-      </c>
-      <c r="K96" s="3">
-        <v>-119000</v>
       </c>
       <c r="L96" s="3">
         <v>-119000</v>
@@ -4651,10 +4885,10 @@
         <v>-119000</v>
       </c>
       <c r="N96" s="3">
+        <v>-119000</v>
+      </c>
+      <c r="O96" s="3">
         <v>-94000</v>
-      </c>
-      <c r="O96" s="3">
-        <v>-95000</v>
       </c>
       <c r="P96" s="3">
         <v>-95000</v>
@@ -4663,10 +4897,13 @@
         <v>-95000</v>
       </c>
       <c r="R96" s="3">
+        <v>-95000</v>
+      </c>
+      <c r="S96" s="3">
         <v>-90000</v>
       </c>
     </row>
-    <row r="97" spans="3:18" x14ac:dyDescent="0.2">
+    <row r="97" spans="3:19" x14ac:dyDescent="0.2">
       <c r="C97" s="1" t="s">
         <v>86</v>
       </c>
@@ -4715,8 +4952,11 @@
       <c r="R97" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="98" spans="3:18" x14ac:dyDescent="0.2">
+      <c r="S97" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="98" spans="3:19" x14ac:dyDescent="0.2">
       <c r="C98" s="1" t="s">
         <v>87</v>
       </c>
@@ -4765,8 +5005,11 @@
       <c r="R98" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="99" spans="3:18" x14ac:dyDescent="0.2">
+      <c r="S98" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="99" spans="3:19" x14ac:dyDescent="0.2">
       <c r="C99" s="1" t="s">
         <v>88</v>
       </c>
@@ -4815,58 +5058,64 @@
       <c r="R99" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="100" spans="3:18" x14ac:dyDescent="0.2">
+      <c r="S99" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="100" spans="3:19" x14ac:dyDescent="0.2">
       <c r="C100" s="1" t="s">
         <v>89</v>
       </c>
       <c r="D100" s="3">
+        <v>-1392000</v>
+      </c>
+      <c r="E100" s="3">
         <v>1047000</v>
       </c>
-      <c r="E100" s="3">
+      <c r="F100" s="3">
         <v>-323000</v>
       </c>
-      <c r="F100" s="3">
+      <c r="G100" s="3">
         <v>-396000</v>
       </c>
-      <c r="G100" s="3">
+      <c r="H100" s="3">
         <v>-409000</v>
       </c>
-      <c r="H100" s="3">
+      <c r="I100" s="3">
         <v>-552000</v>
       </c>
-      <c r="I100" s="3">
+      <c r="J100" s="3">
         <v>594000</v>
       </c>
-      <c r="J100" s="3">
+      <c r="K100" s="3">
         <v>-408000</v>
       </c>
-      <c r="K100" s="3">
+      <c r="L100" s="3">
         <v>-344000</v>
       </c>
-      <c r="L100" s="3">
+      <c r="M100" s="3">
         <v>45000</v>
       </c>
-      <c r="M100" s="3">
+      <c r="N100" s="3">
         <v>-75000</v>
       </c>
-      <c r="N100" s="3">
+      <c r="O100" s="3">
         <v>-37000</v>
       </c>
-      <c r="O100" s="3">
+      <c r="P100" s="3">
         <v>685000</v>
       </c>
-      <c r="P100" s="3">
+      <c r="Q100" s="3">
         <v>-97000</v>
       </c>
-      <c r="Q100" s="3">
+      <c r="R100" s="3">
         <v>-74000</v>
       </c>
-      <c r="R100" s="3">
+      <c r="S100" s="3">
         <v>-114000</v>
       </c>
     </row>
-    <row r="101" spans="3:18" x14ac:dyDescent="0.2">
+    <row r="101" spans="3:19" x14ac:dyDescent="0.2">
       <c r="C101" s="1" t="s">
         <v>90</v>
       </c>
@@ -4915,54 +5164,60 @@
       <c r="R101" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="102" spans="3:18" x14ac:dyDescent="0.2">
+      <c r="S101" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="102" spans="3:19" x14ac:dyDescent="0.2">
       <c r="C102" s="1" t="s">
         <v>91</v>
       </c>
       <c r="D102" s="3">
+        <v>-6376000</v>
+      </c>
+      <c r="E102" s="3">
         <v>11063000</v>
       </c>
-      <c r="E102" s="3">
+      <c r="F102" s="3">
         <v>-902000</v>
       </c>
-      <c r="F102" s="3">
+      <c r="G102" s="3">
         <v>908000</v>
       </c>
-      <c r="G102" s="3">
+      <c r="H102" s="3">
         <v>1834000</v>
       </c>
-      <c r="H102" s="3">
+      <c r="I102" s="3">
         <v>-27000</v>
       </c>
-      <c r="I102" s="3">
+      <c r="J102" s="3">
         <v>2930000</v>
       </c>
-      <c r="J102" s="3">
+      <c r="K102" s="3">
         <v>1347000</v>
       </c>
-      <c r="K102" s="3">
+      <c r="L102" s="3">
         <v>-30000</v>
       </c>
-      <c r="L102" s="3">
+      <c r="M102" s="3">
         <v>-271000</v>
       </c>
-      <c r="M102" s="3">
+      <c r="N102" s="3">
         <v>172000</v>
       </c>
-      <c r="N102" s="3">
+      <c r="O102" s="3">
         <v>-1408000</v>
       </c>
-      <c r="O102" s="3">
+      <c r="P102" s="3">
         <v>649000</v>
       </c>
-      <c r="P102" s="3">
+      <c r="Q102" s="3">
         <v>569000</v>
       </c>
-      <c r="Q102" s="3">
+      <c r="R102" s="3">
         <v>-193000</v>
       </c>
-      <c r="R102" s="3">
+      <c r="S102" s="3">
         <v>-62000</v>
       </c>
     </row>

--- a/AAII_Financials/Quarterly/AMTD_QTR_FIN.xlsx
+++ b/AAII_Financials/Quarterly/AMTD_QTR_FIN.xlsx
@@ -22,7 +22,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="168" uniqueCount="92">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="197" uniqueCount="92">
   <si>
     <t>AMTD</t>
   </si>
@@ -656,7 +656,7 @@
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
   <sheetPr codeName="Sheet2"/>
-  <dimension ref="A5:S102"/>
+  <dimension ref="A5:V102"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0"/>
   </sheetViews>
@@ -665,171 +665,191 @@
     <col min="1" max="1" width="7.85546875" style="1" bestFit="1" customWidth="1"/>
     <col min="2" max="2" width="26.85546875" style="1" bestFit="1" customWidth="1"/>
     <col min="3" max="3" width="69.140625" style="1" bestFit="1" customWidth="1"/>
-    <col min="4" max="4" width="14.5703125" style="1" bestFit="1" customWidth="1"/>
-    <col min="5" max="5" width="14.85546875" style="1" bestFit="1" customWidth="1"/>
-    <col min="6" max="7" width="14.7109375" style="1" bestFit="1" customWidth="1"/>
-    <col min="8" max="8" width="14.5703125" style="1" bestFit="1" customWidth="1"/>
-    <col min="9" max="9" width="14.85546875" style="1" bestFit="1" customWidth="1"/>
-    <col min="10" max="11" width="14.7109375" style="1" bestFit="1" customWidth="1"/>
-    <col min="12" max="12" width="14.5703125" style="1" bestFit="1" customWidth="1"/>
-    <col min="13" max="13" width="14.85546875" style="1" bestFit="1" customWidth="1"/>
-    <col min="14" max="15" width="14.7109375" style="1" bestFit="1" customWidth="1"/>
-    <col min="16" max="16" width="14.5703125" style="1" bestFit="1" customWidth="1"/>
-    <col min="17" max="17" width="14.85546875" style="1" bestFit="1" customWidth="1"/>
-    <col min="18" max="19" width="14.7109375" style="1" bestFit="1" customWidth="1"/>
-    <col min="20" max="16384" width="9.140625" style="1"/>
+    <col min="4" max="4" width="14.42578125" style="1" bestFit="1" customWidth="1"/>
+    <col min="5" max="6" width="14.7109375" style="1" bestFit="1" customWidth="1"/>
+    <col min="7" max="7" width="14.42578125" style="1" bestFit="1" customWidth="1"/>
+    <col min="8" max="9" width="14.7109375" style="1" bestFit="1" customWidth="1"/>
+    <col min="10" max="10" width="14.42578125" style="1" bestFit="1" customWidth="1"/>
+    <col min="11" max="11" width="14.5703125" style="1" bestFit="1" customWidth="1"/>
+    <col min="12" max="12" width="14.85546875" style="1" bestFit="1" customWidth="1"/>
+    <col min="13" max="14" width="14.7109375" style="1" bestFit="1" customWidth="1"/>
+    <col min="15" max="15" width="14.5703125" style="1" bestFit="1" customWidth="1"/>
+    <col min="16" max="16" width="14.85546875" style="1" bestFit="1" customWidth="1"/>
+    <col min="17" max="18" width="14.7109375" style="1" bestFit="1" customWidth="1"/>
+    <col min="19" max="19" width="14.5703125" style="1" bestFit="1" customWidth="1"/>
+    <col min="20" max="20" width="14.85546875" style="1" bestFit="1" customWidth="1"/>
+    <col min="21" max="22" width="14.7109375" style="1" bestFit="1" customWidth="1"/>
+    <col min="23" max="16384" width="9.140625" style="1"/>
   </cols>
   <sheetData>
-    <row r="5" spans="1:19" x14ac:dyDescent="0.2">
+    <row r="5" spans="1:22" x14ac:dyDescent="0.2">
       <c r="A5" s="1" t="s">
         <v>0</v>
       </c>
     </row>
-    <row r="6" spans="1:19" x14ac:dyDescent="0.2">
+    <row r="6" spans="1:22" x14ac:dyDescent="0.2">
       <c r="B6" s="1" t="s">
         <v>1</v>
       </c>
     </row>
-    <row r="7" spans="1:19" x14ac:dyDescent="0.2">
+    <row r="7" spans="1:22" x14ac:dyDescent="0.2">
       <c r="C7" s="1" t="s">
         <v>2</v>
       </c>
       <c r="D7" s="2">
+        <v>44377</v>
+      </c>
+      <c r="E7" s="2">
+        <v>44196</v>
+      </c>
+      <c r="F7" s="2">
+        <v>44104</v>
+      </c>
+      <c r="G7" s="2">
         <v>44012</v>
       </c>
-      <c r="E7" s="2">
-        <v>43921</v>
-      </c>
-      <c r="F7" s="2">
+      <c r="H7" s="2">
         <v>43830</v>
       </c>
-      <c r="G7" s="2">
+      <c r="I7" s="2">
         <v>43738</v>
       </c>
-      <c r="H7" s="2">
+      <c r="J7" s="2">
         <v>43646</v>
       </c>
-      <c r="I7" s="2">
+      <c r="K7" s="2">
+        <v>43646</v>
+      </c>
+      <c r="L7" s="2">
         <v>43555</v>
       </c>
-      <c r="J7" s="2">
+      <c r="M7" s="2">
         <v>43465</v>
       </c>
-      <c r="K7" s="2">
+      <c r="N7" s="2">
         <v>43373</v>
       </c>
-      <c r="L7" s="2">
+      <c r="O7" s="2">
         <v>43281</v>
       </c>
-      <c r="M7" s="2">
+      <c r="P7" s="2">
         <v>43190</v>
       </c>
-      <c r="N7" s="2">
+      <c r="Q7" s="2">
         <v>43100</v>
       </c>
-      <c r="O7" s="2">
+      <c r="R7" s="2">
         <v>43008</v>
       </c>
-      <c r="P7" s="2">
+      <c r="S7" s="2">
         <v>42916</v>
       </c>
-      <c r="Q7" s="2">
+      <c r="T7" s="2">
         <v>42825</v>
       </c>
-      <c r="R7" s="2">
+      <c r="U7" s="2">
         <v>42735</v>
       </c>
-      <c r="S7" s="2">
+      <c r="V7" s="2">
         <v>42643</v>
       </c>
     </row>
-    <row r="8" spans="1:19" x14ac:dyDescent="0.2">
+    <row r="8" spans="1:22" x14ac:dyDescent="0.2">
       <c r="C8" s="1" t="s">
         <v>3</v>
       </c>
       <c r="D8" s="3">
-        <v>1586000</v>
+        <v>66300</v>
       </c>
       <c r="E8" s="3">
-        <v>1480000</v>
+        <v>19800</v>
       </c>
       <c r="F8" s="3">
-        <v>1291000</v>
+        <v>10700</v>
       </c>
       <c r="G8" s="3">
-        <v>1559000</v>
+        <v>68900</v>
       </c>
       <c r="H8" s="3">
+        <v>20200</v>
+      </c>
+      <c r="I8" s="3">
+        <v>18500</v>
+      </c>
+      <c r="J8" s="3">
+        <v>25000</v>
+      </c>
+      <c r="K8" s="3">
         <v>1491000</v>
       </c>
-      <c r="I8" s="3">
+      <c r="L8" s="3">
         <v>1451000</v>
       </c>
-      <c r="J8" s="3">
+      <c r="M8" s="3">
         <v>1516000</v>
       </c>
-      <c r="K8" s="3">
+      <c r="N8" s="3">
         <v>1398000</v>
       </c>
-      <c r="L8" s="3">
+      <c r="O8" s="3">
         <v>1382000</v>
       </c>
-      <c r="M8" s="3">
+      <c r="P8" s="3">
         <v>1415000</v>
       </c>
-      <c r="N8" s="3">
+      <c r="Q8" s="3">
         <v>1257000</v>
       </c>
-      <c r="O8" s="3">
+      <c r="R8" s="3">
         <v>983000</v>
       </c>
-      <c r="P8" s="3">
+      <c r="S8" s="3">
         <v>931000</v>
       </c>
-      <c r="Q8" s="3">
+      <c r="T8" s="3">
         <v>904000</v>
       </c>
-      <c r="R8" s="3">
+      <c r="U8" s="3">
         <v>859000</v>
       </c>
-      <c r="S8" s="3">
+      <c r="V8" s="3">
         <v>830000</v>
       </c>
     </row>
-    <row r="9" spans="1:19" x14ac:dyDescent="0.2">
+    <row r="9" spans="1:22" x14ac:dyDescent="0.2">
       <c r="C9" s="1" t="s">
         <v>4</v>
       </c>
-      <c r="D9" s="3">
-        <v>88000</v>
-      </c>
-      <c r="E9" s="3">
-        <v>75000</v>
-      </c>
-      <c r="F9" s="3">
-        <v>50000</v>
-      </c>
-      <c r="G9" s="3">
-        <v>48000</v>
-      </c>
-      <c r="H9" s="3">
+      <c r="D9" s="3" t="s">
+        <v>5</v>
+      </c>
+      <c r="E9" s="3" t="s">
+        <v>5</v>
+      </c>
+      <c r="F9" s="3" t="s">
+        <v>5</v>
+      </c>
+      <c r="G9" s="3" t="s">
+        <v>5</v>
+      </c>
+      <c r="H9" s="3" t="s">
+        <v>5</v>
+      </c>
+      <c r="I9" s="3" t="s">
+        <v>5</v>
+      </c>
+      <c r="J9" s="3" t="s">
+        <v>5</v>
+      </c>
+      <c r="K9" s="3">
         <v>59000</v>
       </c>
-      <c r="I9" s="3">
+      <c r="L9" s="3">
         <v>53000</v>
       </c>
-      <c r="J9" s="3">
+      <c r="M9" s="3">
         <v>49000</v>
       </c>
-      <c r="K9" s="3" t="s">
-        <v>5</v>
-      </c>
-      <c r="L9" s="3" t="s">
-        <v>5</v>
-      </c>
-      <c r="M9" s="3" t="s">
-        <v>5</v>
-      </c>
       <c r="N9" s="3" t="s">
         <v>5</v>
       </c>
@@ -848,41 +868,50 @@
       <c r="S9" s="3" t="s">
         <v>5</v>
       </c>
-    </row>
-    <row r="10" spans="1:19" x14ac:dyDescent="0.2">
+      <c r="T9" s="3" t="s">
+        <v>5</v>
+      </c>
+      <c r="U9" s="3" t="s">
+        <v>5</v>
+      </c>
+      <c r="V9" s="3" t="s">
+        <v>5</v>
+      </c>
+    </row>
+    <row r="10" spans="1:22" x14ac:dyDescent="0.2">
       <c r="C10" s="1" t="s">
         <v>6</v>
       </c>
-      <c r="D10" s="3">
-        <v>1498000</v>
-      </c>
-      <c r="E10" s="3">
-        <v>1405000</v>
-      </c>
-      <c r="F10" s="3">
-        <v>1241000</v>
-      </c>
-      <c r="G10" s="3">
-        <v>1511000</v>
-      </c>
-      <c r="H10" s="3">
+      <c r="D10" s="3" t="s">
+        <v>5</v>
+      </c>
+      <c r="E10" s="3" t="s">
+        <v>5</v>
+      </c>
+      <c r="F10" s="3" t="s">
+        <v>5</v>
+      </c>
+      <c r="G10" s="3" t="s">
+        <v>5</v>
+      </c>
+      <c r="H10" s="3" t="s">
+        <v>5</v>
+      </c>
+      <c r="I10" s="3" t="s">
+        <v>5</v>
+      </c>
+      <c r="J10" s="3" t="s">
+        <v>5</v>
+      </c>
+      <c r="K10" s="3">
         <v>1432000</v>
       </c>
-      <c r="I10" s="3">
+      <c r="L10" s="3">
         <v>1398000</v>
       </c>
-      <c r="J10" s="3">
+      <c r="M10" s="3">
         <v>1467000</v>
       </c>
-      <c r="K10" s="3" t="s">
-        <v>5</v>
-      </c>
-      <c r="L10" s="3" t="s">
-        <v>5</v>
-      </c>
-      <c r="M10" s="3" t="s">
-        <v>5</v>
-      </c>
       <c r="N10" s="3" t="s">
         <v>5</v>
       </c>
@@ -901,8 +930,17 @@
       <c r="S10" s="3" t="s">
         <v>5</v>
       </c>
-    </row>
-    <row r="11" spans="1:19" x14ac:dyDescent="0.2">
+      <c r="T10" s="3" t="s">
+        <v>5</v>
+      </c>
+      <c r="U10" s="3" t="s">
+        <v>5</v>
+      </c>
+      <c r="V10" s="3" t="s">
+        <v>5</v>
+      </c>
+    </row>
+    <row r="11" spans="1:22" x14ac:dyDescent="0.2">
       <c r="C11" s="1" t="s">
         <v>7</v>
       </c>
@@ -922,8 +960,11 @@
       <c r="Q11" s="3"/>
       <c r="R11" s="3"/>
       <c r="S11" s="3"/>
-    </row>
-    <row r="12" spans="1:19" x14ac:dyDescent="0.2">
+      <c r="T11" s="3"/>
+      <c r="U11" s="3"/>
+      <c r="V11" s="3"/>
+    </row>
+    <row r="12" spans="1:22" x14ac:dyDescent="0.2">
       <c r="C12" s="1" t="s">
         <v>8</v>
       </c>
@@ -975,8 +1016,17 @@
       <c r="S12" s="3" t="s">
         <v>5</v>
       </c>
-    </row>
-    <row r="13" spans="1:19" x14ac:dyDescent="0.2">
+      <c r="T12" s="3" t="s">
+        <v>5</v>
+      </c>
+      <c r="U12" s="3" t="s">
+        <v>5</v>
+      </c>
+      <c r="V12" s="3" t="s">
+        <v>5</v>
+      </c>
+    </row>
+    <row r="13" spans="1:22" x14ac:dyDescent="0.2">
       <c r="C13" s="1" t="s">
         <v>9</v>
       </c>
@@ -1028,114 +1078,141 @@
       <c r="S13" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="14" spans="1:19" x14ac:dyDescent="0.2">
+      <c r="T13" s="3">
+        <v>0</v>
+      </c>
+      <c r="U13" s="3">
+        <v>0</v>
+      </c>
+      <c r="V13" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="14" spans="1:22" x14ac:dyDescent="0.2">
       <c r="C14" s="1" t="s">
         <v>10</v>
       </c>
-      <c r="D14" s="3">
-        <v>10000</v>
+      <c r="D14" s="3" t="s">
+        <v>5</v>
       </c>
       <c r="E14" s="3">
-        <v>8000</v>
-      </c>
-      <c r="F14" s="3">
-        <v>25000</v>
-      </c>
-      <c r="G14" s="3">
-        <v>0</v>
-      </c>
-      <c r="H14" s="3">
+        <v>2200</v>
+      </c>
+      <c r="F14" s="3" t="s">
+        <v>5</v>
+      </c>
+      <c r="G14" s="3" t="s">
+        <v>5</v>
+      </c>
+      <c r="H14" s="3" t="s">
+        <v>5</v>
+      </c>
+      <c r="I14" s="3" t="s">
+        <v>5</v>
+      </c>
+      <c r="J14" s="3" t="s">
+        <v>5</v>
+      </c>
+      <c r="K14" s="3">
         <v>-60000</v>
       </c>
-      <c r="I14" s="3" t="s">
-        <v>5</v>
-      </c>
-      <c r="J14" s="3" t="s">
-        <v>5</v>
-      </c>
-      <c r="K14" s="3">
+      <c r="L14" s="3" t="s">
+        <v>5</v>
+      </c>
+      <c r="M14" s="3" t="s">
+        <v>5</v>
+      </c>
+      <c r="N14" s="3">
         <v>1000</v>
       </c>
-      <c r="L14" s="3" t="s">
-        <v>5</v>
-      </c>
-      <c r="M14" s="3" t="s">
-        <v>5</v>
-      </c>
-      <c r="N14" s="3" t="s">
-        <v>5</v>
-      </c>
-      <c r="O14" s="3">
-        <v>0</v>
-      </c>
-      <c r="P14" s="3">
+      <c r="O14" s="3" t="s">
+        <v>5</v>
+      </c>
+      <c r="P14" s="3" t="s">
+        <v>5</v>
+      </c>
+      <c r="Q14" s="3" t="s">
+        <v>5</v>
+      </c>
+      <c r="R14" s="3">
+        <v>0</v>
+      </c>
+      <c r="S14" s="3">
         <v>1000</v>
       </c>
-      <c r="Q14" s="3" t="s">
-        <v>5</v>
-      </c>
-      <c r="R14" s="3" t="s">
-        <v>5</v>
-      </c>
-      <c r="S14" s="3" t="s">
-        <v>5</v>
-      </c>
-    </row>
-    <row r="15" spans="1:19" x14ac:dyDescent="0.2">
+      <c r="T14" s="3" t="s">
+        <v>5</v>
+      </c>
+      <c r="U14" s="3" t="s">
+        <v>5</v>
+      </c>
+      <c r="V14" s="3" t="s">
+        <v>5</v>
+      </c>
+    </row>
+    <row r="15" spans="1:22" x14ac:dyDescent="0.2">
       <c r="C15" s="1" t="s">
         <v>11</v>
       </c>
       <c r="D15" s="3">
+        <v>0</v>
+      </c>
+      <c r="E15" s="3">
+        <v>0</v>
+      </c>
+      <c r="F15" s="3">
+        <v>0</v>
+      </c>
+      <c r="G15" s="3">
+        <v>0</v>
+      </c>
+      <c r="H15" s="3">
+        <v>0</v>
+      </c>
+      <c r="I15" s="3">
+        <v>0</v>
+      </c>
+      <c r="J15" s="3">
+        <v>0</v>
+      </c>
+      <c r="K15" s="3">
+        <v>69000</v>
+      </c>
+      <c r="L15" s="3">
+        <v>67000</v>
+      </c>
+      <c r="M15" s="3">
+        <v>66000</v>
+      </c>
+      <c r="N15" s="3">
+        <v>70000</v>
+      </c>
+      <c r="O15" s="3">
+        <v>69000</v>
+      </c>
+      <c r="P15" s="3">
         <v>72000</v>
       </c>
-      <c r="E15" s="3">
-        <v>73000</v>
-      </c>
-      <c r="F15" s="3">
+      <c r="Q15" s="3">
         <v>72000</v>
       </c>
-      <c r="G15" s="3">
-        <v>71000</v>
-      </c>
-      <c r="H15" s="3">
-        <v>69000</v>
-      </c>
-      <c r="I15" s="3">
-        <v>67000</v>
-      </c>
-      <c r="J15" s="3">
-        <v>66000</v>
-      </c>
-      <c r="K15" s="3">
-        <v>70000</v>
-      </c>
-      <c r="L15" s="3">
-        <v>69000</v>
-      </c>
-      <c r="M15" s="3">
-        <v>72000</v>
-      </c>
-      <c r="N15" s="3">
-        <v>72000</v>
-      </c>
-      <c r="O15" s="3">
+      <c r="R15" s="3">
         <v>50000</v>
       </c>
-      <c r="P15" s="3">
+      <c r="S15" s="3">
         <v>44000</v>
       </c>
-      <c r="Q15" s="3">
+      <c r="T15" s="3">
         <v>44000</v>
       </c>
-      <c r="R15" s="3">
+      <c r="U15" s="3">
         <v>43000</v>
       </c>
-      <c r="S15" s="3">
+      <c r="V15" s="3">
         <v>45000</v>
       </c>
     </row>
-    <row r="16" spans="1:19" x14ac:dyDescent="0.2">
+    <row r="16" spans="1:22" x14ac:dyDescent="0.2">
       <c r="D16" s="3"/>
       <c r="E16" s="3"/>
       <c r="F16" s="3"/>
@@ -1152,114 +1229,135 @@
       <c r="Q16" s="3"/>
       <c r="R16" s="3"/>
       <c r="S16" s="3"/>
-    </row>
-    <row r="17" spans="3:19" x14ac:dyDescent="0.2">
+      <c r="T16" s="3"/>
+      <c r="U16" s="3"/>
+      <c r="V16" s="3"/>
+    </row>
+    <row r="17" spans="3:22" x14ac:dyDescent="0.2">
       <c r="C17" s="1" t="s">
         <v>12</v>
       </c>
       <c r="D17" s="3">
-        <v>808000</v>
+        <v>10800</v>
       </c>
       <c r="E17" s="3">
-        <v>849000</v>
+        <v>4400</v>
       </c>
       <c r="F17" s="3">
-        <v>770000</v>
+        <v>6600</v>
       </c>
       <c r="G17" s="3">
-        <v>779000</v>
+        <v>16500</v>
       </c>
       <c r="H17" s="3">
+        <v>7300</v>
+      </c>
+      <c r="I17" s="3">
+        <v>6900</v>
+      </c>
+      <c r="J17" s="3">
+        <v>6900</v>
+      </c>
+      <c r="K17" s="3">
         <v>711000</v>
       </c>
-      <c r="I17" s="3">
+      <c r="L17" s="3">
         <v>746000</v>
       </c>
-      <c r="J17" s="3">
+      <c r="M17" s="3">
         <v>720000</v>
       </c>
-      <c r="K17" s="3">
+      <c r="N17" s="3">
         <v>764000</v>
       </c>
-      <c r="L17" s="3">
+      <c r="O17" s="3">
         <v>751000</v>
       </c>
-      <c r="M17" s="3">
+      <c r="P17" s="3">
         <v>1019000</v>
       </c>
-      <c r="N17" s="3">
+      <c r="Q17" s="3">
         <v>921000</v>
       </c>
-      <c r="O17" s="3">
+      <c r="R17" s="3">
         <v>622000</v>
       </c>
-      <c r="P17" s="3">
+      <c r="S17" s="3">
         <v>538000</v>
       </c>
-      <c r="Q17" s="3">
+      <c r="T17" s="3">
         <v>546000</v>
       </c>
-      <c r="R17" s="3">
+      <c r="U17" s="3">
         <v>506000</v>
       </c>
-      <c r="S17" s="3">
+      <c r="V17" s="3">
         <v>546000</v>
       </c>
     </row>
-    <row r="18" spans="3:19" x14ac:dyDescent="0.2">
+    <row r="18" spans="3:22" x14ac:dyDescent="0.2">
       <c r="C18" s="1" t="s">
         <v>13</v>
       </c>
       <c r="D18" s="3">
-        <v>778000</v>
+        <v>55500</v>
       </c>
       <c r="E18" s="3">
+        <v>15400</v>
+      </c>
+      <c r="F18" s="3">
+        <v>4100</v>
+      </c>
+      <c r="G18" s="3">
+        <v>52400</v>
+      </c>
+      <c r="H18" s="3">
+        <v>12900</v>
+      </c>
+      <c r="I18" s="3">
+        <v>11700</v>
+      </c>
+      <c r="J18" s="3">
+        <v>18200</v>
+      </c>
+      <c r="K18" s="3">
+        <v>780000</v>
+      </c>
+      <c r="L18" s="3">
+        <v>705000</v>
+      </c>
+      <c r="M18" s="3">
+        <v>796000</v>
+      </c>
+      <c r="N18" s="3">
+        <v>634000</v>
+      </c>
+      <c r="O18" s="3">
         <v>631000</v>
       </c>
-      <c r="F18" s="3">
-        <v>521000</v>
-      </c>
-      <c r="G18" s="3">
-        <v>780000</v>
-      </c>
-      <c r="H18" s="3">
-        <v>780000</v>
-      </c>
-      <c r="I18" s="3">
-        <v>705000</v>
-      </c>
-      <c r="J18" s="3">
-        <v>796000</v>
-      </c>
-      <c r="K18" s="3">
-        <v>634000</v>
-      </c>
-      <c r="L18" s="3">
-        <v>631000</v>
-      </c>
-      <c r="M18" s="3">
+      <c r="P18" s="3">
         <v>396000</v>
       </c>
-      <c r="N18" s="3">
+      <c r="Q18" s="3">
         <v>336000</v>
       </c>
-      <c r="O18" s="3">
+      <c r="R18" s="3">
         <v>361000</v>
       </c>
-      <c r="P18" s="3">
+      <c r="S18" s="3">
         <v>393000</v>
       </c>
-      <c r="Q18" s="3">
+      <c r="T18" s="3">
         <v>358000</v>
       </c>
-      <c r="R18" s="3">
+      <c r="U18" s="3">
         <v>353000</v>
       </c>
-      <c r="S18" s="3">
+      <c r="V18" s="3">
         <v>284000</v>
       </c>
     </row>
-    <row r="19" spans="3:19" x14ac:dyDescent="0.2">
+    <row r="19" spans="3:22" x14ac:dyDescent="0.2">
       <c r="C19" s="1" t="s">
         <v>14</v>
       </c>
@@ -1279,273 +1377,321 @@
       <c r="Q19" s="3"/>
       <c r="R19" s="3"/>
       <c r="S19" s="3"/>
-    </row>
-    <row r="20" spans="3:19" x14ac:dyDescent="0.2">
+      <c r="T19" s="3"/>
+      <c r="U19" s="3"/>
+      <c r="V19" s="3"/>
+    </row>
+    <row r="20" spans="3:22" x14ac:dyDescent="0.2">
       <c r="C20" s="1" t="s">
         <v>15</v>
       </c>
       <c r="D20" s="3">
-        <v>0</v>
+        <v>35100</v>
       </c>
       <c r="E20" s="3">
-        <v>-1000</v>
+        <v>40800</v>
       </c>
       <c r="F20" s="3">
+        <v>13500</v>
+      </c>
+      <c r="G20" s="3">
+        <v>4500</v>
+      </c>
+      <c r="H20" s="3">
+        <v>2400</v>
+      </c>
+      <c r="I20" s="3">
+        <v>36500</v>
+      </c>
+      <c r="J20" s="3">
+        <v>14800</v>
+      </c>
+      <c r="K20" s="3">
+        <v>0</v>
+      </c>
+      <c r="L20" s="3">
+        <v>0</v>
+      </c>
+      <c r="M20" s="3">
+        <v>14000</v>
+      </c>
+      <c r="N20" s="3">
         <v>2000</v>
       </c>
-      <c r="G20" s="3">
-        <v>-2000</v>
-      </c>
-      <c r="H20" s="3">
-        <v>0</v>
-      </c>
-      <c r="I20" s="3">
-        <v>0</v>
-      </c>
-      <c r="J20" s="3">
-        <v>14000</v>
-      </c>
-      <c r="K20" s="3">
-        <v>2000</v>
-      </c>
-      <c r="L20" s="3">
-        <v>0</v>
-      </c>
-      <c r="M20" s="3">
-        <v>0</v>
-      </c>
-      <c r="N20" s="3">
+      <c r="O20" s="3">
+        <v>0</v>
+      </c>
+      <c r="P20" s="3">
+        <v>0</v>
+      </c>
+      <c r="Q20" s="3">
         <v>-13000</v>
       </c>
-      <c r="O20" s="3">
-        <v>0</v>
-      </c>
-      <c r="P20" s="3">
-        <v>0</v>
-      </c>
-      <c r="Q20" s="3">
-        <v>0</v>
-      </c>
       <c r="R20" s="3">
         <v>0</v>
       </c>
       <c r="S20" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="21" spans="3:19" x14ac:dyDescent="0.2">
+      <c r="T20" s="3">
+        <v>0</v>
+      </c>
+      <c r="U20" s="3">
+        <v>0</v>
+      </c>
+      <c r="V20" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="21" spans="3:22" x14ac:dyDescent="0.2">
       <c r="C21" s="1" t="s">
         <v>16</v>
       </c>
-      <c r="D21" s="3">
-        <v>851000</v>
-      </c>
-      <c r="E21" s="3">
-        <v>702000</v>
-      </c>
-      <c r="F21" s="3">
-        <v>595000</v>
-      </c>
-      <c r="G21" s="3">
+      <c r="D21" s="3" t="s">
+        <v>5</v>
+      </c>
+      <c r="E21" s="3" t="s">
+        <v>5</v>
+      </c>
+      <c r="F21" s="3" t="s">
+        <v>5</v>
+      </c>
+      <c r="G21" s="3" t="s">
+        <v>5</v>
+      </c>
+      <c r="H21" s="3">
+        <v>15300</v>
+      </c>
+      <c r="I21" s="3" t="s">
+        <v>5</v>
+      </c>
+      <c r="J21" s="3" t="s">
+        <v>5</v>
+      </c>
+      <c r="K21" s="3">
         <v>849000</v>
       </c>
-      <c r="H21" s="3">
-        <v>849000</v>
-      </c>
-      <c r="I21" s="3">
+      <c r="L21" s="3">
         <v>772000</v>
       </c>
-      <c r="J21" s="3">
+      <c r="M21" s="3">
         <v>876000</v>
       </c>
-      <c r="K21" s="3">
+      <c r="N21" s="3">
         <v>706000</v>
       </c>
-      <c r="L21" s="3">
+      <c r="O21" s="3">
         <v>700000</v>
       </c>
-      <c r="M21" s="3">
+      <c r="P21" s="3">
         <v>468000</v>
       </c>
-      <c r="N21" s="3">
+      <c r="Q21" s="3">
         <v>395000</v>
       </c>
-      <c r="O21" s="3">
+      <c r="R21" s="3">
         <v>411000</v>
       </c>
-      <c r="P21" s="3">
+      <c r="S21" s="3">
         <v>437000</v>
       </c>
-      <c r="Q21" s="3">
+      <c r="T21" s="3">
         <v>402000</v>
       </c>
-      <c r="R21" s="3">
+      <c r="U21" s="3">
         <v>396000</v>
       </c>
-      <c r="S21" s="3">
+      <c r="V21" s="3">
         <v>329000</v>
       </c>
     </row>
-    <row r="22" spans="3:19" x14ac:dyDescent="0.2">
+    <row r="22" spans="3:22" x14ac:dyDescent="0.2">
       <c r="C22" s="1" t="s">
         <v>17</v>
       </c>
       <c r="D22" s="3">
-        <v>25000</v>
+        <v>800</v>
       </c>
       <c r="E22" s="3">
-        <v>31000</v>
+        <v>500</v>
       </c>
       <c r="F22" s="3">
+        <v>400</v>
+      </c>
+      <c r="G22" s="3">
+        <v>1900</v>
+      </c>
+      <c r="H22" s="3">
+        <v>1500</v>
+      </c>
+      <c r="I22" s="3">
+        <v>700</v>
+      </c>
+      <c r="J22" s="3">
+        <v>700</v>
+      </c>
+      <c r="K22" s="3">
+        <v>37000</v>
+      </c>
+      <c r="L22" s="3">
+        <v>37000</v>
+      </c>
+      <c r="M22" s="3">
         <v>32000</v>
       </c>
-      <c r="G22" s="3">
-        <v>37000</v>
-      </c>
-      <c r="H22" s="3">
-        <v>37000</v>
-      </c>
-      <c r="I22" s="3">
-        <v>37000</v>
-      </c>
-      <c r="J22" s="3">
-        <v>32000</v>
-      </c>
-      <c r="K22" s="3">
+      <c r="N22" s="3">
         <v>27000</v>
       </c>
-      <c r="L22" s="3">
+      <c r="O22" s="3">
         <v>28000</v>
       </c>
-      <c r="M22" s="3">
+      <c r="P22" s="3">
         <v>24000</v>
       </c>
-      <c r="N22" s="3">
+      <c r="Q22" s="3">
         <v>20000</v>
       </c>
-      <c r="O22" s="3">
+      <c r="R22" s="3">
         <v>23000</v>
       </c>
-      <c r="P22" s="3">
+      <c r="S22" s="3">
         <v>20000</v>
       </c>
-      <c r="Q22" s="3">
+      <c r="T22" s="3">
         <v>14000</v>
       </c>
-      <c r="R22" s="3">
+      <c r="U22" s="3">
         <v>14000</v>
       </c>
-      <c r="S22" s="3">
+      <c r="V22" s="3">
         <v>14000</v>
       </c>
     </row>
-    <row r="23" spans="3:19" x14ac:dyDescent="0.2">
+    <row r="23" spans="3:22" x14ac:dyDescent="0.2">
       <c r="C23" s="1" t="s">
         <v>18</v>
       </c>
       <c r="D23" s="3">
-        <v>753000</v>
+        <v>89800</v>
       </c>
       <c r="E23" s="3">
-        <v>599000</v>
+        <v>55700</v>
       </c>
       <c r="F23" s="3">
-        <v>491000</v>
+        <v>17200</v>
       </c>
       <c r="G23" s="3">
-        <v>741000</v>
+        <v>55000</v>
       </c>
       <c r="H23" s="3">
+        <v>13800</v>
+      </c>
+      <c r="I23" s="3">
+        <v>47500</v>
+      </c>
+      <c r="J23" s="3">
+        <v>32300</v>
+      </c>
+      <c r="K23" s="3">
         <v>743000</v>
       </c>
-      <c r="I23" s="3">
+      <c r="L23" s="3">
         <v>668000</v>
       </c>
-      <c r="J23" s="3">
+      <c r="M23" s="3">
         <v>778000</v>
       </c>
-      <c r="K23" s="3">
+      <c r="N23" s="3">
         <v>609000</v>
       </c>
-      <c r="L23" s="3">
+      <c r="O23" s="3">
         <v>603000</v>
       </c>
-      <c r="M23" s="3">
+      <c r="P23" s="3">
         <v>372000</v>
       </c>
-      <c r="N23" s="3">
+      <c r="Q23" s="3">
         <v>303000</v>
       </c>
-      <c r="O23" s="3">
+      <c r="R23" s="3">
         <v>338000</v>
       </c>
-      <c r="P23" s="3">
+      <c r="S23" s="3">
         <v>373000</v>
       </c>
-      <c r="Q23" s="3">
+      <c r="T23" s="3">
         <v>344000</v>
       </c>
-      <c r="R23" s="3">
+      <c r="U23" s="3">
         <v>339000</v>
       </c>
-      <c r="S23" s="3">
+      <c r="V23" s="3">
         <v>270000</v>
       </c>
     </row>
-    <row r="24" spans="3:19" x14ac:dyDescent="0.2">
+    <row r="24" spans="3:22" x14ac:dyDescent="0.2">
       <c r="C24" s="1" t="s">
         <v>19</v>
       </c>
       <c r="D24" s="3">
-        <v>184000</v>
+        <v>9300</v>
       </c>
       <c r="E24" s="3">
-        <v>153000</v>
+        <v>3300</v>
       </c>
       <c r="F24" s="3">
-        <v>112000</v>
+        <v>1300</v>
       </c>
       <c r="G24" s="3">
-        <v>191000</v>
+        <v>-22200</v>
       </c>
       <c r="H24" s="3">
+        <v>2400</v>
+      </c>
+      <c r="I24" s="3">
+        <v>8200</v>
+      </c>
+      <c r="J24" s="3">
+        <v>4200</v>
+      </c>
+      <c r="K24" s="3">
         <v>188000</v>
       </c>
-      <c r="I24" s="3">
+      <c r="L24" s="3">
         <v>169000</v>
       </c>
-      <c r="J24" s="3">
+      <c r="M24" s="3">
         <v>174000</v>
       </c>
-      <c r="K24" s="3">
+      <c r="N24" s="3">
         <v>155000</v>
       </c>
-      <c r="L24" s="3">
+      <c r="O24" s="3">
         <v>155000</v>
       </c>
-      <c r="M24" s="3">
+      <c r="P24" s="3">
         <v>101000</v>
       </c>
-      <c r="N24" s="3">
+      <c r="Q24" s="3">
         <v>74000</v>
       </c>
-      <c r="O24" s="3">
+      <c r="R24" s="3">
         <v>127000</v>
       </c>
-      <c r="P24" s="3">
+      <c r="S24" s="3">
         <v>142000</v>
       </c>
-      <c r="Q24" s="3">
+      <c r="T24" s="3">
         <v>130000</v>
       </c>
-      <c r="R24" s="3">
+      <c r="U24" s="3">
         <v>123000</v>
       </c>
-      <c r="S24" s="3">
+      <c r="V24" s="3">
         <v>85000</v>
       </c>
     </row>
-    <row r="25" spans="3:19" x14ac:dyDescent="0.2">
+    <row r="25" spans="3:22" x14ac:dyDescent="0.2">
       <c r="C25" s="1" t="s">
         <v>20</v>
       </c>
@@ -1597,114 +1743,141 @@
       <c r="S25" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="26" spans="3:19" x14ac:dyDescent="0.2">
+      <c r="T25" s="3">
+        <v>0</v>
+      </c>
+      <c r="U25" s="3">
+        <v>0</v>
+      </c>
+      <c r="V25" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="26" spans="3:22" x14ac:dyDescent="0.2">
       <c r="C26" s="1" t="s">
         <v>21</v>
       </c>
       <c r="D26" s="3">
-        <v>569000</v>
+        <v>80400</v>
       </c>
       <c r="E26" s="3">
-        <v>446000</v>
+        <v>52500</v>
       </c>
       <c r="F26" s="3">
-        <v>379000</v>
+        <v>15900</v>
       </c>
       <c r="G26" s="3">
-        <v>550000</v>
+        <v>77100</v>
       </c>
       <c r="H26" s="3">
+        <v>11400</v>
+      </c>
+      <c r="I26" s="3">
+        <v>39300</v>
+      </c>
+      <c r="J26" s="3">
+        <v>28100</v>
+      </c>
+      <c r="K26" s="3">
         <v>555000</v>
       </c>
-      <c r="I26" s="3">
+      <c r="L26" s="3">
         <v>499000</v>
       </c>
-      <c r="J26" s="3">
+      <c r="M26" s="3">
         <v>604000</v>
       </c>
-      <c r="K26" s="3">
+      <c r="N26" s="3">
         <v>454000</v>
       </c>
-      <c r="L26" s="3">
+      <c r="O26" s="3">
         <v>448000</v>
       </c>
-      <c r="M26" s="3">
+      <c r="P26" s="3">
         <v>271000</v>
       </c>
-      <c r="N26" s="3">
+      <c r="Q26" s="3">
         <v>229000</v>
       </c>
-      <c r="O26" s="3">
+      <c r="R26" s="3">
         <v>211000</v>
       </c>
-      <c r="P26" s="3">
+      <c r="S26" s="3">
         <v>231000</v>
       </c>
-      <c r="Q26" s="3">
+      <c r="T26" s="3">
         <v>214000</v>
       </c>
-      <c r="R26" s="3">
+      <c r="U26" s="3">
         <v>216000</v>
       </c>
-      <c r="S26" s="3">
+      <c r="V26" s="3">
         <v>185000</v>
       </c>
     </row>
-    <row r="27" spans="3:19" x14ac:dyDescent="0.2">
+    <row r="27" spans="3:22" x14ac:dyDescent="0.2">
       <c r="C27" s="1" t="s">
         <v>22</v>
       </c>
       <c r="D27" s="3">
-        <v>569000</v>
+        <v>72400</v>
       </c>
       <c r="E27" s="3">
-        <v>446000</v>
+        <v>48400</v>
       </c>
       <c r="F27" s="3">
-        <v>379000</v>
+        <v>11900</v>
       </c>
       <c r="G27" s="3">
-        <v>550000</v>
+        <v>75100</v>
       </c>
       <c r="H27" s="3">
+        <v>11400</v>
+      </c>
+      <c r="I27" s="3">
+        <v>39300</v>
+      </c>
+      <c r="J27" s="3">
+        <v>28100</v>
+      </c>
+      <c r="K27" s="3">
         <v>555000</v>
       </c>
-      <c r="I27" s="3">
+      <c r="L27" s="3">
         <v>499000</v>
       </c>
-      <c r="J27" s="3">
+      <c r="M27" s="3">
         <v>604000</v>
       </c>
-      <c r="K27" s="3">
+      <c r="N27" s="3">
         <v>454000</v>
       </c>
-      <c r="L27" s="3">
+      <c r="O27" s="3">
         <v>448000</v>
       </c>
-      <c r="M27" s="3">
+      <c r="P27" s="3">
         <v>271000</v>
       </c>
-      <c r="N27" s="3">
+      <c r="Q27" s="3">
         <v>229000</v>
       </c>
-      <c r="O27" s="3">
+      <c r="R27" s="3">
         <v>211000</v>
       </c>
-      <c r="P27" s="3">
+      <c r="S27" s="3">
         <v>231000</v>
       </c>
-      <c r="Q27" s="3">
+      <c r="T27" s="3">
         <v>214000</v>
       </c>
-      <c r="R27" s="3">
+      <c r="U27" s="3">
         <v>216000</v>
       </c>
-      <c r="S27" s="3">
+      <c r="V27" s="3">
         <v>185000</v>
       </c>
     </row>
-    <row r="28" spans="3:19" x14ac:dyDescent="0.2">
+    <row r="28" spans="3:22" x14ac:dyDescent="0.2">
       <c r="C28" s="1" t="s">
         <v>23</v>
       </c>
@@ -1756,61 +1929,79 @@
       <c r="S28" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="29" spans="3:19" x14ac:dyDescent="0.2">
+      <c r="T28" s="3">
+        <v>0</v>
+      </c>
+      <c r="U28" s="3">
+        <v>0</v>
+      </c>
+      <c r="V28" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="29" spans="3:22" x14ac:dyDescent="0.2">
       <c r="C29" s="1" t="s">
         <v>24</v>
       </c>
-      <c r="D29" s="3" t="s">
-        <v>5</v>
-      </c>
-      <c r="E29" s="3" t="s">
-        <v>5</v>
-      </c>
-      <c r="F29" s="3" t="s">
-        <v>5</v>
-      </c>
-      <c r="G29" s="3" t="s">
-        <v>5</v>
-      </c>
-      <c r="H29" s="3" t="s">
-        <v>5</v>
-      </c>
-      <c r="I29" s="3" t="s">
-        <v>5</v>
-      </c>
-      <c r="J29" s="3" t="s">
-        <v>5</v>
-      </c>
-      <c r="K29" s="3">
-        <v>0</v>
-      </c>
-      <c r="L29" s="3">
+      <c r="D29" s="3">
+        <v>0</v>
+      </c>
+      <c r="E29" s="3">
+        <v>0</v>
+      </c>
+      <c r="F29" s="3">
+        <v>0</v>
+      </c>
+      <c r="G29" s="3">
+        <v>0</v>
+      </c>
+      <c r="H29" s="3">
+        <v>0</v>
+      </c>
+      <c r="I29" s="3">
+        <v>0</v>
+      </c>
+      <c r="J29" s="3">
+        <v>0</v>
+      </c>
+      <c r="K29" s="3" t="s">
+        <v>5</v>
+      </c>
+      <c r="L29" s="3" t="s">
+        <v>5</v>
+      </c>
+      <c r="M29" s="3" t="s">
+        <v>5</v>
+      </c>
+      <c r="N29" s="3">
+        <v>0</v>
+      </c>
+      <c r="O29" s="3">
         <v>3000</v>
       </c>
-      <c r="M29" s="3">
-        <v>0</v>
-      </c>
-      <c r="N29" s="3">
+      <c r="P29" s="3">
+        <v>0</v>
+      </c>
+      <c r="Q29" s="3">
         <v>68000</v>
       </c>
-      <c r="O29" s="3" t="s">
-        <v>5</v>
-      </c>
-      <c r="P29" s="3" t="s">
-        <v>5</v>
-      </c>
-      <c r="Q29" s="3" t="s">
-        <v>5</v>
-      </c>
       <c r="R29" s="3" t="s">
         <v>5</v>
       </c>
       <c r="S29" s="3" t="s">
         <v>5</v>
       </c>
-    </row>
-    <row r="30" spans="3:19" x14ac:dyDescent="0.2">
+      <c r="T29" s="3" t="s">
+        <v>5</v>
+      </c>
+      <c r="U29" s="3" t="s">
+        <v>5</v>
+      </c>
+      <c r="V29" s="3" t="s">
+        <v>5</v>
+      </c>
+    </row>
+    <row r="30" spans="3:22" x14ac:dyDescent="0.2">
       <c r="C30" s="1" t="s">
         <v>25</v>
       </c>
@@ -1862,8 +2053,17 @@
       <c r="S30" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="31" spans="3:19" x14ac:dyDescent="0.2">
+      <c r="T30" s="3">
+        <v>0</v>
+      </c>
+      <c r="U30" s="3">
+        <v>0</v>
+      </c>
+      <c r="V30" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="31" spans="3:22" x14ac:dyDescent="0.2">
       <c r="C31" s="1" t="s">
         <v>26</v>
       </c>
@@ -1915,114 +2115,141 @@
       <c r="S31" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="32" spans="3:19" x14ac:dyDescent="0.2">
+      <c r="T31" s="3">
+        <v>0</v>
+      </c>
+      <c r="U31" s="3">
+        <v>0</v>
+      </c>
+      <c r="V31" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="32" spans="3:22" x14ac:dyDescent="0.2">
       <c r="C32" s="1" t="s">
         <v>27</v>
       </c>
       <c r="D32" s="3">
-        <v>0</v>
+        <v>-35100</v>
       </c>
       <c r="E32" s="3">
-        <v>1000</v>
+        <v>-40800</v>
       </c>
       <c r="F32" s="3">
+        <v>-13500</v>
+      </c>
+      <c r="G32" s="3">
+        <v>-4500</v>
+      </c>
+      <c r="H32" s="3">
+        <v>-2400</v>
+      </c>
+      <c r="I32" s="3">
+        <v>-36500</v>
+      </c>
+      <c r="J32" s="3">
+        <v>-14800</v>
+      </c>
+      <c r="K32" s="3">
+        <v>0</v>
+      </c>
+      <c r="L32" s="3">
+        <v>0</v>
+      </c>
+      <c r="M32" s="3">
+        <v>-14000</v>
+      </c>
+      <c r="N32" s="3">
         <v>-2000</v>
       </c>
-      <c r="G32" s="3">
-        <v>2000</v>
-      </c>
-      <c r="H32" s="3">
-        <v>0</v>
-      </c>
-      <c r="I32" s="3">
-        <v>0</v>
-      </c>
-      <c r="J32" s="3">
-        <v>-14000</v>
-      </c>
-      <c r="K32" s="3">
-        <v>-2000</v>
-      </c>
-      <c r="L32" s="3">
-        <v>0</v>
-      </c>
-      <c r="M32" s="3">
-        <v>0</v>
-      </c>
-      <c r="N32" s="3">
+      <c r="O32" s="3">
+        <v>0</v>
+      </c>
+      <c r="P32" s="3">
+        <v>0</v>
+      </c>
+      <c r="Q32" s="3">
         <v>13000</v>
       </c>
-      <c r="O32" s="3">
-        <v>0</v>
-      </c>
-      <c r="P32" s="3">
-        <v>0</v>
-      </c>
-      <c r="Q32" s="3">
-        <v>0</v>
-      </c>
       <c r="R32" s="3">
         <v>0</v>
       </c>
       <c r="S32" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="33" spans="2:19" x14ac:dyDescent="0.2">
+      <c r="T32" s="3">
+        <v>0</v>
+      </c>
+      <c r="U32" s="3">
+        <v>0</v>
+      </c>
+      <c r="V32" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="33" spans="2:22" x14ac:dyDescent="0.2">
       <c r="C33" s="1" t="s">
         <v>28</v>
       </c>
       <c r="D33" s="3">
-        <v>569000</v>
+        <v>72400</v>
       </c>
       <c r="E33" s="3">
-        <v>446000</v>
+        <v>48400</v>
       </c>
       <c r="F33" s="3">
-        <v>379000</v>
+        <v>11900</v>
       </c>
       <c r="G33" s="3">
-        <v>550000</v>
+        <v>75100</v>
       </c>
       <c r="H33" s="3">
+        <v>11400</v>
+      </c>
+      <c r="I33" s="3">
+        <v>39300</v>
+      </c>
+      <c r="J33" s="3">
+        <v>28100</v>
+      </c>
+      <c r="K33" s="3">
         <v>555000</v>
       </c>
-      <c r="I33" s="3">
+      <c r="L33" s="3">
         <v>499000</v>
       </c>
-      <c r="J33" s="3">
+      <c r="M33" s="3">
         <v>604000</v>
       </c>
-      <c r="K33" s="3">
+      <c r="N33" s="3">
         <v>454000</v>
       </c>
-      <c r="L33" s="3">
+      <c r="O33" s="3">
         <v>451000</v>
       </c>
-      <c r="M33" s="3">
+      <c r="P33" s="3">
         <v>271000</v>
       </c>
-      <c r="N33" s="3">
+      <c r="Q33" s="3">
         <v>297000</v>
       </c>
-      <c r="O33" s="3">
+      <c r="R33" s="3">
         <v>211000</v>
       </c>
-      <c r="P33" s="3">
+      <c r="S33" s="3">
         <v>231000</v>
       </c>
-      <c r="Q33" s="3">
+      <c r="T33" s="3">
         <v>214000</v>
       </c>
-      <c r="R33" s="3">
+      <c r="U33" s="3">
         <v>216000</v>
       </c>
-      <c r="S33" s="3">
+      <c r="V33" s="3">
         <v>185000</v>
       </c>
     </row>
-    <row r="34" spans="2:19" x14ac:dyDescent="0.2">
+    <row r="34" spans="2:22" x14ac:dyDescent="0.2">
       <c r="C34" s="1" t="s">
         <v>29</v>
       </c>
@@ -2074,119 +2301,146 @@
       <c r="S34" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="35" spans="2:19" x14ac:dyDescent="0.2">
+      <c r="T34" s="3">
+        <v>0</v>
+      </c>
+      <c r="U34" s="3">
+        <v>0</v>
+      </c>
+      <c r="V34" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="35" spans="2:22" x14ac:dyDescent="0.2">
       <c r="C35" s="1" t="s">
         <v>30</v>
       </c>
       <c r="D35" s="3">
-        <v>569000</v>
+        <v>72400</v>
       </c>
       <c r="E35" s="3">
-        <v>446000</v>
+        <v>48400</v>
       </c>
       <c r="F35" s="3">
-        <v>379000</v>
+        <v>11900</v>
       </c>
       <c r="G35" s="3">
-        <v>550000</v>
+        <v>75100</v>
       </c>
       <c r="H35" s="3">
+        <v>11400</v>
+      </c>
+      <c r="I35" s="3">
+        <v>39300</v>
+      </c>
+      <c r="J35" s="3">
+        <v>28100</v>
+      </c>
+      <c r="K35" s="3">
         <v>555000</v>
       </c>
-      <c r="I35" s="3">
+      <c r="L35" s="3">
         <v>499000</v>
       </c>
-      <c r="J35" s="3">
+      <c r="M35" s="3">
         <v>604000</v>
       </c>
-      <c r="K35" s="3">
+      <c r="N35" s="3">
         <v>454000</v>
       </c>
-      <c r="L35" s="3">
+      <c r="O35" s="3">
         <v>451000</v>
       </c>
-      <c r="M35" s="3">
+      <c r="P35" s="3">
         <v>271000</v>
       </c>
-      <c r="N35" s="3">
+      <c r="Q35" s="3">
         <v>297000</v>
       </c>
-      <c r="O35" s="3">
+      <c r="R35" s="3">
         <v>211000</v>
       </c>
-      <c r="P35" s="3">
+      <c r="S35" s="3">
         <v>231000</v>
       </c>
-      <c r="Q35" s="3">
+      <c r="T35" s="3">
         <v>214000</v>
       </c>
-      <c r="R35" s="3">
+      <c r="U35" s="3">
         <v>216000</v>
       </c>
-      <c r="S35" s="3">
+      <c r="V35" s="3">
         <v>185000</v>
       </c>
     </row>
-    <row r="37" spans="2:19" x14ac:dyDescent="0.2">
+    <row r="37" spans="2:22" x14ac:dyDescent="0.2">
       <c r="B37" s="1" t="s">
         <v>31</v>
       </c>
     </row>
-    <row r="38" spans="2:19" x14ac:dyDescent="0.2">
+    <row r="38" spans="2:22" x14ac:dyDescent="0.2">
       <c r="C38" s="1" t="s">
         <v>2</v>
       </c>
       <c r="D38" s="2">
+        <v>44377</v>
+      </c>
+      <c r="E38" s="2">
+        <v>44196</v>
+      </c>
+      <c r="F38" s="2">
+        <v>44104</v>
+      </c>
+      <c r="G38" s="2">
         <v>44012</v>
       </c>
-      <c r="E38" s="2">
-        <v>43921</v>
-      </c>
-      <c r="F38" s="2">
+      <c r="H38" s="2">
         <v>43830</v>
       </c>
-      <c r="G38" s="2">
+      <c r="I38" s="2">
         <v>43738</v>
       </c>
-      <c r="H38" s="2">
+      <c r="J38" s="2">
         <v>43646</v>
       </c>
-      <c r="I38" s="2">
+      <c r="K38" s="2">
+        <v>43646</v>
+      </c>
+      <c r="L38" s="2">
         <v>43555</v>
       </c>
-      <c r="J38" s="2">
+      <c r="M38" s="2">
         <v>43465</v>
       </c>
-      <c r="K38" s="2">
+      <c r="N38" s="2">
         <v>43373</v>
       </c>
-      <c r="L38" s="2">
+      <c r="O38" s="2">
         <v>43281</v>
       </c>
-      <c r="M38" s="2">
+      <c r="P38" s="2">
         <v>43190</v>
       </c>
-      <c r="N38" s="2">
+      <c r="Q38" s="2">
         <v>43100</v>
       </c>
-      <c r="O38" s="2">
+      <c r="R38" s="2">
         <v>43008</v>
       </c>
-      <c r="P38" s="2">
+      <c r="S38" s="2">
         <v>42916</v>
       </c>
-      <c r="Q38" s="2">
+      <c r="T38" s="2">
         <v>42825</v>
       </c>
-      <c r="R38" s="2">
+      <c r="U38" s="2">
         <v>42735</v>
       </c>
-      <c r="S38" s="2">
+      <c r="V38" s="2">
         <v>42643</v>
       </c>
     </row>
-    <row r="39" spans="2:19" x14ac:dyDescent="0.2">
+    <row r="39" spans="2:22" x14ac:dyDescent="0.2">
       <c r="C39" s="1" t="s">
         <v>32</v>
       </c>
@@ -2206,8 +2460,11 @@
       <c r="Q39" s="3"/>
       <c r="R39" s="3"/>
       <c r="S39" s="3"/>
-    </row>
-    <row r="40" spans="2:19" x14ac:dyDescent="0.2">
+      <c r="T39" s="3"/>
+      <c r="U39" s="3"/>
+      <c r="V39" s="3"/>
+    </row>
+    <row r="40" spans="2:22" x14ac:dyDescent="0.2">
       <c r="C40" s="1" t="s">
         <v>33</v>
       </c>
@@ -2227,84 +2484,96 @@
       <c r="Q40" s="3"/>
       <c r="R40" s="3"/>
       <c r="S40" s="3"/>
-    </row>
-    <row r="41" spans="2:19" x14ac:dyDescent="0.2">
+      <c r="T40" s="3"/>
+      <c r="U40" s="3"/>
+      <c r="V40" s="3"/>
+    </row>
+    <row r="41" spans="2:22" x14ac:dyDescent="0.2">
       <c r="C41" s="1" t="s">
         <v>34</v>
       </c>
       <c r="D41" s="3">
-        <v>2577000</v>
+        <v>74900</v>
       </c>
       <c r="E41" s="3">
-        <v>3729000</v>
+        <v>83200</v>
       </c>
       <c r="F41" s="3">
-        <v>2551000</v>
+        <v>82800</v>
       </c>
       <c r="G41" s="3">
-        <v>2852000</v>
+        <v>147400</v>
       </c>
       <c r="H41" s="3">
+        <v>129300</v>
+      </c>
+      <c r="I41" s="3">
+        <v>122300</v>
+      </c>
+      <c r="J41" s="3">
+        <v>112500</v>
+      </c>
+      <c r="K41" s="3">
         <v>2953000</v>
       </c>
-      <c r="I41" s="3">
+      <c r="L41" s="3">
         <v>2674000</v>
       </c>
-      <c r="J41" s="3">
+      <c r="M41" s="3">
         <v>5117000</v>
       </c>
-      <c r="K41" s="3">
+      <c r="N41" s="3">
         <v>2690000</v>
       </c>
-      <c r="L41" s="3">
+      <c r="O41" s="3">
         <v>1343000</v>
       </c>
-      <c r="M41" s="3">
+      <c r="P41" s="3">
         <v>1373000</v>
       </c>
-      <c r="N41" s="3">
+      <c r="Q41" s="3">
         <v>1644000</v>
       </c>
-      <c r="O41" s="3">
+      <c r="R41" s="3">
         <v>1472000</v>
       </c>
-      <c r="P41" s="3">
+      <c r="S41" s="3">
         <v>2880000</v>
       </c>
-      <c r="Q41" s="3">
+      <c r="T41" s="3">
         <v>2231000</v>
       </c>
-      <c r="R41" s="3">
+      <c r="U41" s="3">
         <v>1662000</v>
       </c>
-      <c r="S41" s="3">
+      <c r="V41" s="3">
         <v>1855000</v>
       </c>
     </row>
-    <row r="42" spans="2:19" x14ac:dyDescent="0.2">
+    <row r="42" spans="2:22" x14ac:dyDescent="0.2">
       <c r="C42" s="1" t="s">
         <v>35</v>
       </c>
-      <c r="D42" s="3">
-        <v>0</v>
+      <c r="D42" s="3" t="s">
+        <v>5</v>
       </c>
       <c r="E42" s="3">
-        <v>0</v>
+        <v>8000</v>
       </c>
       <c r="F42" s="3">
-        <v>0</v>
+        <v>136700</v>
       </c>
       <c r="G42" s="3">
-        <v>0</v>
+        <v>129000</v>
       </c>
       <c r="H42" s="3">
-        <v>0</v>
+        <v>200900</v>
       </c>
       <c r="I42" s="3">
-        <v>0</v>
+        <v>223700</v>
       </c>
       <c r="J42" s="3">
-        <v>0</v>
+        <v>246000</v>
       </c>
       <c r="K42" s="3">
         <v>0</v>
@@ -2333,61 +2602,79 @@
       <c r="S42" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="43" spans="2:19" x14ac:dyDescent="0.2">
+      <c r="T42" s="3">
+        <v>0</v>
+      </c>
+      <c r="U42" s="3">
+        <v>0</v>
+      </c>
+      <c r="V42" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="43" spans="2:22" x14ac:dyDescent="0.2">
       <c r="C43" s="1" t="s">
         <v>36</v>
       </c>
       <c r="D43" s="3">
-        <v>24311000</v>
+        <v>897600</v>
       </c>
       <c r="E43" s="3">
-        <v>18547000</v>
+        <v>837400</v>
       </c>
       <c r="F43" s="3">
-        <v>23313000</v>
+        <v>957500</v>
       </c>
       <c r="G43" s="3">
-        <v>23474000</v>
+        <v>891100</v>
       </c>
       <c r="H43" s="3">
+        <v>571000</v>
+      </c>
+      <c r="I43" s="3">
+        <v>447400</v>
+      </c>
+      <c r="J43" s="3">
+        <v>670500</v>
+      </c>
+      <c r="K43" s="3">
         <v>23014000</v>
       </c>
-      <c r="I43" s="3">
+      <c r="L43" s="3">
         <v>22790000</v>
       </c>
-      <c r="J43" s="3">
+      <c r="M43" s="3">
         <v>21312000</v>
       </c>
-      <c r="K43" s="3">
+      <c r="N43" s="3">
         <v>24445000</v>
       </c>
-      <c r="L43" s="3">
+      <c r="O43" s="3">
         <v>24345000</v>
       </c>
-      <c r="M43" s="3">
+      <c r="P43" s="3">
         <v>22709000</v>
       </c>
-      <c r="N43" s="3">
+      <c r="Q43" s="3">
         <v>20287000</v>
       </c>
-      <c r="O43" s="3">
+      <c r="R43" s="3">
         <v>18796000</v>
       </c>
-      <c r="P43" s="3">
+      <c r="S43" s="3">
         <v>15020000</v>
       </c>
-      <c r="Q43" s="3">
+      <c r="T43" s="3">
         <v>13393000</v>
       </c>
-      <c r="R43" s="3">
+      <c r="U43" s="3">
         <v>13277000</v>
       </c>
-      <c r="S43" s="3">
+      <c r="V43" s="3">
         <v>13397000</v>
       </c>
     </row>
-    <row r="44" spans="2:19" x14ac:dyDescent="0.2">
+    <row r="44" spans="2:22" x14ac:dyDescent="0.2">
       <c r="C44" s="1" t="s">
         <v>37</v>
       </c>
@@ -2439,84 +2726,102 @@
       <c r="S44" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="45" spans="2:19" x14ac:dyDescent="0.2">
+      <c r="T44" s="3">
+        <v>0</v>
+      </c>
+      <c r="U44" s="3">
+        <v>0</v>
+      </c>
+      <c r="V44" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="45" spans="2:22" x14ac:dyDescent="0.2">
       <c r="C45" s="1" t="s">
         <v>38</v>
       </c>
       <c r="D45" s="3">
-        <v>18316000</v>
+        <v>130100</v>
       </c>
       <c r="E45" s="3">
-        <v>19501000</v>
-      </c>
-      <c r="F45" s="3" t="s">
-        <v>5</v>
-      </c>
-      <c r="G45" s="3" t="s">
-        <v>5</v>
-      </c>
-      <c r="H45" s="3" t="s">
-        <v>5</v>
-      </c>
-      <c r="I45" s="3" t="s">
-        <v>5</v>
-      </c>
-      <c r="J45" s="3" t="s">
-        <v>5</v>
-      </c>
-      <c r="K45" s="3">
-        <v>0</v>
-      </c>
-      <c r="L45" s="3">
+        <v>133800</v>
+      </c>
+      <c r="F45" s="3">
+        <v>130400</v>
+      </c>
+      <c r="G45" s="3">
+        <v>120900</v>
+      </c>
+      <c r="H45" s="3">
+        <v>153400</v>
+      </c>
+      <c r="I45" s="3">
+        <v>110000</v>
+      </c>
+      <c r="J45" s="3">
+        <v>31900</v>
+      </c>
+      <c r="K45" s="3" t="s">
+        <v>5</v>
+      </c>
+      <c r="L45" s="3" t="s">
+        <v>5</v>
+      </c>
+      <c r="M45" s="3" t="s">
+        <v>5</v>
+      </c>
+      <c r="N45" s="3">
+        <v>0</v>
+      </c>
+      <c r="O45" s="3">
         <v>4609000</v>
       </c>
-      <c r="M45" s="3">
+      <c r="P45" s="3">
         <v>6863000</v>
       </c>
-      <c r="N45" s="3">
+      <c r="Q45" s="3">
         <v>10136000</v>
       </c>
-      <c r="O45" s="3">
+      <c r="R45" s="3">
         <v>10446000</v>
       </c>
-      <c r="P45" s="3">
+      <c r="S45" s="3">
         <v>7328000</v>
       </c>
-      <c r="Q45" s="3">
-        <v>0</v>
-      </c>
-      <c r="R45" s="3">
-        <v>0</v>
-      </c>
-      <c r="S45" s="3">
-        <v>0</v>
-      </c>
-    </row>
-    <row r="46" spans="2:19" x14ac:dyDescent="0.2">
+      <c r="T45" s="3">
+        <v>0</v>
+      </c>
+      <c r="U45" s="3">
+        <v>0</v>
+      </c>
+      <c r="V45" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="46" spans="2:22" x14ac:dyDescent="0.2">
       <c r="C46" s="1" t="s">
         <v>39</v>
       </c>
       <c r="D46" s="3">
-        <v>0</v>
+        <v>1102700</v>
       </c>
       <c r="E46" s="3">
-        <v>0</v>
+        <v>1062400</v>
       </c>
       <c r="F46" s="3">
-        <v>0</v>
+        <v>1307300</v>
       </c>
       <c r="G46" s="3">
-        <v>0</v>
+        <v>1288300</v>
       </c>
       <c r="H46" s="3">
-        <v>0</v>
+        <v>1054600</v>
       </c>
       <c r="I46" s="3">
-        <v>0</v>
+        <v>903300</v>
       </c>
       <c r="J46" s="3">
-        <v>0</v>
+        <v>1060900</v>
       </c>
       <c r="K46" s="3">
         <v>0</v>
@@ -2545,167 +2850,203 @@
       <c r="S46" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="47" spans="2:19" x14ac:dyDescent="0.2">
+      <c r="T46" s="3">
+        <v>0</v>
+      </c>
+      <c r="U46" s="3">
+        <v>0</v>
+      </c>
+      <c r="V46" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="47" spans="2:22" x14ac:dyDescent="0.2">
       <c r="C47" s="1" t="s">
         <v>40</v>
       </c>
       <c r="D47" s="3">
-        <v>2224000</v>
+        <v>116300</v>
       </c>
       <c r="E47" s="3">
-        <v>2213000</v>
-      </c>
-      <c r="F47" s="3">
-        <v>2156000</v>
-      </c>
-      <c r="G47" s="3">
-        <v>2200000</v>
-      </c>
-      <c r="H47" s="3">
+        <v>112200</v>
+      </c>
+      <c r="F47" s="3" t="s">
+        <v>5</v>
+      </c>
+      <c r="G47" s="3" t="s">
+        <v>5</v>
+      </c>
+      <c r="H47" s="3" t="s">
+        <v>5</v>
+      </c>
+      <c r="I47" s="3" t="s">
+        <v>5</v>
+      </c>
+      <c r="J47" s="3" t="s">
+        <v>5</v>
+      </c>
+      <c r="K47" s="3">
         <v>1447000</v>
       </c>
-      <c r="I47" s="3">
+      <c r="L47" s="3">
         <v>1053000</v>
       </c>
-      <c r="J47" s="3">
+      <c r="M47" s="3">
         <v>993000</v>
       </c>
-      <c r="K47" s="3">
+      <c r="N47" s="3">
         <v>640000</v>
       </c>
-      <c r="L47" s="3">
+      <c r="O47" s="3">
         <v>682000</v>
       </c>
-      <c r="M47" s="3">
+      <c r="P47" s="3">
         <v>901000</v>
       </c>
-      <c r="N47" s="3">
+      <c r="Q47" s="3">
         <v>692000</v>
       </c>
-      <c r="O47" s="3">
+      <c r="R47" s="3">
         <v>1249000</v>
       </c>
-      <c r="P47" s="3">
+      <c r="S47" s="3">
         <v>1154000</v>
       </c>
-      <c r="Q47" s="3">
+      <c r="T47" s="3">
         <v>9831000</v>
       </c>
-      <c r="R47" s="3">
+      <c r="U47" s="3">
         <v>10187000</v>
       </c>
-      <c r="S47" s="3">
+      <c r="V47" s="3">
         <v>9817000</v>
       </c>
     </row>
-    <row r="48" spans="2:19" x14ac:dyDescent="0.2">
+    <row r="48" spans="2:22" x14ac:dyDescent="0.2">
       <c r="C48" s="1" t="s">
         <v>41</v>
       </c>
       <c r="D48" s="3">
-        <v>1210000</v>
+        <v>0</v>
       </c>
       <c r="E48" s="3">
-        <v>1230000</v>
+        <v>0</v>
       </c>
       <c r="F48" s="3">
-        <v>1235000</v>
+        <v>0</v>
       </c>
       <c r="G48" s="3">
-        <v>837000</v>
+        <v>0</v>
       </c>
       <c r="H48" s="3">
+        <v>0</v>
+      </c>
+      <c r="I48" s="3">
+        <v>0</v>
+      </c>
+      <c r="J48" s="3">
+        <v>0</v>
+      </c>
+      <c r="K48" s="3">
         <v>833000</v>
       </c>
-      <c r="I48" s="3">
+      <c r="L48" s="3">
         <v>812000</v>
       </c>
-      <c r="J48" s="3">
+      <c r="M48" s="3">
         <v>797000</v>
       </c>
-      <c r="K48" s="3">
+      <c r="N48" s="3">
         <v>792000</v>
       </c>
-      <c r="L48" s="3">
+      <c r="O48" s="3">
         <v>778000</v>
       </c>
-      <c r="M48" s="3">
+      <c r="P48" s="3">
         <v>801000</v>
       </c>
-      <c r="N48" s="3">
+      <c r="Q48" s="3">
         <v>780000</v>
       </c>
-      <c r="O48" s="3">
+      <c r="R48" s="3">
         <v>752000</v>
       </c>
-      <c r="P48" s="3">
+      <c r="S48" s="3">
         <v>592000</v>
       </c>
-      <c r="Q48" s="3">
+      <c r="T48" s="3">
         <v>555000</v>
       </c>
-      <c r="R48" s="3">
+      <c r="U48" s="3">
         <v>531000</v>
       </c>
-      <c r="S48" s="3">
+      <c r="V48" s="3">
         <v>526000</v>
       </c>
     </row>
-    <row r="49" spans="3:19" x14ac:dyDescent="0.2">
+    <row r="49" spans="3:22" x14ac:dyDescent="0.2">
       <c r="C49" s="1" t="s">
         <v>42</v>
       </c>
       <c r="D49" s="3">
-        <v>5341000</v>
+        <v>1900</v>
       </c>
       <c r="E49" s="3">
-        <v>5371000</v>
+        <v>1900</v>
       </c>
       <c r="F49" s="3">
-        <v>5401000</v>
+        <v>1900</v>
       </c>
       <c r="G49" s="3">
-        <v>5431000</v>
+        <v>1900</v>
       </c>
       <c r="H49" s="3">
+        <v>1900</v>
+      </c>
+      <c r="I49" s="3">
+        <v>1900</v>
+      </c>
+      <c r="J49" s="3">
+        <v>1900</v>
+      </c>
+      <c r="K49" s="3">
         <v>5463000</v>
       </c>
-      <c r="I49" s="3">
+      <c r="L49" s="3">
         <v>5494000</v>
       </c>
-      <c r="J49" s="3">
+      <c r="M49" s="3">
         <v>5525000</v>
       </c>
-      <c r="K49" s="3">
+      <c r="N49" s="3">
         <v>5556000</v>
       </c>
-      <c r="L49" s="3">
+      <c r="O49" s="3">
         <v>5561000</v>
       </c>
-      <c r="M49" s="3">
+      <c r="P49" s="3">
         <v>5597000</v>
       </c>
-      <c r="N49" s="3">
+      <c r="Q49" s="3">
         <v>5629000</v>
       </c>
-      <c r="O49" s="3">
+      <c r="R49" s="3">
         <v>5683000</v>
       </c>
-      <c r="P49" s="3">
+      <c r="S49" s="3">
         <v>2985000</v>
       </c>
-      <c r="Q49" s="3">
+      <c r="T49" s="3">
         <v>3004000</v>
       </c>
-      <c r="R49" s="3">
+      <c r="U49" s="3">
         <v>3023000</v>
       </c>
-      <c r="S49" s="3">
+      <c r="V49" s="3">
         <v>3042000</v>
       </c>
     </row>
-    <row r="50" spans="3:19" x14ac:dyDescent="0.2">
+    <row r="50" spans="3:22" x14ac:dyDescent="0.2">
       <c r="C50" s="1" t="s">
         <v>43</v>
       </c>
@@ -2757,8 +3098,17 @@
       <c r="S50" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="51" spans="3:19" x14ac:dyDescent="0.2">
+      <c r="T50" s="3">
+        <v>0</v>
+      </c>
+      <c r="U50" s="3">
+        <v>0</v>
+      </c>
+      <c r="V50" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="51" spans="3:22" x14ac:dyDescent="0.2">
       <c r="C51" s="1" t="s">
         <v>44</v>
       </c>
@@ -2810,44 +3160,53 @@
       <c r="S51" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="52" spans="3:19" x14ac:dyDescent="0.2">
+      <c r="T51" s="3">
+        <v>0</v>
+      </c>
+      <c r="U51" s="3">
+        <v>0</v>
+      </c>
+      <c r="V51" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="52" spans="3:22" x14ac:dyDescent="0.2">
       <c r="C52" s="1" t="s">
         <v>45</v>
       </c>
-      <c r="D52" s="3" t="s">
-        <v>5</v>
-      </c>
-      <c r="E52" s="3" t="s">
-        <v>5</v>
-      </c>
-      <c r="F52" s="3">
-        <v>8536000</v>
-      </c>
-      <c r="G52" s="3">
-        <v>8684000</v>
-      </c>
-      <c r="H52" s="3">
+      <c r="D52" s="3">
+        <v>194600</v>
+      </c>
+      <c r="E52" s="3">
+        <v>168000</v>
+      </c>
+      <c r="F52" s="3" t="s">
+        <v>5</v>
+      </c>
+      <c r="G52" s="3" t="s">
+        <v>5</v>
+      </c>
+      <c r="H52" s="3" t="s">
+        <v>5</v>
+      </c>
+      <c r="I52" s="3" t="s">
+        <v>5</v>
+      </c>
+      <c r="J52" s="3" t="s">
+        <v>5</v>
+      </c>
+      <c r="K52" s="3">
         <v>7124000</v>
       </c>
-      <c r="I52" s="3">
+      <c r="L52" s="3">
         <v>5580000</v>
       </c>
-      <c r="J52" s="3">
+      <c r="M52" s="3">
         <v>3185000</v>
       </c>
-      <c r="K52" s="3">
+      <c r="N52" s="3">
         <v>3185000</v>
       </c>
-      <c r="L52" s="3">
-        <v>0</v>
-      </c>
-      <c r="M52" s="3">
-        <v>0</v>
-      </c>
-      <c r="N52" s="3">
-        <v>0</v>
-      </c>
       <c r="O52" s="3">
         <v>0</v>
       </c>
@@ -2863,8 +3222,17 @@
       <c r="S52" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="53" spans="3:19" x14ac:dyDescent="0.2">
+      <c r="T52" s="3">
+        <v>0</v>
+      </c>
+      <c r="U52" s="3">
+        <v>0</v>
+      </c>
+      <c r="V52" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="53" spans="3:22" x14ac:dyDescent="0.2">
       <c r="C53" s="1" t="s">
         <v>46</v>
       </c>
@@ -2916,61 +3284,79 @@
       <c r="S53" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="54" spans="3:19" x14ac:dyDescent="0.2">
+      <c r="T53" s="3">
+        <v>0</v>
+      </c>
+      <c r="U53" s="3">
+        <v>0</v>
+      </c>
+      <c r="V53" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="54" spans="3:22" x14ac:dyDescent="0.2">
       <c r="C54" s="1" t="s">
         <v>47</v>
       </c>
       <c r="D54" s="3">
-        <v>54394000</v>
+        <v>1415500</v>
       </c>
       <c r="E54" s="3">
-        <v>51005000</v>
+        <v>1344600</v>
       </c>
       <c r="F54" s="3">
-        <v>43481000</v>
+        <v>1309300</v>
       </c>
       <c r="G54" s="3">
-        <v>43786000</v>
+        <v>1290300</v>
       </c>
       <c r="H54" s="3">
+        <v>1056500</v>
+      </c>
+      <c r="I54" s="3">
+        <v>905300</v>
+      </c>
+      <c r="J54" s="3">
+        <v>1062800</v>
+      </c>
+      <c r="K54" s="3">
         <v>41119000</v>
       </c>
-      <c r="I54" s="3">
+      <c r="L54" s="3">
         <v>38679000</v>
       </c>
-      <c r="J54" s="3">
+      <c r="M54" s="3">
         <v>37191000</v>
       </c>
-      <c r="K54" s="3">
+      <c r="N54" s="3">
         <v>37520000</v>
       </c>
-      <c r="L54" s="3">
+      <c r="O54" s="3">
         <v>37511000</v>
       </c>
-      <c r="M54" s="3">
+      <c r="P54" s="3">
         <v>38410000</v>
       </c>
-      <c r="N54" s="3">
+      <c r="Q54" s="3">
         <v>39412000</v>
       </c>
-      <c r="O54" s="3">
+      <c r="R54" s="3">
         <v>38627000</v>
       </c>
-      <c r="P54" s="3">
+      <c r="S54" s="3">
         <v>30110000</v>
       </c>
-      <c r="Q54" s="3">
+      <c r="T54" s="3">
         <v>29165000</v>
       </c>
-      <c r="R54" s="3">
+      <c r="U54" s="3">
         <v>28834000</v>
       </c>
-      <c r="S54" s="3">
+      <c r="V54" s="3">
         <v>28818000</v>
       </c>
     </row>
-    <row r="55" spans="3:19" x14ac:dyDescent="0.2">
+    <row r="55" spans="3:22" x14ac:dyDescent="0.2">
       <c r="C55" s="1" t="s">
         <v>48</v>
       </c>
@@ -2990,8 +3376,11 @@
       <c r="Q55" s="3"/>
       <c r="R55" s="3"/>
       <c r="S55" s="3"/>
-    </row>
-    <row r="56" spans="3:19" x14ac:dyDescent="0.2">
+      <c r="T55" s="3"/>
+      <c r="U55" s="3"/>
+      <c r="V55" s="3"/>
+    </row>
+    <row r="56" spans="3:22" x14ac:dyDescent="0.2">
       <c r="C56" s="1" t="s">
         <v>49</v>
       </c>
@@ -3011,137 +3400,158 @@
       <c r="Q56" s="3"/>
       <c r="R56" s="3"/>
       <c r="S56" s="3"/>
-    </row>
-    <row r="57" spans="3:19" x14ac:dyDescent="0.2">
+      <c r="T56" s="3"/>
+      <c r="U56" s="3"/>
+      <c r="V56" s="3"/>
+    </row>
+    <row r="57" spans="3:22" x14ac:dyDescent="0.2">
       <c r="C57" s="1" t="s">
         <v>50</v>
       </c>
       <c r="D57" s="3">
-        <v>40455000</v>
+        <v>41000</v>
       </c>
       <c r="E57" s="3">
-        <v>36269000</v>
+        <v>36200</v>
       </c>
       <c r="F57" s="3">
-        <v>30550000</v>
+        <v>53900</v>
       </c>
       <c r="G57" s="3">
-        <v>31264000</v>
+        <v>82000</v>
       </c>
       <c r="H57" s="3">
+        <v>71300</v>
+      </c>
+      <c r="I57" s="3">
+        <v>62500</v>
+      </c>
+      <c r="J57" s="3">
+        <v>460100</v>
+      </c>
+      <c r="K57" s="3">
         <v>28833000</v>
       </c>
-      <c r="I57" s="3">
+      <c r="L57" s="3">
         <v>26621000</v>
       </c>
-      <c r="J57" s="3">
+      <c r="M57" s="3">
         <v>25139000</v>
       </c>
-      <c r="K57" s="3">
+      <c r="N57" s="3">
         <v>26805000</v>
       </c>
-      <c r="L57" s="3">
+      <c r="O57" s="3">
         <v>26859000</v>
       </c>
-      <c r="M57" s="3">
+      <c r="P57" s="3">
         <v>27889000</v>
       </c>
-      <c r="N57" s="3">
+      <c r="Q57" s="3">
         <v>29119000</v>
       </c>
-      <c r="O57" s="3">
+      <c r="R57" s="3">
         <v>28535000</v>
       </c>
-      <c r="P57" s="3">
+      <c r="S57" s="3">
         <v>21821000</v>
       </c>
-      <c r="Q57" s="3">
+      <c r="T57" s="3">
         <v>21806000</v>
       </c>
-      <c r="R57" s="3">
+      <c r="U57" s="3">
         <v>21582000</v>
       </c>
-      <c r="S57" s="3">
+      <c r="V57" s="3">
         <v>21669000</v>
       </c>
     </row>
-    <row r="58" spans="3:19" x14ac:dyDescent="0.2">
+    <row r="58" spans="3:22" x14ac:dyDescent="0.2">
       <c r="C58" s="1" t="s">
         <v>51</v>
       </c>
-      <c r="D58" s="3" t="s">
-        <v>5</v>
+      <c r="D58" s="3">
+        <v>29700</v>
       </c>
       <c r="E58" s="3">
-        <v>1223000</v>
-      </c>
-      <c r="F58" s="3" t="s">
-        <v>5</v>
+        <v>29700</v>
+      </c>
+      <c r="F58" s="3">
+        <v>29700</v>
       </c>
       <c r="G58" s="3">
         <v>0</v>
       </c>
       <c r="H58" s="3">
-        <v>0</v>
+        <v>40600</v>
       </c>
       <c r="I58" s="3">
-        <v>0</v>
+        <v>41100</v>
       </c>
       <c r="J58" s="3">
-        <v>0</v>
+        <v>41100</v>
       </c>
       <c r="K58" s="3">
+        <v>0</v>
+      </c>
+      <c r="L58" s="3">
+        <v>0</v>
+      </c>
+      <c r="M58" s="3">
+        <v>0</v>
+      </c>
+      <c r="N58" s="3">
         <v>96000</v>
-      </c>
-      <c r="L58" s="3">
-        <v>97000</v>
-      </c>
-      <c r="M58" s="3">
-        <v>318000</v>
-      </c>
-      <c r="N58" s="3">
-        <v>147000</v>
       </c>
       <c r="O58" s="3">
         <v>97000</v>
       </c>
-      <c r="P58" s="3" t="s">
-        <v>5</v>
-      </c>
-      <c r="Q58" s="3" t="s">
-        <v>5</v>
-      </c>
-      <c r="R58" s="3" t="s">
-        <v>5</v>
+      <c r="P58" s="3">
+        <v>318000</v>
+      </c>
+      <c r="Q58" s="3">
+        <v>147000</v>
+      </c>
+      <c r="R58" s="3">
+        <v>97000</v>
       </c>
       <c r="S58" s="3" t="s">
         <v>5</v>
       </c>
-    </row>
-    <row r="59" spans="3:19" x14ac:dyDescent="0.2">
+      <c r="T58" s="3" t="s">
+        <v>5</v>
+      </c>
+      <c r="U58" s="3" t="s">
+        <v>5</v>
+      </c>
+      <c r="V58" s="3" t="s">
+        <v>5</v>
+      </c>
+    </row>
+    <row r="59" spans="3:22" x14ac:dyDescent="0.2">
       <c r="C59" s="1" t="s">
         <v>52</v>
       </c>
       <c r="D59" s="3">
-        <v>352000</v>
+        <v>12800</v>
       </c>
       <c r="E59" s="3">
-        <v>360000</v>
+        <v>21800</v>
       </c>
       <c r="F59" s="3">
-        <v>373000</v>
-      </c>
-      <c r="G59" s="3" t="s">
-        <v>5</v>
-      </c>
-      <c r="H59" s="3" t="s">
-        <v>5</v>
-      </c>
-      <c r="I59" s="3" t="s">
-        <v>5</v>
-      </c>
-      <c r="J59" s="3" t="s">
-        <v>5</v>
+        <v>12500</v>
+      </c>
+      <c r="G59" s="3">
+        <v>11200</v>
+      </c>
+      <c r="H59" s="3">
+        <v>26400</v>
+      </c>
+      <c r="I59" s="3">
+        <v>9700</v>
+      </c>
+      <c r="J59" s="3">
+        <v>7500</v>
       </c>
       <c r="K59" s="3" t="s">
         <v>5</v>
@@ -3149,14 +3559,14 @@
       <c r="L59" s="3" t="s">
         <v>5</v>
       </c>
-      <c r="M59" s="3">
-        <v>0</v>
-      </c>
-      <c r="N59" s="3">
-        <v>0</v>
-      </c>
-      <c r="O59" s="3">
-        <v>0</v>
+      <c r="M59" s="3" t="s">
+        <v>5</v>
+      </c>
+      <c r="N59" s="3" t="s">
+        <v>5</v>
+      </c>
+      <c r="O59" s="3" t="s">
+        <v>5</v>
       </c>
       <c r="P59" s="3">
         <v>0</v>
@@ -3170,31 +3580,40 @@
       <c r="S59" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="60" spans="3:19" x14ac:dyDescent="0.2">
+      <c r="T59" s="3">
+        <v>0</v>
+      </c>
+      <c r="U59" s="3">
+        <v>0</v>
+      </c>
+      <c r="V59" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="60" spans="3:22" x14ac:dyDescent="0.2">
       <c r="C60" s="1" t="s">
         <v>53</v>
       </c>
       <c r="D60" s="3">
-        <v>0</v>
+        <v>83500</v>
       </c>
       <c r="E60" s="3">
-        <v>0</v>
+        <v>87600</v>
       </c>
       <c r="F60" s="3">
-        <v>0</v>
+        <v>96100</v>
       </c>
       <c r="G60" s="3">
-        <v>0</v>
+        <v>93200</v>
       </c>
       <c r="H60" s="3">
-        <v>0</v>
+        <v>138300</v>
       </c>
       <c r="I60" s="3">
-        <v>0</v>
+        <v>113300</v>
       </c>
       <c r="J60" s="3">
-        <v>0</v>
+        <v>508800</v>
       </c>
       <c r="K60" s="3">
         <v>0</v>
@@ -3223,114 +3642,141 @@
       <c r="S60" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="61" spans="3:19" x14ac:dyDescent="0.2">
+      <c r="T60" s="3">
+        <v>0</v>
+      </c>
+      <c r="U60" s="3">
+        <v>0</v>
+      </c>
+      <c r="V60" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="61" spans="3:22" x14ac:dyDescent="0.2">
       <c r="C61" s="1" t="s">
         <v>54</v>
       </c>
       <c r="D61" s="3">
-        <v>3736000</v>
+        <v>13700</v>
       </c>
       <c r="E61" s="3">
-        <v>3721000</v>
+        <v>13200</v>
       </c>
       <c r="F61" s="3">
-        <v>3555000</v>
+        <v>12900</v>
       </c>
       <c r="G61" s="3">
-        <v>3594000</v>
+        <v>12700</v>
       </c>
       <c r="H61" s="3">
+        <v>12300</v>
+      </c>
+      <c r="I61" s="3">
+        <v>0</v>
+      </c>
+      <c r="J61" s="3">
+        <v>0</v>
+      </c>
+      <c r="K61" s="3">
         <v>3574000</v>
       </c>
-      <c r="I61" s="3">
+      <c r="L61" s="3">
         <v>3520000</v>
       </c>
-      <c r="J61" s="3">
+      <c r="M61" s="3">
         <v>3484000</v>
       </c>
-      <c r="K61" s="3">
+      <c r="N61" s="3">
         <v>2439000</v>
       </c>
-      <c r="L61" s="3">
+      <c r="O61" s="3">
         <v>2456000</v>
       </c>
-      <c r="M61" s="3">
+      <c r="P61" s="3">
         <v>2477000</v>
       </c>
-      <c r="N61" s="3">
+      <c r="Q61" s="3">
         <v>2531000</v>
       </c>
-      <c r="O61" s="3">
+      <c r="R61" s="3">
         <v>2555000</v>
       </c>
-      <c r="P61" s="3">
+      <c r="S61" s="3">
         <v>2561000</v>
       </c>
-      <c r="Q61" s="3">
+      <c r="T61" s="3">
         <v>1765000</v>
       </c>
-      <c r="R61" s="3">
+      <c r="U61" s="3">
         <v>1769000</v>
       </c>
-      <c r="S61" s="3">
+      <c r="V61" s="3">
         <v>1817000</v>
       </c>
     </row>
-    <row r="62" spans="3:19" x14ac:dyDescent="0.2">
+    <row r="62" spans="3:22" x14ac:dyDescent="0.2">
       <c r="C62" s="1" t="s">
         <v>55</v>
       </c>
       <c r="D62" s="3">
-        <v>283000</v>
+        <v>1700</v>
       </c>
       <c r="E62" s="3">
-        <v>279000</v>
+        <v>1700</v>
       </c>
       <c r="F62" s="3">
-        <v>256000</v>
+        <v>2600</v>
       </c>
       <c r="G62" s="3">
-        <v>228000</v>
+        <v>2600</v>
       </c>
       <c r="H62" s="3">
+        <v>33700</v>
+      </c>
+      <c r="I62" s="3">
+        <v>31000</v>
+      </c>
+      <c r="J62" s="3">
+        <v>25000</v>
+      </c>
+      <c r="K62" s="3">
         <v>219000</v>
       </c>
-      <c r="I62" s="3">
+      <c r="L62" s="3">
         <v>215000</v>
       </c>
-      <c r="J62" s="3">
+      <c r="M62" s="3">
         <v>211000</v>
       </c>
-      <c r="K62" s="3">
+      <c r="N62" s="3">
         <v>177000</v>
       </c>
-      <c r="L62" s="3">
+      <c r="O62" s="3">
         <v>163000</v>
       </c>
-      <c r="M62" s="3">
+      <c r="P62" s="3">
         <v>131000</v>
       </c>
-      <c r="N62" s="3">
+      <c r="Q62" s="3">
         <v>182000</v>
       </c>
-      <c r="O62" s="3">
+      <c r="R62" s="3">
         <v>193000</v>
       </c>
-      <c r="P62" s="3">
+      <c r="S62" s="3">
         <v>268000</v>
       </c>
-      <c r="Q62" s="3">
+      <c r="T62" s="3">
         <v>269000</v>
       </c>
-      <c r="R62" s="3">
+      <c r="U62" s="3">
         <v>284000</v>
       </c>
-      <c r="S62" s="3">
+      <c r="V62" s="3">
         <v>281000</v>
       </c>
     </row>
-    <row r="63" spans="3:19" x14ac:dyDescent="0.2">
+    <row r="63" spans="3:22" x14ac:dyDescent="0.2">
       <c r="C63" s="1" t="s">
         <v>56</v>
       </c>
@@ -3382,8 +3828,17 @@
       <c r="S63" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="64" spans="3:19" x14ac:dyDescent="0.2">
+      <c r="T63" s="3">
+        <v>0</v>
+      </c>
+      <c r="U63" s="3">
+        <v>0</v>
+      </c>
+      <c r="V63" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="64" spans="3:22" x14ac:dyDescent="0.2">
       <c r="C64" s="1" t="s">
         <v>20</v>
       </c>
@@ -3435,8 +3890,17 @@
       <c r="S64" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="65" spans="2:19" x14ac:dyDescent="0.2">
+      <c r="T64" s="3">
+        <v>0</v>
+      </c>
+      <c r="U64" s="3">
+        <v>0</v>
+      </c>
+      <c r="V64" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="65" spans="2:22" x14ac:dyDescent="0.2">
       <c r="C65" s="1" t="s">
         <v>57</v>
       </c>
@@ -3488,61 +3952,79 @@
       <c r="S65" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="66" spans="2:19" x14ac:dyDescent="0.2">
+      <c r="T65" s="3">
+        <v>0</v>
+      </c>
+      <c r="U65" s="3">
+        <v>0</v>
+      </c>
+      <c r="V65" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="66" spans="2:22" x14ac:dyDescent="0.2">
       <c r="C66" s="1" t="s">
         <v>58</v>
       </c>
       <c r="D66" s="3">
-        <v>44826000</v>
+        <v>100900</v>
       </c>
       <c r="E66" s="3">
-        <v>41852000</v>
+        <v>102500</v>
       </c>
       <c r="F66" s="3">
-        <v>34734000</v>
+        <v>111700</v>
       </c>
       <c r="G66" s="3">
-        <v>35086000</v>
+        <v>108500</v>
       </c>
       <c r="H66" s="3">
+        <v>184200</v>
+      </c>
+      <c r="I66" s="3">
+        <v>144400</v>
+      </c>
+      <c r="J66" s="3">
+        <v>533700</v>
+      </c>
+      <c r="K66" s="3">
         <v>32626000</v>
       </c>
-      <c r="I66" s="3">
+      <c r="L66" s="3">
         <v>30356000</v>
       </c>
-      <c r="J66" s="3">
+      <c r="M66" s="3">
         <v>28834000</v>
       </c>
-      <c r="K66" s="3">
+      <c r="N66" s="3">
         <v>29517000</v>
       </c>
-      <c r="L66" s="3">
+      <c r="O66" s="3">
         <v>29575000</v>
       </c>
-      <c r="M66" s="3">
+      <c r="P66" s="3">
         <v>30815000</v>
       </c>
-      <c r="N66" s="3">
+      <c r="Q66" s="3">
         <v>31979000</v>
       </c>
-      <c r="O66" s="3">
+      <c r="R66" s="3">
         <v>31380000</v>
       </c>
-      <c r="P66" s="3">
+      <c r="S66" s="3">
         <v>24650000</v>
       </c>
-      <c r="Q66" s="3">
+      <c r="T66" s="3">
         <v>23840000</v>
       </c>
-      <c r="R66" s="3">
+      <c r="U66" s="3">
         <v>23635000</v>
       </c>
-      <c r="S66" s="3">
+      <c r="V66" s="3">
         <v>23767000</v>
       </c>
     </row>
-    <row r="67" spans="2:19" x14ac:dyDescent="0.2">
+    <row r="67" spans="2:22" x14ac:dyDescent="0.2">
       <c r="C67" s="1" t="s">
         <v>59</v>
       </c>
@@ -3562,8 +4044,11 @@
       <c r="Q67" s="3"/>
       <c r="R67" s="3"/>
       <c r="S67" s="3"/>
-    </row>
-    <row r="68" spans="2:19" x14ac:dyDescent="0.2">
+      <c r="T67" s="3"/>
+      <c r="U67" s="3"/>
+      <c r="V67" s="3"/>
+    </row>
+    <row r="68" spans="2:22" x14ac:dyDescent="0.2">
       <c r="C68" s="1" t="s">
         <v>60</v>
       </c>
@@ -3615,8 +4100,17 @@
       <c r="S68" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="69" spans="2:19" x14ac:dyDescent="0.2">
+      <c r="T68" s="3">
+        <v>0</v>
+      </c>
+      <c r="U68" s="3">
+        <v>0</v>
+      </c>
+      <c r="V68" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="69" spans="2:22" x14ac:dyDescent="0.2">
       <c r="C69" s="1" t="s">
         <v>61</v>
       </c>
@@ -3668,8 +4162,17 @@
       <c r="S69" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="70" spans="2:19" x14ac:dyDescent="0.2">
+      <c r="T69" s="3">
+        <v>0</v>
+      </c>
+      <c r="U69" s="3">
+        <v>0</v>
+      </c>
+      <c r="V69" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="70" spans="2:22" x14ac:dyDescent="0.2">
       <c r="C70" s="1" t="s">
         <v>62</v>
       </c>
@@ -3721,8 +4224,17 @@
       <c r="S70" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="71" spans="2:19" x14ac:dyDescent="0.2">
+      <c r="T70" s="3">
+        <v>0</v>
+      </c>
+      <c r="U70" s="3">
+        <v>0</v>
+      </c>
+      <c r="V70" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="71" spans="2:22" x14ac:dyDescent="0.2">
       <c r="C71" s="1" t="s">
         <v>63</v>
       </c>
@@ -3774,61 +4286,79 @@
       <c r="S71" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="72" spans="2:19" x14ac:dyDescent="0.2">
+      <c r="T71" s="3">
+        <v>0</v>
+      </c>
+      <c r="U71" s="3">
+        <v>0</v>
+      </c>
+      <c r="V71" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="72" spans="2:22" x14ac:dyDescent="0.2">
       <c r="C72" s="1" t="s">
         <v>64</v>
       </c>
       <c r="D72" s="3">
-        <v>9469000</v>
+        <v>1080100</v>
       </c>
       <c r="E72" s="3">
-        <v>9068000</v>
+        <v>1007600</v>
       </c>
       <c r="F72" s="3">
-        <v>8790000</v>
+        <v>959200</v>
       </c>
       <c r="G72" s="3">
-        <v>8580000</v>
+        <v>947300</v>
       </c>
       <c r="H72" s="3">
+        <v>872200</v>
+      </c>
+      <c r="I72" s="3">
+        <v>760900</v>
+      </c>
+      <c r="J72" s="3">
+        <v>529100</v>
+      </c>
+      <c r="K72" s="3">
         <v>8194000</v>
       </c>
-      <c r="I72" s="3">
+      <c r="L72" s="3">
         <v>7805000</v>
       </c>
-      <c r="J72" s="3">
+      <c r="M72" s="3">
         <v>7475000</v>
       </c>
-      <c r="K72" s="3">
+      <c r="N72" s="3">
         <v>7011000</v>
       </c>
-      <c r="L72" s="3">
+      <c r="O72" s="3">
         <v>6673000</v>
       </c>
-      <c r="M72" s="3">
+      <c r="P72" s="3">
         <v>6341000</v>
       </c>
-      <c r="N72" s="3">
+      <c r="Q72" s="3">
         <v>6189000</v>
       </c>
-      <c r="O72" s="3">
+      <c r="R72" s="3">
         <v>6011000</v>
       </c>
-      <c r="P72" s="3">
+      <c r="S72" s="3">
         <v>5895000</v>
       </c>
-      <c r="Q72" s="3">
+      <c r="T72" s="3">
         <v>5759000</v>
       </c>
-      <c r="R72" s="3">
+      <c r="U72" s="3">
         <v>5640000</v>
       </c>
-      <c r="S72" s="3">
+      <c r="V72" s="3">
         <v>5518000</v>
       </c>
     </row>
-    <row r="73" spans="2:19" x14ac:dyDescent="0.2">
+    <row r="73" spans="2:22" x14ac:dyDescent="0.2">
       <c r="C73" s="1" t="s">
         <v>65</v>
       </c>
@@ -3880,8 +4410,17 @@
       <c r="S73" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="74" spans="2:19" x14ac:dyDescent="0.2">
+      <c r="T73" s="3">
+        <v>0</v>
+      </c>
+      <c r="U73" s="3">
+        <v>0</v>
+      </c>
+      <c r="V73" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="74" spans="2:22" x14ac:dyDescent="0.2">
       <c r="C74" s="1" t="s">
         <v>66</v>
       </c>
@@ -3933,8 +4472,17 @@
       <c r="S74" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="75" spans="2:19" x14ac:dyDescent="0.2">
+      <c r="T74" s="3">
+        <v>0</v>
+      </c>
+      <c r="U74" s="3">
+        <v>0</v>
+      </c>
+      <c r="V74" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="75" spans="2:22" x14ac:dyDescent="0.2">
       <c r="C75" s="1" t="s">
         <v>67</v>
       </c>
@@ -3986,61 +4534,79 @@
       <c r="S75" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="76" spans="2:19" x14ac:dyDescent="0.2">
+      <c r="T75" s="3">
+        <v>0</v>
+      </c>
+      <c r="U75" s="3">
+        <v>0</v>
+      </c>
+      <c r="V75" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="76" spans="2:22" x14ac:dyDescent="0.2">
       <c r="C76" s="1" t="s">
         <v>68</v>
       </c>
       <c r="D76" s="3">
-        <v>9568000</v>
+        <v>1314600</v>
       </c>
       <c r="E76" s="3">
-        <v>9153000</v>
+        <v>1242200</v>
       </c>
       <c r="F76" s="3">
-        <v>8747000</v>
+        <v>1197600</v>
       </c>
       <c r="G76" s="3">
-        <v>8700000</v>
+        <v>1181700</v>
       </c>
       <c r="H76" s="3">
+        <v>872300</v>
+      </c>
+      <c r="I76" s="3">
+        <v>760900</v>
+      </c>
+      <c r="J76" s="3">
+        <v>529100</v>
+      </c>
+      <c r="K76" s="3">
         <v>8493000</v>
       </c>
-      <c r="I76" s="3">
+      <c r="L76" s="3">
         <v>8323000</v>
       </c>
-      <c r="J76" s="3">
+      <c r="M76" s="3">
         <v>8357000</v>
       </c>
-      <c r="K76" s="3">
+      <c r="N76" s="3">
         <v>8003000</v>
       </c>
-      <c r="L76" s="3">
+      <c r="O76" s="3">
         <v>7936000</v>
       </c>
-      <c r="M76" s="3">
+      <c r="P76" s="3">
         <v>7595000</v>
       </c>
-      <c r="N76" s="3">
+      <c r="Q76" s="3">
         <v>7433000</v>
       </c>
-      <c r="O76" s="3">
+      <c r="R76" s="3">
         <v>7247000</v>
       </c>
-      <c r="P76" s="3">
+      <c r="S76" s="3">
         <v>5460000</v>
       </c>
-      <c r="Q76" s="3">
+      <c r="T76" s="3">
         <v>5325000</v>
       </c>
-      <c r="R76" s="3">
+      <c r="U76" s="3">
         <v>5199000</v>
       </c>
-      <c r="S76" s="3">
+      <c r="V76" s="3">
         <v>5051000</v>
       </c>
     </row>
-    <row r="77" spans="2:19" x14ac:dyDescent="0.2">
+    <row r="77" spans="2:22" x14ac:dyDescent="0.2">
       <c r="C77" s="1" t="s">
         <v>69</v>
       </c>
@@ -4092,119 +4658,146 @@
       <c r="S77" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="79" spans="2:19" x14ac:dyDescent="0.2">
+      <c r="T77" s="3">
+        <v>0</v>
+      </c>
+      <c r="U77" s="3">
+        <v>0</v>
+      </c>
+      <c r="V77" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="79" spans="2:22" x14ac:dyDescent="0.2">
       <c r="B79" s="1" t="s">
         <v>70</v>
       </c>
     </row>
-    <row r="80" spans="2:19" x14ac:dyDescent="0.2">
+    <row r="80" spans="2:22" x14ac:dyDescent="0.2">
       <c r="C80" s="1" t="s">
         <v>2</v>
       </c>
       <c r="D80" s="2">
+        <v>44377</v>
+      </c>
+      <c r="E80" s="2">
+        <v>44196</v>
+      </c>
+      <c r="F80" s="2">
+        <v>44104</v>
+      </c>
+      <c r="G80" s="2">
         <v>44012</v>
       </c>
-      <c r="E80" s="2">
-        <v>43921</v>
-      </c>
-      <c r="F80" s="2">
+      <c r="H80" s="2">
         <v>43830</v>
       </c>
-      <c r="G80" s="2">
+      <c r="I80" s="2">
         <v>43738</v>
       </c>
-      <c r="H80" s="2">
+      <c r="J80" s="2">
         <v>43646</v>
       </c>
-      <c r="I80" s="2">
+      <c r="K80" s="2">
+        <v>43646</v>
+      </c>
+      <c r="L80" s="2">
         <v>43555</v>
       </c>
-      <c r="J80" s="2">
+      <c r="M80" s="2">
         <v>43465</v>
       </c>
-      <c r="K80" s="2">
+      <c r="N80" s="2">
         <v>43373</v>
       </c>
-      <c r="L80" s="2">
+      <c r="O80" s="2">
         <v>43281</v>
       </c>
-      <c r="M80" s="2">
+      <c r="P80" s="2">
         <v>43190</v>
       </c>
-      <c r="N80" s="2">
+      <c r="Q80" s="2">
         <v>43100</v>
       </c>
-      <c r="O80" s="2">
+      <c r="R80" s="2">
         <v>43008</v>
       </c>
-      <c r="P80" s="2">
+      <c r="S80" s="2">
         <v>42916</v>
       </c>
-      <c r="Q80" s="2">
+      <c r="T80" s="2">
         <v>42825</v>
       </c>
-      <c r="R80" s="2">
+      <c r="U80" s="2">
         <v>42735</v>
       </c>
-      <c r="S80" s="2">
+      <c r="V80" s="2">
         <v>42643</v>
       </c>
     </row>
-    <row r="81" spans="3:19" x14ac:dyDescent="0.2">
+    <row r="81" spans="3:22" x14ac:dyDescent="0.2">
       <c r="C81" s="1" t="s">
         <v>28</v>
       </c>
       <c r="D81" s="3">
-        <v>569000</v>
+        <v>72400</v>
       </c>
       <c r="E81" s="3">
-        <v>446000</v>
+        <v>48400</v>
       </c>
       <c r="F81" s="3">
-        <v>379000</v>
+        <v>11900</v>
       </c>
       <c r="G81" s="3">
-        <v>550000</v>
+        <v>75100</v>
       </c>
       <c r="H81" s="3">
+        <v>11400</v>
+      </c>
+      <c r="I81" s="3">
+        <v>39300</v>
+      </c>
+      <c r="J81" s="3">
+        <v>28100</v>
+      </c>
+      <c r="K81" s="3">
         <v>555000</v>
       </c>
-      <c r="I81" s="3">
+      <c r="L81" s="3">
         <v>499000</v>
       </c>
-      <c r="J81" s="3">
+      <c r="M81" s="3">
         <v>604000</v>
       </c>
-      <c r="K81" s="3">
+      <c r="N81" s="3">
         <v>454000</v>
       </c>
-      <c r="L81" s="3">
+      <c r="O81" s="3">
         <v>451000</v>
       </c>
-      <c r="M81" s="3">
+      <c r="P81" s="3">
         <v>271000</v>
       </c>
-      <c r="N81" s="3">
+      <c r="Q81" s="3">
         <v>297000</v>
       </c>
-      <c r="O81" s="3">
+      <c r="R81" s="3">
         <v>211000</v>
       </c>
-      <c r="P81" s="3">
+      <c r="S81" s="3">
         <v>231000</v>
       </c>
-      <c r="Q81" s="3">
+      <c r="T81" s="3">
         <v>214000</v>
       </c>
-      <c r="R81" s="3">
+      <c r="U81" s="3">
         <v>216000</v>
       </c>
-      <c r="S81" s="3">
+      <c r="V81" s="3">
         <v>185000</v>
       </c>
     </row>
-    <row r="82" spans="3:19" x14ac:dyDescent="0.2">
+    <row r="82" spans="3:22" x14ac:dyDescent="0.2">
       <c r="C82" s="1" t="s">
         <v>71</v>
       </c>
@@ -4224,61 +4817,73 @@
       <c r="Q82" s="3"/>
       <c r="R82" s="3"/>
       <c r="S82" s="3"/>
-    </row>
-    <row r="83" spans="3:19" x14ac:dyDescent="0.2">
+      <c r="T82" s="3"/>
+      <c r="U82" s="3"/>
+      <c r="V82" s="3"/>
+    </row>
+    <row r="83" spans="3:22" x14ac:dyDescent="0.2">
       <c r="C83" s="1" t="s">
         <v>72</v>
       </c>
       <c r="D83" s="3">
-        <v>73000</v>
+        <v>0</v>
       </c>
       <c r="E83" s="3">
+        <v>0</v>
+      </c>
+      <c r="F83" s="3">
+        <v>0</v>
+      </c>
+      <c r="G83" s="3">
+        <v>0</v>
+      </c>
+      <c r="H83" s="3">
+        <v>0</v>
+      </c>
+      <c r="I83" s="3">
+        <v>0</v>
+      </c>
+      <c r="J83" s="3">
+        <v>0</v>
+      </c>
+      <c r="K83" s="3">
+        <v>69000</v>
+      </c>
+      <c r="L83" s="3">
+        <v>67000</v>
+      </c>
+      <c r="M83" s="3">
+        <v>66000</v>
+      </c>
+      <c r="N83" s="3">
+        <v>70000</v>
+      </c>
+      <c r="O83" s="3">
+        <v>69000</v>
+      </c>
+      <c r="P83" s="3">
         <v>72000</v>
       </c>
-      <c r="F83" s="3">
+      <c r="Q83" s="3">
         <v>72000</v>
       </c>
-      <c r="G83" s="3">
-        <v>71000</v>
-      </c>
-      <c r="H83" s="3">
-        <v>69000</v>
-      </c>
-      <c r="I83" s="3">
-        <v>67000</v>
-      </c>
-      <c r="J83" s="3">
-        <v>66000</v>
-      </c>
-      <c r="K83" s="3">
-        <v>70000</v>
-      </c>
-      <c r="L83" s="3">
-        <v>69000</v>
-      </c>
-      <c r="M83" s="3">
-        <v>72000</v>
-      </c>
-      <c r="N83" s="3">
-        <v>72000</v>
-      </c>
-      <c r="O83" s="3">
+      <c r="R83" s="3">
         <v>50000</v>
       </c>
-      <c r="P83" s="3">
+      <c r="S83" s="3">
         <v>44000</v>
       </c>
-      <c r="Q83" s="3">
+      <c r="T83" s="3">
         <v>44000</v>
       </c>
-      <c r="R83" s="3">
+      <c r="U83" s="3">
         <v>43000</v>
       </c>
-      <c r="S83" s="3">
+      <c r="V83" s="3">
         <v>45000</v>
       </c>
     </row>
-    <row r="84" spans="3:19" x14ac:dyDescent="0.2">
+    <row r="84" spans="3:22" x14ac:dyDescent="0.2">
       <c r="C84" s="1" t="s">
         <v>73</v>
       </c>
@@ -4330,8 +4935,17 @@
       <c r="S84" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="85" spans="3:19" x14ac:dyDescent="0.2">
+      <c r="T84" s="3">
+        <v>0</v>
+      </c>
+      <c r="U84" s="3">
+        <v>0</v>
+      </c>
+      <c r="V84" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="85" spans="3:22" x14ac:dyDescent="0.2">
       <c r="C85" s="1" t="s">
         <v>74</v>
       </c>
@@ -4383,8 +4997,17 @@
       <c r="S85" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="86" spans="3:19" x14ac:dyDescent="0.2">
+      <c r="T85" s="3">
+        <v>0</v>
+      </c>
+      <c r="U85" s="3">
+        <v>0</v>
+      </c>
+      <c r="V85" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="86" spans="3:22" x14ac:dyDescent="0.2">
       <c r="C86" s="1" t="s">
         <v>75</v>
       </c>
@@ -4436,8 +5059,17 @@
       <c r="S86" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="87" spans="3:19" x14ac:dyDescent="0.2">
+      <c r="T86" s="3">
+        <v>0</v>
+      </c>
+      <c r="U86" s="3">
+        <v>0</v>
+      </c>
+      <c r="V86" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="87" spans="3:22" x14ac:dyDescent="0.2">
       <c r="C87" s="1" t="s">
         <v>76</v>
       </c>
@@ -4489,8 +5121,17 @@
       <c r="S87" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="88" spans="3:19" x14ac:dyDescent="0.2">
+      <c r="T87" s="3">
+        <v>0</v>
+      </c>
+      <c r="U87" s="3">
+        <v>0</v>
+      </c>
+      <c r="V87" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="88" spans="3:22" x14ac:dyDescent="0.2">
       <c r="C88" s="1" t="s">
         <v>77</v>
       </c>
@@ -4542,61 +5183,79 @@
       <c r="S88" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="89" spans="3:19" x14ac:dyDescent="0.2">
+      <c r="T88" s="3">
+        <v>0</v>
+      </c>
+      <c r="U88" s="3">
+        <v>0</v>
+      </c>
+      <c r="V88" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="89" spans="3:22" x14ac:dyDescent="0.2">
       <c r="C89" s="1" t="s">
         <v>78</v>
       </c>
       <c r="D89" s="3">
-        <v>-4953000</v>
+        <v>0</v>
       </c>
       <c r="E89" s="3">
-        <v>10067000</v>
+        <v>0</v>
       </c>
       <c r="F89" s="3">
-        <v>-473000</v>
+        <v>0</v>
       </c>
       <c r="G89" s="3">
-        <v>1847000</v>
+        <v>0</v>
       </c>
       <c r="H89" s="3">
+        <v>0</v>
+      </c>
+      <c r="I89" s="3">
+        <v>0</v>
+      </c>
+      <c r="J89" s="3">
+        <v>0</v>
+      </c>
+      <c r="K89" s="3">
         <v>2438000</v>
       </c>
-      <c r="I89" s="3">
+      <c r="L89" s="3">
         <v>573000</v>
       </c>
-      <c r="J89" s="3">
+      <c r="M89" s="3">
         <v>2762000</v>
       </c>
-      <c r="K89" s="3">
+      <c r="N89" s="3">
         <v>1821000</v>
       </c>
-      <c r="L89" s="3">
+      <c r="O89" s="3">
         <v>349000</v>
       </c>
-      <c r="M89" s="3">
+      <c r="P89" s="3">
         <v>124000</v>
       </c>
-      <c r="N89" s="3">
+      <c r="Q89" s="3">
         <v>-386000</v>
       </c>
-      <c r="O89" s="3">
+      <c r="R89" s="3">
         <v>23000</v>
       </c>
-      <c r="P89" s="3">
+      <c r="S89" s="3">
         <v>27000</v>
       </c>
-      <c r="Q89" s="3">
+      <c r="T89" s="3">
         <v>718000</v>
       </c>
-      <c r="R89" s="3">
+      <c r="U89" s="3">
         <v>-81000</v>
       </c>
-      <c r="S89" s="3">
+      <c r="V89" s="3">
         <v>436000</v>
       </c>
     </row>
-    <row r="90" spans="3:19" x14ac:dyDescent="0.2">
+    <row r="90" spans="3:22" x14ac:dyDescent="0.2">
       <c r="C90" s="1" t="s">
         <v>79</v>
       </c>
@@ -4616,61 +5275,73 @@
       <c r="Q90" s="3"/>
       <c r="R90" s="3"/>
       <c r="S90" s="3"/>
-    </row>
-    <row r="91" spans="3:19" x14ac:dyDescent="0.2">
+      <c r="T90" s="3"/>
+      <c r="U90" s="3"/>
+      <c r="V90" s="3"/>
+    </row>
+    <row r="91" spans="3:22" x14ac:dyDescent="0.2">
       <c r="C91" s="1" t="s">
         <v>80</v>
       </c>
       <c r="D91" s="3">
-        <v>-32000</v>
+        <v>0</v>
       </c>
       <c r="E91" s="3">
-        <v>-53000</v>
+        <v>0</v>
       </c>
       <c r="F91" s="3">
-        <v>-102000</v>
+        <v>0</v>
       </c>
       <c r="G91" s="3">
+        <v>0</v>
+      </c>
+      <c r="H91" s="3">
+        <v>0</v>
+      </c>
+      <c r="I91" s="3">
+        <v>0</v>
+      </c>
+      <c r="J91" s="3">
+        <v>0</v>
+      </c>
+      <c r="K91" s="3">
+        <v>-59000</v>
+      </c>
+      <c r="L91" s="3">
         <v>-48000</v>
       </c>
-      <c r="H91" s="3">
-        <v>-59000</v>
-      </c>
-      <c r="I91" s="3">
-        <v>-48000</v>
-      </c>
-      <c r="J91" s="3">
+      <c r="M91" s="3">
         <v>-44000</v>
-      </c>
-      <c r="K91" s="3">
-        <v>-63000</v>
-      </c>
-      <c r="L91" s="3">
-        <v>-47000</v>
-      </c>
-      <c r="M91" s="3">
-        <v>-56000</v>
       </c>
       <c r="N91" s="3">
         <v>-63000</v>
       </c>
       <c r="O91" s="3">
+        <v>-47000</v>
+      </c>
+      <c r="P91" s="3">
         <v>-56000</v>
       </c>
-      <c r="P91" s="3">
+      <c r="Q91" s="3">
+        <v>-63000</v>
+      </c>
+      <c r="R91" s="3">
+        <v>-56000</v>
+      </c>
+      <c r="S91" s="3">
         <v>-62000</v>
       </c>
-      <c r="Q91" s="3">
+      <c r="T91" s="3">
         <v>-100000</v>
       </c>
-      <c r="R91" s="3">
+      <c r="U91" s="3">
         <v>-58000</v>
       </c>
-      <c r="S91" s="3">
+      <c r="V91" s="3">
         <v>-27000</v>
       </c>
     </row>
-    <row r="92" spans="3:19" x14ac:dyDescent="0.2">
+    <row r="92" spans="3:22" x14ac:dyDescent="0.2">
       <c r="C92" s="1" t="s">
         <v>81</v>
       </c>
@@ -4722,8 +5393,17 @@
       <c r="S92" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="93" spans="3:19" x14ac:dyDescent="0.2">
+      <c r="T92" s="3">
+        <v>0</v>
+      </c>
+      <c r="U92" s="3">
+        <v>0</v>
+      </c>
+      <c r="V92" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="93" spans="3:22" x14ac:dyDescent="0.2">
       <c r="C93" s="1" t="s">
         <v>82</v>
       </c>
@@ -4775,61 +5455,79 @@
       <c r="S93" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="94" spans="3:19" x14ac:dyDescent="0.2">
+      <c r="T93" s="3">
+        <v>0</v>
+      </c>
+      <c r="U93" s="3">
+        <v>0</v>
+      </c>
+      <c r="V93" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="94" spans="3:22" x14ac:dyDescent="0.2">
       <c r="C94" s="1" t="s">
         <v>83</v>
       </c>
       <c r="D94" s="3">
-        <v>-31000</v>
+        <v>0</v>
       </c>
       <c r="E94" s="3">
-        <v>-51000</v>
+        <v>0</v>
       </c>
       <c r="F94" s="3">
-        <v>-106000</v>
+        <v>0</v>
       </c>
       <c r="G94" s="3">
-        <v>-543000</v>
+        <v>0</v>
       </c>
       <c r="H94" s="3">
+        <v>0</v>
+      </c>
+      <c r="I94" s="3">
+        <v>0</v>
+      </c>
+      <c r="J94" s="3">
+        <v>0</v>
+      </c>
+      <c r="K94" s="3">
         <v>-195000</v>
       </c>
-      <c r="I94" s="3">
+      <c r="L94" s="3">
         <v>-48000</v>
       </c>
-      <c r="J94" s="3">
+      <c r="M94" s="3">
         <v>-426000</v>
       </c>
-      <c r="K94" s="3">
+      <c r="N94" s="3">
         <v>-66000</v>
       </c>
-      <c r="L94" s="3">
+      <c r="O94" s="3">
         <v>-35000</v>
       </c>
-      <c r="M94" s="3">
+      <c r="P94" s="3">
         <v>-440000</v>
       </c>
-      <c r="N94" s="3">
+      <c r="Q94" s="3">
         <v>633000</v>
       </c>
-      <c r="O94" s="3">
+      <c r="R94" s="3">
         <v>-1406000</v>
       </c>
-      <c r="P94" s="3">
+      <c r="S94" s="3">
         <v>-62000</v>
       </c>
-      <c r="Q94" s="3">
+      <c r="T94" s="3">
         <v>-50000</v>
       </c>
-      <c r="R94" s="3">
+      <c r="U94" s="3">
         <v>-29000</v>
       </c>
-      <c r="S94" s="3">
+      <c r="V94" s="3">
         <v>-384000</v>
       </c>
     </row>
-    <row r="95" spans="3:19" x14ac:dyDescent="0.2">
+    <row r="95" spans="3:22" x14ac:dyDescent="0.2">
       <c r="C95" s="1" t="s">
         <v>84</v>
       </c>
@@ -4849,61 +5547,73 @@
       <c r="Q95" s="3"/>
       <c r="R95" s="3"/>
       <c r="S95" s="3"/>
-    </row>
-    <row r="96" spans="3:19" x14ac:dyDescent="0.2">
+      <c r="T95" s="3"/>
+      <c r="U95" s="3"/>
+      <c r="V95" s="3"/>
+    </row>
+    <row r="96" spans="3:22" x14ac:dyDescent="0.2">
       <c r="C96" s="1" t="s">
         <v>85</v>
       </c>
       <c r="D96" s="3">
+        <v>0</v>
+      </c>
+      <c r="E96" s="3">
+        <v>0</v>
+      </c>
+      <c r="F96" s="3">
+        <v>0</v>
+      </c>
+      <c r="G96" s="3">
+        <v>0</v>
+      </c>
+      <c r="H96" s="3">
+        <v>0</v>
+      </c>
+      <c r="I96" s="3">
+        <v>0</v>
+      </c>
+      <c r="J96" s="3">
+        <v>0</v>
+      </c>
+      <c r="K96" s="3">
+        <v>-166000</v>
+      </c>
+      <c r="L96" s="3">
+        <v>-169000</v>
+      </c>
+      <c r="M96" s="3">
         <v>-168000</v>
       </c>
-      <c r="E96" s="3">
-        <v>-167000</v>
-      </c>
-      <c r="F96" s="3">
-        <v>-168000</v>
-      </c>
-      <c r="G96" s="3">
-        <v>-164000</v>
-      </c>
-      <c r="H96" s="3">
-        <v>-166000</v>
-      </c>
-      <c r="I96" s="3">
-        <v>-169000</v>
-      </c>
-      <c r="J96" s="3">
-        <v>-168000</v>
-      </c>
-      <c r="K96" s="3">
+      <c r="N96" s="3">
         <v>-120000</v>
       </c>
-      <c r="L96" s="3">
+      <c r="O96" s="3">
         <v>-119000</v>
       </c>
-      <c r="M96" s="3">
+      <c r="P96" s="3">
         <v>-119000</v>
       </c>
-      <c r="N96" s="3">
+      <c r="Q96" s="3">
         <v>-119000</v>
       </c>
-      <c r="O96" s="3">
+      <c r="R96" s="3">
         <v>-94000</v>
       </c>
-      <c r="P96" s="3">
+      <c r="S96" s="3">
         <v>-95000</v>
       </c>
-      <c r="Q96" s="3">
+      <c r="T96" s="3">
         <v>-95000</v>
       </c>
-      <c r="R96" s="3">
+      <c r="U96" s="3">
         <v>-95000</v>
       </c>
-      <c r="S96" s="3">
+      <c r="V96" s="3">
         <v>-90000</v>
       </c>
     </row>
-    <row r="97" spans="3:19" x14ac:dyDescent="0.2">
+    <row r="97" spans="3:22" x14ac:dyDescent="0.2">
       <c r="C97" s="1" t="s">
         <v>86</v>
       </c>
@@ -4955,8 +5665,17 @@
       <c r="S97" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="98" spans="3:19" x14ac:dyDescent="0.2">
+      <c r="T97" s="3">
+        <v>0</v>
+      </c>
+      <c r="U97" s="3">
+        <v>0</v>
+      </c>
+      <c r="V97" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="98" spans="3:22" x14ac:dyDescent="0.2">
       <c r="C98" s="1" t="s">
         <v>87</v>
       </c>
@@ -5008,8 +5727,17 @@
       <c r="S98" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="99" spans="3:19" x14ac:dyDescent="0.2">
+      <c r="T98" s="3">
+        <v>0</v>
+      </c>
+      <c r="U98" s="3">
+        <v>0</v>
+      </c>
+      <c r="V98" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="99" spans="3:22" x14ac:dyDescent="0.2">
       <c r="C99" s="1" t="s">
         <v>88</v>
       </c>
@@ -5061,61 +5789,79 @@
       <c r="S99" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="100" spans="3:19" x14ac:dyDescent="0.2">
+      <c r="T99" s="3">
+        <v>0</v>
+      </c>
+      <c r="U99" s="3">
+        <v>0</v>
+      </c>
+      <c r="V99" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="100" spans="3:22" x14ac:dyDescent="0.2">
       <c r="C100" s="1" t="s">
         <v>89</v>
       </c>
       <c r="D100" s="3">
-        <v>-1392000</v>
+        <v>0</v>
       </c>
       <c r="E100" s="3">
-        <v>1047000</v>
+        <v>0</v>
       </c>
       <c r="F100" s="3">
-        <v>-323000</v>
+        <v>0</v>
       </c>
       <c r="G100" s="3">
-        <v>-396000</v>
+        <v>0</v>
       </c>
       <c r="H100" s="3">
+        <v>0</v>
+      </c>
+      <c r="I100" s="3">
+        <v>0</v>
+      </c>
+      <c r="J100" s="3">
+        <v>0</v>
+      </c>
+      <c r="K100" s="3">
         <v>-409000</v>
       </c>
-      <c r="I100" s="3">
+      <c r="L100" s="3">
         <v>-552000</v>
       </c>
-      <c r="J100" s="3">
+      <c r="M100" s="3">
         <v>594000</v>
       </c>
-      <c r="K100" s="3">
+      <c r="N100" s="3">
         <v>-408000</v>
       </c>
-      <c r="L100" s="3">
+      <c r="O100" s="3">
         <v>-344000</v>
       </c>
-      <c r="M100" s="3">
+      <c r="P100" s="3">
         <v>45000</v>
       </c>
-      <c r="N100" s="3">
+      <c r="Q100" s="3">
         <v>-75000</v>
       </c>
-      <c r="O100" s="3">
+      <c r="R100" s="3">
         <v>-37000</v>
       </c>
-      <c r="P100" s="3">
+      <c r="S100" s="3">
         <v>685000</v>
       </c>
-      <c r="Q100" s="3">
+      <c r="T100" s="3">
         <v>-97000</v>
       </c>
-      <c r="R100" s="3">
+      <c r="U100" s="3">
         <v>-74000</v>
       </c>
-      <c r="S100" s="3">
+      <c r="V100" s="3">
         <v>-114000</v>
       </c>
     </row>
-    <row r="101" spans="3:19" x14ac:dyDescent="0.2">
+    <row r="101" spans="3:22" x14ac:dyDescent="0.2">
       <c r="C101" s="1" t="s">
         <v>90</v>
       </c>
@@ -5167,57 +5913,75 @@
       <c r="S101" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="102" spans="3:19" x14ac:dyDescent="0.2">
+      <c r="T101" s="3">
+        <v>0</v>
+      </c>
+      <c r="U101" s="3">
+        <v>0</v>
+      </c>
+      <c r="V101" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="102" spans="3:22" x14ac:dyDescent="0.2">
       <c r="C102" s="1" t="s">
         <v>91</v>
       </c>
       <c r="D102" s="3">
-        <v>-6376000</v>
+        <v>0</v>
       </c>
       <c r="E102" s="3">
-        <v>11063000</v>
+        <v>0</v>
       </c>
       <c r="F102" s="3">
-        <v>-902000</v>
+        <v>0</v>
       </c>
       <c r="G102" s="3">
-        <v>908000</v>
+        <v>0</v>
       </c>
       <c r="H102" s="3">
+        <v>0</v>
+      </c>
+      <c r="I102" s="3">
+        <v>0</v>
+      </c>
+      <c r="J102" s="3">
+        <v>0</v>
+      </c>
+      <c r="K102" s="3">
         <v>1834000</v>
       </c>
-      <c r="I102" s="3">
+      <c r="L102" s="3">
         <v>-27000</v>
       </c>
-      <c r="J102" s="3">
+      <c r="M102" s="3">
         <v>2930000</v>
       </c>
-      <c r="K102" s="3">
+      <c r="N102" s="3">
         <v>1347000</v>
       </c>
-      <c r="L102" s="3">
+      <c r="O102" s="3">
         <v>-30000</v>
       </c>
-      <c r="M102" s="3">
+      <c r="P102" s="3">
         <v>-271000</v>
       </c>
-      <c r="N102" s="3">
+      <c r="Q102" s="3">
         <v>172000</v>
       </c>
-      <c r="O102" s="3">
+      <c r="R102" s="3">
         <v>-1408000</v>
       </c>
-      <c r="P102" s="3">
+      <c r="S102" s="3">
         <v>649000</v>
       </c>
-      <c r="Q102" s="3">
+      <c r="T102" s="3">
         <v>569000</v>
       </c>
-      <c r="R102" s="3">
+      <c r="U102" s="3">
         <v>-193000</v>
       </c>
-      <c r="S102" s="3">
+      <c r="V102" s="3">
         <v>-62000</v>
       </c>
     </row>

--- a/AAII_Financials/Quarterly/AMTD_QTR_FIN.xlsx
+++ b/AAII_Financials/Quarterly/AMTD_QTR_FIN.xlsx
@@ -22,7 +22,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="197" uniqueCount="92">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="203" uniqueCount="92">
   <si>
     <t>AMTD</t>
   </si>
@@ -656,7 +656,7 @@
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
   <sheetPr codeName="Sheet2"/>
-  <dimension ref="A5:V102"/>
+  <dimension ref="A5:W102"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0"/>
   </sheetViews>
@@ -665,158 +665,165 @@
     <col min="1" max="1" width="7.85546875" style="1" bestFit="1" customWidth="1"/>
     <col min="2" max="2" width="26.85546875" style="1" bestFit="1" customWidth="1"/>
     <col min="3" max="3" width="69.140625" style="1" bestFit="1" customWidth="1"/>
-    <col min="4" max="4" width="14.42578125" style="1" bestFit="1" customWidth="1"/>
-    <col min="5" max="6" width="14.7109375" style="1" bestFit="1" customWidth="1"/>
-    <col min="7" max="7" width="14.42578125" style="1" bestFit="1" customWidth="1"/>
-    <col min="8" max="9" width="14.7109375" style="1" bestFit="1" customWidth="1"/>
-    <col min="10" max="10" width="14.42578125" style="1" bestFit="1" customWidth="1"/>
-    <col min="11" max="11" width="14.5703125" style="1" bestFit="1" customWidth="1"/>
-    <col min="12" max="12" width="14.85546875" style="1" bestFit="1" customWidth="1"/>
-    <col min="13" max="14" width="14.7109375" style="1" bestFit="1" customWidth="1"/>
-    <col min="15" max="15" width="14.5703125" style="1" bestFit="1" customWidth="1"/>
-    <col min="16" max="16" width="14.85546875" style="1" bestFit="1" customWidth="1"/>
-    <col min="17" max="18" width="14.7109375" style="1" bestFit="1" customWidth="1"/>
-    <col min="19" max="19" width="14.5703125" style="1" bestFit="1" customWidth="1"/>
-    <col min="20" max="20" width="14.85546875" style="1" bestFit="1" customWidth="1"/>
-    <col min="21" max="22" width="14.7109375" style="1" bestFit="1" customWidth="1"/>
-    <col min="23" max="16384" width="9.140625" style="1"/>
+    <col min="4" max="4" width="14.7109375" style="1" bestFit="1" customWidth="1"/>
+    <col min="5" max="5" width="14.42578125" style="1" bestFit="1" customWidth="1"/>
+    <col min="6" max="7" width="14.7109375" style="1" bestFit="1" customWidth="1"/>
+    <col min="8" max="8" width="14.42578125" style="1" bestFit="1" customWidth="1"/>
+    <col min="9" max="10" width="14.7109375" style="1" bestFit="1" customWidth="1"/>
+    <col min="11" max="11" width="14.42578125" style="1" bestFit="1" customWidth="1"/>
+    <col min="12" max="12" width="14.5703125" style="1" bestFit="1" customWidth="1"/>
+    <col min="13" max="13" width="14.85546875" style="1" bestFit="1" customWidth="1"/>
+    <col min="14" max="15" width="14.7109375" style="1" bestFit="1" customWidth="1"/>
+    <col min="16" max="16" width="14.5703125" style="1" bestFit="1" customWidth="1"/>
+    <col min="17" max="17" width="14.85546875" style="1" bestFit="1" customWidth="1"/>
+    <col min="18" max="19" width="14.7109375" style="1" bestFit="1" customWidth="1"/>
+    <col min="20" max="20" width="14.5703125" style="1" bestFit="1" customWidth="1"/>
+    <col min="21" max="21" width="14.85546875" style="1" bestFit="1" customWidth="1"/>
+    <col min="22" max="23" width="14.7109375" style="1" bestFit="1" customWidth="1"/>
+    <col min="24" max="16384" width="9.140625" style="1"/>
   </cols>
   <sheetData>
-    <row r="5" spans="1:22" x14ac:dyDescent="0.2">
+    <row r="5" spans="1:23" x14ac:dyDescent="0.2">
       <c r="A5" s="1" t="s">
         <v>0</v>
       </c>
     </row>
-    <row r="6" spans="1:22" x14ac:dyDescent="0.2">
+    <row r="6" spans="1:23" x14ac:dyDescent="0.2">
       <c r="B6" s="1" t="s">
         <v>1</v>
       </c>
     </row>
-    <row r="7" spans="1:22" x14ac:dyDescent="0.2">
+    <row r="7" spans="1:23" x14ac:dyDescent="0.2">
       <c r="C7" s="1" t="s">
         <v>2</v>
       </c>
       <c r="D7" s="2">
+        <v>44561</v>
+      </c>
+      <c r="E7" s="2">
         <v>44377</v>
       </c>
-      <c r="E7" s="2">
+      <c r="F7" s="2">
         <v>44196</v>
       </c>
-      <c r="F7" s="2">
+      <c r="G7" s="2">
         <v>44104</v>
       </c>
-      <c r="G7" s="2">
+      <c r="H7" s="2">
         <v>44012</v>
       </c>
-      <c r="H7" s="2">
+      <c r="I7" s="2">
         <v>43830</v>
       </c>
-      <c r="I7" s="2">
+      <c r="J7" s="2">
         <v>43738</v>
-      </c>
-      <c r="J7" s="2">
-        <v>43646</v>
       </c>
       <c r="K7" s="2">
         <v>43646</v>
       </c>
       <c r="L7" s="2">
+        <v>43646</v>
+      </c>
+      <c r="M7" s="2">
         <v>43555</v>
       </c>
-      <c r="M7" s="2">
+      <c r="N7" s="2">
         <v>43465</v>
       </c>
-      <c r="N7" s="2">
+      <c r="O7" s="2">
         <v>43373</v>
       </c>
-      <c r="O7" s="2">
+      <c r="P7" s="2">
         <v>43281</v>
       </c>
-      <c r="P7" s="2">
+      <c r="Q7" s="2">
         <v>43190</v>
       </c>
-      <c r="Q7" s="2">
+      <c r="R7" s="2">
         <v>43100</v>
       </c>
-      <c r="R7" s="2">
+      <c r="S7" s="2">
         <v>43008</v>
       </c>
-      <c r="S7" s="2">
+      <c r="T7" s="2">
         <v>42916</v>
       </c>
-      <c r="T7" s="2">
+      <c r="U7" s="2">
         <v>42825</v>
       </c>
-      <c r="U7" s="2">
+      <c r="V7" s="2">
         <v>42735</v>
       </c>
-      <c r="V7" s="2">
+      <c r="W7" s="2">
         <v>42643</v>
       </c>
     </row>
-    <row r="8" spans="1:22" x14ac:dyDescent="0.2">
+    <row r="8" spans="1:23" x14ac:dyDescent="0.2">
       <c r="C8" s="1" t="s">
         <v>3</v>
       </c>
       <c r="D8" s="3">
-        <v>66300</v>
+        <v>42700</v>
       </c>
       <c r="E8" s="3">
+        <v>66200</v>
+      </c>
+      <c r="F8" s="3">
         <v>19800</v>
       </c>
-      <c r="F8" s="3">
+      <c r="G8" s="3">
         <v>10700</v>
       </c>
-      <c r="G8" s="3">
-        <v>68900</v>
-      </c>
       <c r="H8" s="3">
-        <v>20200</v>
+        <v>68700</v>
       </c>
       <c r="I8" s="3">
+        <v>20100</v>
+      </c>
+      <c r="J8" s="3">
         <v>18500</v>
       </c>
-      <c r="J8" s="3">
+      <c r="K8" s="3">
         <v>25000</v>
       </c>
-      <c r="K8" s="3">
+      <c r="L8" s="3">
         <v>1491000</v>
       </c>
-      <c r="L8" s="3">
+      <c r="M8" s="3">
         <v>1451000</v>
       </c>
-      <c r="M8" s="3">
+      <c r="N8" s="3">
         <v>1516000</v>
       </c>
-      <c r="N8" s="3">
+      <c r="O8" s="3">
         <v>1398000</v>
       </c>
-      <c r="O8" s="3">
+      <c r="P8" s="3">
         <v>1382000</v>
       </c>
-      <c r="P8" s="3">
+      <c r="Q8" s="3">
         <v>1415000</v>
       </c>
-      <c r="Q8" s="3">
+      <c r="R8" s="3">
         <v>1257000</v>
       </c>
-      <c r="R8" s="3">
+      <c r="S8" s="3">
         <v>983000</v>
       </c>
-      <c r="S8" s="3">
+      <c r="T8" s="3">
         <v>931000</v>
       </c>
-      <c r="T8" s="3">
+      <c r="U8" s="3">
         <v>904000</v>
       </c>
-      <c r="U8" s="3">
+      <c r="V8" s="3">
         <v>859000</v>
       </c>
-      <c r="V8" s="3">
+      <c r="W8" s="3">
         <v>830000</v>
       </c>
     </row>
-    <row r="9" spans="1:22" x14ac:dyDescent="0.2">
+    <row r="9" spans="1:23" x14ac:dyDescent="0.2">
       <c r="C9" s="1" t="s">
         <v>4</v>
       </c>
@@ -841,18 +848,18 @@
       <c r="J9" s="3" t="s">
         <v>5</v>
       </c>
-      <c r="K9" s="3">
+      <c r="K9" s="3" t="s">
+        <v>5</v>
+      </c>
+      <c r="L9" s="3">
         <v>59000</v>
       </c>
-      <c r="L9" s="3">
+      <c r="M9" s="3">
         <v>53000</v>
       </c>
-      <c r="M9" s="3">
+      <c r="N9" s="3">
         <v>49000</v>
       </c>
-      <c r="N9" s="3" t="s">
-        <v>5</v>
-      </c>
       <c r="O9" s="3" t="s">
         <v>5</v>
       </c>
@@ -877,8 +884,11 @@
       <c r="V9" s="3" t="s">
         <v>5</v>
       </c>
-    </row>
-    <row r="10" spans="1:22" x14ac:dyDescent="0.2">
+      <c r="W9" s="3" t="s">
+        <v>5</v>
+      </c>
+    </row>
+    <row r="10" spans="1:23" x14ac:dyDescent="0.2">
       <c r="C10" s="1" t="s">
         <v>6</v>
       </c>
@@ -903,18 +913,18 @@
       <c r="J10" s="3" t="s">
         <v>5</v>
       </c>
-      <c r="K10" s="3">
+      <c r="K10" s="3" t="s">
+        <v>5</v>
+      </c>
+      <c r="L10" s="3">
         <v>1432000</v>
       </c>
-      <c r="L10" s="3">
+      <c r="M10" s="3">
         <v>1398000</v>
       </c>
-      <c r="M10" s="3">
+      <c r="N10" s="3">
         <v>1467000</v>
       </c>
-      <c r="N10" s="3" t="s">
-        <v>5</v>
-      </c>
       <c r="O10" s="3" t="s">
         <v>5</v>
       </c>
@@ -939,8 +949,11 @@
       <c r="V10" s="3" t="s">
         <v>5</v>
       </c>
-    </row>
-    <row r="11" spans="1:22" x14ac:dyDescent="0.2">
+      <c r="W10" s="3" t="s">
+        <v>5</v>
+      </c>
+    </row>
+    <row r="11" spans="1:23" x14ac:dyDescent="0.2">
       <c r="C11" s="1" t="s">
         <v>7</v>
       </c>
@@ -963,8 +976,9 @@
       <c r="T11" s="3"/>
       <c r="U11" s="3"/>
       <c r="V11" s="3"/>
-    </row>
-    <row r="12" spans="1:22" x14ac:dyDescent="0.2">
+      <c r="W11" s="3"/>
+    </row>
+    <row r="12" spans="1:23" x14ac:dyDescent="0.2">
       <c r="C12" s="1" t="s">
         <v>8</v>
       </c>
@@ -1025,8 +1039,11 @@
       <c r="V12" s="3" t="s">
         <v>5</v>
       </c>
-    </row>
-    <row r="13" spans="1:22" x14ac:dyDescent="0.2">
+      <c r="W12" s="3" t="s">
+        <v>5</v>
+      </c>
+    </row>
+    <row r="13" spans="1:23" x14ac:dyDescent="0.2">
       <c r="C13" s="1" t="s">
         <v>9</v>
       </c>
@@ -1087,20 +1104,23 @@
       <c r="V13" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="14" spans="1:22" x14ac:dyDescent="0.2">
+      <c r="W13" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="14" spans="1:23" x14ac:dyDescent="0.2">
       <c r="C14" s="1" t="s">
         <v>10</v>
       </c>
       <c r="D14" s="3" t="s">
         <v>5</v>
       </c>
-      <c r="E14" s="3">
+      <c r="E14" s="3" t="s">
+        <v>5</v>
+      </c>
+      <c r="F14" s="3">
         <v>2200</v>
       </c>
-      <c r="F14" s="3" t="s">
-        <v>5</v>
-      </c>
       <c r="G14" s="3" t="s">
         <v>5</v>
       </c>
@@ -1113,44 +1133,47 @@
       <c r="J14" s="3" t="s">
         <v>5</v>
       </c>
-      <c r="K14" s="3">
+      <c r="K14" s="3" t="s">
+        <v>5</v>
+      </c>
+      <c r="L14" s="3">
         <v>-60000</v>
       </c>
-      <c r="L14" s="3" t="s">
-        <v>5</v>
-      </c>
       <c r="M14" s="3" t="s">
         <v>5</v>
       </c>
-      <c r="N14" s="3">
+      <c r="N14" s="3" t="s">
+        <v>5</v>
+      </c>
+      <c r="O14" s="3">
         <v>1000</v>
       </c>
-      <c r="O14" s="3" t="s">
-        <v>5</v>
-      </c>
       <c r="P14" s="3" t="s">
         <v>5</v>
       </c>
       <c r="Q14" s="3" t="s">
         <v>5</v>
       </c>
-      <c r="R14" s="3">
-        <v>0</v>
+      <c r="R14" s="3" t="s">
+        <v>5</v>
       </c>
       <c r="S14" s="3">
+        <v>0</v>
+      </c>
+      <c r="T14" s="3">
         <v>1000</v>
       </c>
-      <c r="T14" s="3" t="s">
-        <v>5</v>
-      </c>
       <c r="U14" s="3" t="s">
         <v>5</v>
       </c>
       <c r="V14" s="3" t="s">
         <v>5</v>
       </c>
-    </row>
-    <row r="15" spans="1:22" x14ac:dyDescent="0.2">
+      <c r="W14" s="3" t="s">
+        <v>5</v>
+      </c>
+    </row>
+    <row r="15" spans="1:23" x14ac:dyDescent="0.2">
       <c r="C15" s="1" t="s">
         <v>11</v>
       </c>
@@ -1176,43 +1199,46 @@
         <v>0</v>
       </c>
       <c r="K15" s="3">
+        <v>0</v>
+      </c>
+      <c r="L15" s="3">
         <v>69000</v>
       </c>
-      <c r="L15" s="3">
+      <c r="M15" s="3">
         <v>67000</v>
       </c>
-      <c r="M15" s="3">
+      <c r="N15" s="3">
         <v>66000</v>
       </c>
-      <c r="N15" s="3">
+      <c r="O15" s="3">
         <v>70000</v>
       </c>
-      <c r="O15" s="3">
+      <c r="P15" s="3">
         <v>69000</v>
-      </c>
-      <c r="P15" s="3">
-        <v>72000</v>
       </c>
       <c r="Q15" s="3">
         <v>72000</v>
       </c>
       <c r="R15" s="3">
+        <v>72000</v>
+      </c>
+      <c r="S15" s="3">
         <v>50000</v>
-      </c>
-      <c r="S15" s="3">
-        <v>44000</v>
       </c>
       <c r="T15" s="3">
         <v>44000</v>
       </c>
       <c r="U15" s="3">
+        <v>44000</v>
+      </c>
+      <c r="V15" s="3">
         <v>43000</v>
       </c>
-      <c r="V15" s="3">
+      <c r="W15" s="3">
         <v>45000</v>
       </c>
     </row>
-    <row r="16" spans="1:22" x14ac:dyDescent="0.2">
+    <row r="16" spans="1:23" x14ac:dyDescent="0.2">
       <c r="D16" s="3"/>
       <c r="E16" s="3"/>
       <c r="F16" s="3"/>
@@ -1232,132 +1258,139 @@
       <c r="T16" s="3"/>
       <c r="U16" s="3"/>
       <c r="V16" s="3"/>
-    </row>
-    <row r="17" spans="3:22" x14ac:dyDescent="0.2">
+      <c r="W16" s="3"/>
+    </row>
+    <row r="17" spans="3:23" x14ac:dyDescent="0.2">
       <c r="C17" s="1" t="s">
         <v>12</v>
       </c>
       <c r="D17" s="3">
+        <v>12000</v>
+      </c>
+      <c r="E17" s="3">
         <v>10800</v>
       </c>
-      <c r="E17" s="3">
+      <c r="F17" s="3">
         <v>4400</v>
       </c>
-      <c r="F17" s="3">
+      <c r="G17" s="3">
         <v>6600</v>
       </c>
-      <c r="G17" s="3">
-        <v>16500</v>
-      </c>
       <c r="H17" s="3">
+        <v>16400</v>
+      </c>
+      <c r="I17" s="3">
         <v>7300</v>
-      </c>
-      <c r="I17" s="3">
-        <v>6900</v>
       </c>
       <c r="J17" s="3">
         <v>6900</v>
       </c>
       <c r="K17" s="3">
+        <v>6900</v>
+      </c>
+      <c r="L17" s="3">
         <v>711000</v>
       </c>
-      <c r="L17" s="3">
+      <c r="M17" s="3">
         <v>746000</v>
       </c>
-      <c r="M17" s="3">
+      <c r="N17" s="3">
         <v>720000</v>
       </c>
-      <c r="N17" s="3">
+      <c r="O17" s="3">
         <v>764000</v>
       </c>
-      <c r="O17" s="3">
+      <c r="P17" s="3">
         <v>751000</v>
       </c>
-      <c r="P17" s="3">
+      <c r="Q17" s="3">
         <v>1019000</v>
       </c>
-      <c r="Q17" s="3">
+      <c r="R17" s="3">
         <v>921000</v>
       </c>
-      <c r="R17" s="3">
+      <c r="S17" s="3">
         <v>622000</v>
       </c>
-      <c r="S17" s="3">
+      <c r="T17" s="3">
         <v>538000</v>
       </c>
-      <c r="T17" s="3">
+      <c r="U17" s="3">
         <v>546000</v>
       </c>
-      <c r="U17" s="3">
+      <c r="V17" s="3">
         <v>506000</v>
       </c>
-      <c r="V17" s="3">
+      <c r="W17" s="3">
         <v>546000</v>
       </c>
     </row>
-    <row r="18" spans="3:22" x14ac:dyDescent="0.2">
+    <row r="18" spans="3:23" x14ac:dyDescent="0.2">
       <c r="C18" s="1" t="s">
         <v>13</v>
       </c>
       <c r="D18" s="3">
-        <v>55500</v>
+        <v>30600</v>
       </c>
       <c r="E18" s="3">
+        <v>55300</v>
+      </c>
+      <c r="F18" s="3">
         <v>15400</v>
       </c>
-      <c r="F18" s="3">
+      <c r="G18" s="3">
         <v>4100</v>
       </c>
-      <c r="G18" s="3">
-        <v>52400</v>
-      </c>
       <c r="H18" s="3">
+        <v>52200</v>
+      </c>
+      <c r="I18" s="3">
         <v>12900</v>
       </c>
-      <c r="I18" s="3">
-        <v>11700</v>
-      </c>
       <c r="J18" s="3">
+        <v>11600</v>
+      </c>
+      <c r="K18" s="3">
         <v>18200</v>
       </c>
-      <c r="K18" s="3">
+      <c r="L18" s="3">
         <v>780000</v>
       </c>
-      <c r="L18" s="3">
+      <c r="M18" s="3">
         <v>705000</v>
       </c>
-      <c r="M18" s="3">
+      <c r="N18" s="3">
         <v>796000</v>
       </c>
-      <c r="N18" s="3">
+      <c r="O18" s="3">
         <v>634000</v>
       </c>
-      <c r="O18" s="3">
+      <c r="P18" s="3">
         <v>631000</v>
       </c>
-      <c r="P18" s="3">
+      <c r="Q18" s="3">
         <v>396000</v>
       </c>
-      <c r="Q18" s="3">
+      <c r="R18" s="3">
         <v>336000</v>
       </c>
-      <c r="R18" s="3">
+      <c r="S18" s="3">
         <v>361000</v>
       </c>
-      <c r="S18" s="3">
+      <c r="T18" s="3">
         <v>393000</v>
       </c>
-      <c r="T18" s="3">
+      <c r="U18" s="3">
         <v>358000</v>
       </c>
-      <c r="U18" s="3">
+      <c r="V18" s="3">
         <v>353000</v>
       </c>
-      <c r="V18" s="3">
+      <c r="W18" s="3">
         <v>284000</v>
       </c>
     </row>
-    <row r="19" spans="3:22" x14ac:dyDescent="0.2">
+    <row r="19" spans="3:23" x14ac:dyDescent="0.2">
       <c r="C19" s="1" t="s">
         <v>14</v>
       </c>
@@ -1380,56 +1413,57 @@
       <c r="T19" s="3"/>
       <c r="U19" s="3"/>
       <c r="V19" s="3"/>
-    </row>
-    <row r="20" spans="3:22" x14ac:dyDescent="0.2">
+      <c r="W19" s="3"/>
+    </row>
+    <row r="20" spans="3:23" x14ac:dyDescent="0.2">
       <c r="C20" s="1" t="s">
         <v>15</v>
       </c>
       <c r="D20" s="3">
-        <v>35100</v>
+        <v>50200</v>
       </c>
       <c r="E20" s="3">
-        <v>40800</v>
+        <v>35000</v>
       </c>
       <c r="F20" s="3">
-        <v>13500</v>
+        <v>40700</v>
       </c>
       <c r="G20" s="3">
+        <v>13400</v>
+      </c>
+      <c r="H20" s="3">
         <v>4500</v>
       </c>
-      <c r="H20" s="3">
+      <c r="I20" s="3">
         <v>2400</v>
       </c>
-      <c r="I20" s="3">
-        <v>36500</v>
-      </c>
       <c r="J20" s="3">
+        <v>36400</v>
+      </c>
+      <c r="K20" s="3">
         <v>14800</v>
       </c>
-      <c r="K20" s="3">
-        <v>0</v>
-      </c>
       <c r="L20" s="3">
         <v>0</v>
       </c>
       <c r="M20" s="3">
+        <v>0</v>
+      </c>
+      <c r="N20" s="3">
         <v>14000</v>
       </c>
-      <c r="N20" s="3">
+      <c r="O20" s="3">
         <v>2000</v>
       </c>
-      <c r="O20" s="3">
-        <v>0</v>
-      </c>
       <c r="P20" s="3">
         <v>0</v>
       </c>
       <c r="Q20" s="3">
+        <v>0</v>
+      </c>
+      <c r="R20" s="3">
         <v>-13000</v>
       </c>
-      <c r="R20" s="3">
-        <v>0</v>
-      </c>
       <c r="S20" s="3">
         <v>0</v>
       </c>
@@ -1442,8 +1476,11 @@
       <c r="V20" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="21" spans="3:22" x14ac:dyDescent="0.2">
+      <c r="W20" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="21" spans="3:23" x14ac:dyDescent="0.2">
       <c r="C21" s="1" t="s">
         <v>16</v>
       </c>
@@ -1459,53 +1496,56 @@
       <c r="G21" s="3" t="s">
         <v>5</v>
       </c>
-      <c r="H21" s="3">
+      <c r="H21" s="3" t="s">
+        <v>5</v>
+      </c>
+      <c r="I21" s="3">
         <v>15300</v>
       </c>
-      <c r="I21" s="3" t="s">
-        <v>5</v>
-      </c>
       <c r="J21" s="3" t="s">
         <v>5</v>
       </c>
-      <c r="K21" s="3">
+      <c r="K21" s="3" t="s">
+        <v>5</v>
+      </c>
+      <c r="L21" s="3">
         <v>849000</v>
       </c>
-      <c r="L21" s="3">
+      <c r="M21" s="3">
         <v>772000</v>
       </c>
-      <c r="M21" s="3">
+      <c r="N21" s="3">
         <v>876000</v>
       </c>
-      <c r="N21" s="3">
+      <c r="O21" s="3">
         <v>706000</v>
       </c>
-      <c r="O21" s="3">
+      <c r="P21" s="3">
         <v>700000</v>
       </c>
-      <c r="P21" s="3">
+      <c r="Q21" s="3">
         <v>468000</v>
       </c>
-      <c r="Q21" s="3">
+      <c r="R21" s="3">
         <v>395000</v>
       </c>
-      <c r="R21" s="3">
+      <c r="S21" s="3">
         <v>411000</v>
       </c>
-      <c r="S21" s="3">
+      <c r="T21" s="3">
         <v>437000</v>
       </c>
-      <c r="T21" s="3">
+      <c r="U21" s="3">
         <v>402000</v>
       </c>
-      <c r="U21" s="3">
+      <c r="V21" s="3">
         <v>396000</v>
       </c>
-      <c r="V21" s="3">
+      <c r="W21" s="3">
         <v>329000</v>
       </c>
     </row>
-    <row r="22" spans="3:22" x14ac:dyDescent="0.2">
+    <row r="22" spans="3:23" x14ac:dyDescent="0.2">
       <c r="C22" s="1" t="s">
         <v>17</v>
       </c>
@@ -1513,52 +1553,52 @@
         <v>800</v>
       </c>
       <c r="E22" s="3">
+        <v>800</v>
+      </c>
+      <c r="F22" s="3">
         <v>500</v>
       </c>
-      <c r="F22" s="3">
+      <c r="G22" s="3">
         <v>400</v>
       </c>
-      <c r="G22" s="3">
+      <c r="H22" s="3">
         <v>1900</v>
       </c>
-      <c r="H22" s="3">
+      <c r="I22" s="3">
         <v>1500</v>
-      </c>
-      <c r="I22" s="3">
-        <v>700</v>
       </c>
       <c r="J22" s="3">
         <v>700</v>
       </c>
       <c r="K22" s="3">
-        <v>37000</v>
+        <v>700</v>
       </c>
       <c r="L22" s="3">
         <v>37000</v>
       </c>
       <c r="M22" s="3">
+        <v>37000</v>
+      </c>
+      <c r="N22" s="3">
         <v>32000</v>
       </c>
-      <c r="N22" s="3">
+      <c r="O22" s="3">
         <v>27000</v>
       </c>
-      <c r="O22" s="3">
+      <c r="P22" s="3">
         <v>28000</v>
       </c>
-      <c r="P22" s="3">
+      <c r="Q22" s="3">
         <v>24000</v>
       </c>
-      <c r="Q22" s="3">
+      <c r="R22" s="3">
         <v>20000</v>
       </c>
-      <c r="R22" s="3">
+      <c r="S22" s="3">
         <v>23000</v>
       </c>
-      <c r="S22" s="3">
+      <c r="T22" s="3">
         <v>20000</v>
-      </c>
-      <c r="T22" s="3">
-        <v>14000</v>
       </c>
       <c r="U22" s="3">
         <v>14000</v>
@@ -1566,132 +1606,141 @@
       <c r="V22" s="3">
         <v>14000</v>
       </c>
-    </row>
-    <row r="23" spans="3:22" x14ac:dyDescent="0.2">
+      <c r="W22" s="3">
+        <v>14000</v>
+      </c>
+    </row>
+    <row r="23" spans="3:23" x14ac:dyDescent="0.2">
       <c r="C23" s="1" t="s">
         <v>18</v>
       </c>
       <c r="D23" s="3">
-        <v>89800</v>
+        <v>80000</v>
       </c>
       <c r="E23" s="3">
-        <v>55700</v>
+        <v>89500</v>
       </c>
       <c r="F23" s="3">
+        <v>55600</v>
+      </c>
+      <c r="G23" s="3">
         <v>17200</v>
       </c>
-      <c r="G23" s="3">
-        <v>55000</v>
-      </c>
       <c r="H23" s="3">
+        <v>54800</v>
+      </c>
+      <c r="I23" s="3">
         <v>13800</v>
       </c>
-      <c r="I23" s="3">
-        <v>47500</v>
-      </c>
       <c r="J23" s="3">
+        <v>47400</v>
+      </c>
+      <c r="K23" s="3">
         <v>32300</v>
       </c>
-      <c r="K23" s="3">
+      <c r="L23" s="3">
         <v>743000</v>
       </c>
-      <c r="L23" s="3">
+      <c r="M23" s="3">
         <v>668000</v>
       </c>
-      <c r="M23" s="3">
+      <c r="N23" s="3">
         <v>778000</v>
       </c>
-      <c r="N23" s="3">
+      <c r="O23" s="3">
         <v>609000</v>
       </c>
-      <c r="O23" s="3">
+      <c r="P23" s="3">
         <v>603000</v>
       </c>
-      <c r="P23" s="3">
+      <c r="Q23" s="3">
         <v>372000</v>
       </c>
-      <c r="Q23" s="3">
+      <c r="R23" s="3">
         <v>303000</v>
       </c>
-      <c r="R23" s="3">
+      <c r="S23" s="3">
         <v>338000</v>
       </c>
-      <c r="S23" s="3">
+      <c r="T23" s="3">
         <v>373000</v>
       </c>
-      <c r="T23" s="3">
+      <c r="U23" s="3">
         <v>344000</v>
       </c>
-      <c r="U23" s="3">
+      <c r="V23" s="3">
         <v>339000</v>
       </c>
-      <c r="V23" s="3">
+      <c r="W23" s="3">
         <v>270000</v>
       </c>
     </row>
-    <row r="24" spans="3:22" x14ac:dyDescent="0.2">
+    <row r="24" spans="3:23" x14ac:dyDescent="0.2">
       <c r="C24" s="1" t="s">
         <v>19</v>
       </c>
       <c r="D24" s="3">
+        <v>4600</v>
+      </c>
+      <c r="E24" s="3">
         <v>9300</v>
       </c>
-      <c r="E24" s="3">
-        <v>3300</v>
-      </c>
       <c r="F24" s="3">
+        <v>3200</v>
+      </c>
+      <c r="G24" s="3">
         <v>1300</v>
       </c>
-      <c r="G24" s="3">
-        <v>-22200</v>
-      </c>
       <c r="H24" s="3">
+        <v>-22100</v>
+      </c>
+      <c r="I24" s="3">
         <v>2400</v>
       </c>
-      <c r="I24" s="3">
+      <c r="J24" s="3">
         <v>8200</v>
       </c>
-      <c r="J24" s="3">
+      <c r="K24" s="3">
         <v>4200</v>
       </c>
-      <c r="K24" s="3">
+      <c r="L24" s="3">
         <v>188000</v>
       </c>
-      <c r="L24" s="3">
+      <c r="M24" s="3">
         <v>169000</v>
       </c>
-      <c r="M24" s="3">
+      <c r="N24" s="3">
         <v>174000</v>
-      </c>
-      <c r="N24" s="3">
-        <v>155000</v>
       </c>
       <c r="O24" s="3">
         <v>155000</v>
       </c>
       <c r="P24" s="3">
+        <v>155000</v>
+      </c>
+      <c r="Q24" s="3">
         <v>101000</v>
       </c>
-      <c r="Q24" s="3">
+      <c r="R24" s="3">
         <v>74000</v>
       </c>
-      <c r="R24" s="3">
+      <c r="S24" s="3">
         <v>127000</v>
       </c>
-      <c r="S24" s="3">
+      <c r="T24" s="3">
         <v>142000</v>
       </c>
-      <c r="T24" s="3">
+      <c r="U24" s="3">
         <v>130000</v>
       </c>
-      <c r="U24" s="3">
+      <c r="V24" s="3">
         <v>123000</v>
       </c>
-      <c r="V24" s="3">
+      <c r="W24" s="3">
         <v>85000</v>
       </c>
     </row>
-    <row r="25" spans="3:22" x14ac:dyDescent="0.2">
+    <row r="25" spans="3:23" x14ac:dyDescent="0.2">
       <c r="C25" s="1" t="s">
         <v>20</v>
       </c>
@@ -1752,132 +1801,141 @@
       <c r="V25" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="26" spans="3:22" x14ac:dyDescent="0.2">
+      <c r="W25" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="26" spans="3:23" x14ac:dyDescent="0.2">
       <c r="C26" s="1" t="s">
         <v>21</v>
       </c>
       <c r="D26" s="3">
-        <v>80400</v>
+        <v>75400</v>
       </c>
       <c r="E26" s="3">
-        <v>52500</v>
+        <v>80200</v>
       </c>
       <c r="F26" s="3">
-        <v>15900</v>
+        <v>52300</v>
       </c>
       <c r="G26" s="3">
-        <v>77100</v>
+        <v>15800</v>
       </c>
       <c r="H26" s="3">
+        <v>76900</v>
+      </c>
+      <c r="I26" s="3">
         <v>11400</v>
       </c>
-      <c r="I26" s="3">
-        <v>39300</v>
-      </c>
       <c r="J26" s="3">
+        <v>39200</v>
+      </c>
+      <c r="K26" s="3">
         <v>28100</v>
       </c>
-      <c r="K26" s="3">
+      <c r="L26" s="3">
         <v>555000</v>
       </c>
-      <c r="L26" s="3">
+      <c r="M26" s="3">
         <v>499000</v>
       </c>
-      <c r="M26" s="3">
+      <c r="N26" s="3">
         <v>604000</v>
       </c>
-      <c r="N26" s="3">
+      <c r="O26" s="3">
         <v>454000</v>
       </c>
-      <c r="O26" s="3">
+      <c r="P26" s="3">
         <v>448000</v>
       </c>
-      <c r="P26" s="3">
+      <c r="Q26" s="3">
         <v>271000</v>
       </c>
-      <c r="Q26" s="3">
+      <c r="R26" s="3">
         <v>229000</v>
       </c>
-      <c r="R26" s="3">
+      <c r="S26" s="3">
         <v>211000</v>
       </c>
-      <c r="S26" s="3">
+      <c r="T26" s="3">
         <v>231000</v>
       </c>
-      <c r="T26" s="3">
+      <c r="U26" s="3">
         <v>214000</v>
       </c>
-      <c r="U26" s="3">
+      <c r="V26" s="3">
         <v>216000</v>
       </c>
-      <c r="V26" s="3">
+      <c r="W26" s="3">
         <v>185000</v>
       </c>
     </row>
-    <row r="27" spans="3:22" x14ac:dyDescent="0.2">
+    <row r="27" spans="3:23" x14ac:dyDescent="0.2">
       <c r="C27" s="1" t="s">
         <v>22</v>
       </c>
       <c r="D27" s="3">
-        <v>72400</v>
+        <v>67400</v>
       </c>
       <c r="E27" s="3">
-        <v>48400</v>
+        <v>72200</v>
       </c>
       <c r="F27" s="3">
+        <v>48300</v>
+      </c>
+      <c r="G27" s="3">
         <v>11900</v>
       </c>
-      <c r="G27" s="3">
-        <v>75100</v>
-      </c>
       <c r="H27" s="3">
+        <v>74900</v>
+      </c>
+      <c r="I27" s="3">
         <v>11400</v>
       </c>
-      <c r="I27" s="3">
-        <v>39300</v>
-      </c>
       <c r="J27" s="3">
+        <v>39200</v>
+      </c>
+      <c r="K27" s="3">
         <v>28100</v>
       </c>
-      <c r="K27" s="3">
+      <c r="L27" s="3">
         <v>555000</v>
       </c>
-      <c r="L27" s="3">
+      <c r="M27" s="3">
         <v>499000</v>
       </c>
-      <c r="M27" s="3">
+      <c r="N27" s="3">
         <v>604000</v>
       </c>
-      <c r="N27" s="3">
+      <c r="O27" s="3">
         <v>454000</v>
       </c>
-      <c r="O27" s="3">
+      <c r="P27" s="3">
         <v>448000</v>
       </c>
-      <c r="P27" s="3">
+      <c r="Q27" s="3">
         <v>271000</v>
       </c>
-      <c r="Q27" s="3">
+      <c r="R27" s="3">
         <v>229000</v>
       </c>
-      <c r="R27" s="3">
+      <c r="S27" s="3">
         <v>211000</v>
       </c>
-      <c r="S27" s="3">
+      <c r="T27" s="3">
         <v>231000</v>
       </c>
-      <c r="T27" s="3">
+      <c r="U27" s="3">
         <v>214000</v>
       </c>
-      <c r="U27" s="3">
+      <c r="V27" s="3">
         <v>216000</v>
       </c>
-      <c r="V27" s="3">
+      <c r="W27" s="3">
         <v>185000</v>
       </c>
     </row>
-    <row r="28" spans="3:22" x14ac:dyDescent="0.2">
+    <row r="28" spans="3:23" x14ac:dyDescent="0.2">
       <c r="C28" s="1" t="s">
         <v>23</v>
       </c>
@@ -1938,8 +1996,11 @@
       <c r="V28" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="29" spans="3:22" x14ac:dyDescent="0.2">
+      <c r="W28" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="29" spans="3:23" x14ac:dyDescent="0.2">
       <c r="C29" s="1" t="s">
         <v>24</v>
       </c>
@@ -1964,8 +2025,8 @@
       <c r="J29" s="3">
         <v>0</v>
       </c>
-      <c r="K29" s="3" t="s">
-        <v>5</v>
+      <c r="K29" s="3">
+        <v>0</v>
       </c>
       <c r="L29" s="3" t="s">
         <v>5</v>
@@ -1973,21 +2034,21 @@
       <c r="M29" s="3" t="s">
         <v>5</v>
       </c>
-      <c r="N29" s="3">
-        <v>0</v>
+      <c r="N29" s="3" t="s">
+        <v>5</v>
       </c>
       <c r="O29" s="3">
+        <v>0</v>
+      </c>
+      <c r="P29" s="3">
         <v>3000</v>
       </c>
-      <c r="P29" s="3">
-        <v>0</v>
-      </c>
       <c r="Q29" s="3">
+        <v>0</v>
+      </c>
+      <c r="R29" s="3">
         <v>68000</v>
       </c>
-      <c r="R29" s="3" t="s">
-        <v>5</v>
-      </c>
       <c r="S29" s="3" t="s">
         <v>5</v>
       </c>
@@ -2000,8 +2061,11 @@
       <c r="V29" s="3" t="s">
         <v>5</v>
       </c>
-    </row>
-    <row r="30" spans="3:22" x14ac:dyDescent="0.2">
+      <c r="W29" s="3" t="s">
+        <v>5</v>
+      </c>
+    </row>
+    <row r="30" spans="3:23" x14ac:dyDescent="0.2">
       <c r="C30" s="1" t="s">
         <v>25</v>
       </c>
@@ -2062,8 +2126,11 @@
       <c r="V30" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="31" spans="3:22" x14ac:dyDescent="0.2">
+      <c r="W30" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="31" spans="3:23" x14ac:dyDescent="0.2">
       <c r="C31" s="1" t="s">
         <v>26</v>
       </c>
@@ -2124,56 +2191,59 @@
       <c r="V31" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="32" spans="3:22" x14ac:dyDescent="0.2">
+      <c r="W31" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="32" spans="3:23" x14ac:dyDescent="0.2">
       <c r="C32" s="1" t="s">
         <v>27</v>
       </c>
       <c r="D32" s="3">
-        <v>-35100</v>
+        <v>-50200</v>
       </c>
       <c r="E32" s="3">
-        <v>-40800</v>
+        <v>-35000</v>
       </c>
       <c r="F32" s="3">
-        <v>-13500</v>
+        <v>-40700</v>
       </c>
       <c r="G32" s="3">
+        <v>-13400</v>
+      </c>
+      <c r="H32" s="3">
         <v>-4500</v>
       </c>
-      <c r="H32" s="3">
+      <c r="I32" s="3">
         <v>-2400</v>
       </c>
-      <c r="I32" s="3">
-        <v>-36500</v>
-      </c>
       <c r="J32" s="3">
+        <v>-36400</v>
+      </c>
+      <c r="K32" s="3">
         <v>-14800</v>
       </c>
-      <c r="K32" s="3">
-        <v>0</v>
-      </c>
       <c r="L32" s="3">
         <v>0</v>
       </c>
       <c r="M32" s="3">
+        <v>0</v>
+      </c>
+      <c r="N32" s="3">
         <v>-14000</v>
       </c>
-      <c r="N32" s="3">
+      <c r="O32" s="3">
         <v>-2000</v>
       </c>
-      <c r="O32" s="3">
-        <v>0</v>
-      </c>
       <c r="P32" s="3">
         <v>0</v>
       </c>
       <c r="Q32" s="3">
+        <v>0</v>
+      </c>
+      <c r="R32" s="3">
         <v>13000</v>
       </c>
-      <c r="R32" s="3">
-        <v>0</v>
-      </c>
       <c r="S32" s="3">
         <v>0</v>
       </c>
@@ -2186,70 +2256,76 @@
       <c r="V32" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="33" spans="2:22" x14ac:dyDescent="0.2">
+      <c r="W32" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="33" spans="2:23" x14ac:dyDescent="0.2">
       <c r="C33" s="1" t="s">
         <v>28</v>
       </c>
       <c r="D33" s="3">
-        <v>72400</v>
+        <v>67400</v>
       </c>
       <c r="E33" s="3">
-        <v>48400</v>
+        <v>72200</v>
       </c>
       <c r="F33" s="3">
+        <v>48300</v>
+      </c>
+      <c r="G33" s="3">
         <v>11900</v>
       </c>
-      <c r="G33" s="3">
-        <v>75100</v>
-      </c>
       <c r="H33" s="3">
+        <v>74900</v>
+      </c>
+      <c r="I33" s="3">
         <v>11400</v>
       </c>
-      <c r="I33" s="3">
-        <v>39300</v>
-      </c>
       <c r="J33" s="3">
+        <v>39200</v>
+      </c>
+      <c r="K33" s="3">
         <v>28100</v>
       </c>
-      <c r="K33" s="3">
+      <c r="L33" s="3">
         <v>555000</v>
       </c>
-      <c r="L33" s="3">
+      <c r="M33" s="3">
         <v>499000</v>
       </c>
-      <c r="M33" s="3">
+      <c r="N33" s="3">
         <v>604000</v>
       </c>
-      <c r="N33" s="3">
+      <c r="O33" s="3">
         <v>454000</v>
       </c>
-      <c r="O33" s="3">
+      <c r="P33" s="3">
         <v>451000</v>
       </c>
-      <c r="P33" s="3">
+      <c r="Q33" s="3">
         <v>271000</v>
       </c>
-      <c r="Q33" s="3">
+      <c r="R33" s="3">
         <v>297000</v>
       </c>
-      <c r="R33" s="3">
+      <c r="S33" s="3">
         <v>211000</v>
       </c>
-      <c r="S33" s="3">
+      <c r="T33" s="3">
         <v>231000</v>
       </c>
-      <c r="T33" s="3">
+      <c r="U33" s="3">
         <v>214000</v>
       </c>
-      <c r="U33" s="3">
+      <c r="V33" s="3">
         <v>216000</v>
       </c>
-      <c r="V33" s="3">
+      <c r="W33" s="3">
         <v>185000</v>
       </c>
     </row>
-    <row r="34" spans="2:22" x14ac:dyDescent="0.2">
+    <row r="34" spans="2:23" x14ac:dyDescent="0.2">
       <c r="C34" s="1" t="s">
         <v>29</v>
       </c>
@@ -2310,137 +2386,146 @@
       <c r="V34" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="35" spans="2:22" x14ac:dyDescent="0.2">
+      <c r="W34" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="35" spans="2:23" x14ac:dyDescent="0.2">
       <c r="C35" s="1" t="s">
         <v>30</v>
       </c>
       <c r="D35" s="3">
-        <v>72400</v>
+        <v>67400</v>
       </c>
       <c r="E35" s="3">
-        <v>48400</v>
+        <v>72200</v>
       </c>
       <c r="F35" s="3">
+        <v>48300</v>
+      </c>
+      <c r="G35" s="3">
         <v>11900</v>
       </c>
-      <c r="G35" s="3">
-        <v>75100</v>
-      </c>
       <c r="H35" s="3">
+        <v>74900</v>
+      </c>
+      <c r="I35" s="3">
         <v>11400</v>
       </c>
-      <c r="I35" s="3">
-        <v>39300</v>
-      </c>
       <c r="J35" s="3">
+        <v>39200</v>
+      </c>
+      <c r="K35" s="3">
         <v>28100</v>
       </c>
-      <c r="K35" s="3">
+      <c r="L35" s="3">
         <v>555000</v>
       </c>
-      <c r="L35" s="3">
+      <c r="M35" s="3">
         <v>499000</v>
       </c>
-      <c r="M35" s="3">
+      <c r="N35" s="3">
         <v>604000</v>
       </c>
-      <c r="N35" s="3">
+      <c r="O35" s="3">
         <v>454000</v>
       </c>
-      <c r="O35" s="3">
+      <c r="P35" s="3">
         <v>451000</v>
       </c>
-      <c r="P35" s="3">
+      <c r="Q35" s="3">
         <v>271000</v>
       </c>
-      <c r="Q35" s="3">
+      <c r="R35" s="3">
         <v>297000</v>
       </c>
-      <c r="R35" s="3">
+      <c r="S35" s="3">
         <v>211000</v>
       </c>
-      <c r="S35" s="3">
+      <c r="T35" s="3">
         <v>231000</v>
       </c>
-      <c r="T35" s="3">
+      <c r="U35" s="3">
         <v>214000</v>
       </c>
-      <c r="U35" s="3">
+      <c r="V35" s="3">
         <v>216000</v>
       </c>
-      <c r="V35" s="3">
+      <c r="W35" s="3">
         <v>185000</v>
       </c>
     </row>
-    <row r="37" spans="2:22" x14ac:dyDescent="0.2">
+    <row r="37" spans="2:23" x14ac:dyDescent="0.2">
       <c r="B37" s="1" t="s">
         <v>31</v>
       </c>
     </row>
-    <row r="38" spans="2:22" x14ac:dyDescent="0.2">
+    <row r="38" spans="2:23" x14ac:dyDescent="0.2">
       <c r="C38" s="1" t="s">
         <v>2</v>
       </c>
       <c r="D38" s="2">
+        <v>44561</v>
+      </c>
+      <c r="E38" s="2">
         <v>44377</v>
       </c>
-      <c r="E38" s="2">
+      <c r="F38" s="2">
         <v>44196</v>
       </c>
-      <c r="F38" s="2">
+      <c r="G38" s="2">
         <v>44104</v>
       </c>
-      <c r="G38" s="2">
+      <c r="H38" s="2">
         <v>44012</v>
       </c>
-      <c r="H38" s="2">
+      <c r="I38" s="2">
         <v>43830</v>
       </c>
-      <c r="I38" s="2">
+      <c r="J38" s="2">
         <v>43738</v>
-      </c>
-      <c r="J38" s="2">
-        <v>43646</v>
       </c>
       <c r="K38" s="2">
         <v>43646</v>
       </c>
       <c r="L38" s="2">
+        <v>43646</v>
+      </c>
+      <c r="M38" s="2">
         <v>43555</v>
       </c>
-      <c r="M38" s="2">
+      <c r="N38" s="2">
         <v>43465</v>
       </c>
-      <c r="N38" s="2">
+      <c r="O38" s="2">
         <v>43373</v>
       </c>
-      <c r="O38" s="2">
+      <c r="P38" s="2">
         <v>43281</v>
       </c>
-      <c r="P38" s="2">
+      <c r="Q38" s="2">
         <v>43190</v>
       </c>
-      <c r="Q38" s="2">
+      <c r="R38" s="2">
         <v>43100</v>
       </c>
-      <c r="R38" s="2">
+      <c r="S38" s="2">
         <v>43008</v>
       </c>
-      <c r="S38" s="2">
+      <c r="T38" s="2">
         <v>42916</v>
       </c>
-      <c r="T38" s="2">
+      <c r="U38" s="2">
         <v>42825</v>
       </c>
-      <c r="U38" s="2">
+      <c r="V38" s="2">
         <v>42735</v>
       </c>
-      <c r="V38" s="2">
+      <c r="W38" s="2">
         <v>42643</v>
       </c>
     </row>
-    <row r="39" spans="2:22" x14ac:dyDescent="0.2">
+    <row r="39" spans="2:23" x14ac:dyDescent="0.2">
       <c r="C39" s="1" t="s">
         <v>32</v>
       </c>
@@ -2463,8 +2548,9 @@
       <c r="T39" s="3"/>
       <c r="U39" s="3"/>
       <c r="V39" s="3"/>
-    </row>
-    <row r="40" spans="2:22" x14ac:dyDescent="0.2">
+      <c r="W39" s="3"/>
+    </row>
+    <row r="40" spans="2:23" x14ac:dyDescent="0.2">
       <c r="C40" s="1" t="s">
         <v>33</v>
       </c>
@@ -2487,97 +2573,101 @@
       <c r="T40" s="3"/>
       <c r="U40" s="3"/>
       <c r="V40" s="3"/>
-    </row>
-    <row r="41" spans="2:22" x14ac:dyDescent="0.2">
+      <c r="W40" s="3"/>
+    </row>
+    <row r="41" spans="2:23" x14ac:dyDescent="0.2">
       <c r="C41" s="1" t="s">
         <v>34</v>
       </c>
       <c r="D41" s="3">
-        <v>74900</v>
+        <v>84400</v>
       </c>
       <c r="E41" s="3">
-        <v>83200</v>
+        <v>74700</v>
       </c>
       <c r="F41" s="3">
-        <v>82800</v>
+        <v>83000</v>
       </c>
       <c r="G41" s="3">
-        <v>147400</v>
+        <v>82500</v>
       </c>
       <c r="H41" s="3">
-        <v>129300</v>
+        <v>147000</v>
       </c>
       <c r="I41" s="3">
-        <v>122300</v>
+        <v>128900</v>
       </c>
       <c r="J41" s="3">
+        <v>121900</v>
+      </c>
+      <c r="K41" s="3">
         <v>112500</v>
       </c>
-      <c r="K41" s="3">
+      <c r="L41" s="3">
         <v>2953000</v>
       </c>
-      <c r="L41" s="3">
+      <c r="M41" s="3">
         <v>2674000</v>
       </c>
-      <c r="M41" s="3">
+      <c r="N41" s="3">
         <v>5117000</v>
       </c>
-      <c r="N41" s="3">
+      <c r="O41" s="3">
         <v>2690000</v>
       </c>
-      <c r="O41" s="3">
+      <c r="P41" s="3">
         <v>1343000</v>
       </c>
-      <c r="P41" s="3">
+      <c r="Q41" s="3">
         <v>1373000</v>
       </c>
-      <c r="Q41" s="3">
+      <c r="R41" s="3">
         <v>1644000</v>
       </c>
-      <c r="R41" s="3">
+      <c r="S41" s="3">
         <v>1472000</v>
       </c>
-      <c r="S41" s="3">
+      <c r="T41" s="3">
         <v>2880000</v>
       </c>
-      <c r="T41" s="3">
+      <c r="U41" s="3">
         <v>2231000</v>
       </c>
-      <c r="U41" s="3">
+      <c r="V41" s="3">
         <v>1662000</v>
       </c>
-      <c r="V41" s="3">
+      <c r="W41" s="3">
         <v>1855000</v>
       </c>
     </row>
-    <row r="42" spans="2:22" x14ac:dyDescent="0.2">
+    <row r="42" spans="2:23" x14ac:dyDescent="0.2">
       <c r="C42" s="1" t="s">
         <v>35</v>
       </c>
       <c r="D42" s="3" t="s">
         <v>5</v>
       </c>
-      <c r="E42" s="3">
+      <c r="E42" s="3" t="s">
+        <v>5</v>
+      </c>
+      <c r="F42" s="3">
         <v>8000</v>
       </c>
-      <c r="F42" s="3">
-        <v>136700</v>
-      </c>
       <c r="G42" s="3">
-        <v>129000</v>
+        <v>136300</v>
       </c>
       <c r="H42" s="3">
-        <v>200900</v>
+        <v>128700</v>
       </c>
       <c r="I42" s="3">
-        <v>223700</v>
+        <v>200300</v>
       </c>
       <c r="J42" s="3">
+        <v>223000</v>
+      </c>
+      <c r="K42" s="3">
         <v>246000</v>
       </c>
-      <c r="K42" s="3">
-        <v>0</v>
-      </c>
       <c r="L42" s="3">
         <v>0</v>
       </c>
@@ -2611,70 +2701,76 @@
       <c r="V42" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="43" spans="2:22" x14ac:dyDescent="0.2">
+      <c r="W42" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="43" spans="2:23" x14ac:dyDescent="0.2">
       <c r="C43" s="1" t="s">
         <v>36</v>
       </c>
       <c r="D43" s="3">
-        <v>897600</v>
+        <v>284300</v>
       </c>
       <c r="E43" s="3">
-        <v>837400</v>
+        <v>895200</v>
       </c>
       <c r="F43" s="3">
-        <v>957500</v>
+        <v>835100</v>
       </c>
       <c r="G43" s="3">
-        <v>891100</v>
+        <v>954900</v>
       </c>
       <c r="H43" s="3">
-        <v>571000</v>
+        <v>888600</v>
       </c>
       <c r="I43" s="3">
-        <v>447400</v>
+        <v>569400</v>
       </c>
       <c r="J43" s="3">
+        <v>446200</v>
+      </c>
+      <c r="K43" s="3">
         <v>670500</v>
       </c>
-      <c r="K43" s="3">
+      <c r="L43" s="3">
         <v>23014000</v>
       </c>
-      <c r="L43" s="3">
+      <c r="M43" s="3">
         <v>22790000</v>
       </c>
-      <c r="M43" s="3">
+      <c r="N43" s="3">
         <v>21312000</v>
       </c>
-      <c r="N43" s="3">
+      <c r="O43" s="3">
         <v>24445000</v>
       </c>
-      <c r="O43" s="3">
+      <c r="P43" s="3">
         <v>24345000</v>
       </c>
-      <c r="P43" s="3">
+      <c r="Q43" s="3">
         <v>22709000</v>
       </c>
-      <c r="Q43" s="3">
+      <c r="R43" s="3">
         <v>20287000</v>
       </c>
-      <c r="R43" s="3">
+      <c r="S43" s="3">
         <v>18796000</v>
       </c>
-      <c r="S43" s="3">
+      <c r="T43" s="3">
         <v>15020000</v>
       </c>
-      <c r="T43" s="3">
+      <c r="U43" s="3">
         <v>13393000</v>
       </c>
-      <c r="U43" s="3">
+      <c r="V43" s="3">
         <v>13277000</v>
       </c>
-      <c r="V43" s="3">
+      <c r="W43" s="3">
         <v>13397000</v>
       </c>
     </row>
-    <row r="44" spans="2:22" x14ac:dyDescent="0.2">
+    <row r="44" spans="2:23" x14ac:dyDescent="0.2">
       <c r="C44" s="1" t="s">
         <v>37</v>
       </c>
@@ -2735,97 +2831,103 @@
       <c r="V44" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="45" spans="2:22" x14ac:dyDescent="0.2">
+      <c r="W44" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="45" spans="2:23" x14ac:dyDescent="0.2">
       <c r="C45" s="1" t="s">
         <v>38</v>
       </c>
       <c r="D45" s="3">
+        <v>126300</v>
+      </c>
+      <c r="E45" s="3">
+        <v>129800</v>
+      </c>
+      <c r="F45" s="3">
+        <v>133500</v>
+      </c>
+      <c r="G45" s="3">
         <v>130100</v>
       </c>
-      <c r="E45" s="3">
-        <v>133800</v>
-      </c>
-      <c r="F45" s="3">
-        <v>130400</v>
-      </c>
-      <c r="G45" s="3">
-        <v>120900</v>
-      </c>
       <c r="H45" s="3">
-        <v>153400</v>
+        <v>120500</v>
       </c>
       <c r="I45" s="3">
-        <v>110000</v>
+        <v>153000</v>
       </c>
       <c r="J45" s="3">
+        <v>109700</v>
+      </c>
+      <c r="K45" s="3">
         <v>31900</v>
       </c>
-      <c r="K45" s="3" t="s">
-        <v>5</v>
-      </c>
       <c r="L45" s="3" t="s">
         <v>5</v>
       </c>
       <c r="M45" s="3" t="s">
         <v>5</v>
       </c>
-      <c r="N45" s="3">
-        <v>0</v>
+      <c r="N45" s="3" t="s">
+        <v>5</v>
       </c>
       <c r="O45" s="3">
+        <v>0</v>
+      </c>
+      <c r="P45" s="3">
         <v>4609000</v>
       </c>
-      <c r="P45" s="3">
+      <c r="Q45" s="3">
         <v>6863000</v>
       </c>
-      <c r="Q45" s="3">
+      <c r="R45" s="3">
         <v>10136000</v>
       </c>
-      <c r="R45" s="3">
+      <c r="S45" s="3">
         <v>10446000</v>
       </c>
-      <c r="S45" s="3">
+      <c r="T45" s="3">
         <v>7328000</v>
       </c>
-      <c r="T45" s="3">
-        <v>0</v>
-      </c>
       <c r="U45" s="3">
         <v>0</v>
       </c>
       <c r="V45" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="46" spans="2:22" x14ac:dyDescent="0.2">
+      <c r="W45" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="46" spans="2:23" x14ac:dyDescent="0.2">
       <c r="C46" s="1" t="s">
         <v>39</v>
       </c>
       <c r="D46" s="3">
-        <v>1102700</v>
+        <v>495000</v>
       </c>
       <c r="E46" s="3">
-        <v>1062400</v>
+        <v>1099600</v>
       </c>
       <c r="F46" s="3">
-        <v>1307300</v>
+        <v>1059500</v>
       </c>
       <c r="G46" s="3">
-        <v>1288300</v>
+        <v>1303700</v>
       </c>
       <c r="H46" s="3">
-        <v>1054600</v>
+        <v>1284800</v>
       </c>
       <c r="I46" s="3">
-        <v>903300</v>
+        <v>1051700</v>
       </c>
       <c r="J46" s="3">
+        <v>900800</v>
+      </c>
+      <c r="K46" s="3">
         <v>1060900</v>
       </c>
-      <c r="K46" s="3">
-        <v>0</v>
-      </c>
       <c r="L46" s="3">
         <v>0</v>
       </c>
@@ -2859,19 +2961,22 @@
       <c r="V46" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="47" spans="2:22" x14ac:dyDescent="0.2">
+      <c r="W46" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="47" spans="2:23" x14ac:dyDescent="0.2">
       <c r="C47" s="1" t="s">
         <v>40</v>
       </c>
       <c r="D47" s="3">
-        <v>116300</v>
+        <v>26900</v>
       </c>
       <c r="E47" s="3">
-        <v>112200</v>
-      </c>
-      <c r="F47" s="3" t="s">
-        <v>5</v>
+        <v>115900</v>
+      </c>
+      <c r="F47" s="3">
+        <v>111900</v>
       </c>
       <c r="G47" s="3" t="s">
         <v>5</v>
@@ -2885,44 +2990,47 @@
       <c r="J47" s="3" t="s">
         <v>5</v>
       </c>
-      <c r="K47" s="3">
+      <c r="K47" s="3" t="s">
+        <v>5</v>
+      </c>
+      <c r="L47" s="3">
         <v>1447000</v>
       </c>
-      <c r="L47" s="3">
+      <c r="M47" s="3">
         <v>1053000</v>
       </c>
-      <c r="M47" s="3">
+      <c r="N47" s="3">
         <v>993000</v>
       </c>
-      <c r="N47" s="3">
+      <c r="O47" s="3">
         <v>640000</v>
       </c>
-      <c r="O47" s="3">
+      <c r="P47" s="3">
         <v>682000</v>
       </c>
-      <c r="P47" s="3">
+      <c r="Q47" s="3">
         <v>901000</v>
       </c>
-      <c r="Q47" s="3">
+      <c r="R47" s="3">
         <v>692000</v>
       </c>
-      <c r="R47" s="3">
+      <c r="S47" s="3">
         <v>1249000</v>
       </c>
-      <c r="S47" s="3">
+      <c r="T47" s="3">
         <v>1154000</v>
       </c>
-      <c r="T47" s="3">
+      <c r="U47" s="3">
         <v>9831000</v>
       </c>
-      <c r="U47" s="3">
+      <c r="V47" s="3">
         <v>10187000</v>
       </c>
-      <c r="V47" s="3">
+      <c r="W47" s="3">
         <v>9817000</v>
       </c>
     </row>
-    <row r="48" spans="2:22" x14ac:dyDescent="0.2">
+    <row r="48" spans="2:23" x14ac:dyDescent="0.2">
       <c r="C48" s="1" t="s">
         <v>41</v>
       </c>
@@ -2948,43 +3056,46 @@
         <v>0</v>
       </c>
       <c r="K48" s="3">
+        <v>0</v>
+      </c>
+      <c r="L48" s="3">
         <v>833000</v>
       </c>
-      <c r="L48" s="3">
+      <c r="M48" s="3">
         <v>812000</v>
       </c>
-      <c r="M48" s="3">
+      <c r="N48" s="3">
         <v>797000</v>
       </c>
-      <c r="N48" s="3">
+      <c r="O48" s="3">
         <v>792000</v>
       </c>
-      <c r="O48" s="3">
+      <c r="P48" s="3">
         <v>778000</v>
       </c>
-      <c r="P48" s="3">
+      <c r="Q48" s="3">
         <v>801000</v>
       </c>
-      <c r="Q48" s="3">
+      <c r="R48" s="3">
         <v>780000</v>
       </c>
-      <c r="R48" s="3">
+      <c r="S48" s="3">
         <v>752000</v>
       </c>
-      <c r="S48" s="3">
+      <c r="T48" s="3">
         <v>592000</v>
       </c>
-      <c r="T48" s="3">
+      <c r="U48" s="3">
         <v>555000</v>
       </c>
-      <c r="U48" s="3">
+      <c r="V48" s="3">
         <v>531000</v>
       </c>
-      <c r="V48" s="3">
+      <c r="W48" s="3">
         <v>526000</v>
       </c>
     </row>
-    <row r="49" spans="3:22" x14ac:dyDescent="0.2">
+    <row r="49" spans="3:23" x14ac:dyDescent="0.2">
       <c r="C49" s="1" t="s">
         <v>42</v>
       </c>
@@ -3010,43 +3121,46 @@
         <v>1900</v>
       </c>
       <c r="K49" s="3">
+        <v>1900</v>
+      </c>
+      <c r="L49" s="3">
         <v>5463000</v>
       </c>
-      <c r="L49" s="3">
+      <c r="M49" s="3">
         <v>5494000</v>
       </c>
-      <c r="M49" s="3">
+      <c r="N49" s="3">
         <v>5525000</v>
       </c>
-      <c r="N49" s="3">
+      <c r="O49" s="3">
         <v>5556000</v>
       </c>
-      <c r="O49" s="3">
+      <c r="P49" s="3">
         <v>5561000</v>
       </c>
-      <c r="P49" s="3">
+      <c r="Q49" s="3">
         <v>5597000</v>
       </c>
-      <c r="Q49" s="3">
+      <c r="R49" s="3">
         <v>5629000</v>
       </c>
-      <c r="R49" s="3">
+      <c r="S49" s="3">
         <v>5683000</v>
       </c>
-      <c r="S49" s="3">
+      <c r="T49" s="3">
         <v>2985000</v>
       </c>
-      <c r="T49" s="3">
+      <c r="U49" s="3">
         <v>3004000</v>
       </c>
-      <c r="U49" s="3">
+      <c r="V49" s="3">
         <v>3023000</v>
       </c>
-      <c r="V49" s="3">
+      <c r="W49" s="3">
         <v>3042000</v>
       </c>
     </row>
-    <row r="50" spans="3:22" x14ac:dyDescent="0.2">
+    <row r="50" spans="3:23" x14ac:dyDescent="0.2">
       <c r="C50" s="1" t="s">
         <v>43</v>
       </c>
@@ -3107,8 +3221,11 @@
       <c r="V50" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="51" spans="3:22" x14ac:dyDescent="0.2">
+      <c r="W50" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="51" spans="3:23" x14ac:dyDescent="0.2">
       <c r="C51" s="1" t="s">
         <v>44</v>
       </c>
@@ -3169,19 +3286,22 @@
       <c r="V51" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="52" spans="3:22" x14ac:dyDescent="0.2">
+      <c r="W51" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="52" spans="3:23" x14ac:dyDescent="0.2">
       <c r="C52" s="1" t="s">
         <v>45</v>
       </c>
       <c r="D52" s="3">
-        <v>194600</v>
+        <v>328000</v>
       </c>
       <c r="E52" s="3">
-        <v>168000</v>
-      </c>
-      <c r="F52" s="3" t="s">
-        <v>5</v>
+        <v>194100</v>
+      </c>
+      <c r="F52" s="3">
+        <v>167600</v>
       </c>
       <c r="G52" s="3" t="s">
         <v>5</v>
@@ -3195,20 +3315,20 @@
       <c r="J52" s="3" t="s">
         <v>5</v>
       </c>
-      <c r="K52" s="3">
+      <c r="K52" s="3" t="s">
+        <v>5</v>
+      </c>
+      <c r="L52" s="3">
         <v>7124000</v>
       </c>
-      <c r="L52" s="3">
+      <c r="M52" s="3">
         <v>5580000</v>
-      </c>
-      <c r="M52" s="3">
-        <v>3185000</v>
       </c>
       <c r="N52" s="3">
         <v>3185000</v>
       </c>
       <c r="O52" s="3">
-        <v>0</v>
+        <v>3185000</v>
       </c>
       <c r="P52" s="3">
         <v>0</v>
@@ -3231,8 +3351,11 @@
       <c r="V52" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="53" spans="3:22" x14ac:dyDescent="0.2">
+      <c r="W52" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="53" spans="3:23" x14ac:dyDescent="0.2">
       <c r="C53" s="1" t="s">
         <v>46</v>
       </c>
@@ -3293,70 +3416,76 @@
       <c r="V53" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="54" spans="3:22" x14ac:dyDescent="0.2">
+      <c r="W53" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="54" spans="3:23" x14ac:dyDescent="0.2">
       <c r="C54" s="1" t="s">
         <v>47</v>
       </c>
       <c r="D54" s="3">
-        <v>1415500</v>
+        <v>851800</v>
       </c>
       <c r="E54" s="3">
-        <v>1344600</v>
+        <v>1411600</v>
       </c>
       <c r="F54" s="3">
-        <v>1309300</v>
+        <v>1340900</v>
       </c>
       <c r="G54" s="3">
-        <v>1290300</v>
+        <v>1305700</v>
       </c>
       <c r="H54" s="3">
-        <v>1056500</v>
+        <v>1286700</v>
       </c>
       <c r="I54" s="3">
-        <v>905300</v>
+        <v>1053600</v>
       </c>
       <c r="J54" s="3">
+        <v>902800</v>
+      </c>
+      <c r="K54" s="3">
         <v>1062800</v>
       </c>
-      <c r="K54" s="3">
+      <c r="L54" s="3">
         <v>41119000</v>
       </c>
-      <c r="L54" s="3">
+      <c r="M54" s="3">
         <v>38679000</v>
       </c>
-      <c r="M54" s="3">
+      <c r="N54" s="3">
         <v>37191000</v>
       </c>
-      <c r="N54" s="3">
+      <c r="O54" s="3">
         <v>37520000</v>
       </c>
-      <c r="O54" s="3">
+      <c r="P54" s="3">
         <v>37511000</v>
       </c>
-      <c r="P54" s="3">
+      <c r="Q54" s="3">
         <v>38410000</v>
       </c>
-      <c r="Q54" s="3">
+      <c r="R54" s="3">
         <v>39412000</v>
       </c>
-      <c r="R54" s="3">
+      <c r="S54" s="3">
         <v>38627000</v>
       </c>
-      <c r="S54" s="3">
+      <c r="T54" s="3">
         <v>30110000</v>
       </c>
-      <c r="T54" s="3">
+      <c r="U54" s="3">
         <v>29165000</v>
       </c>
-      <c r="U54" s="3">
+      <c r="V54" s="3">
         <v>28834000</v>
       </c>
-      <c r="V54" s="3">
+      <c r="W54" s="3">
         <v>28818000</v>
       </c>
     </row>
-    <row r="55" spans="3:22" x14ac:dyDescent="0.2">
+    <row r="55" spans="3:23" x14ac:dyDescent="0.2">
       <c r="C55" s="1" t="s">
         <v>48</v>
       </c>
@@ -3379,8 +3508,9 @@
       <c r="T55" s="3"/>
       <c r="U55" s="3"/>
       <c r="V55" s="3"/>
-    </row>
-    <row r="56" spans="3:22" x14ac:dyDescent="0.2">
+      <c r="W55" s="3"/>
+    </row>
+    <row r="56" spans="3:23" x14ac:dyDescent="0.2">
       <c r="C56" s="1" t="s">
         <v>49</v>
       </c>
@@ -3403,97 +3533,101 @@
       <c r="T56" s="3"/>
       <c r="U56" s="3"/>
       <c r="V56" s="3"/>
-    </row>
-    <row r="57" spans="3:22" x14ac:dyDescent="0.2">
+      <c r="W56" s="3"/>
+    </row>
+    <row r="57" spans="3:23" x14ac:dyDescent="0.2">
       <c r="C57" s="1" t="s">
         <v>50</v>
       </c>
       <c r="D57" s="3">
-        <v>41000</v>
+        <v>31500</v>
       </c>
       <c r="E57" s="3">
-        <v>36200</v>
+        <v>40900</v>
       </c>
       <c r="F57" s="3">
-        <v>53900</v>
+        <v>36100</v>
       </c>
       <c r="G57" s="3">
-        <v>82000</v>
+        <v>53700</v>
       </c>
       <c r="H57" s="3">
-        <v>71300</v>
+        <v>81800</v>
       </c>
       <c r="I57" s="3">
-        <v>62500</v>
+        <v>71100</v>
       </c>
       <c r="J57" s="3">
+        <v>62300</v>
+      </c>
+      <c r="K57" s="3">
         <v>460100</v>
       </c>
-      <c r="K57" s="3">
+      <c r="L57" s="3">
         <v>28833000</v>
       </c>
-      <c r="L57" s="3">
+      <c r="M57" s="3">
         <v>26621000</v>
       </c>
-      <c r="M57" s="3">
+      <c r="N57" s="3">
         <v>25139000</v>
       </c>
-      <c r="N57" s="3">
+      <c r="O57" s="3">
         <v>26805000</v>
       </c>
-      <c r="O57" s="3">
+      <c r="P57" s="3">
         <v>26859000</v>
       </c>
-      <c r="P57" s="3">
+      <c r="Q57" s="3">
         <v>27889000</v>
       </c>
-      <c r="Q57" s="3">
+      <c r="R57" s="3">
         <v>29119000</v>
       </c>
-      <c r="R57" s="3">
+      <c r="S57" s="3">
         <v>28535000</v>
       </c>
-      <c r="S57" s="3">
+      <c r="T57" s="3">
         <v>21821000</v>
       </c>
-      <c r="T57" s="3">
+      <c r="U57" s="3">
         <v>21806000</v>
       </c>
-      <c r="U57" s="3">
+      <c r="V57" s="3">
         <v>21582000</v>
       </c>
-      <c r="V57" s="3">
+      <c r="W57" s="3">
         <v>21669000</v>
       </c>
     </row>
-    <row r="58" spans="3:22" x14ac:dyDescent="0.2">
+    <row r="58" spans="3:23" x14ac:dyDescent="0.2">
       <c r="C58" s="1" t="s">
         <v>51</v>
       </c>
       <c r="D58" s="3">
-        <v>29700</v>
+        <v>49500</v>
       </c>
       <c r="E58" s="3">
-        <v>29700</v>
+        <v>29600</v>
       </c>
       <c r="F58" s="3">
-        <v>29700</v>
+        <v>29600</v>
       </c>
       <c r="G58" s="3">
-        <v>0</v>
+        <v>29600</v>
       </c>
       <c r="H58" s="3">
-        <v>40600</v>
+        <v>0</v>
       </c>
       <c r="I58" s="3">
+        <v>40500</v>
+      </c>
+      <c r="J58" s="3">
+        <v>41000</v>
+      </c>
+      <c r="K58" s="3">
         <v>41100</v>
       </c>
-      <c r="J58" s="3">
-        <v>41100</v>
-      </c>
-      <c r="K58" s="3">
-        <v>0</v>
-      </c>
       <c r="L58" s="3">
         <v>0</v>
       </c>
@@ -3501,23 +3635,23 @@
         <v>0</v>
       </c>
       <c r="N58" s="3">
+        <v>0</v>
+      </c>
+      <c r="O58" s="3">
         <v>96000</v>
       </c>
-      <c r="O58" s="3">
+      <c r="P58" s="3">
         <v>97000</v>
       </c>
-      <c r="P58" s="3">
+      <c r="Q58" s="3">
         <v>318000</v>
       </c>
-      <c r="Q58" s="3">
+      <c r="R58" s="3">
         <v>147000</v>
       </c>
-      <c r="R58" s="3">
+      <c r="S58" s="3">
         <v>97000</v>
       </c>
-      <c r="S58" s="3" t="s">
-        <v>5</v>
-      </c>
       <c r="T58" s="3" t="s">
         <v>5</v>
       </c>
@@ -3527,35 +3661,38 @@
       <c r="V58" s="3" t="s">
         <v>5</v>
       </c>
-    </row>
-    <row r="59" spans="3:22" x14ac:dyDescent="0.2">
+      <c r="W58" s="3" t="s">
+        <v>5</v>
+      </c>
+    </row>
+    <row r="59" spans="3:23" x14ac:dyDescent="0.2">
       <c r="C59" s="1" t="s">
         <v>52</v>
       </c>
       <c r="D59" s="3">
-        <v>12800</v>
+        <v>17300</v>
       </c>
       <c r="E59" s="3">
-        <v>21800</v>
+        <v>12700</v>
       </c>
       <c r="F59" s="3">
+        <v>21700</v>
+      </c>
+      <c r="G59" s="3">
         <v>12500</v>
       </c>
-      <c r="G59" s="3">
-        <v>11200</v>
-      </c>
       <c r="H59" s="3">
-        <v>26400</v>
+        <v>11100</v>
       </c>
       <c r="I59" s="3">
+        <v>26300</v>
+      </c>
+      <c r="J59" s="3">
         <v>9700</v>
       </c>
-      <c r="J59" s="3">
+      <c r="K59" s="3">
         <v>7500</v>
       </c>
-      <c r="K59" s="3" t="s">
-        <v>5</v>
-      </c>
       <c r="L59" s="3" t="s">
         <v>5</v>
       </c>
@@ -3568,8 +3705,8 @@
       <c r="O59" s="3" t="s">
         <v>5</v>
       </c>
-      <c r="P59" s="3">
-        <v>0</v>
+      <c r="P59" s="3" t="s">
+        <v>5</v>
       </c>
       <c r="Q59" s="3">
         <v>0</v>
@@ -3589,35 +3726,38 @@
       <c r="V59" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="60" spans="3:22" x14ac:dyDescent="0.2">
+      <c r="W59" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="60" spans="3:23" x14ac:dyDescent="0.2">
       <c r="C60" s="1" t="s">
         <v>53</v>
       </c>
       <c r="D60" s="3">
-        <v>83500</v>
+        <v>98400</v>
       </c>
       <c r="E60" s="3">
-        <v>87600</v>
+        <v>83200</v>
       </c>
       <c r="F60" s="3">
-        <v>96100</v>
+        <v>87400</v>
       </c>
       <c r="G60" s="3">
-        <v>93200</v>
+        <v>95800</v>
       </c>
       <c r="H60" s="3">
-        <v>138300</v>
+        <v>92900</v>
       </c>
       <c r="I60" s="3">
-        <v>113300</v>
+        <v>137900</v>
       </c>
       <c r="J60" s="3">
+        <v>113000</v>
+      </c>
+      <c r="K60" s="3">
         <v>508800</v>
       </c>
-      <c r="K60" s="3">
-        <v>0</v>
-      </c>
       <c r="L60" s="3">
         <v>0</v>
       </c>
@@ -3651,132 +3791,141 @@
       <c r="V60" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="61" spans="3:22" x14ac:dyDescent="0.2">
+      <c r="W60" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="61" spans="3:23" x14ac:dyDescent="0.2">
       <c r="C61" s="1" t="s">
         <v>54</v>
       </c>
       <c r="D61" s="3">
+        <v>14300</v>
+      </c>
+      <c r="E61" s="3">
         <v>13700</v>
       </c>
-      <c r="E61" s="3">
+      <c r="F61" s="3">
         <v>13200</v>
       </c>
-      <c r="F61" s="3">
+      <c r="G61" s="3">
         <v>12900</v>
       </c>
-      <c r="G61" s="3">
+      <c r="H61" s="3">
         <v>12700</v>
       </c>
-      <c r="H61" s="3">
-        <v>12300</v>
-      </c>
       <c r="I61" s="3">
-        <v>0</v>
+        <v>12200</v>
       </c>
       <c r="J61" s="3">
         <v>0</v>
       </c>
       <c r="K61" s="3">
+        <v>0</v>
+      </c>
+      <c r="L61" s="3">
         <v>3574000</v>
       </c>
-      <c r="L61" s="3">
+      <c r="M61" s="3">
         <v>3520000</v>
       </c>
-      <c r="M61" s="3">
+      <c r="N61" s="3">
         <v>3484000</v>
       </c>
-      <c r="N61" s="3">
+      <c r="O61" s="3">
         <v>2439000</v>
       </c>
-      <c r="O61" s="3">
+      <c r="P61" s="3">
         <v>2456000</v>
       </c>
-      <c r="P61" s="3">
+      <c r="Q61" s="3">
         <v>2477000</v>
       </c>
-      <c r="Q61" s="3">
+      <c r="R61" s="3">
         <v>2531000</v>
       </c>
-      <c r="R61" s="3">
+      <c r="S61" s="3">
         <v>2555000</v>
       </c>
-      <c r="S61" s="3">
+      <c r="T61" s="3">
         <v>2561000</v>
       </c>
-      <c r="T61" s="3">
+      <c r="U61" s="3">
         <v>1765000</v>
       </c>
-      <c r="U61" s="3">
+      <c r="V61" s="3">
         <v>1769000</v>
       </c>
-      <c r="V61" s="3">
+      <c r="W61" s="3">
         <v>1817000</v>
       </c>
     </row>
-    <row r="62" spans="3:22" x14ac:dyDescent="0.2">
+    <row r="62" spans="3:23" x14ac:dyDescent="0.2">
       <c r="C62" s="1" t="s">
         <v>55</v>
       </c>
       <c r="D62" s="3">
-        <v>1700</v>
+        <v>1800</v>
       </c>
       <c r="E62" s="3">
         <v>1700</v>
       </c>
       <c r="F62" s="3">
-        <v>2600</v>
+        <v>1700</v>
       </c>
       <c r="G62" s="3">
         <v>2600</v>
       </c>
       <c r="H62" s="3">
-        <v>33700</v>
+        <v>2600</v>
       </c>
       <c r="I62" s="3">
-        <v>31000</v>
+        <v>33600</v>
       </c>
       <c r="J62" s="3">
+        <v>30900</v>
+      </c>
+      <c r="K62" s="3">
         <v>25000</v>
       </c>
-      <c r="K62" s="3">
+      <c r="L62" s="3">
         <v>219000</v>
       </c>
-      <c r="L62" s="3">
+      <c r="M62" s="3">
         <v>215000</v>
       </c>
-      <c r="M62" s="3">
+      <c r="N62" s="3">
         <v>211000</v>
       </c>
-      <c r="N62" s="3">
+      <c r="O62" s="3">
         <v>177000</v>
       </c>
-      <c r="O62" s="3">
+      <c r="P62" s="3">
         <v>163000</v>
       </c>
-      <c r="P62" s="3">
+      <c r="Q62" s="3">
         <v>131000</v>
       </c>
-      <c r="Q62" s="3">
+      <c r="R62" s="3">
         <v>182000</v>
       </c>
-      <c r="R62" s="3">
+      <c r="S62" s="3">
         <v>193000</v>
       </c>
-      <c r="S62" s="3">
+      <c r="T62" s="3">
         <v>268000</v>
       </c>
-      <c r="T62" s="3">
+      <c r="U62" s="3">
         <v>269000</v>
       </c>
-      <c r="U62" s="3">
+      <c r="V62" s="3">
         <v>284000</v>
       </c>
-      <c r="V62" s="3">
+      <c r="W62" s="3">
         <v>281000</v>
       </c>
     </row>
-    <row r="63" spans="3:22" x14ac:dyDescent="0.2">
+    <row r="63" spans="3:23" x14ac:dyDescent="0.2">
       <c r="C63" s="1" t="s">
         <v>56</v>
       </c>
@@ -3837,8 +3986,11 @@
       <c r="V63" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="64" spans="3:22" x14ac:dyDescent="0.2">
+      <c r="W63" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="64" spans="3:23" x14ac:dyDescent="0.2">
       <c r="C64" s="1" t="s">
         <v>20</v>
       </c>
@@ -3899,8 +4051,11 @@
       <c r="V64" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="65" spans="2:22" x14ac:dyDescent="0.2">
+      <c r="W64" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="65" spans="2:23" x14ac:dyDescent="0.2">
       <c r="C65" s="1" t="s">
         <v>57</v>
       </c>
@@ -3961,70 +4116,76 @@
       <c r="V65" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="66" spans="2:22" x14ac:dyDescent="0.2">
+      <c r="W65" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="66" spans="2:23" x14ac:dyDescent="0.2">
       <c r="C66" s="1" t="s">
         <v>58</v>
       </c>
       <c r="D66" s="3">
-        <v>100900</v>
+        <v>116400</v>
       </c>
       <c r="E66" s="3">
-        <v>102500</v>
+        <v>100600</v>
       </c>
       <c r="F66" s="3">
-        <v>111700</v>
+        <v>102200</v>
       </c>
       <c r="G66" s="3">
-        <v>108500</v>
+        <v>111300</v>
       </c>
       <c r="H66" s="3">
-        <v>184200</v>
+        <v>108200</v>
       </c>
       <c r="I66" s="3">
-        <v>144400</v>
+        <v>183700</v>
       </c>
       <c r="J66" s="3">
+        <v>144000</v>
+      </c>
+      <c r="K66" s="3">
         <v>533700</v>
       </c>
-      <c r="K66" s="3">
+      <c r="L66" s="3">
         <v>32626000</v>
       </c>
-      <c r="L66" s="3">
+      <c r="M66" s="3">
         <v>30356000</v>
       </c>
-      <c r="M66" s="3">
+      <c r="N66" s="3">
         <v>28834000</v>
       </c>
-      <c r="N66" s="3">
+      <c r="O66" s="3">
         <v>29517000</v>
       </c>
-      <c r="O66" s="3">
+      <c r="P66" s="3">
         <v>29575000</v>
       </c>
-      <c r="P66" s="3">
+      <c r="Q66" s="3">
         <v>30815000</v>
       </c>
-      <c r="Q66" s="3">
+      <c r="R66" s="3">
         <v>31979000</v>
       </c>
-      <c r="R66" s="3">
+      <c r="S66" s="3">
         <v>31380000</v>
       </c>
-      <c r="S66" s="3">
+      <c r="T66" s="3">
         <v>24650000</v>
       </c>
-      <c r="T66" s="3">
+      <c r="U66" s="3">
         <v>23840000</v>
       </c>
-      <c r="U66" s="3">
+      <c r="V66" s="3">
         <v>23635000</v>
       </c>
-      <c r="V66" s="3">
+      <c r="W66" s="3">
         <v>23767000</v>
       </c>
     </row>
-    <row r="67" spans="2:22" x14ac:dyDescent="0.2">
+    <row r="67" spans="2:23" x14ac:dyDescent="0.2">
       <c r="C67" s="1" t="s">
         <v>59</v>
       </c>
@@ -4047,8 +4208,9 @@
       <c r="T67" s="3"/>
       <c r="U67" s="3"/>
       <c r="V67" s="3"/>
-    </row>
-    <row r="68" spans="2:22" x14ac:dyDescent="0.2">
+      <c r="W67" s="3"/>
+    </row>
+    <row r="68" spans="2:23" x14ac:dyDescent="0.2">
       <c r="C68" s="1" t="s">
         <v>60</v>
       </c>
@@ -4109,8 +4271,11 @@
       <c r="V68" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="69" spans="2:22" x14ac:dyDescent="0.2">
+      <c r="W68" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="69" spans="2:23" x14ac:dyDescent="0.2">
       <c r="C69" s="1" t="s">
         <v>61</v>
       </c>
@@ -4171,8 +4336,11 @@
       <c r="V69" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="70" spans="2:22" x14ac:dyDescent="0.2">
+      <c r="W69" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="70" spans="2:23" x14ac:dyDescent="0.2">
       <c r="C70" s="1" t="s">
         <v>62</v>
       </c>
@@ -4233,8 +4401,11 @@
       <c r="V70" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="71" spans="2:22" x14ac:dyDescent="0.2">
+      <c r="W70" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="71" spans="2:23" x14ac:dyDescent="0.2">
       <c r="C71" s="1" t="s">
         <v>63</v>
       </c>
@@ -4295,70 +4466,76 @@
       <c r="V71" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="72" spans="2:22" x14ac:dyDescent="0.2">
+      <c r="W71" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="72" spans="2:23" x14ac:dyDescent="0.2">
       <c r="C72" s="1" t="s">
         <v>64</v>
       </c>
       <c r="D72" s="3">
-        <v>1080100</v>
+        <v>1146600</v>
       </c>
       <c r="E72" s="3">
-        <v>1007600</v>
+        <v>1077100</v>
       </c>
       <c r="F72" s="3">
-        <v>959200</v>
+        <v>1004900</v>
       </c>
       <c r="G72" s="3">
-        <v>947300</v>
+        <v>956600</v>
       </c>
       <c r="H72" s="3">
-        <v>872200</v>
+        <v>944700</v>
       </c>
       <c r="I72" s="3">
-        <v>760900</v>
+        <v>869900</v>
       </c>
       <c r="J72" s="3">
+        <v>758800</v>
+      </c>
+      <c r="K72" s="3">
         <v>529100</v>
       </c>
-      <c r="K72" s="3">
+      <c r="L72" s="3">
         <v>8194000</v>
       </c>
-      <c r="L72" s="3">
+      <c r="M72" s="3">
         <v>7805000</v>
       </c>
-      <c r="M72" s="3">
+      <c r="N72" s="3">
         <v>7475000</v>
       </c>
-      <c r="N72" s="3">
+      <c r="O72" s="3">
         <v>7011000</v>
       </c>
-      <c r="O72" s="3">
+      <c r="P72" s="3">
         <v>6673000</v>
       </c>
-      <c r="P72" s="3">
+      <c r="Q72" s="3">
         <v>6341000</v>
       </c>
-      <c r="Q72" s="3">
+      <c r="R72" s="3">
         <v>6189000</v>
       </c>
-      <c r="R72" s="3">
+      <c r="S72" s="3">
         <v>6011000</v>
       </c>
-      <c r="S72" s="3">
+      <c r="T72" s="3">
         <v>5895000</v>
       </c>
-      <c r="T72" s="3">
+      <c r="U72" s="3">
         <v>5759000</v>
       </c>
-      <c r="U72" s="3">
+      <c r="V72" s="3">
         <v>5640000</v>
       </c>
-      <c r="V72" s="3">
+      <c r="W72" s="3">
         <v>5518000</v>
       </c>
     </row>
-    <row r="73" spans="2:22" x14ac:dyDescent="0.2">
+    <row r="73" spans="2:23" x14ac:dyDescent="0.2">
       <c r="C73" s="1" t="s">
         <v>65</v>
       </c>
@@ -4419,8 +4596,11 @@
       <c r="V73" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="74" spans="2:22" x14ac:dyDescent="0.2">
+      <c r="W73" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="74" spans="2:23" x14ac:dyDescent="0.2">
       <c r="C74" s="1" t="s">
         <v>66</v>
       </c>
@@ -4481,8 +4661,11 @@
       <c r="V74" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="75" spans="2:22" x14ac:dyDescent="0.2">
+      <c r="W74" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="75" spans="2:23" x14ac:dyDescent="0.2">
       <c r="C75" s="1" t="s">
         <v>67</v>
       </c>
@@ -4543,70 +4726,76 @@
       <c r="V75" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="76" spans="2:22" x14ac:dyDescent="0.2">
+      <c r="W75" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="76" spans="2:23" x14ac:dyDescent="0.2">
       <c r="C76" s="1" t="s">
         <v>68</v>
       </c>
       <c r="D76" s="3">
-        <v>1314600</v>
+        <v>735500</v>
       </c>
       <c r="E76" s="3">
-        <v>1242200</v>
+        <v>1311000</v>
       </c>
       <c r="F76" s="3">
-        <v>1197600</v>
+        <v>1238800</v>
       </c>
       <c r="G76" s="3">
-        <v>1181700</v>
+        <v>1194300</v>
       </c>
       <c r="H76" s="3">
-        <v>872300</v>
+        <v>1178500</v>
       </c>
       <c r="I76" s="3">
-        <v>760900</v>
+        <v>869900</v>
       </c>
       <c r="J76" s="3">
+        <v>758800</v>
+      </c>
+      <c r="K76" s="3">
         <v>529100</v>
       </c>
-      <c r="K76" s="3">
+      <c r="L76" s="3">
         <v>8493000</v>
       </c>
-      <c r="L76" s="3">
+      <c r="M76" s="3">
         <v>8323000</v>
       </c>
-      <c r="M76" s="3">
+      <c r="N76" s="3">
         <v>8357000</v>
       </c>
-      <c r="N76" s="3">
+      <c r="O76" s="3">
         <v>8003000</v>
       </c>
-      <c r="O76" s="3">
+      <c r="P76" s="3">
         <v>7936000</v>
       </c>
-      <c r="P76" s="3">
+      <c r="Q76" s="3">
         <v>7595000</v>
       </c>
-      <c r="Q76" s="3">
+      <c r="R76" s="3">
         <v>7433000</v>
       </c>
-      <c r="R76" s="3">
+      <c r="S76" s="3">
         <v>7247000</v>
       </c>
-      <c r="S76" s="3">
+      <c r="T76" s="3">
         <v>5460000</v>
       </c>
-      <c r="T76" s="3">
+      <c r="U76" s="3">
         <v>5325000</v>
       </c>
-      <c r="U76" s="3">
+      <c r="V76" s="3">
         <v>5199000</v>
       </c>
-      <c r="V76" s="3">
+      <c r="W76" s="3">
         <v>5051000</v>
       </c>
     </row>
-    <row r="77" spans="2:22" x14ac:dyDescent="0.2">
+    <row r="77" spans="2:23" x14ac:dyDescent="0.2">
       <c r="C77" s="1" t="s">
         <v>69</v>
       </c>
@@ -4667,137 +4856,146 @@
       <c r="V77" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="79" spans="2:22" x14ac:dyDescent="0.2">
+      <c r="W77" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="79" spans="2:23" x14ac:dyDescent="0.2">
       <c r="B79" s="1" t="s">
         <v>70</v>
       </c>
     </row>
-    <row r="80" spans="2:22" x14ac:dyDescent="0.2">
+    <row r="80" spans="2:23" x14ac:dyDescent="0.2">
       <c r="C80" s="1" t="s">
         <v>2</v>
       </c>
       <c r="D80" s="2">
+        <v>44561</v>
+      </c>
+      <c r="E80" s="2">
         <v>44377</v>
       </c>
-      <c r="E80" s="2">
+      <c r="F80" s="2">
         <v>44196</v>
       </c>
-      <c r="F80" s="2">
+      <c r="G80" s="2">
         <v>44104</v>
       </c>
-      <c r="G80" s="2">
+      <c r="H80" s="2">
         <v>44012</v>
       </c>
-      <c r="H80" s="2">
+      <c r="I80" s="2">
         <v>43830</v>
       </c>
-      <c r="I80" s="2">
+      <c r="J80" s="2">
         <v>43738</v>
-      </c>
-      <c r="J80" s="2">
-        <v>43646</v>
       </c>
       <c r="K80" s="2">
         <v>43646</v>
       </c>
       <c r="L80" s="2">
+        <v>43646</v>
+      </c>
+      <c r="M80" s="2">
         <v>43555</v>
       </c>
-      <c r="M80" s="2">
+      <c r="N80" s="2">
         <v>43465</v>
       </c>
-      <c r="N80" s="2">
+      <c r="O80" s="2">
         <v>43373</v>
       </c>
-      <c r="O80" s="2">
+      <c r="P80" s="2">
         <v>43281</v>
       </c>
-      <c r="P80" s="2">
+      <c r="Q80" s="2">
         <v>43190</v>
       </c>
-      <c r="Q80" s="2">
+      <c r="R80" s="2">
         <v>43100</v>
       </c>
-      <c r="R80" s="2">
+      <c r="S80" s="2">
         <v>43008</v>
       </c>
-      <c r="S80" s="2">
+      <c r="T80" s="2">
         <v>42916</v>
       </c>
-      <c r="T80" s="2">
+      <c r="U80" s="2">
         <v>42825</v>
       </c>
-      <c r="U80" s="2">
+      <c r="V80" s="2">
         <v>42735</v>
       </c>
-      <c r="V80" s="2">
+      <c r="W80" s="2">
         <v>42643</v>
       </c>
     </row>
-    <row r="81" spans="3:22" x14ac:dyDescent="0.2">
+    <row r="81" spans="3:23" x14ac:dyDescent="0.2">
       <c r="C81" s="1" t="s">
         <v>28</v>
       </c>
       <c r="D81" s="3">
-        <v>72400</v>
+        <v>67400</v>
       </c>
       <c r="E81" s="3">
-        <v>48400</v>
+        <v>72200</v>
       </c>
       <c r="F81" s="3">
+        <v>48300</v>
+      </c>
+      <c r="G81" s="3">
         <v>11900</v>
       </c>
-      <c r="G81" s="3">
-        <v>75100</v>
-      </c>
       <c r="H81" s="3">
+        <v>74900</v>
+      </c>
+      <c r="I81" s="3">
         <v>11400</v>
       </c>
-      <c r="I81" s="3">
-        <v>39300</v>
-      </c>
       <c r="J81" s="3">
+        <v>39200</v>
+      </c>
+      <c r="K81" s="3">
         <v>28100</v>
       </c>
-      <c r="K81" s="3">
+      <c r="L81" s="3">
         <v>555000</v>
       </c>
-      <c r="L81" s="3">
+      <c r="M81" s="3">
         <v>499000</v>
       </c>
-      <c r="M81" s="3">
+      <c r="N81" s="3">
         <v>604000</v>
       </c>
-      <c r="N81" s="3">
+      <c r="O81" s="3">
         <v>454000</v>
       </c>
-      <c r="O81" s="3">
+      <c r="P81" s="3">
         <v>451000</v>
       </c>
-      <c r="P81" s="3">
+      <c r="Q81" s="3">
         <v>271000</v>
       </c>
-      <c r="Q81" s="3">
+      <c r="R81" s="3">
         <v>297000</v>
       </c>
-      <c r="R81" s="3">
+      <c r="S81" s="3">
         <v>211000</v>
       </c>
-      <c r="S81" s="3">
+      <c r="T81" s="3">
         <v>231000</v>
       </c>
-      <c r="T81" s="3">
+      <c r="U81" s="3">
         <v>214000</v>
       </c>
-      <c r="U81" s="3">
+      <c r="V81" s="3">
         <v>216000</v>
       </c>
-      <c r="V81" s="3">
+      <c r="W81" s="3">
         <v>185000</v>
       </c>
     </row>
-    <row r="82" spans="3:22" x14ac:dyDescent="0.2">
+    <row r="82" spans="3:23" x14ac:dyDescent="0.2">
       <c r="C82" s="1" t="s">
         <v>71</v>
       </c>
@@ -4820,8 +5018,9 @@
       <c r="T82" s="3"/>
       <c r="U82" s="3"/>
       <c r="V82" s="3"/>
-    </row>
-    <row r="83" spans="3:22" x14ac:dyDescent="0.2">
+      <c r="W82" s="3"/>
+    </row>
+    <row r="83" spans="3:23" x14ac:dyDescent="0.2">
       <c r="C83" s="1" t="s">
         <v>72</v>
       </c>
@@ -4847,43 +5046,46 @@
         <v>0</v>
       </c>
       <c r="K83" s="3">
+        <v>0</v>
+      </c>
+      <c r="L83" s="3">
         <v>69000</v>
       </c>
-      <c r="L83" s="3">
+      <c r="M83" s="3">
         <v>67000</v>
       </c>
-      <c r="M83" s="3">
+      <c r="N83" s="3">
         <v>66000</v>
       </c>
-      <c r="N83" s="3">
+      <c r="O83" s="3">
         <v>70000</v>
       </c>
-      <c r="O83" s="3">
+      <c r="P83" s="3">
         <v>69000</v>
-      </c>
-      <c r="P83" s="3">
-        <v>72000</v>
       </c>
       <c r="Q83" s="3">
         <v>72000</v>
       </c>
       <c r="R83" s="3">
+        <v>72000</v>
+      </c>
+      <c r="S83" s="3">
         <v>50000</v>
-      </c>
-      <c r="S83" s="3">
-        <v>44000</v>
       </c>
       <c r="T83" s="3">
         <v>44000</v>
       </c>
       <c r="U83" s="3">
+        <v>44000</v>
+      </c>
+      <c r="V83" s="3">
         <v>43000</v>
       </c>
-      <c r="V83" s="3">
+      <c r="W83" s="3">
         <v>45000</v>
       </c>
     </row>
-    <row r="84" spans="3:22" x14ac:dyDescent="0.2">
+    <row r="84" spans="3:23" x14ac:dyDescent="0.2">
       <c r="C84" s="1" t="s">
         <v>73</v>
       </c>
@@ -4944,8 +5146,11 @@
       <c r="V84" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="85" spans="3:22" x14ac:dyDescent="0.2">
+      <c r="W84" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="85" spans="3:23" x14ac:dyDescent="0.2">
       <c r="C85" s="1" t="s">
         <v>74</v>
       </c>
@@ -5006,8 +5211,11 @@
       <c r="V85" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="86" spans="3:22" x14ac:dyDescent="0.2">
+      <c r="W85" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="86" spans="3:23" x14ac:dyDescent="0.2">
       <c r="C86" s="1" t="s">
         <v>75</v>
       </c>
@@ -5068,8 +5276,11 @@
       <c r="V86" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="87" spans="3:22" x14ac:dyDescent="0.2">
+      <c r="W86" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="87" spans="3:23" x14ac:dyDescent="0.2">
       <c r="C87" s="1" t="s">
         <v>76</v>
       </c>
@@ -5130,8 +5341,11 @@
       <c r="V87" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="88" spans="3:22" x14ac:dyDescent="0.2">
+      <c r="W87" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="88" spans="3:23" x14ac:dyDescent="0.2">
       <c r="C88" s="1" t="s">
         <v>77</v>
       </c>
@@ -5192,8 +5406,11 @@
       <c r="V88" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="89" spans="3:22" x14ac:dyDescent="0.2">
+      <c r="W88" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="89" spans="3:23" x14ac:dyDescent="0.2">
       <c r="C89" s="1" t="s">
         <v>78</v>
       </c>
@@ -5219,43 +5436,46 @@
         <v>0</v>
       </c>
       <c r="K89" s="3">
+        <v>0</v>
+      </c>
+      <c r="L89" s="3">
         <v>2438000</v>
       </c>
-      <c r="L89" s="3">
+      <c r="M89" s="3">
         <v>573000</v>
       </c>
-      <c r="M89" s="3">
+      <c r="N89" s="3">
         <v>2762000</v>
       </c>
-      <c r="N89" s="3">
+      <c r="O89" s="3">
         <v>1821000</v>
       </c>
-      <c r="O89" s="3">
+      <c r="P89" s="3">
         <v>349000</v>
       </c>
-      <c r="P89" s="3">
+      <c r="Q89" s="3">
         <v>124000</v>
       </c>
-      <c r="Q89" s="3">
+      <c r="R89" s="3">
         <v>-386000</v>
       </c>
-      <c r="R89" s="3">
+      <c r="S89" s="3">
         <v>23000</v>
       </c>
-      <c r="S89" s="3">
+      <c r="T89" s="3">
         <v>27000</v>
       </c>
-      <c r="T89" s="3">
+      <c r="U89" s="3">
         <v>718000</v>
       </c>
-      <c r="U89" s="3">
+      <c r="V89" s="3">
         <v>-81000</v>
       </c>
-      <c r="V89" s="3">
+      <c r="W89" s="3">
         <v>436000</v>
       </c>
     </row>
-    <row r="90" spans="3:22" x14ac:dyDescent="0.2">
+    <row r="90" spans="3:23" x14ac:dyDescent="0.2">
       <c r="C90" s="1" t="s">
         <v>79</v>
       </c>
@@ -5278,8 +5498,9 @@
       <c r="T90" s="3"/>
       <c r="U90" s="3"/>
       <c r="V90" s="3"/>
-    </row>
-    <row r="91" spans="3:22" x14ac:dyDescent="0.2">
+      <c r="W90" s="3"/>
+    </row>
+    <row r="91" spans="3:23" x14ac:dyDescent="0.2">
       <c r="C91" s="1" t="s">
         <v>80</v>
       </c>
@@ -5305,43 +5526,46 @@
         <v>0</v>
       </c>
       <c r="K91" s="3">
+        <v>0</v>
+      </c>
+      <c r="L91" s="3">
         <v>-59000</v>
       </c>
-      <c r="L91" s="3">
+      <c r="M91" s="3">
         <v>-48000</v>
       </c>
-      <c r="M91" s="3">
+      <c r="N91" s="3">
         <v>-44000</v>
       </c>
-      <c r="N91" s="3">
+      <c r="O91" s="3">
         <v>-63000</v>
       </c>
-      <c r="O91" s="3">
+      <c r="P91" s="3">
         <v>-47000</v>
       </c>
-      <c r="P91" s="3">
+      <c r="Q91" s="3">
         <v>-56000</v>
       </c>
-      <c r="Q91" s="3">
+      <c r="R91" s="3">
         <v>-63000</v>
       </c>
-      <c r="R91" s="3">
+      <c r="S91" s="3">
         <v>-56000</v>
       </c>
-      <c r="S91" s="3">
+      <c r="T91" s="3">
         <v>-62000</v>
       </c>
-      <c r="T91" s="3">
+      <c r="U91" s="3">
         <v>-100000</v>
       </c>
-      <c r="U91" s="3">
+      <c r="V91" s="3">
         <v>-58000</v>
       </c>
-      <c r="V91" s="3">
+      <c r="W91" s="3">
         <v>-27000</v>
       </c>
     </row>
-    <row r="92" spans="3:22" x14ac:dyDescent="0.2">
+    <row r="92" spans="3:23" x14ac:dyDescent="0.2">
       <c r="C92" s="1" t="s">
         <v>81</v>
       </c>
@@ -5402,8 +5626,11 @@
       <c r="V92" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="93" spans="3:22" x14ac:dyDescent="0.2">
+      <c r="W92" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="93" spans="3:23" x14ac:dyDescent="0.2">
       <c r="C93" s="1" t="s">
         <v>82</v>
       </c>
@@ -5464,8 +5691,11 @@
       <c r="V93" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="94" spans="3:22" x14ac:dyDescent="0.2">
+      <c r="W93" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="94" spans="3:23" x14ac:dyDescent="0.2">
       <c r="C94" s="1" t="s">
         <v>83</v>
       </c>
@@ -5491,43 +5721,46 @@
         <v>0</v>
       </c>
       <c r="K94" s="3">
+        <v>0</v>
+      </c>
+      <c r="L94" s="3">
         <v>-195000</v>
       </c>
-      <c r="L94" s="3">
+      <c r="M94" s="3">
         <v>-48000</v>
       </c>
-      <c r="M94" s="3">
+      <c r="N94" s="3">
         <v>-426000</v>
       </c>
-      <c r="N94" s="3">
+      <c r="O94" s="3">
         <v>-66000</v>
       </c>
-      <c r="O94" s="3">
+      <c r="P94" s="3">
         <v>-35000</v>
       </c>
-      <c r="P94" s="3">
+      <c r="Q94" s="3">
         <v>-440000</v>
       </c>
-      <c r="Q94" s="3">
+      <c r="R94" s="3">
         <v>633000</v>
       </c>
-      <c r="R94" s="3">
+      <c r="S94" s="3">
         <v>-1406000</v>
       </c>
-      <c r="S94" s="3">
+      <c r="T94" s="3">
         <v>-62000</v>
       </c>
-      <c r="T94" s="3">
+      <c r="U94" s="3">
         <v>-50000</v>
       </c>
-      <c r="U94" s="3">
+      <c r="V94" s="3">
         <v>-29000</v>
       </c>
-      <c r="V94" s="3">
+      <c r="W94" s="3">
         <v>-384000</v>
       </c>
     </row>
-    <row r="95" spans="3:22" x14ac:dyDescent="0.2">
+    <row r="95" spans="3:23" x14ac:dyDescent="0.2">
       <c r="C95" s="1" t="s">
         <v>84</v>
       </c>
@@ -5550,8 +5783,9 @@
       <c r="T95" s="3"/>
       <c r="U95" s="3"/>
       <c r="V95" s="3"/>
-    </row>
-    <row r="96" spans="3:22" x14ac:dyDescent="0.2">
+      <c r="W95" s="3"/>
+    </row>
+    <row r="96" spans="3:23" x14ac:dyDescent="0.2">
       <c r="C96" s="1" t="s">
         <v>85</v>
       </c>
@@ -5577,19 +5811,19 @@
         <v>0</v>
       </c>
       <c r="K96" s="3">
+        <v>0</v>
+      </c>
+      <c r="L96" s="3">
         <v>-166000</v>
       </c>
-      <c r="L96" s="3">
+      <c r="M96" s="3">
         <v>-169000</v>
       </c>
-      <c r="M96" s="3">
+      <c r="N96" s="3">
         <v>-168000</v>
       </c>
-      <c r="N96" s="3">
+      <c r="O96" s="3">
         <v>-120000</v>
-      </c>
-      <c r="O96" s="3">
-        <v>-119000</v>
       </c>
       <c r="P96" s="3">
         <v>-119000</v>
@@ -5598,10 +5832,10 @@
         <v>-119000</v>
       </c>
       <c r="R96" s="3">
+        <v>-119000</v>
+      </c>
+      <c r="S96" s="3">
         <v>-94000</v>
-      </c>
-      <c r="S96" s="3">
-        <v>-95000</v>
       </c>
       <c r="T96" s="3">
         <v>-95000</v>
@@ -5610,10 +5844,13 @@
         <v>-95000</v>
       </c>
       <c r="V96" s="3">
+        <v>-95000</v>
+      </c>
+      <c r="W96" s="3">
         <v>-90000</v>
       </c>
     </row>
-    <row r="97" spans="3:22" x14ac:dyDescent="0.2">
+    <row r="97" spans="3:23" x14ac:dyDescent="0.2">
       <c r="C97" s="1" t="s">
         <v>86</v>
       </c>
@@ -5674,8 +5911,11 @@
       <c r="V97" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="98" spans="3:22" x14ac:dyDescent="0.2">
+      <c r="W97" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="98" spans="3:23" x14ac:dyDescent="0.2">
       <c r="C98" s="1" t="s">
         <v>87</v>
       </c>
@@ -5736,8 +5976,11 @@
       <c r="V98" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="99" spans="3:22" x14ac:dyDescent="0.2">
+      <c r="W98" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="99" spans="3:23" x14ac:dyDescent="0.2">
       <c r="C99" s="1" t="s">
         <v>88</v>
       </c>
@@ -5798,8 +6041,11 @@
       <c r="V99" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="100" spans="3:22" x14ac:dyDescent="0.2">
+      <c r="W99" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="100" spans="3:23" x14ac:dyDescent="0.2">
       <c r="C100" s="1" t="s">
         <v>89</v>
       </c>
@@ -5825,43 +6071,46 @@
         <v>0</v>
       </c>
       <c r="K100" s="3">
+        <v>0</v>
+      </c>
+      <c r="L100" s="3">
         <v>-409000</v>
       </c>
-      <c r="L100" s="3">
+      <c r="M100" s="3">
         <v>-552000</v>
       </c>
-      <c r="M100" s="3">
+      <c r="N100" s="3">
         <v>594000</v>
       </c>
-      <c r="N100" s="3">
+      <c r="O100" s="3">
         <v>-408000</v>
       </c>
-      <c r="O100" s="3">
+      <c r="P100" s="3">
         <v>-344000</v>
       </c>
-      <c r="P100" s="3">
+      <c r="Q100" s="3">
         <v>45000</v>
       </c>
-      <c r="Q100" s="3">
+      <c r="R100" s="3">
         <v>-75000</v>
       </c>
-      <c r="R100" s="3">
+      <c r="S100" s="3">
         <v>-37000</v>
       </c>
-      <c r="S100" s="3">
+      <c r="T100" s="3">
         <v>685000</v>
       </c>
-      <c r="T100" s="3">
+      <c r="U100" s="3">
         <v>-97000</v>
       </c>
-      <c r="U100" s="3">
+      <c r="V100" s="3">
         <v>-74000</v>
       </c>
-      <c r="V100" s="3">
+      <c r="W100" s="3">
         <v>-114000</v>
       </c>
     </row>
-    <row r="101" spans="3:22" x14ac:dyDescent="0.2">
+    <row r="101" spans="3:23" x14ac:dyDescent="0.2">
       <c r="C101" s="1" t="s">
         <v>90</v>
       </c>
@@ -5922,8 +6171,11 @@
       <c r="V101" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="102" spans="3:22" x14ac:dyDescent="0.2">
+      <c r="W101" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="102" spans="3:23" x14ac:dyDescent="0.2">
       <c r="C102" s="1" t="s">
         <v>91</v>
       </c>
@@ -5949,39 +6201,42 @@
         <v>0</v>
       </c>
       <c r="K102" s="3">
+        <v>0</v>
+      </c>
+      <c r="L102" s="3">
         <v>1834000</v>
       </c>
-      <c r="L102" s="3">
+      <c r="M102" s="3">
         <v>-27000</v>
       </c>
-      <c r="M102" s="3">
+      <c r="N102" s="3">
         <v>2930000</v>
       </c>
-      <c r="N102" s="3">
+      <c r="O102" s="3">
         <v>1347000</v>
       </c>
-      <c r="O102" s="3">
+      <c r="P102" s="3">
         <v>-30000</v>
       </c>
-      <c r="P102" s="3">
+      <c r="Q102" s="3">
         <v>-271000</v>
       </c>
-      <c r="Q102" s="3">
+      <c r="R102" s="3">
         <v>172000</v>
       </c>
-      <c r="R102" s="3">
+      <c r="S102" s="3">
         <v>-1408000</v>
       </c>
-      <c r="S102" s="3">
+      <c r="T102" s="3">
         <v>649000</v>
       </c>
-      <c r="T102" s="3">
+      <c r="U102" s="3">
         <v>569000</v>
       </c>
-      <c r="U102" s="3">
+      <c r="V102" s="3">
         <v>-193000</v>
       </c>
-      <c r="V102" s="3">
+      <c r="W102" s="3">
         <v>-62000</v>
       </c>
     </row>

--- a/AAII_Financials/Quarterly/AMTD_QTR_FIN.xlsx
+++ b/AAII_Financials/Quarterly/AMTD_QTR_FIN.xlsx
@@ -1330,10 +1330,10 @@
         <v>13</v>
       </c>
       <c r="D18" s="3">
-        <v>30600</v>
+        <v>30700</v>
       </c>
       <c r="E18" s="3">
-        <v>55300</v>
+        <v>55400</v>
       </c>
       <c r="F18" s="3">
         <v>15400</v>
@@ -1342,7 +1342,7 @@
         <v>4100</v>
       </c>
       <c r="H18" s="3">
-        <v>52200</v>
+        <v>52300</v>
       </c>
       <c r="I18" s="3">
         <v>12900</v>
@@ -1420,7 +1420,7 @@
         <v>15</v>
       </c>
       <c r="D20" s="3">
-        <v>50200</v>
+        <v>50300</v>
       </c>
       <c r="E20" s="3">
         <v>35000</v>
@@ -1438,7 +1438,7 @@
         <v>2400</v>
       </c>
       <c r="J20" s="3">
-        <v>36400</v>
+        <v>36500</v>
       </c>
       <c r="K20" s="3">
         <v>14800</v>
@@ -1615,10 +1615,10 @@
         <v>18</v>
       </c>
       <c r="D23" s="3">
-        <v>80000</v>
+        <v>80100</v>
       </c>
       <c r="E23" s="3">
-        <v>89500</v>
+        <v>89600</v>
       </c>
       <c r="F23" s="3">
         <v>55600</v>
@@ -1627,7 +1627,7 @@
         <v>17200</v>
       </c>
       <c r="H23" s="3">
-        <v>54800</v>
+        <v>54900</v>
       </c>
       <c r="I23" s="3">
         <v>13800</v>
@@ -1810,19 +1810,19 @@
         <v>21</v>
       </c>
       <c r="D26" s="3">
-        <v>75400</v>
+        <v>75500</v>
       </c>
       <c r="E26" s="3">
-        <v>80200</v>
+        <v>80300</v>
       </c>
       <c r="F26" s="3">
         <v>52300</v>
       </c>
       <c r="G26" s="3">
-        <v>15800</v>
+        <v>15900</v>
       </c>
       <c r="H26" s="3">
-        <v>76900</v>
+        <v>77000</v>
       </c>
       <c r="I26" s="3">
         <v>11400</v>
@@ -1875,10 +1875,10 @@
         <v>22</v>
       </c>
       <c r="D27" s="3">
-        <v>67400</v>
+        <v>67500</v>
       </c>
       <c r="E27" s="3">
-        <v>72200</v>
+        <v>72300</v>
       </c>
       <c r="F27" s="3">
         <v>48300</v>
@@ -2200,7 +2200,7 @@
         <v>27</v>
       </c>
       <c r="D32" s="3">
-        <v>-50200</v>
+        <v>-50300</v>
       </c>
       <c r="E32" s="3">
         <v>-35000</v>
@@ -2218,7 +2218,7 @@
         <v>-2400</v>
       </c>
       <c r="J32" s="3">
-        <v>-36400</v>
+        <v>-36500</v>
       </c>
       <c r="K32" s="3">
         <v>-14800</v>
@@ -2265,10 +2265,10 @@
         <v>28</v>
       </c>
       <c r="D33" s="3">
-        <v>67400</v>
+        <v>67500</v>
       </c>
       <c r="E33" s="3">
-        <v>72200</v>
+        <v>72300</v>
       </c>
       <c r="F33" s="3">
         <v>48300</v>
@@ -2395,10 +2395,10 @@
         <v>30</v>
       </c>
       <c r="D35" s="3">
-        <v>67400</v>
+        <v>67500</v>
       </c>
       <c r="E35" s="3">
-        <v>72200</v>
+        <v>72300</v>
       </c>
       <c r="F35" s="3">
         <v>48300</v>
@@ -2589,16 +2589,16 @@
         <v>83000</v>
       </c>
       <c r="G41" s="3">
-        <v>82500</v>
+        <v>82600</v>
       </c>
       <c r="H41" s="3">
         <v>147000</v>
       </c>
       <c r="I41" s="3">
-        <v>128900</v>
+        <v>129000</v>
       </c>
       <c r="J41" s="3">
-        <v>121900</v>
+        <v>122000</v>
       </c>
       <c r="K41" s="3">
         <v>112500</v>
@@ -2654,16 +2654,16 @@
         <v>8000</v>
       </c>
       <c r="G42" s="3">
-        <v>136300</v>
+        <v>136400</v>
       </c>
       <c r="H42" s="3">
         <v>128700</v>
       </c>
       <c r="I42" s="3">
-        <v>200300</v>
+        <v>200400</v>
       </c>
       <c r="J42" s="3">
-        <v>223000</v>
+        <v>223100</v>
       </c>
       <c r="K42" s="3">
         <v>246000</v>
@@ -2710,25 +2710,25 @@
         <v>36</v>
       </c>
       <c r="D43" s="3">
-        <v>284300</v>
+        <v>284400</v>
       </c>
       <c r="E43" s="3">
-        <v>895200</v>
+        <v>895600</v>
       </c>
       <c r="F43" s="3">
-        <v>835100</v>
+        <v>835500</v>
       </c>
       <c r="G43" s="3">
-        <v>954900</v>
+        <v>955300</v>
       </c>
       <c r="H43" s="3">
-        <v>888600</v>
+        <v>889000</v>
       </c>
       <c r="I43" s="3">
-        <v>569400</v>
+        <v>569700</v>
       </c>
       <c r="J43" s="3">
-        <v>446200</v>
+        <v>446400</v>
       </c>
       <c r="K43" s="3">
         <v>670500</v>
@@ -2840,7 +2840,7 @@
         <v>38</v>
       </c>
       <c r="D45" s="3">
-        <v>126300</v>
+        <v>126400</v>
       </c>
       <c r="E45" s="3">
         <v>129800</v>
@@ -2852,13 +2852,13 @@
         <v>130100</v>
       </c>
       <c r="H45" s="3">
-        <v>120500</v>
+        <v>120600</v>
       </c>
       <c r="I45" s="3">
         <v>153000</v>
       </c>
       <c r="J45" s="3">
-        <v>109700</v>
+        <v>109800</v>
       </c>
       <c r="K45" s="3">
         <v>31900</v>
@@ -2905,25 +2905,25 @@
         <v>39</v>
       </c>
       <c r="D46" s="3">
-        <v>495000</v>
+        <v>495200</v>
       </c>
       <c r="E46" s="3">
-        <v>1099600</v>
+        <v>1100200</v>
       </c>
       <c r="F46" s="3">
-        <v>1059500</v>
+        <v>1060000</v>
       </c>
       <c r="G46" s="3">
-        <v>1303700</v>
+        <v>1304400</v>
       </c>
       <c r="H46" s="3">
-        <v>1284800</v>
+        <v>1285400</v>
       </c>
       <c r="I46" s="3">
-        <v>1051700</v>
+        <v>1052200</v>
       </c>
       <c r="J46" s="3">
-        <v>900800</v>
+        <v>901300</v>
       </c>
       <c r="K46" s="3">
         <v>1060900</v>
@@ -2973,10 +2973,10 @@
         <v>26900</v>
       </c>
       <c r="E47" s="3">
-        <v>115900</v>
+        <v>116000</v>
       </c>
       <c r="F47" s="3">
-        <v>111900</v>
+        <v>112000</v>
       </c>
       <c r="G47" s="3" t="s">
         <v>5</v>
@@ -3295,10 +3295,10 @@
         <v>45</v>
       </c>
       <c r="D52" s="3">
-        <v>328000</v>
+        <v>328100</v>
       </c>
       <c r="E52" s="3">
-        <v>194100</v>
+        <v>194200</v>
       </c>
       <c r="F52" s="3">
         <v>167600</v>
@@ -3425,25 +3425,25 @@
         <v>47</v>
       </c>
       <c r="D54" s="3">
-        <v>851800</v>
+        <v>852200</v>
       </c>
       <c r="E54" s="3">
-        <v>1411600</v>
+        <v>1412300</v>
       </c>
       <c r="F54" s="3">
-        <v>1340900</v>
+        <v>1341600</v>
       </c>
       <c r="G54" s="3">
-        <v>1305700</v>
+        <v>1306300</v>
       </c>
       <c r="H54" s="3">
-        <v>1286700</v>
+        <v>1287300</v>
       </c>
       <c r="I54" s="3">
-        <v>1053600</v>
+        <v>1054100</v>
       </c>
       <c r="J54" s="3">
-        <v>902800</v>
+        <v>903200</v>
       </c>
       <c r="K54" s="3">
         <v>1062800</v>
@@ -3549,7 +3549,7 @@
         <v>36100</v>
       </c>
       <c r="G57" s="3">
-        <v>53700</v>
+        <v>53800</v>
       </c>
       <c r="H57" s="3">
         <v>81800</v>
@@ -3558,7 +3558,7 @@
         <v>71100</v>
       </c>
       <c r="J57" s="3">
-        <v>62300</v>
+        <v>62400</v>
       </c>
       <c r="K57" s="3">
         <v>460100</v>
@@ -3605,7 +3605,7 @@
         <v>51</v>
       </c>
       <c r="D58" s="3">
-        <v>49500</v>
+        <v>49600</v>
       </c>
       <c r="E58" s="3">
         <v>29600</v>
@@ -3738,7 +3738,7 @@
         <v>98400</v>
       </c>
       <c r="E60" s="3">
-        <v>83200</v>
+        <v>83300</v>
       </c>
       <c r="F60" s="3">
         <v>87400</v>
@@ -3747,13 +3747,13 @@
         <v>95800</v>
       </c>
       <c r="H60" s="3">
-        <v>92900</v>
+        <v>93000</v>
       </c>
       <c r="I60" s="3">
-        <v>137900</v>
+        <v>138000</v>
       </c>
       <c r="J60" s="3">
-        <v>113000</v>
+        <v>113100</v>
       </c>
       <c r="K60" s="3">
         <v>508800</v>
@@ -3883,7 +3883,7 @@
         <v>33600</v>
       </c>
       <c r="J62" s="3">
-        <v>30900</v>
+        <v>31000</v>
       </c>
       <c r="K62" s="3">
         <v>25000</v>
@@ -4128,19 +4128,19 @@
         <v>116400</v>
       </c>
       <c r="E66" s="3">
-        <v>100600</v>
+        <v>100700</v>
       </c>
       <c r="F66" s="3">
         <v>102200</v>
       </c>
       <c r="G66" s="3">
-        <v>111300</v>
+        <v>111400</v>
       </c>
       <c r="H66" s="3">
-        <v>108200</v>
+        <v>108300</v>
       </c>
       <c r="I66" s="3">
-        <v>183700</v>
+        <v>183800</v>
       </c>
       <c r="J66" s="3">
         <v>144000</v>
@@ -4475,25 +4475,25 @@
         <v>64</v>
       </c>
       <c r="D72" s="3">
-        <v>1146600</v>
+        <v>1147100</v>
       </c>
       <c r="E72" s="3">
-        <v>1077100</v>
+        <v>1077600</v>
       </c>
       <c r="F72" s="3">
-        <v>1004900</v>
+        <v>1005400</v>
       </c>
       <c r="G72" s="3">
-        <v>956600</v>
+        <v>957000</v>
       </c>
       <c r="H72" s="3">
-        <v>944700</v>
+        <v>945200</v>
       </c>
       <c r="I72" s="3">
-        <v>869900</v>
+        <v>870300</v>
       </c>
       <c r="J72" s="3">
-        <v>758800</v>
+        <v>759100</v>
       </c>
       <c r="K72" s="3">
         <v>529100</v>
@@ -4735,25 +4735,25 @@
         <v>68</v>
       </c>
       <c r="D76" s="3">
-        <v>735500</v>
+        <v>735800</v>
       </c>
       <c r="E76" s="3">
-        <v>1311000</v>
+        <v>1311600</v>
       </c>
       <c r="F76" s="3">
-        <v>1238800</v>
+        <v>1239300</v>
       </c>
       <c r="G76" s="3">
-        <v>1194300</v>
+        <v>1194900</v>
       </c>
       <c r="H76" s="3">
-        <v>1178500</v>
+        <v>1179000</v>
       </c>
       <c r="I76" s="3">
-        <v>869900</v>
+        <v>870300</v>
       </c>
       <c r="J76" s="3">
-        <v>758800</v>
+        <v>759200</v>
       </c>
       <c r="K76" s="3">
         <v>529100</v>
@@ -4935,10 +4935,10 @@
         <v>28</v>
       </c>
       <c r="D81" s="3">
-        <v>67400</v>
+        <v>67500</v>
       </c>
       <c r="E81" s="3">
-        <v>72200</v>
+        <v>72300</v>
       </c>
       <c r="F81" s="3">
         <v>48300</v>

--- a/AAII_Financials/Quarterly/AMTD_QTR_FIN.xlsx
+++ b/AAII_Financials/Quarterly/AMTD_QTR_FIN.xlsx
@@ -22,7 +22,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="203" uniqueCount="92">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="209" uniqueCount="92">
   <si>
     <t>AMTD</t>
   </si>
@@ -656,7 +656,7 @@
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
   <sheetPr codeName="Sheet2"/>
-  <dimension ref="A5:W102"/>
+  <dimension ref="A5:X102"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0"/>
   </sheetViews>
@@ -665,165 +665,172 @@
     <col min="1" max="1" width="7.85546875" style="1" bestFit="1" customWidth="1"/>
     <col min="2" max="2" width="26.85546875" style="1" bestFit="1" customWidth="1"/>
     <col min="3" max="3" width="69.140625" style="1" bestFit="1" customWidth="1"/>
-    <col min="4" max="4" width="14.7109375" style="1" bestFit="1" customWidth="1"/>
-    <col min="5" max="5" width="14.42578125" style="1" bestFit="1" customWidth="1"/>
-    <col min="6" max="7" width="14.7109375" style="1" bestFit="1" customWidth="1"/>
-    <col min="8" max="8" width="14.42578125" style="1" bestFit="1" customWidth="1"/>
-    <col min="9" max="10" width="14.7109375" style="1" bestFit="1" customWidth="1"/>
-    <col min="11" max="11" width="14.42578125" style="1" bestFit="1" customWidth="1"/>
-    <col min="12" max="12" width="14.5703125" style="1" bestFit="1" customWidth="1"/>
-    <col min="13" max="13" width="14.85546875" style="1" bestFit="1" customWidth="1"/>
-    <col min="14" max="15" width="14.7109375" style="1" bestFit="1" customWidth="1"/>
-    <col min="16" max="16" width="14.5703125" style="1" bestFit="1" customWidth="1"/>
-    <col min="17" max="17" width="14.85546875" style="1" bestFit="1" customWidth="1"/>
-    <col min="18" max="19" width="14.7109375" style="1" bestFit="1" customWidth="1"/>
-    <col min="20" max="20" width="14.5703125" style="1" bestFit="1" customWidth="1"/>
-    <col min="21" max="21" width="14.85546875" style="1" bestFit="1" customWidth="1"/>
-    <col min="22" max="23" width="14.7109375" style="1" bestFit="1" customWidth="1"/>
-    <col min="24" max="16384" width="9.140625" style="1"/>
+    <col min="4" max="4" width="14.42578125" style="1" bestFit="1" customWidth="1"/>
+    <col min="5" max="5" width="14.7109375" style="1" bestFit="1" customWidth="1"/>
+    <col min="6" max="6" width="14.42578125" style="1" bestFit="1" customWidth="1"/>
+    <col min="7" max="8" width="14.7109375" style="1" bestFit="1" customWidth="1"/>
+    <col min="9" max="9" width="14.42578125" style="1" bestFit="1" customWidth="1"/>
+    <col min="10" max="11" width="14.7109375" style="1" bestFit="1" customWidth="1"/>
+    <col min="12" max="12" width="14.42578125" style="1" bestFit="1" customWidth="1"/>
+    <col min="13" max="13" width="14.5703125" style="1" bestFit="1" customWidth="1"/>
+    <col min="14" max="14" width="14.85546875" style="1" bestFit="1" customWidth="1"/>
+    <col min="15" max="16" width="14.7109375" style="1" bestFit="1" customWidth="1"/>
+    <col min="17" max="17" width="14.5703125" style="1" bestFit="1" customWidth="1"/>
+    <col min="18" max="18" width="14.85546875" style="1" bestFit="1" customWidth="1"/>
+    <col min="19" max="20" width="14.7109375" style="1" bestFit="1" customWidth="1"/>
+    <col min="21" max="21" width="14.5703125" style="1" bestFit="1" customWidth="1"/>
+    <col min="22" max="22" width="14.85546875" style="1" bestFit="1" customWidth="1"/>
+    <col min="23" max="24" width="14.7109375" style="1" bestFit="1" customWidth="1"/>
+    <col min="25" max="16384" width="9.140625" style="1"/>
   </cols>
   <sheetData>
-    <row r="5" spans="1:23" x14ac:dyDescent="0.2">
+    <row r="5" spans="1:24" x14ac:dyDescent="0.2">
       <c r="A5" s="1" t="s">
         <v>0</v>
       </c>
     </row>
-    <row r="6" spans="1:23" x14ac:dyDescent="0.2">
+    <row r="6" spans="1:24" x14ac:dyDescent="0.2">
       <c r="B6" s="1" t="s">
         <v>1</v>
       </c>
     </row>
-    <row r="7" spans="1:23" x14ac:dyDescent="0.2">
+    <row r="7" spans="1:24" x14ac:dyDescent="0.2">
       <c r="C7" s="1" t="s">
         <v>2</v>
       </c>
       <c r="D7" s="2">
+        <v>44742</v>
+      </c>
+      <c r="E7" s="2">
         <v>44561</v>
       </c>
-      <c r="E7" s="2">
+      <c r="F7" s="2">
         <v>44377</v>
       </c>
-      <c r="F7" s="2">
+      <c r="G7" s="2">
         <v>44196</v>
       </c>
-      <c r="G7" s="2">
+      <c r="H7" s="2">
         <v>44104</v>
       </c>
-      <c r="H7" s="2">
+      <c r="I7" s="2">
         <v>44012</v>
       </c>
-      <c r="I7" s="2">
+      <c r="J7" s="2">
         <v>43830</v>
       </c>
-      <c r="J7" s="2">
+      <c r="K7" s="2">
         <v>43738</v>
-      </c>
-      <c r="K7" s="2">
-        <v>43646</v>
       </c>
       <c r="L7" s="2">
         <v>43646</v>
       </c>
       <c r="M7" s="2">
+        <v>43646</v>
+      </c>
+      <c r="N7" s="2">
         <v>43555</v>
       </c>
-      <c r="N7" s="2">
+      <c r="O7" s="2">
         <v>43465</v>
       </c>
-      <c r="O7" s="2">
+      <c r="P7" s="2">
         <v>43373</v>
       </c>
-      <c r="P7" s="2">
+      <c r="Q7" s="2">
         <v>43281</v>
       </c>
-      <c r="Q7" s="2">
+      <c r="R7" s="2">
         <v>43190</v>
       </c>
-      <c r="R7" s="2">
+      <c r="S7" s="2">
         <v>43100</v>
       </c>
-      <c r="S7" s="2">
+      <c r="T7" s="2">
         <v>43008</v>
       </c>
-      <c r="T7" s="2">
+      <c r="U7" s="2">
         <v>42916</v>
       </c>
-      <c r="U7" s="2">
+      <c r="V7" s="2">
         <v>42825</v>
       </c>
-      <c r="V7" s="2">
+      <c r="W7" s="2">
         <v>42735</v>
       </c>
-      <c r="W7" s="2">
+      <c r="X7" s="2">
         <v>42643</v>
       </c>
     </row>
-    <row r="8" spans="1:23" x14ac:dyDescent="0.2">
+    <row r="8" spans="1:24" x14ac:dyDescent="0.2">
       <c r="C8" s="1" t="s">
         <v>3</v>
       </c>
       <c r="D8" s="3">
+        <v>75000</v>
+      </c>
+      <c r="E8" s="3">
         <v>42700</v>
       </c>
-      <c r="E8" s="3">
+      <c r="F8" s="3">
         <v>66200</v>
       </c>
-      <c r="F8" s="3">
+      <c r="G8" s="3">
         <v>19800</v>
       </c>
-      <c r="G8" s="3">
+      <c r="H8" s="3">
         <v>10700</v>
       </c>
-      <c r="H8" s="3">
+      <c r="I8" s="3">
         <v>68700</v>
       </c>
-      <c r="I8" s="3">
+      <c r="J8" s="3">
         <v>20100</v>
       </c>
-      <c r="J8" s="3">
+      <c r="K8" s="3">
         <v>18500</v>
       </c>
-      <c r="K8" s="3">
+      <c r="L8" s="3">
         <v>25000</v>
       </c>
-      <c r="L8" s="3">
+      <c r="M8" s="3">
         <v>1491000</v>
       </c>
-      <c r="M8" s="3">
+      <c r="N8" s="3">
         <v>1451000</v>
       </c>
-      <c r="N8" s="3">
+      <c r="O8" s="3">
         <v>1516000</v>
       </c>
-      <c r="O8" s="3">
+      <c r="P8" s="3">
         <v>1398000</v>
       </c>
-      <c r="P8" s="3">
+      <c r="Q8" s="3">
         <v>1382000</v>
       </c>
-      <c r="Q8" s="3">
+      <c r="R8" s="3">
         <v>1415000</v>
       </c>
-      <c r="R8" s="3">
+      <c r="S8" s="3">
         <v>1257000</v>
       </c>
-      <c r="S8" s="3">
+      <c r="T8" s="3">
         <v>983000</v>
       </c>
-      <c r="T8" s="3">
+      <c r="U8" s="3">
         <v>931000</v>
       </c>
-      <c r="U8" s="3">
+      <c r="V8" s="3">
         <v>904000</v>
       </c>
-      <c r="V8" s="3">
+      <c r="W8" s="3">
         <v>859000</v>
       </c>
-      <c r="W8" s="3">
+      <c r="X8" s="3">
         <v>830000</v>
       </c>
     </row>
-    <row r="9" spans="1:23" x14ac:dyDescent="0.2">
+    <row r="9" spans="1:24" x14ac:dyDescent="0.2">
       <c r="C9" s="1" t="s">
         <v>4</v>
       </c>
@@ -851,18 +858,18 @@
       <c r="K9" s="3" t="s">
         <v>5</v>
       </c>
-      <c r="L9" s="3">
+      <c r="L9" s="3" t="s">
+        <v>5</v>
+      </c>
+      <c r="M9" s="3">
         <v>59000</v>
       </c>
-      <c r="M9" s="3">
+      <c r="N9" s="3">
         <v>53000</v>
       </c>
-      <c r="N9" s="3">
+      <c r="O9" s="3">
         <v>49000</v>
       </c>
-      <c r="O9" s="3" t="s">
-        <v>5</v>
-      </c>
       <c r="P9" s="3" t="s">
         <v>5</v>
       </c>
@@ -887,8 +894,11 @@
       <c r="W9" s="3" t="s">
         <v>5</v>
       </c>
-    </row>
-    <row r="10" spans="1:23" x14ac:dyDescent="0.2">
+      <c r="X9" s="3" t="s">
+        <v>5</v>
+      </c>
+    </row>
+    <row r="10" spans="1:24" x14ac:dyDescent="0.2">
       <c r="C10" s="1" t="s">
         <v>6</v>
       </c>
@@ -916,18 +926,18 @@
       <c r="K10" s="3" t="s">
         <v>5</v>
       </c>
-      <c r="L10" s="3">
+      <c r="L10" s="3" t="s">
+        <v>5</v>
+      </c>
+      <c r="M10" s="3">
         <v>1432000</v>
       </c>
-      <c r="M10" s="3">
+      <c r="N10" s="3">
         <v>1398000</v>
       </c>
-      <c r="N10" s="3">
+      <c r="O10" s="3">
         <v>1467000</v>
       </c>
-      <c r="O10" s="3" t="s">
-        <v>5</v>
-      </c>
       <c r="P10" s="3" t="s">
         <v>5</v>
       </c>
@@ -952,8 +962,11 @@
       <c r="W10" s="3" t="s">
         <v>5</v>
       </c>
-    </row>
-    <row r="11" spans="1:23" x14ac:dyDescent="0.2">
+      <c r="X10" s="3" t="s">
+        <v>5</v>
+      </c>
+    </row>
+    <row r="11" spans="1:24" x14ac:dyDescent="0.2">
       <c r="C11" s="1" t="s">
         <v>7</v>
       </c>
@@ -977,8 +990,9 @@
       <c r="U11" s="3"/>
       <c r="V11" s="3"/>
       <c r="W11" s="3"/>
-    </row>
-    <row r="12" spans="1:23" x14ac:dyDescent="0.2">
+      <c r="X11" s="3"/>
+    </row>
+    <row r="12" spans="1:24" x14ac:dyDescent="0.2">
       <c r="C12" s="1" t="s">
         <v>8</v>
       </c>
@@ -1042,8 +1056,11 @@
       <c r="W12" s="3" t="s">
         <v>5</v>
       </c>
-    </row>
-    <row r="13" spans="1:23" x14ac:dyDescent="0.2">
+      <c r="X12" s="3" t="s">
+        <v>5</v>
+      </c>
+    </row>
+    <row r="13" spans="1:24" x14ac:dyDescent="0.2">
       <c r="C13" s="1" t="s">
         <v>9</v>
       </c>
@@ -1107,8 +1124,11 @@
       <c r="W13" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="14" spans="1:23" x14ac:dyDescent="0.2">
+      <c r="X13" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="14" spans="1:24" x14ac:dyDescent="0.2">
       <c r="C14" s="1" t="s">
         <v>10</v>
       </c>
@@ -1118,12 +1138,12 @@
       <c r="E14" s="3" t="s">
         <v>5</v>
       </c>
-      <c r="F14" s="3">
+      <c r="F14" s="3" t="s">
+        <v>5</v>
+      </c>
+      <c r="G14" s="3">
         <v>2200</v>
       </c>
-      <c r="G14" s="3" t="s">
-        <v>5</v>
-      </c>
       <c r="H14" s="3" t="s">
         <v>5</v>
       </c>
@@ -1136,44 +1156,47 @@
       <c r="K14" s="3" t="s">
         <v>5</v>
       </c>
-      <c r="L14" s="3">
+      <c r="L14" s="3" t="s">
+        <v>5</v>
+      </c>
+      <c r="M14" s="3">
         <v>-60000</v>
       </c>
-      <c r="M14" s="3" t="s">
-        <v>5</v>
-      </c>
       <c r="N14" s="3" t="s">
         <v>5</v>
       </c>
-      <c r="O14" s="3">
+      <c r="O14" s="3" t="s">
+        <v>5</v>
+      </c>
+      <c r="P14" s="3">
         <v>1000</v>
       </c>
-      <c r="P14" s="3" t="s">
-        <v>5</v>
-      </c>
       <c r="Q14" s="3" t="s">
         <v>5</v>
       </c>
       <c r="R14" s="3" t="s">
         <v>5</v>
       </c>
-      <c r="S14" s="3">
-        <v>0</v>
+      <c r="S14" s="3" t="s">
+        <v>5</v>
       </c>
       <c r="T14" s="3">
+        <v>0</v>
+      </c>
+      <c r="U14" s="3">
         <v>1000</v>
       </c>
-      <c r="U14" s="3" t="s">
-        <v>5</v>
-      </c>
       <c r="V14" s="3" t="s">
         <v>5</v>
       </c>
       <c r="W14" s="3" t="s">
         <v>5</v>
       </c>
-    </row>
-    <row r="15" spans="1:23" x14ac:dyDescent="0.2">
+      <c r="X14" s="3" t="s">
+        <v>5</v>
+      </c>
+    </row>
+    <row r="15" spans="1:24" x14ac:dyDescent="0.2">
       <c r="C15" s="1" t="s">
         <v>11</v>
       </c>
@@ -1202,43 +1225,46 @@
         <v>0</v>
       </c>
       <c r="L15" s="3">
+        <v>0</v>
+      </c>
+      <c r="M15" s="3">
         <v>69000</v>
       </c>
-      <c r="M15" s="3">
+      <c r="N15" s="3">
         <v>67000</v>
       </c>
-      <c r="N15" s="3">
+      <c r="O15" s="3">
         <v>66000</v>
       </c>
-      <c r="O15" s="3">
+      <c r="P15" s="3">
         <v>70000</v>
       </c>
-      <c r="P15" s="3">
+      <c r="Q15" s="3">
         <v>69000</v>
-      </c>
-      <c r="Q15" s="3">
-        <v>72000</v>
       </c>
       <c r="R15" s="3">
         <v>72000</v>
       </c>
       <c r="S15" s="3">
+        <v>72000</v>
+      </c>
+      <c r="T15" s="3">
         <v>50000</v>
-      </c>
-      <c r="T15" s="3">
-        <v>44000</v>
       </c>
       <c r="U15" s="3">
         <v>44000</v>
       </c>
       <c r="V15" s="3">
+        <v>44000</v>
+      </c>
+      <c r="W15" s="3">
         <v>43000</v>
       </c>
-      <c r="W15" s="3">
+      <c r="X15" s="3">
         <v>45000</v>
       </c>
     </row>
-    <row r="16" spans="1:23" x14ac:dyDescent="0.2">
+    <row r="16" spans="1:24" x14ac:dyDescent="0.2">
       <c r="D16" s="3"/>
       <c r="E16" s="3"/>
       <c r="F16" s="3"/>
@@ -1259,138 +1285,145 @@
       <c r="U16" s="3"/>
       <c r="V16" s="3"/>
       <c r="W16" s="3"/>
-    </row>
-    <row r="17" spans="3:23" x14ac:dyDescent="0.2">
+      <c r="X16" s="3"/>
+    </row>
+    <row r="17" spans="3:24" x14ac:dyDescent="0.2">
       <c r="C17" s="1" t="s">
         <v>12</v>
       </c>
       <c r="D17" s="3">
+        <v>15300</v>
+      </c>
+      <c r="E17" s="3">
         <v>12000</v>
       </c>
-      <c r="E17" s="3">
+      <c r="F17" s="3">
         <v>10800</v>
       </c>
-      <c r="F17" s="3">
+      <c r="G17" s="3">
         <v>4400</v>
       </c>
-      <c r="G17" s="3">
+      <c r="H17" s="3">
         <v>6600</v>
       </c>
-      <c r="H17" s="3">
+      <c r="I17" s="3">
         <v>16400</v>
       </c>
-      <c r="I17" s="3">
+      <c r="J17" s="3">
         <v>7300</v>
-      </c>
-      <c r="J17" s="3">
-        <v>6900</v>
       </c>
       <c r="K17" s="3">
         <v>6900</v>
       </c>
       <c r="L17" s="3">
+        <v>6900</v>
+      </c>
+      <c r="M17" s="3">
         <v>711000</v>
       </c>
-      <c r="M17" s="3">
+      <c r="N17" s="3">
         <v>746000</v>
       </c>
-      <c r="N17" s="3">
+      <c r="O17" s="3">
         <v>720000</v>
       </c>
-      <c r="O17" s="3">
+      <c r="P17" s="3">
         <v>764000</v>
       </c>
-      <c r="P17" s="3">
+      <c r="Q17" s="3">
         <v>751000</v>
       </c>
-      <c r="Q17" s="3">
+      <c r="R17" s="3">
         <v>1019000</v>
       </c>
-      <c r="R17" s="3">
+      <c r="S17" s="3">
         <v>921000</v>
       </c>
-      <c r="S17" s="3">
+      <c r="T17" s="3">
         <v>622000</v>
       </c>
-      <c r="T17" s="3">
+      <c r="U17" s="3">
         <v>538000</v>
       </c>
-      <c r="U17" s="3">
+      <c r="V17" s="3">
         <v>546000</v>
       </c>
-      <c r="V17" s="3">
+      <c r="W17" s="3">
         <v>506000</v>
       </c>
-      <c r="W17" s="3">
+      <c r="X17" s="3">
         <v>546000</v>
       </c>
     </row>
-    <row r="18" spans="3:23" x14ac:dyDescent="0.2">
+    <row r="18" spans="3:24" x14ac:dyDescent="0.2">
       <c r="C18" s="1" t="s">
         <v>13</v>
       </c>
       <c r="D18" s="3">
+        <v>59800</v>
+      </c>
+      <c r="E18" s="3">
         <v>30700</v>
       </c>
-      <c r="E18" s="3">
+      <c r="F18" s="3">
         <v>55400</v>
       </c>
-      <c r="F18" s="3">
+      <c r="G18" s="3">
         <v>15400</v>
       </c>
-      <c r="G18" s="3">
+      <c r="H18" s="3">
         <v>4100</v>
       </c>
-      <c r="H18" s="3">
+      <c r="I18" s="3">
         <v>52300</v>
       </c>
-      <c r="I18" s="3">
+      <c r="J18" s="3">
         <v>12900</v>
       </c>
-      <c r="J18" s="3">
+      <c r="K18" s="3">
         <v>11600</v>
       </c>
-      <c r="K18" s="3">
+      <c r="L18" s="3">
         <v>18200</v>
       </c>
-      <c r="L18" s="3">
+      <c r="M18" s="3">
         <v>780000</v>
       </c>
-      <c r="M18" s="3">
+      <c r="N18" s="3">
         <v>705000</v>
       </c>
-      <c r="N18" s="3">
+      <c r="O18" s="3">
         <v>796000</v>
       </c>
-      <c r="O18" s="3">
+      <c r="P18" s="3">
         <v>634000</v>
       </c>
-      <c r="P18" s="3">
+      <c r="Q18" s="3">
         <v>631000</v>
       </c>
-      <c r="Q18" s="3">
+      <c r="R18" s="3">
         <v>396000</v>
       </c>
-      <c r="R18" s="3">
+      <c r="S18" s="3">
         <v>336000</v>
       </c>
-      <c r="S18" s="3">
+      <c r="T18" s="3">
         <v>361000</v>
       </c>
-      <c r="T18" s="3">
+      <c r="U18" s="3">
         <v>393000</v>
       </c>
-      <c r="U18" s="3">
+      <c r="V18" s="3">
         <v>358000</v>
       </c>
-      <c r="V18" s="3">
+      <c r="W18" s="3">
         <v>353000</v>
       </c>
-      <c r="W18" s="3">
+      <c r="X18" s="3">
         <v>284000</v>
       </c>
     </row>
-    <row r="19" spans="3:23" x14ac:dyDescent="0.2">
+    <row r="19" spans="3:24" x14ac:dyDescent="0.2">
       <c r="C19" s="1" t="s">
         <v>14</v>
       </c>
@@ -1414,59 +1447,60 @@
       <c r="U19" s="3"/>
       <c r="V19" s="3"/>
       <c r="W19" s="3"/>
-    </row>
-    <row r="20" spans="3:23" x14ac:dyDescent="0.2">
+      <c r="X19" s="3"/>
+    </row>
+    <row r="20" spans="3:24" x14ac:dyDescent="0.2">
       <c r="C20" s="1" t="s">
         <v>15</v>
       </c>
       <c r="D20" s="3">
+        <v>51600</v>
+      </c>
+      <c r="E20" s="3">
         <v>50300</v>
       </c>
-      <c r="E20" s="3">
+      <c r="F20" s="3">
         <v>35000</v>
       </c>
-      <c r="F20" s="3">
+      <c r="G20" s="3">
         <v>40700</v>
       </c>
-      <c r="G20" s="3">
+      <c r="H20" s="3">
         <v>13400</v>
       </c>
-      <c r="H20" s="3">
+      <c r="I20" s="3">
         <v>4500</v>
       </c>
-      <c r="I20" s="3">
+      <c r="J20" s="3">
         <v>2400</v>
       </c>
-      <c r="J20" s="3">
+      <c r="K20" s="3">
         <v>36500</v>
       </c>
-      <c r="K20" s="3">
+      <c r="L20" s="3">
         <v>14800</v>
       </c>
-      <c r="L20" s="3">
-        <v>0</v>
-      </c>
       <c r="M20" s="3">
         <v>0</v>
       </c>
       <c r="N20" s="3">
+        <v>0</v>
+      </c>
+      <c r="O20" s="3">
         <v>14000</v>
       </c>
-      <c r="O20" s="3">
+      <c r="P20" s="3">
         <v>2000</v>
       </c>
-      <c r="P20" s="3">
-        <v>0</v>
-      </c>
       <c r="Q20" s="3">
         <v>0</v>
       </c>
       <c r="R20" s="3">
+        <v>0</v>
+      </c>
+      <c r="S20" s="3">
         <v>-13000</v>
       </c>
-      <c r="S20" s="3">
-        <v>0</v>
-      </c>
       <c r="T20" s="3">
         <v>0</v>
       </c>
@@ -1479,8 +1513,11 @@
       <c r="W20" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="21" spans="3:23" x14ac:dyDescent="0.2">
+      <c r="X20" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="21" spans="3:24" x14ac:dyDescent="0.2">
       <c r="C21" s="1" t="s">
         <v>16</v>
       </c>
@@ -1499,109 +1536,112 @@
       <c r="H21" s="3" t="s">
         <v>5</v>
       </c>
-      <c r="I21" s="3">
+      <c r="I21" s="3" t="s">
+        <v>5</v>
+      </c>
+      <c r="J21" s="3">
         <v>15300</v>
       </c>
-      <c r="J21" s="3" t="s">
-        <v>5</v>
-      </c>
       <c r="K21" s="3" t="s">
         <v>5</v>
       </c>
-      <c r="L21" s="3">
+      <c r="L21" s="3" t="s">
+        <v>5</v>
+      </c>
+      <c r="M21" s="3">
         <v>849000</v>
       </c>
-      <c r="M21" s="3">
+      <c r="N21" s="3">
         <v>772000</v>
       </c>
-      <c r="N21" s="3">
+      <c r="O21" s="3">
         <v>876000</v>
       </c>
-      <c r="O21" s="3">
+      <c r="P21" s="3">
         <v>706000</v>
       </c>
-      <c r="P21" s="3">
+      <c r="Q21" s="3">
         <v>700000</v>
       </c>
-      <c r="Q21" s="3">
+      <c r="R21" s="3">
         <v>468000</v>
       </c>
-      <c r="R21" s="3">
+      <c r="S21" s="3">
         <v>395000</v>
       </c>
-      <c r="S21" s="3">
+      <c r="T21" s="3">
         <v>411000</v>
       </c>
-      <c r="T21" s="3">
+      <c r="U21" s="3">
         <v>437000</v>
       </c>
-      <c r="U21" s="3">
+      <c r="V21" s="3">
         <v>402000</v>
       </c>
-      <c r="V21" s="3">
+      <c r="W21" s="3">
         <v>396000</v>
       </c>
-      <c r="W21" s="3">
+      <c r="X21" s="3">
         <v>329000</v>
       </c>
     </row>
-    <row r="22" spans="3:23" x14ac:dyDescent="0.2">
+    <row r="22" spans="3:24" x14ac:dyDescent="0.2">
       <c r="C22" s="1" t="s">
         <v>17</v>
       </c>
       <c r="D22" s="3">
-        <v>800</v>
+        <v>300</v>
       </c>
       <c r="E22" s="3">
         <v>800</v>
       </c>
       <c r="F22" s="3">
+        <v>800</v>
+      </c>
+      <c r="G22" s="3">
         <v>500</v>
       </c>
-      <c r="G22" s="3">
+      <c r="H22" s="3">
         <v>400</v>
       </c>
-      <c r="H22" s="3">
+      <c r="I22" s="3">
         <v>1900</v>
       </c>
-      <c r="I22" s="3">
+      <c r="J22" s="3">
         <v>1500</v>
-      </c>
-      <c r="J22" s="3">
-        <v>700</v>
       </c>
       <c r="K22" s="3">
         <v>700</v>
       </c>
       <c r="L22" s="3">
-        <v>37000</v>
+        <v>700</v>
       </c>
       <c r="M22" s="3">
         <v>37000</v>
       </c>
       <c r="N22" s="3">
+        <v>37000</v>
+      </c>
+      <c r="O22" s="3">
         <v>32000</v>
       </c>
-      <c r="O22" s="3">
+      <c r="P22" s="3">
         <v>27000</v>
       </c>
-      <c r="P22" s="3">
+      <c r="Q22" s="3">
         <v>28000</v>
       </c>
-      <c r="Q22" s="3">
+      <c r="R22" s="3">
         <v>24000</v>
       </c>
-      <c r="R22" s="3">
+      <c r="S22" s="3">
         <v>20000</v>
       </c>
-      <c r="S22" s="3">
+      <c r="T22" s="3">
         <v>23000</v>
       </c>
-      <c r="T22" s="3">
+      <c r="U22" s="3">
         <v>20000</v>
-      </c>
-      <c r="U22" s="3">
-        <v>14000</v>
       </c>
       <c r="V22" s="3">
         <v>14000</v>
@@ -1609,138 +1649,147 @@
       <c r="W22" s="3">
         <v>14000</v>
       </c>
-    </row>
-    <row r="23" spans="3:23" x14ac:dyDescent="0.2">
+      <c r="X22" s="3">
+        <v>14000</v>
+      </c>
+    </row>
+    <row r="23" spans="3:24" x14ac:dyDescent="0.2">
       <c r="C23" s="1" t="s">
         <v>18</v>
       </c>
       <c r="D23" s="3">
+        <v>111100</v>
+      </c>
+      <c r="E23" s="3">
         <v>80100</v>
       </c>
-      <c r="E23" s="3">
+      <c r="F23" s="3">
         <v>89600</v>
       </c>
-      <c r="F23" s="3">
+      <c r="G23" s="3">
         <v>55600</v>
       </c>
-      <c r="G23" s="3">
+      <c r="H23" s="3">
         <v>17200</v>
       </c>
-      <c r="H23" s="3">
+      <c r="I23" s="3">
         <v>54900</v>
       </c>
-      <c r="I23" s="3">
+      <c r="J23" s="3">
         <v>13800</v>
       </c>
-      <c r="J23" s="3">
+      <c r="K23" s="3">
         <v>47400</v>
       </c>
-      <c r="K23" s="3">
+      <c r="L23" s="3">
         <v>32300</v>
       </c>
-      <c r="L23" s="3">
+      <c r="M23" s="3">
         <v>743000</v>
       </c>
-      <c r="M23" s="3">
+      <c r="N23" s="3">
         <v>668000</v>
       </c>
-      <c r="N23" s="3">
+      <c r="O23" s="3">
         <v>778000</v>
       </c>
-      <c r="O23" s="3">
+      <c r="P23" s="3">
         <v>609000</v>
       </c>
-      <c r="P23" s="3">
+      <c r="Q23" s="3">
         <v>603000</v>
       </c>
-      <c r="Q23" s="3">
+      <c r="R23" s="3">
         <v>372000</v>
       </c>
-      <c r="R23" s="3">
+      <c r="S23" s="3">
         <v>303000</v>
       </c>
-      <c r="S23" s="3">
+      <c r="T23" s="3">
         <v>338000</v>
       </c>
-      <c r="T23" s="3">
+      <c r="U23" s="3">
         <v>373000</v>
       </c>
-      <c r="U23" s="3">
+      <c r="V23" s="3">
         <v>344000</v>
       </c>
-      <c r="V23" s="3">
+      <c r="W23" s="3">
         <v>339000</v>
       </c>
-      <c r="W23" s="3">
+      <c r="X23" s="3">
         <v>270000</v>
       </c>
     </row>
-    <row r="24" spans="3:23" x14ac:dyDescent="0.2">
+    <row r="24" spans="3:24" x14ac:dyDescent="0.2">
       <c r="C24" s="1" t="s">
         <v>19</v>
       </c>
       <c r="D24" s="3">
+        <v>8900</v>
+      </c>
+      <c r="E24" s="3">
         <v>4600</v>
       </c>
-      <c r="E24" s="3">
+      <c r="F24" s="3">
         <v>9300</v>
       </c>
-      <c r="F24" s="3">
+      <c r="G24" s="3">
         <v>3200</v>
       </c>
-      <c r="G24" s="3">
+      <c r="H24" s="3">
         <v>1300</v>
       </c>
-      <c r="H24" s="3">
+      <c r="I24" s="3">
         <v>-22100</v>
       </c>
-      <c r="I24" s="3">
+      <c r="J24" s="3">
         <v>2400</v>
       </c>
-      <c r="J24" s="3">
+      <c r="K24" s="3">
         <v>8200</v>
       </c>
-      <c r="K24" s="3">
+      <c r="L24" s="3">
         <v>4200</v>
       </c>
-      <c r="L24" s="3">
+      <c r="M24" s="3">
         <v>188000</v>
       </c>
-      <c r="M24" s="3">
+      <c r="N24" s="3">
         <v>169000</v>
       </c>
-      <c r="N24" s="3">
+      <c r="O24" s="3">
         <v>174000</v>
-      </c>
-      <c r="O24" s="3">
-        <v>155000</v>
       </c>
       <c r="P24" s="3">
         <v>155000</v>
       </c>
       <c r="Q24" s="3">
+        <v>155000</v>
+      </c>
+      <c r="R24" s="3">
         <v>101000</v>
       </c>
-      <c r="R24" s="3">
+      <c r="S24" s="3">
         <v>74000</v>
       </c>
-      <c r="S24" s="3">
+      <c r="T24" s="3">
         <v>127000</v>
       </c>
-      <c r="T24" s="3">
+      <c r="U24" s="3">
         <v>142000</v>
       </c>
-      <c r="U24" s="3">
+      <c r="V24" s="3">
         <v>130000</v>
       </c>
-      <c r="V24" s="3">
+      <c r="W24" s="3">
         <v>123000</v>
       </c>
-      <c r="W24" s="3">
+      <c r="X24" s="3">
         <v>85000</v>
       </c>
     </row>
-    <row r="25" spans="3:23" x14ac:dyDescent="0.2">
+    <row r="25" spans="3:24" x14ac:dyDescent="0.2">
       <c r="C25" s="1" t="s">
         <v>20</v>
       </c>
@@ -1804,138 +1853,147 @@
       <c r="W25" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="26" spans="3:23" x14ac:dyDescent="0.2">
+      <c r="X25" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="26" spans="3:24" x14ac:dyDescent="0.2">
       <c r="C26" s="1" t="s">
         <v>21</v>
       </c>
       <c r="D26" s="3">
+        <v>102200</v>
+      </c>
+      <c r="E26" s="3">
         <v>75500</v>
       </c>
-      <c r="E26" s="3">
+      <c r="F26" s="3">
         <v>80300</v>
       </c>
-      <c r="F26" s="3">
+      <c r="G26" s="3">
         <v>52300</v>
       </c>
-      <c r="G26" s="3">
+      <c r="H26" s="3">
         <v>15900</v>
       </c>
-      <c r="H26" s="3">
+      <c r="I26" s="3">
         <v>77000</v>
       </c>
-      <c r="I26" s="3">
+      <c r="J26" s="3">
         <v>11400</v>
       </c>
-      <c r="J26" s="3">
+      <c r="K26" s="3">
         <v>39200</v>
       </c>
-      <c r="K26" s="3">
+      <c r="L26" s="3">
         <v>28100</v>
       </c>
-      <c r="L26" s="3">
+      <c r="M26" s="3">
         <v>555000</v>
       </c>
-      <c r="M26" s="3">
+      <c r="N26" s="3">
         <v>499000</v>
       </c>
-      <c r="N26" s="3">
+      <c r="O26" s="3">
         <v>604000</v>
       </c>
-      <c r="O26" s="3">
+      <c r="P26" s="3">
         <v>454000</v>
       </c>
-      <c r="P26" s="3">
+      <c r="Q26" s="3">
         <v>448000</v>
       </c>
-      <c r="Q26" s="3">
+      <c r="R26" s="3">
         <v>271000</v>
       </c>
-      <c r="R26" s="3">
+      <c r="S26" s="3">
         <v>229000</v>
       </c>
-      <c r="S26" s="3">
+      <c r="T26" s="3">
         <v>211000</v>
       </c>
-      <c r="T26" s="3">
+      <c r="U26" s="3">
         <v>231000</v>
       </c>
-      <c r="U26" s="3">
+      <c r="V26" s="3">
         <v>214000</v>
       </c>
-      <c r="V26" s="3">
+      <c r="W26" s="3">
         <v>216000</v>
       </c>
-      <c r="W26" s="3">
+      <c r="X26" s="3">
         <v>185000</v>
       </c>
     </row>
-    <row r="27" spans="3:23" x14ac:dyDescent="0.2">
+    <row r="27" spans="3:24" x14ac:dyDescent="0.2">
       <c r="C27" s="1" t="s">
         <v>22</v>
       </c>
       <c r="D27" s="3">
+        <v>94500</v>
+      </c>
+      <c r="E27" s="3">
         <v>67500</v>
       </c>
-      <c r="E27" s="3">
+      <c r="F27" s="3">
         <v>72300</v>
       </c>
-      <c r="F27" s="3">
+      <c r="G27" s="3">
         <v>48300</v>
       </c>
-      <c r="G27" s="3">
+      <c r="H27" s="3">
         <v>11900</v>
       </c>
-      <c r="H27" s="3">
+      <c r="I27" s="3">
         <v>74900</v>
       </c>
-      <c r="I27" s="3">
+      <c r="J27" s="3">
         <v>11400</v>
       </c>
-      <c r="J27" s="3">
+      <c r="K27" s="3">
         <v>39200</v>
       </c>
-      <c r="K27" s="3">
+      <c r="L27" s="3">
         <v>28100</v>
       </c>
-      <c r="L27" s="3">
+      <c r="M27" s="3">
         <v>555000</v>
       </c>
-      <c r="M27" s="3">
+      <c r="N27" s="3">
         <v>499000</v>
       </c>
-      <c r="N27" s="3">
+      <c r="O27" s="3">
         <v>604000</v>
       </c>
-      <c r="O27" s="3">
+      <c r="P27" s="3">
         <v>454000</v>
       </c>
-      <c r="P27" s="3">
+      <c r="Q27" s="3">
         <v>448000</v>
       </c>
-      <c r="Q27" s="3">
+      <c r="R27" s="3">
         <v>271000</v>
       </c>
-      <c r="R27" s="3">
+      <c r="S27" s="3">
         <v>229000</v>
       </c>
-      <c r="S27" s="3">
+      <c r="T27" s="3">
         <v>211000</v>
       </c>
-      <c r="T27" s="3">
+      <c r="U27" s="3">
         <v>231000</v>
       </c>
-      <c r="U27" s="3">
+      <c r="V27" s="3">
         <v>214000</v>
       </c>
-      <c r="V27" s="3">
+      <c r="W27" s="3">
         <v>216000</v>
       </c>
-      <c r="W27" s="3">
+      <c r="X27" s="3">
         <v>185000</v>
       </c>
     </row>
-    <row r="28" spans="3:23" x14ac:dyDescent="0.2">
+    <row r="28" spans="3:24" x14ac:dyDescent="0.2">
       <c r="C28" s="1" t="s">
         <v>23</v>
       </c>
@@ -1999,8 +2057,11 @@
       <c r="W28" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="29" spans="3:23" x14ac:dyDescent="0.2">
+      <c r="X28" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="29" spans="3:24" x14ac:dyDescent="0.2">
       <c r="C29" s="1" t="s">
         <v>24</v>
       </c>
@@ -2028,8 +2089,8 @@
       <c r="K29" s="3">
         <v>0</v>
       </c>
-      <c r="L29" s="3" t="s">
-        <v>5</v>
+      <c r="L29" s="3">
+        <v>0</v>
       </c>
       <c r="M29" s="3" t="s">
         <v>5</v>
@@ -2037,21 +2098,21 @@
       <c r="N29" s="3" t="s">
         <v>5</v>
       </c>
-      <c r="O29" s="3">
-        <v>0</v>
+      <c r="O29" s="3" t="s">
+        <v>5</v>
       </c>
       <c r="P29" s="3">
+        <v>0</v>
+      </c>
+      <c r="Q29" s="3">
         <v>3000</v>
       </c>
-      <c r="Q29" s="3">
-        <v>0</v>
-      </c>
       <c r="R29" s="3">
+        <v>0</v>
+      </c>
+      <c r="S29" s="3">
         <v>68000</v>
       </c>
-      <c r="S29" s="3" t="s">
-        <v>5</v>
-      </c>
       <c r="T29" s="3" t="s">
         <v>5</v>
       </c>
@@ -2064,8 +2125,11 @@
       <c r="W29" s="3" t="s">
         <v>5</v>
       </c>
-    </row>
-    <row r="30" spans="3:23" x14ac:dyDescent="0.2">
+      <c r="X29" s="3" t="s">
+        <v>5</v>
+      </c>
+    </row>
+    <row r="30" spans="3:24" x14ac:dyDescent="0.2">
       <c r="C30" s="1" t="s">
         <v>25</v>
       </c>
@@ -2129,8 +2193,11 @@
       <c r="W30" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="31" spans="3:23" x14ac:dyDescent="0.2">
+      <c r="X30" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="31" spans="3:24" x14ac:dyDescent="0.2">
       <c r="C31" s="1" t="s">
         <v>26</v>
       </c>
@@ -2194,59 +2261,62 @@
       <c r="W31" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="32" spans="3:23" x14ac:dyDescent="0.2">
+      <c r="X31" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="32" spans="3:24" x14ac:dyDescent="0.2">
       <c r="C32" s="1" t="s">
         <v>27</v>
       </c>
       <c r="D32" s="3">
+        <v>-51600</v>
+      </c>
+      <c r="E32" s="3">
         <v>-50300</v>
       </c>
-      <c r="E32" s="3">
+      <c r="F32" s="3">
         <v>-35000</v>
       </c>
-      <c r="F32" s="3">
+      <c r="G32" s="3">
         <v>-40700</v>
       </c>
-      <c r="G32" s="3">
+      <c r="H32" s="3">
         <v>-13400</v>
       </c>
-      <c r="H32" s="3">
+      <c r="I32" s="3">
         <v>-4500</v>
       </c>
-      <c r="I32" s="3">
+      <c r="J32" s="3">
         <v>-2400</v>
       </c>
-      <c r="J32" s="3">
+      <c r="K32" s="3">
         <v>-36500</v>
       </c>
-      <c r="K32" s="3">
+      <c r="L32" s="3">
         <v>-14800</v>
       </c>
-      <c r="L32" s="3">
-        <v>0</v>
-      </c>
       <c r="M32" s="3">
         <v>0</v>
       </c>
       <c r="N32" s="3">
+        <v>0</v>
+      </c>
+      <c r="O32" s="3">
         <v>-14000</v>
       </c>
-      <c r="O32" s="3">
+      <c r="P32" s="3">
         <v>-2000</v>
       </c>
-      <c r="P32" s="3">
-        <v>0</v>
-      </c>
       <c r="Q32" s="3">
         <v>0</v>
       </c>
       <c r="R32" s="3">
+        <v>0</v>
+      </c>
+      <c r="S32" s="3">
         <v>13000</v>
       </c>
-      <c r="S32" s="3">
-        <v>0</v>
-      </c>
       <c r="T32" s="3">
         <v>0</v>
       </c>
@@ -2259,73 +2329,79 @@
       <c r="W32" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="33" spans="2:23" x14ac:dyDescent="0.2">
+      <c r="X32" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="33" spans="2:24" x14ac:dyDescent="0.2">
       <c r="C33" s="1" t="s">
         <v>28</v>
       </c>
       <c r="D33" s="3">
+        <v>94500</v>
+      </c>
+      <c r="E33" s="3">
         <v>67500</v>
       </c>
-      <c r="E33" s="3">
+      <c r="F33" s="3">
         <v>72300</v>
       </c>
-      <c r="F33" s="3">
+      <c r="G33" s="3">
         <v>48300</v>
       </c>
-      <c r="G33" s="3">
+      <c r="H33" s="3">
         <v>11900</v>
       </c>
-      <c r="H33" s="3">
+      <c r="I33" s="3">
         <v>74900</v>
       </c>
-      <c r="I33" s="3">
+      <c r="J33" s="3">
         <v>11400</v>
       </c>
-      <c r="J33" s="3">
+      <c r="K33" s="3">
         <v>39200</v>
       </c>
-      <c r="K33" s="3">
+      <c r="L33" s="3">
         <v>28100</v>
       </c>
-      <c r="L33" s="3">
+      <c r="M33" s="3">
         <v>555000</v>
       </c>
-      <c r="M33" s="3">
+      <c r="N33" s="3">
         <v>499000</v>
       </c>
-      <c r="N33" s="3">
+      <c r="O33" s="3">
         <v>604000</v>
       </c>
-      <c r="O33" s="3">
+      <c r="P33" s="3">
         <v>454000</v>
       </c>
-      <c r="P33" s="3">
+      <c r="Q33" s="3">
         <v>451000</v>
       </c>
-      <c r="Q33" s="3">
+      <c r="R33" s="3">
         <v>271000</v>
       </c>
-      <c r="R33" s="3">
+      <c r="S33" s="3">
         <v>297000</v>
       </c>
-      <c r="S33" s="3">
+      <c r="T33" s="3">
         <v>211000</v>
       </c>
-      <c r="T33" s="3">
+      <c r="U33" s="3">
         <v>231000</v>
       </c>
-      <c r="U33" s="3">
+      <c r="V33" s="3">
         <v>214000</v>
       </c>
-      <c r="V33" s="3">
+      <c r="W33" s="3">
         <v>216000</v>
       </c>
-      <c r="W33" s="3">
+      <c r="X33" s="3">
         <v>185000</v>
       </c>
     </row>
-    <row r="34" spans="2:23" x14ac:dyDescent="0.2">
+    <row r="34" spans="2:24" x14ac:dyDescent="0.2">
       <c r="C34" s="1" t="s">
         <v>29</v>
       </c>
@@ -2389,143 +2465,152 @@
       <c r="W34" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="35" spans="2:23" x14ac:dyDescent="0.2">
+      <c r="X34" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="35" spans="2:24" x14ac:dyDescent="0.2">
       <c r="C35" s="1" t="s">
         <v>30</v>
       </c>
       <c r="D35" s="3">
+        <v>94500</v>
+      </c>
+      <c r="E35" s="3">
         <v>67500</v>
       </c>
-      <c r="E35" s="3">
+      <c r="F35" s="3">
         <v>72300</v>
       </c>
-      <c r="F35" s="3">
+      <c r="G35" s="3">
         <v>48300</v>
       </c>
-      <c r="G35" s="3">
+      <c r="H35" s="3">
         <v>11900</v>
       </c>
-      <c r="H35" s="3">
+      <c r="I35" s="3">
         <v>74900</v>
       </c>
-      <c r="I35" s="3">
+      <c r="J35" s="3">
         <v>11400</v>
       </c>
-      <c r="J35" s="3">
+      <c r="K35" s="3">
         <v>39200</v>
       </c>
-      <c r="K35" s="3">
+      <c r="L35" s="3">
         <v>28100</v>
       </c>
-      <c r="L35" s="3">
+      <c r="M35" s="3">
         <v>555000</v>
       </c>
-      <c r="M35" s="3">
+      <c r="N35" s="3">
         <v>499000</v>
       </c>
-      <c r="N35" s="3">
+      <c r="O35" s="3">
         <v>604000</v>
       </c>
-      <c r="O35" s="3">
+      <c r="P35" s="3">
         <v>454000</v>
       </c>
-      <c r="P35" s="3">
+      <c r="Q35" s="3">
         <v>451000</v>
       </c>
-      <c r="Q35" s="3">
+      <c r="R35" s="3">
         <v>271000</v>
       </c>
-      <c r="R35" s="3">
+      <c r="S35" s="3">
         <v>297000</v>
       </c>
-      <c r="S35" s="3">
+      <c r="T35" s="3">
         <v>211000</v>
       </c>
-      <c r="T35" s="3">
+      <c r="U35" s="3">
         <v>231000</v>
       </c>
-      <c r="U35" s="3">
+      <c r="V35" s="3">
         <v>214000</v>
       </c>
-      <c r="V35" s="3">
+      <c r="W35" s="3">
         <v>216000</v>
       </c>
-      <c r="W35" s="3">
+      <c r="X35" s="3">
         <v>185000</v>
       </c>
     </row>
-    <row r="37" spans="2:23" x14ac:dyDescent="0.2">
+    <row r="37" spans="2:24" x14ac:dyDescent="0.2">
       <c r="B37" s="1" t="s">
         <v>31</v>
       </c>
     </row>
-    <row r="38" spans="2:23" x14ac:dyDescent="0.2">
+    <row r="38" spans="2:24" x14ac:dyDescent="0.2">
       <c r="C38" s="1" t="s">
         <v>2</v>
       </c>
       <c r="D38" s="2">
+        <v>44742</v>
+      </c>
+      <c r="E38" s="2">
         <v>44561</v>
       </c>
-      <c r="E38" s="2">
+      <c r="F38" s="2">
         <v>44377</v>
       </c>
-      <c r="F38" s="2">
+      <c r="G38" s="2">
         <v>44196</v>
       </c>
-      <c r="G38" s="2">
+      <c r="H38" s="2">
         <v>44104</v>
       </c>
-      <c r="H38" s="2">
+      <c r="I38" s="2">
         <v>44012</v>
       </c>
-      <c r="I38" s="2">
+      <c r="J38" s="2">
         <v>43830</v>
       </c>
-      <c r="J38" s="2">
+      <c r="K38" s="2">
         <v>43738</v>
-      </c>
-      <c r="K38" s="2">
-        <v>43646</v>
       </c>
       <c r="L38" s="2">
         <v>43646</v>
       </c>
       <c r="M38" s="2">
+        <v>43646</v>
+      </c>
+      <c r="N38" s="2">
         <v>43555</v>
       </c>
-      <c r="N38" s="2">
+      <c r="O38" s="2">
         <v>43465</v>
       </c>
-      <c r="O38" s="2">
+      <c r="P38" s="2">
         <v>43373</v>
       </c>
-      <c r="P38" s="2">
+      <c r="Q38" s="2">
         <v>43281</v>
       </c>
-      <c r="Q38" s="2">
+      <c r="R38" s="2">
         <v>43190</v>
       </c>
-      <c r="R38" s="2">
+      <c r="S38" s="2">
         <v>43100</v>
       </c>
-      <c r="S38" s="2">
+      <c r="T38" s="2">
         <v>43008</v>
       </c>
-      <c r="T38" s="2">
+      <c r="U38" s="2">
         <v>42916</v>
       </c>
-      <c r="U38" s="2">
+      <c r="V38" s="2">
         <v>42825</v>
       </c>
-      <c r="V38" s="2">
+      <c r="W38" s="2">
         <v>42735</v>
       </c>
-      <c r="W38" s="2">
+      <c r="X38" s="2">
         <v>42643</v>
       </c>
     </row>
-    <row r="39" spans="2:23" x14ac:dyDescent="0.2">
+    <row r="39" spans="2:24" x14ac:dyDescent="0.2">
       <c r="C39" s="1" t="s">
         <v>32</v>
       </c>
@@ -2549,8 +2634,9 @@
       <c r="U39" s="3"/>
       <c r="V39" s="3"/>
       <c r="W39" s="3"/>
-    </row>
-    <row r="40" spans="2:23" x14ac:dyDescent="0.2">
+      <c r="X39" s="3"/>
+    </row>
+    <row r="40" spans="2:24" x14ac:dyDescent="0.2">
       <c r="C40" s="1" t="s">
         <v>33</v>
       </c>
@@ -2574,73 +2660,77 @@
       <c r="U40" s="3"/>
       <c r="V40" s="3"/>
       <c r="W40" s="3"/>
-    </row>
-    <row r="41" spans="2:23" x14ac:dyDescent="0.2">
+      <c r="X40" s="3"/>
+    </row>
+    <row r="41" spans="2:24" x14ac:dyDescent="0.2">
       <c r="C41" s="1" t="s">
         <v>34</v>
       </c>
       <c r="D41" s="3">
+        <v>30300</v>
+      </c>
+      <c r="E41" s="3">
         <v>84400</v>
       </c>
-      <c r="E41" s="3">
+      <c r="F41" s="3">
         <v>74700</v>
       </c>
-      <c r="F41" s="3">
+      <c r="G41" s="3">
         <v>83000</v>
       </c>
-      <c r="G41" s="3">
+      <c r="H41" s="3">
         <v>82600</v>
       </c>
-      <c r="H41" s="3">
-        <v>147000</v>
-      </c>
       <c r="I41" s="3">
+        <v>147100</v>
+      </c>
+      <c r="J41" s="3">
         <v>129000</v>
       </c>
-      <c r="J41" s="3">
+      <c r="K41" s="3">
         <v>122000</v>
       </c>
-      <c r="K41" s="3">
+      <c r="L41" s="3">
         <v>112500</v>
       </c>
-      <c r="L41" s="3">
+      <c r="M41" s="3">
         <v>2953000</v>
       </c>
-      <c r="M41" s="3">
+      <c r="N41" s="3">
         <v>2674000</v>
       </c>
-      <c r="N41" s="3">
+      <c r="O41" s="3">
         <v>5117000</v>
       </c>
-      <c r="O41" s="3">
+      <c r="P41" s="3">
         <v>2690000</v>
       </c>
-      <c r="P41" s="3">
+      <c r="Q41" s="3">
         <v>1343000</v>
       </c>
-      <c r="Q41" s="3">
+      <c r="R41" s="3">
         <v>1373000</v>
       </c>
-      <c r="R41" s="3">
+      <c r="S41" s="3">
         <v>1644000</v>
       </c>
-      <c r="S41" s="3">
+      <c r="T41" s="3">
         <v>1472000</v>
       </c>
-      <c r="T41" s="3">
+      <c r="U41" s="3">
         <v>2880000</v>
       </c>
-      <c r="U41" s="3">
+      <c r="V41" s="3">
         <v>2231000</v>
       </c>
-      <c r="V41" s="3">
+      <c r="W41" s="3">
         <v>1662000</v>
       </c>
-      <c r="W41" s="3">
+      <c r="X41" s="3">
         <v>1855000</v>
       </c>
     </row>
-    <row r="42" spans="2:23" x14ac:dyDescent="0.2">
+    <row r="42" spans="2:24" x14ac:dyDescent="0.2">
       <c r="C42" s="1" t="s">
         <v>35</v>
       </c>
@@ -2650,27 +2740,27 @@
       <c r="E42" s="3" t="s">
         <v>5</v>
       </c>
-      <c r="F42" s="3">
+      <c r="F42" s="3" t="s">
+        <v>5</v>
+      </c>
+      <c r="G42" s="3">
         <v>8000</v>
       </c>
-      <c r="G42" s="3">
+      <c r="H42" s="3">
         <v>136400</v>
       </c>
-      <c r="H42" s="3">
-        <v>128700</v>
-      </c>
       <c r="I42" s="3">
-        <v>200400</v>
+        <v>128800</v>
       </c>
       <c r="J42" s="3">
+        <v>200500</v>
+      </c>
+      <c r="K42" s="3">
         <v>223100</v>
       </c>
-      <c r="K42" s="3">
+      <c r="L42" s="3">
         <v>246000</v>
       </c>
-      <c r="L42" s="3">
-        <v>0</v>
-      </c>
       <c r="M42" s="3">
         <v>0</v>
       </c>
@@ -2704,73 +2794,79 @@
       <c r="W42" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="43" spans="2:23" x14ac:dyDescent="0.2">
+      <c r="X42" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="43" spans="2:24" x14ac:dyDescent="0.2">
       <c r="C43" s="1" t="s">
         <v>36</v>
       </c>
       <c r="D43" s="3">
-        <v>284400</v>
+        <v>657700</v>
       </c>
       <c r="E43" s="3">
-        <v>895600</v>
+        <v>284500</v>
       </c>
       <c r="F43" s="3">
-        <v>835500</v>
+        <v>895800</v>
       </c>
       <c r="G43" s="3">
-        <v>955300</v>
+        <v>835700</v>
       </c>
       <c r="H43" s="3">
-        <v>889000</v>
+        <v>955500</v>
       </c>
       <c r="I43" s="3">
-        <v>569700</v>
+        <v>889200</v>
       </c>
       <c r="J43" s="3">
+        <v>569800</v>
+      </c>
+      <c r="K43" s="3">
         <v>446400</v>
       </c>
-      <c r="K43" s="3">
+      <c r="L43" s="3">
         <v>670500</v>
       </c>
-      <c r="L43" s="3">
+      <c r="M43" s="3">
         <v>23014000</v>
       </c>
-      <c r="M43" s="3">
+      <c r="N43" s="3">
         <v>22790000</v>
       </c>
-      <c r="N43" s="3">
+      <c r="O43" s="3">
         <v>21312000</v>
       </c>
-      <c r="O43" s="3">
+      <c r="P43" s="3">
         <v>24445000</v>
       </c>
-      <c r="P43" s="3">
+      <c r="Q43" s="3">
         <v>24345000</v>
       </c>
-      <c r="Q43" s="3">
+      <c r="R43" s="3">
         <v>22709000</v>
       </c>
-      <c r="R43" s="3">
+      <c r="S43" s="3">
         <v>20287000</v>
       </c>
-      <c r="S43" s="3">
+      <c r="T43" s="3">
         <v>18796000</v>
       </c>
-      <c r="T43" s="3">
+      <c r="U43" s="3">
         <v>15020000</v>
       </c>
-      <c r="U43" s="3">
+      <c r="V43" s="3">
         <v>13393000</v>
       </c>
-      <c r="V43" s="3">
+      <c r="W43" s="3">
         <v>13277000</v>
       </c>
-      <c r="W43" s="3">
+      <c r="X43" s="3">
         <v>13397000</v>
       </c>
     </row>
-    <row r="44" spans="2:23" x14ac:dyDescent="0.2">
+    <row r="44" spans="2:24" x14ac:dyDescent="0.2">
       <c r="C44" s="1" t="s">
         <v>37</v>
       </c>
@@ -2834,103 +2930,109 @@
       <c r="W44" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="45" spans="2:23" x14ac:dyDescent="0.2">
+      <c r="X44" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="45" spans="2:24" x14ac:dyDescent="0.2">
       <c r="C45" s="1" t="s">
         <v>38</v>
       </c>
       <c r="D45" s="3">
+        <v>226700</v>
+      </c>
+      <c r="E45" s="3">
         <v>126400</v>
       </c>
-      <c r="E45" s="3">
-        <v>129800</v>
-      </c>
       <c r="F45" s="3">
-        <v>133500</v>
+        <v>129900</v>
       </c>
       <c r="G45" s="3">
+        <v>133600</v>
+      </c>
+      <c r="H45" s="3">
         <v>130100</v>
       </c>
-      <c r="H45" s="3">
+      <c r="I45" s="3">
         <v>120600</v>
       </c>
-      <c r="I45" s="3">
-        <v>153000</v>
-      </c>
       <c r="J45" s="3">
+        <v>153100</v>
+      </c>
+      <c r="K45" s="3">
         <v>109800</v>
       </c>
-      <c r="K45" s="3">
+      <c r="L45" s="3">
         <v>31900</v>
       </c>
-      <c r="L45" s="3" t="s">
-        <v>5</v>
-      </c>
       <c r="M45" s="3" t="s">
         <v>5</v>
       </c>
       <c r="N45" s="3" t="s">
         <v>5</v>
       </c>
-      <c r="O45" s="3">
-        <v>0</v>
+      <c r="O45" s="3" t="s">
+        <v>5</v>
       </c>
       <c r="P45" s="3">
+        <v>0</v>
+      </c>
+      <c r="Q45" s="3">
         <v>4609000</v>
       </c>
-      <c r="Q45" s="3">
+      <c r="R45" s="3">
         <v>6863000</v>
       </c>
-      <c r="R45" s="3">
+      <c r="S45" s="3">
         <v>10136000</v>
       </c>
-      <c r="S45" s="3">
+      <c r="T45" s="3">
         <v>10446000</v>
       </c>
-      <c r="T45" s="3">
+      <c r="U45" s="3">
         <v>7328000</v>
       </c>
-      <c r="U45" s="3">
-        <v>0</v>
-      </c>
       <c r="V45" s="3">
         <v>0</v>
       </c>
       <c r="W45" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="46" spans="2:23" x14ac:dyDescent="0.2">
+      <c r="X45" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="46" spans="2:24" x14ac:dyDescent="0.2">
       <c r="C46" s="1" t="s">
         <v>39</v>
       </c>
       <c r="D46" s="3">
-        <v>495200</v>
+        <v>914700</v>
       </c>
       <c r="E46" s="3">
-        <v>1100200</v>
+        <v>495300</v>
       </c>
       <c r="F46" s="3">
-        <v>1060000</v>
+        <v>1100400</v>
       </c>
       <c r="G46" s="3">
-        <v>1304400</v>
+        <v>1060300</v>
       </c>
       <c r="H46" s="3">
-        <v>1285400</v>
+        <v>1304700</v>
       </c>
       <c r="I46" s="3">
-        <v>1052200</v>
+        <v>1285700</v>
       </c>
       <c r="J46" s="3">
+        <v>1052400</v>
+      </c>
+      <c r="K46" s="3">
         <v>901300</v>
       </c>
-      <c r="K46" s="3">
+      <c r="L46" s="3">
         <v>1060900</v>
       </c>
-      <c r="L46" s="3">
-        <v>0</v>
-      </c>
       <c r="M46" s="3">
         <v>0</v>
       </c>
@@ -2964,23 +3066,26 @@
       <c r="W46" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="47" spans="2:23" x14ac:dyDescent="0.2">
+      <c r="X46" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="47" spans="2:24" x14ac:dyDescent="0.2">
       <c r="C47" s="1" t="s">
         <v>40</v>
       </c>
       <c r="D47" s="3">
+        <v>38300</v>
+      </c>
+      <c r="E47" s="3">
         <v>26900</v>
       </c>
-      <c r="E47" s="3">
+      <c r="F47" s="3">
         <v>116000</v>
       </c>
-      <c r="F47" s="3">
+      <c r="G47" s="3">
         <v>112000</v>
       </c>
-      <c r="G47" s="3" t="s">
-        <v>5</v>
-      </c>
       <c r="H47" s="3" t="s">
         <v>5</v>
       </c>
@@ -2993,49 +3098,52 @@
       <c r="K47" s="3" t="s">
         <v>5</v>
       </c>
-      <c r="L47" s="3">
+      <c r="L47" s="3" t="s">
+        <v>5</v>
+      </c>
+      <c r="M47" s="3">
         <v>1447000</v>
       </c>
-      <c r="M47" s="3">
+      <c r="N47" s="3">
         <v>1053000</v>
       </c>
-      <c r="N47" s="3">
+      <c r="O47" s="3">
         <v>993000</v>
       </c>
-      <c r="O47" s="3">
+      <c r="P47" s="3">
         <v>640000</v>
       </c>
-      <c r="P47" s="3">
+      <c r="Q47" s="3">
         <v>682000</v>
       </c>
-      <c r="Q47" s="3">
+      <c r="R47" s="3">
         <v>901000</v>
       </c>
-      <c r="R47" s="3">
+      <c r="S47" s="3">
         <v>692000</v>
       </c>
-      <c r="S47" s="3">
+      <c r="T47" s="3">
         <v>1249000</v>
       </c>
-      <c r="T47" s="3">
+      <c r="U47" s="3">
         <v>1154000</v>
       </c>
-      <c r="U47" s="3">
+      <c r="V47" s="3">
         <v>9831000</v>
       </c>
-      <c r="V47" s="3">
+      <c r="W47" s="3">
         <v>10187000</v>
       </c>
-      <c r="W47" s="3">
+      <c r="X47" s="3">
         <v>9817000</v>
       </c>
     </row>
-    <row r="48" spans="2:23" x14ac:dyDescent="0.2">
+    <row r="48" spans="2:24" x14ac:dyDescent="0.2">
       <c r="C48" s="1" t="s">
         <v>41</v>
       </c>
       <c r="D48" s="3">
-        <v>0</v>
+        <v>500</v>
       </c>
       <c r="E48" s="3">
         <v>0</v>
@@ -3059,48 +3167,51 @@
         <v>0</v>
       </c>
       <c r="L48" s="3">
+        <v>0</v>
+      </c>
+      <c r="M48" s="3">
         <v>833000</v>
       </c>
-      <c r="M48" s="3">
+      <c r="N48" s="3">
         <v>812000</v>
       </c>
-      <c r="N48" s="3">
+      <c r="O48" s="3">
         <v>797000</v>
       </c>
-      <c r="O48" s="3">
+      <c r="P48" s="3">
         <v>792000</v>
       </c>
-      <c r="P48" s="3">
+      <c r="Q48" s="3">
         <v>778000</v>
       </c>
-      <c r="Q48" s="3">
+      <c r="R48" s="3">
         <v>801000</v>
       </c>
-      <c r="R48" s="3">
+      <c r="S48" s="3">
         <v>780000</v>
       </c>
-      <c r="S48" s="3">
+      <c r="T48" s="3">
         <v>752000</v>
       </c>
-      <c r="T48" s="3">
+      <c r="U48" s="3">
         <v>592000</v>
       </c>
-      <c r="U48" s="3">
+      <c r="V48" s="3">
         <v>555000</v>
       </c>
-      <c r="V48" s="3">
+      <c r="W48" s="3">
         <v>531000</v>
       </c>
-      <c r="W48" s="3">
+      <c r="X48" s="3">
         <v>526000</v>
       </c>
     </row>
-    <row r="49" spans="3:23" x14ac:dyDescent="0.2">
+    <row r="49" spans="3:24" x14ac:dyDescent="0.2">
       <c r="C49" s="1" t="s">
         <v>42</v>
       </c>
       <c r="D49" s="3">
-        <v>1900</v>
+        <v>101500</v>
       </c>
       <c r="E49" s="3">
         <v>1900</v>
@@ -3124,43 +3235,46 @@
         <v>1900</v>
       </c>
       <c r="L49" s="3">
+        <v>1900</v>
+      </c>
+      <c r="M49" s="3">
         <v>5463000</v>
       </c>
-      <c r="M49" s="3">
+      <c r="N49" s="3">
         <v>5494000</v>
       </c>
-      <c r="N49" s="3">
+      <c r="O49" s="3">
         <v>5525000</v>
       </c>
-      <c r="O49" s="3">
+      <c r="P49" s="3">
         <v>5556000</v>
       </c>
-      <c r="P49" s="3">
+      <c r="Q49" s="3">
         <v>5561000</v>
       </c>
-      <c r="Q49" s="3">
+      <c r="R49" s="3">
         <v>5597000</v>
       </c>
-      <c r="R49" s="3">
+      <c r="S49" s="3">
         <v>5629000</v>
       </c>
-      <c r="S49" s="3">
+      <c r="T49" s="3">
         <v>5683000</v>
       </c>
-      <c r="T49" s="3">
+      <c r="U49" s="3">
         <v>2985000</v>
       </c>
-      <c r="U49" s="3">
+      <c r="V49" s="3">
         <v>3004000</v>
       </c>
-      <c r="V49" s="3">
+      <c r="W49" s="3">
         <v>3023000</v>
       </c>
-      <c r="W49" s="3">
+      <c r="X49" s="3">
         <v>3042000</v>
       </c>
     </row>
-    <row r="50" spans="3:23" x14ac:dyDescent="0.2">
+    <row r="50" spans="3:24" x14ac:dyDescent="0.2">
       <c r="C50" s="1" t="s">
         <v>43</v>
       </c>
@@ -3224,8 +3338,11 @@
       <c r="W50" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="51" spans="3:23" x14ac:dyDescent="0.2">
+      <c r="X50" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="51" spans="3:24" x14ac:dyDescent="0.2">
       <c r="C51" s="1" t="s">
         <v>44</v>
       </c>
@@ -3289,22 +3406,25 @@
       <c r="W51" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="52" spans="3:23" x14ac:dyDescent="0.2">
+      <c r="X51" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="52" spans="3:24" x14ac:dyDescent="0.2">
       <c r="C52" s="1" t="s">
         <v>45</v>
       </c>
       <c r="D52" s="3">
-        <v>328100</v>
+        <v>183100</v>
       </c>
       <c r="E52" s="3">
+        <v>328200</v>
+      </c>
+      <c r="F52" s="3">
         <v>194200</v>
       </c>
-      <c r="F52" s="3">
-        <v>167600</v>
-      </c>
-      <c r="G52" s="3" t="s">
-        <v>5</v>
+      <c r="G52" s="3">
+        <v>167700</v>
       </c>
       <c r="H52" s="3" t="s">
         <v>5</v>
@@ -3318,20 +3438,20 @@
       <c r="K52" s="3" t="s">
         <v>5</v>
       </c>
-      <c r="L52" s="3">
+      <c r="L52" s="3" t="s">
+        <v>5</v>
+      </c>
+      <c r="M52" s="3">
         <v>7124000</v>
       </c>
-      <c r="M52" s="3">
+      <c r="N52" s="3">
         <v>5580000</v>
-      </c>
-      <c r="N52" s="3">
-        <v>3185000</v>
       </c>
       <c r="O52" s="3">
         <v>3185000</v>
       </c>
       <c r="P52" s="3">
-        <v>0</v>
+        <v>3185000</v>
       </c>
       <c r="Q52" s="3">
         <v>0</v>
@@ -3354,8 +3474,11 @@
       <c r="W52" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="53" spans="3:23" x14ac:dyDescent="0.2">
+      <c r="X52" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="53" spans="3:24" x14ac:dyDescent="0.2">
       <c r="C53" s="1" t="s">
         <v>46</v>
       </c>
@@ -3419,73 +3542,79 @@
       <c r="W53" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="54" spans="3:23" x14ac:dyDescent="0.2">
+      <c r="X53" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="54" spans="3:24" x14ac:dyDescent="0.2">
       <c r="C54" s="1" t="s">
         <v>47</v>
       </c>
       <c r="D54" s="3">
-        <v>852200</v>
+        <v>1238100</v>
       </c>
       <c r="E54" s="3">
-        <v>1412300</v>
+        <v>852400</v>
       </c>
       <c r="F54" s="3">
-        <v>1341600</v>
+        <v>1412600</v>
       </c>
       <c r="G54" s="3">
-        <v>1306300</v>
+        <v>1341900</v>
       </c>
       <c r="H54" s="3">
-        <v>1287300</v>
+        <v>1306600</v>
       </c>
       <c r="I54" s="3">
-        <v>1054100</v>
+        <v>1287600</v>
       </c>
       <c r="J54" s="3">
+        <v>1054300</v>
+      </c>
+      <c r="K54" s="3">
         <v>903200</v>
       </c>
-      <c r="K54" s="3">
+      <c r="L54" s="3">
         <v>1062800</v>
       </c>
-      <c r="L54" s="3">
+      <c r="M54" s="3">
         <v>41119000</v>
       </c>
-      <c r="M54" s="3">
+      <c r="N54" s="3">
         <v>38679000</v>
       </c>
-      <c r="N54" s="3">
+      <c r="O54" s="3">
         <v>37191000</v>
       </c>
-      <c r="O54" s="3">
+      <c r="P54" s="3">
         <v>37520000</v>
       </c>
-      <c r="P54" s="3">
+      <c r="Q54" s="3">
         <v>37511000</v>
       </c>
-      <c r="Q54" s="3">
+      <c r="R54" s="3">
         <v>38410000</v>
       </c>
-      <c r="R54" s="3">
+      <c r="S54" s="3">
         <v>39412000</v>
       </c>
-      <c r="S54" s="3">
+      <c r="T54" s="3">
         <v>38627000</v>
       </c>
-      <c r="T54" s="3">
+      <c r="U54" s="3">
         <v>30110000</v>
       </c>
-      <c r="U54" s="3">
+      <c r="V54" s="3">
         <v>29165000</v>
       </c>
-      <c r="V54" s="3">
+      <c r="W54" s="3">
         <v>28834000</v>
       </c>
-      <c r="W54" s="3">
+      <c r="X54" s="3">
         <v>28818000</v>
       </c>
     </row>
-    <row r="55" spans="3:23" x14ac:dyDescent="0.2">
+    <row r="55" spans="3:24" x14ac:dyDescent="0.2">
       <c r="C55" s="1" t="s">
         <v>48</v>
       </c>
@@ -3509,8 +3638,9 @@
       <c r="U55" s="3"/>
       <c r="V55" s="3"/>
       <c r="W55" s="3"/>
-    </row>
-    <row r="56" spans="3:23" x14ac:dyDescent="0.2">
+      <c r="X55" s="3"/>
+    </row>
+    <row r="56" spans="3:24" x14ac:dyDescent="0.2">
       <c r="C56" s="1" t="s">
         <v>49</v>
       </c>
@@ -3534,81 +3664,85 @@
       <c r="U56" s="3"/>
       <c r="V56" s="3"/>
       <c r="W56" s="3"/>
-    </row>
-    <row r="57" spans="3:23" x14ac:dyDescent="0.2">
+      <c r="X56" s="3"/>
+    </row>
+    <row r="57" spans="3:24" x14ac:dyDescent="0.2">
       <c r="C57" s="1" t="s">
         <v>50</v>
       </c>
       <c r="D57" s="3">
+        <v>59700</v>
+      </c>
+      <c r="E57" s="3">
         <v>31500</v>
       </c>
-      <c r="E57" s="3">
+      <c r="F57" s="3">
         <v>40900</v>
       </c>
-      <c r="F57" s="3">
+      <c r="G57" s="3">
         <v>36100</v>
       </c>
-      <c r="G57" s="3">
+      <c r="H57" s="3">
         <v>53800</v>
       </c>
-      <c r="H57" s="3">
-        <v>81800</v>
-      </c>
       <c r="I57" s="3">
+        <v>81900</v>
+      </c>
+      <c r="J57" s="3">
         <v>71100</v>
       </c>
-      <c r="J57" s="3">
+      <c r="K57" s="3">
         <v>62400</v>
       </c>
-      <c r="K57" s="3">
+      <c r="L57" s="3">
         <v>460100</v>
       </c>
-      <c r="L57" s="3">
+      <c r="M57" s="3">
         <v>28833000</v>
       </c>
-      <c r="M57" s="3">
+      <c r="N57" s="3">
         <v>26621000</v>
       </c>
-      <c r="N57" s="3">
+      <c r="O57" s="3">
         <v>25139000</v>
       </c>
-      <c r="O57" s="3">
+      <c r="P57" s="3">
         <v>26805000</v>
       </c>
-      <c r="P57" s="3">
+      <c r="Q57" s="3">
         <v>26859000</v>
       </c>
-      <c r="Q57" s="3">
+      <c r="R57" s="3">
         <v>27889000</v>
       </c>
-      <c r="R57" s="3">
+      <c r="S57" s="3">
         <v>29119000</v>
       </c>
-      <c r="S57" s="3">
+      <c r="T57" s="3">
         <v>28535000</v>
       </c>
-      <c r="T57" s="3">
+      <c r="U57" s="3">
         <v>21821000</v>
       </c>
-      <c r="U57" s="3">
+      <c r="V57" s="3">
         <v>21806000</v>
       </c>
-      <c r="V57" s="3">
+      <c r="W57" s="3">
         <v>21582000</v>
       </c>
-      <c r="W57" s="3">
+      <c r="X57" s="3">
         <v>21669000</v>
       </c>
     </row>
-    <row r="58" spans="3:23" x14ac:dyDescent="0.2">
+    <row r="58" spans="3:24" x14ac:dyDescent="0.2">
       <c r="C58" s="1" t="s">
         <v>51</v>
       </c>
       <c r="D58" s="3">
+        <v>20900</v>
+      </c>
+      <c r="E58" s="3">
         <v>49600</v>
-      </c>
-      <c r="E58" s="3">
-        <v>29600</v>
       </c>
       <c r="F58" s="3">
         <v>29600</v>
@@ -3617,20 +3751,20 @@
         <v>29600</v>
       </c>
       <c r="H58" s="3">
-        <v>0</v>
+        <v>29600</v>
       </c>
       <c r="I58" s="3">
+        <v>0</v>
+      </c>
+      <c r="J58" s="3">
         <v>40500</v>
       </c>
-      <c r="J58" s="3">
+      <c r="K58" s="3">
         <v>41000</v>
       </c>
-      <c r="K58" s="3">
+      <c r="L58" s="3">
         <v>41100</v>
       </c>
-      <c r="L58" s="3">
-        <v>0</v>
-      </c>
       <c r="M58" s="3">
         <v>0</v>
       </c>
@@ -3638,23 +3772,23 @@
         <v>0</v>
       </c>
       <c r="O58" s="3">
+        <v>0</v>
+      </c>
+      <c r="P58" s="3">
         <v>96000</v>
       </c>
-      <c r="P58" s="3">
+      <c r="Q58" s="3">
         <v>97000</v>
       </c>
-      <c r="Q58" s="3">
+      <c r="R58" s="3">
         <v>318000</v>
       </c>
-      <c r="R58" s="3">
+      <c r="S58" s="3">
         <v>147000</v>
       </c>
-      <c r="S58" s="3">
+      <c r="T58" s="3">
         <v>97000</v>
       </c>
-      <c r="T58" s="3" t="s">
-        <v>5</v>
-      </c>
       <c r="U58" s="3" t="s">
         <v>5</v>
       </c>
@@ -3664,38 +3798,41 @@
       <c r="W58" s="3" t="s">
         <v>5</v>
       </c>
-    </row>
-    <row r="59" spans="3:23" x14ac:dyDescent="0.2">
+      <c r="X58" s="3" t="s">
+        <v>5</v>
+      </c>
+    </row>
+    <row r="59" spans="3:24" x14ac:dyDescent="0.2">
       <c r="C59" s="1" t="s">
         <v>52</v>
       </c>
       <c r="D59" s="3">
-        <v>17300</v>
+        <v>20400</v>
       </c>
       <c r="E59" s="3">
+        <v>17400</v>
+      </c>
+      <c r="F59" s="3">
         <v>12700</v>
       </c>
-      <c r="F59" s="3">
+      <c r="G59" s="3">
         <v>21700</v>
       </c>
-      <c r="G59" s="3">
+      <c r="H59" s="3">
         <v>12500</v>
       </c>
-      <c r="H59" s="3">
+      <c r="I59" s="3">
         <v>11100</v>
       </c>
-      <c r="I59" s="3">
+      <c r="J59" s="3">
         <v>26300</v>
       </c>
-      <c r="J59" s="3">
+      <c r="K59" s="3">
         <v>9700</v>
       </c>
-      <c r="K59" s="3">
+      <c r="L59" s="3">
         <v>7500</v>
       </c>
-      <c r="L59" s="3" t="s">
-        <v>5</v>
-      </c>
       <c r="M59" s="3" t="s">
         <v>5</v>
       </c>
@@ -3708,8 +3845,8 @@
       <c r="P59" s="3" t="s">
         <v>5</v>
       </c>
-      <c r="Q59" s="3">
-        <v>0</v>
+      <c r="Q59" s="3" t="s">
+        <v>5</v>
       </c>
       <c r="R59" s="3">
         <v>0</v>
@@ -3729,38 +3866,41 @@
       <c r="W59" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="60" spans="3:23" x14ac:dyDescent="0.2">
+      <c r="X59" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="60" spans="3:24" x14ac:dyDescent="0.2">
       <c r="C60" s="1" t="s">
         <v>53</v>
       </c>
       <c r="D60" s="3">
+        <v>101000</v>
+      </c>
+      <c r="E60" s="3">
         <v>98400</v>
       </c>
-      <c r="E60" s="3">
+      <c r="F60" s="3">
         <v>83300</v>
       </c>
-      <c r="F60" s="3">
+      <c r="G60" s="3">
         <v>87400</v>
       </c>
-      <c r="G60" s="3">
-        <v>95800</v>
-      </c>
       <c r="H60" s="3">
+        <v>95900</v>
+      </c>
+      <c r="I60" s="3">
         <v>93000</v>
       </c>
-      <c r="I60" s="3">
+      <c r="J60" s="3">
         <v>138000</v>
       </c>
-      <c r="J60" s="3">
+      <c r="K60" s="3">
         <v>113100</v>
       </c>
-      <c r="K60" s="3">
+      <c r="L60" s="3">
         <v>508800</v>
       </c>
-      <c r="L60" s="3">
-        <v>0</v>
-      </c>
       <c r="M60" s="3">
         <v>0</v>
       </c>
@@ -3794,138 +3934,147 @@
       <c r="W60" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="61" spans="3:23" x14ac:dyDescent="0.2">
+      <c r="X60" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="61" spans="3:24" x14ac:dyDescent="0.2">
       <c r="C61" s="1" t="s">
         <v>54</v>
       </c>
       <c r="D61" s="3">
+        <v>0</v>
+      </c>
+      <c r="E61" s="3">
         <v>14300</v>
       </c>
-      <c r="E61" s="3">
+      <c r="F61" s="3">
         <v>13700</v>
       </c>
-      <c r="F61" s="3">
+      <c r="G61" s="3">
         <v>13200</v>
       </c>
-      <c r="G61" s="3">
+      <c r="H61" s="3">
         <v>12900</v>
       </c>
-      <c r="H61" s="3">
+      <c r="I61" s="3">
         <v>12700</v>
       </c>
-      <c r="I61" s="3">
+      <c r="J61" s="3">
         <v>12200</v>
       </c>
-      <c r="J61" s="3">
-        <v>0</v>
-      </c>
       <c r="K61" s="3">
         <v>0</v>
       </c>
       <c r="L61" s="3">
+        <v>0</v>
+      </c>
+      <c r="M61" s="3">
         <v>3574000</v>
       </c>
-      <c r="M61" s="3">
+      <c r="N61" s="3">
         <v>3520000</v>
       </c>
-      <c r="N61" s="3">
+      <c r="O61" s="3">
         <v>3484000</v>
       </c>
-      <c r="O61" s="3">
+      <c r="P61" s="3">
         <v>2439000</v>
       </c>
-      <c r="P61" s="3">
+      <c r="Q61" s="3">
         <v>2456000</v>
       </c>
-      <c r="Q61" s="3">
+      <c r="R61" s="3">
         <v>2477000</v>
       </c>
-      <c r="R61" s="3">
+      <c r="S61" s="3">
         <v>2531000</v>
       </c>
-      <c r="S61" s="3">
+      <c r="T61" s="3">
         <v>2555000</v>
       </c>
-      <c r="T61" s="3">
+      <c r="U61" s="3">
         <v>2561000</v>
       </c>
-      <c r="U61" s="3">
+      <c r="V61" s="3">
         <v>1765000</v>
       </c>
-      <c r="V61" s="3">
+      <c r="W61" s="3">
         <v>1769000</v>
       </c>
-      <c r="W61" s="3">
+      <c r="X61" s="3">
         <v>1817000</v>
       </c>
     </row>
-    <row r="62" spans="3:23" x14ac:dyDescent="0.2">
+    <row r="62" spans="3:24" x14ac:dyDescent="0.2">
       <c r="C62" s="1" t="s">
         <v>55</v>
       </c>
       <c r="D62" s="3">
+        <v>9800</v>
+      </c>
+      <c r="E62" s="3">
         <v>1800</v>
-      </c>
-      <c r="E62" s="3">
-        <v>1700</v>
       </c>
       <c r="F62" s="3">
         <v>1700</v>
       </c>
       <c r="G62" s="3">
-        <v>2600</v>
+        <v>1700</v>
       </c>
       <c r="H62" s="3">
         <v>2600</v>
       </c>
       <c r="I62" s="3">
+        <v>2600</v>
+      </c>
+      <c r="J62" s="3">
         <v>33600</v>
       </c>
-      <c r="J62" s="3">
+      <c r="K62" s="3">
         <v>31000</v>
       </c>
-      <c r="K62" s="3">
+      <c r="L62" s="3">
         <v>25000</v>
       </c>
-      <c r="L62" s="3">
+      <c r="M62" s="3">
         <v>219000</v>
       </c>
-      <c r="M62" s="3">
+      <c r="N62" s="3">
         <v>215000</v>
       </c>
-      <c r="N62" s="3">
+      <c r="O62" s="3">
         <v>211000</v>
       </c>
-      <c r="O62" s="3">
+      <c r="P62" s="3">
         <v>177000</v>
       </c>
-      <c r="P62" s="3">
+      <c r="Q62" s="3">
         <v>163000</v>
       </c>
-      <c r="Q62" s="3">
+      <c r="R62" s="3">
         <v>131000</v>
       </c>
-      <c r="R62" s="3">
+      <c r="S62" s="3">
         <v>182000</v>
       </c>
-      <c r="S62" s="3">
+      <c r="T62" s="3">
         <v>193000</v>
       </c>
-      <c r="T62" s="3">
+      <c r="U62" s="3">
         <v>268000</v>
       </c>
-      <c r="U62" s="3">
+      <c r="V62" s="3">
         <v>269000</v>
       </c>
-      <c r="V62" s="3">
+      <c r="W62" s="3">
         <v>284000</v>
       </c>
-      <c r="W62" s="3">
+      <c r="X62" s="3">
         <v>281000</v>
       </c>
     </row>
-    <row r="63" spans="3:23" x14ac:dyDescent="0.2">
+    <row r="63" spans="3:24" x14ac:dyDescent="0.2">
       <c r="C63" s="1" t="s">
         <v>56</v>
       </c>
@@ -3989,8 +4138,11 @@
       <c r="W63" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="64" spans="3:23" x14ac:dyDescent="0.2">
+      <c r="X63" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="64" spans="3:24" x14ac:dyDescent="0.2">
       <c r="C64" s="1" t="s">
         <v>20</v>
       </c>
@@ -4054,8 +4206,11 @@
       <c r="W64" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="65" spans="2:23" x14ac:dyDescent="0.2">
+      <c r="X64" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="65" spans="2:24" x14ac:dyDescent="0.2">
       <c r="C65" s="1" t="s">
         <v>57</v>
       </c>
@@ -4119,73 +4274,79 @@
       <c r="W65" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="66" spans="2:23" x14ac:dyDescent="0.2">
+      <c r="X65" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="66" spans="2:24" x14ac:dyDescent="0.2">
       <c r="C66" s="1" t="s">
         <v>58</v>
       </c>
       <c r="D66" s="3">
+        <v>124100</v>
+      </c>
+      <c r="E66" s="3">
         <v>116400</v>
       </c>
-      <c r="E66" s="3">
+      <c r="F66" s="3">
         <v>100700</v>
       </c>
-      <c r="F66" s="3">
-        <v>102200</v>
-      </c>
       <c r="G66" s="3">
+        <v>102300</v>
+      </c>
+      <c r="H66" s="3">
         <v>111400</v>
       </c>
-      <c r="H66" s="3">
+      <c r="I66" s="3">
         <v>108300</v>
       </c>
-      <c r="I66" s="3">
-        <v>183800</v>
-      </c>
       <c r="J66" s="3">
+        <v>183900</v>
+      </c>
+      <c r="K66" s="3">
         <v>144000</v>
       </c>
-      <c r="K66" s="3">
+      <c r="L66" s="3">
         <v>533700</v>
       </c>
-      <c r="L66" s="3">
+      <c r="M66" s="3">
         <v>32626000</v>
       </c>
-      <c r="M66" s="3">
+      <c r="N66" s="3">
         <v>30356000</v>
       </c>
-      <c r="N66" s="3">
+      <c r="O66" s="3">
         <v>28834000</v>
       </c>
-      <c r="O66" s="3">
+      <c r="P66" s="3">
         <v>29517000</v>
       </c>
-      <c r="P66" s="3">
+      <c r="Q66" s="3">
         <v>29575000</v>
       </c>
-      <c r="Q66" s="3">
+      <c r="R66" s="3">
         <v>30815000</v>
       </c>
-      <c r="R66" s="3">
+      <c r="S66" s="3">
         <v>31979000</v>
       </c>
-      <c r="S66" s="3">
+      <c r="T66" s="3">
         <v>31380000</v>
       </c>
-      <c r="T66" s="3">
+      <c r="U66" s="3">
         <v>24650000</v>
       </c>
-      <c r="U66" s="3">
+      <c r="V66" s="3">
         <v>23840000</v>
       </c>
-      <c r="V66" s="3">
+      <c r="W66" s="3">
         <v>23635000</v>
       </c>
-      <c r="W66" s="3">
+      <c r="X66" s="3">
         <v>23767000</v>
       </c>
     </row>
-    <row r="67" spans="2:23" x14ac:dyDescent="0.2">
+    <row r="67" spans="2:24" x14ac:dyDescent="0.2">
       <c r="C67" s="1" t="s">
         <v>59</v>
       </c>
@@ -4209,8 +4370,9 @@
       <c r="U67" s="3"/>
       <c r="V67" s="3"/>
       <c r="W67" s="3"/>
-    </row>
-    <row r="68" spans="2:23" x14ac:dyDescent="0.2">
+      <c r="X67" s="3"/>
+    </row>
+    <row r="68" spans="2:24" x14ac:dyDescent="0.2">
       <c r="C68" s="1" t="s">
         <v>60</v>
       </c>
@@ -4274,8 +4436,11 @@
       <c r="W68" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="69" spans="2:23" x14ac:dyDescent="0.2">
+      <c r="X68" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="69" spans="2:24" x14ac:dyDescent="0.2">
       <c r="C69" s="1" t="s">
         <v>61</v>
       </c>
@@ -4339,8 +4504,11 @@
       <c r="W69" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="70" spans="2:23" x14ac:dyDescent="0.2">
+      <c r="X69" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="70" spans="2:24" x14ac:dyDescent="0.2">
       <c r="C70" s="1" t="s">
         <v>62</v>
       </c>
@@ -4404,8 +4572,11 @@
       <c r="W70" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="71" spans="2:23" x14ac:dyDescent="0.2">
+      <c r="X70" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="71" spans="2:24" x14ac:dyDescent="0.2">
       <c r="C71" s="1" t="s">
         <v>63</v>
       </c>
@@ -4469,73 +4640,79 @@
       <c r="W71" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="72" spans="2:23" x14ac:dyDescent="0.2">
+      <c r="X71" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="72" spans="2:24" x14ac:dyDescent="0.2">
       <c r="C72" s="1" t="s">
         <v>64</v>
       </c>
       <c r="D72" s="3">
-        <v>1147100</v>
+        <v>1525400</v>
       </c>
       <c r="E72" s="3">
-        <v>1077600</v>
+        <v>1147400</v>
       </c>
       <c r="F72" s="3">
-        <v>1005400</v>
+        <v>1077900</v>
       </c>
       <c r="G72" s="3">
-        <v>957000</v>
+        <v>1005600</v>
       </c>
       <c r="H72" s="3">
-        <v>945200</v>
+        <v>957300</v>
       </c>
       <c r="I72" s="3">
-        <v>870300</v>
+        <v>945400</v>
       </c>
       <c r="J72" s="3">
+        <v>870500</v>
+      </c>
+      <c r="K72" s="3">
         <v>759100</v>
       </c>
-      <c r="K72" s="3">
+      <c r="L72" s="3">
         <v>529100</v>
       </c>
-      <c r="L72" s="3">
+      <c r="M72" s="3">
         <v>8194000</v>
       </c>
-      <c r="M72" s="3">
+      <c r="N72" s="3">
         <v>7805000</v>
       </c>
-      <c r="N72" s="3">
+      <c r="O72" s="3">
         <v>7475000</v>
       </c>
-      <c r="O72" s="3">
+      <c r="P72" s="3">
         <v>7011000</v>
       </c>
-      <c r="P72" s="3">
+      <c r="Q72" s="3">
         <v>6673000</v>
       </c>
-      <c r="Q72" s="3">
+      <c r="R72" s="3">
         <v>6341000</v>
       </c>
-      <c r="R72" s="3">
+      <c r="S72" s="3">
         <v>6189000</v>
       </c>
-      <c r="S72" s="3">
+      <c r="T72" s="3">
         <v>6011000</v>
       </c>
-      <c r="T72" s="3">
+      <c r="U72" s="3">
         <v>5895000</v>
       </c>
-      <c r="U72" s="3">
+      <c r="V72" s="3">
         <v>5759000</v>
       </c>
-      <c r="V72" s="3">
+      <c r="W72" s="3">
         <v>5640000</v>
       </c>
-      <c r="W72" s="3">
+      <c r="X72" s="3">
         <v>5518000</v>
       </c>
     </row>
-    <row r="73" spans="2:23" x14ac:dyDescent="0.2">
+    <row r="73" spans="2:24" x14ac:dyDescent="0.2">
       <c r="C73" s="1" t="s">
         <v>65</v>
       </c>
@@ -4599,8 +4776,11 @@
       <c r="W73" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="74" spans="2:23" x14ac:dyDescent="0.2">
+      <c r="X73" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="74" spans="2:24" x14ac:dyDescent="0.2">
       <c r="C74" s="1" t="s">
         <v>66</v>
       </c>
@@ -4664,8 +4844,11 @@
       <c r="W74" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="75" spans="2:23" x14ac:dyDescent="0.2">
+      <c r="X74" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="75" spans="2:24" x14ac:dyDescent="0.2">
       <c r="C75" s="1" t="s">
         <v>67</v>
       </c>
@@ -4729,73 +4912,79 @@
       <c r="W75" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="76" spans="2:23" x14ac:dyDescent="0.2">
+      <c r="X75" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="76" spans="2:24" x14ac:dyDescent="0.2">
       <c r="C76" s="1" t="s">
         <v>68</v>
       </c>
       <c r="D76" s="3">
-        <v>735800</v>
+        <v>1114000</v>
       </c>
       <c r="E76" s="3">
-        <v>1311600</v>
+        <v>736000</v>
       </c>
       <c r="F76" s="3">
-        <v>1239300</v>
+        <v>1311900</v>
       </c>
       <c r="G76" s="3">
-        <v>1194900</v>
+        <v>1239600</v>
       </c>
       <c r="H76" s="3">
-        <v>1179000</v>
+        <v>1195200</v>
       </c>
       <c r="I76" s="3">
-        <v>870300</v>
+        <v>1179300</v>
       </c>
       <c r="J76" s="3">
+        <v>870500</v>
+      </c>
+      <c r="K76" s="3">
         <v>759200</v>
       </c>
-      <c r="K76" s="3">
+      <c r="L76" s="3">
         <v>529100</v>
       </c>
-      <c r="L76" s="3">
+      <c r="M76" s="3">
         <v>8493000</v>
       </c>
-      <c r="M76" s="3">
+      <c r="N76" s="3">
         <v>8323000</v>
       </c>
-      <c r="N76" s="3">
+      <c r="O76" s="3">
         <v>8357000</v>
       </c>
-      <c r="O76" s="3">
+      <c r="P76" s="3">
         <v>8003000</v>
       </c>
-      <c r="P76" s="3">
+      <c r="Q76" s="3">
         <v>7936000</v>
       </c>
-      <c r="Q76" s="3">
+      <c r="R76" s="3">
         <v>7595000</v>
       </c>
-      <c r="R76" s="3">
+      <c r="S76" s="3">
         <v>7433000</v>
       </c>
-      <c r="S76" s="3">
+      <c r="T76" s="3">
         <v>7247000</v>
       </c>
-      <c r="T76" s="3">
+      <c r="U76" s="3">
         <v>5460000</v>
       </c>
-      <c r="U76" s="3">
+      <c r="V76" s="3">
         <v>5325000</v>
       </c>
-      <c r="V76" s="3">
+      <c r="W76" s="3">
         <v>5199000</v>
       </c>
-      <c r="W76" s="3">
+      <c r="X76" s="3">
         <v>5051000</v>
       </c>
     </row>
-    <row r="77" spans="2:23" x14ac:dyDescent="0.2">
+    <row r="77" spans="2:24" x14ac:dyDescent="0.2">
       <c r="C77" s="1" t="s">
         <v>69</v>
       </c>
@@ -4859,143 +5048,152 @@
       <c r="W77" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="79" spans="2:23" x14ac:dyDescent="0.2">
+      <c r="X77" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="79" spans="2:24" x14ac:dyDescent="0.2">
       <c r="B79" s="1" t="s">
         <v>70</v>
       </c>
     </row>
-    <row r="80" spans="2:23" x14ac:dyDescent="0.2">
+    <row r="80" spans="2:24" x14ac:dyDescent="0.2">
       <c r="C80" s="1" t="s">
         <v>2</v>
       </c>
       <c r="D80" s="2">
+        <v>44742</v>
+      </c>
+      <c r="E80" s="2">
         <v>44561</v>
       </c>
-      <c r="E80" s="2">
+      <c r="F80" s="2">
         <v>44377</v>
       </c>
-      <c r="F80" s="2">
+      <c r="G80" s="2">
         <v>44196</v>
       </c>
-      <c r="G80" s="2">
+      <c r="H80" s="2">
         <v>44104</v>
       </c>
-      <c r="H80" s="2">
+      <c r="I80" s="2">
         <v>44012</v>
       </c>
-      <c r="I80" s="2">
+      <c r="J80" s="2">
         <v>43830</v>
       </c>
-      <c r="J80" s="2">
+      <c r="K80" s="2">
         <v>43738</v>
-      </c>
-      <c r="K80" s="2">
-        <v>43646</v>
       </c>
       <c r="L80" s="2">
         <v>43646</v>
       </c>
       <c r="M80" s="2">
+        <v>43646</v>
+      </c>
+      <c r="N80" s="2">
         <v>43555</v>
       </c>
-      <c r="N80" s="2">
+      <c r="O80" s="2">
         <v>43465</v>
       </c>
-      <c r="O80" s="2">
+      <c r="P80" s="2">
         <v>43373</v>
       </c>
-      <c r="P80" s="2">
+      <c r="Q80" s="2">
         <v>43281</v>
       </c>
-      <c r="Q80" s="2">
+      <c r="R80" s="2">
         <v>43190</v>
       </c>
-      <c r="R80" s="2">
+      <c r="S80" s="2">
         <v>43100</v>
       </c>
-      <c r="S80" s="2">
+      <c r="T80" s="2">
         <v>43008</v>
       </c>
-      <c r="T80" s="2">
+      <c r="U80" s="2">
         <v>42916</v>
       </c>
-      <c r="U80" s="2">
+      <c r="V80" s="2">
         <v>42825</v>
       </c>
-      <c r="V80" s="2">
+      <c r="W80" s="2">
         <v>42735</v>
       </c>
-      <c r="W80" s="2">
+      <c r="X80" s="2">
         <v>42643</v>
       </c>
     </row>
-    <row r="81" spans="3:23" x14ac:dyDescent="0.2">
+    <row r="81" spans="3:24" x14ac:dyDescent="0.2">
       <c r="C81" s="1" t="s">
         <v>28</v>
       </c>
       <c r="D81" s="3">
+        <v>94500</v>
+      </c>
+      <c r="E81" s="3">
         <v>67500</v>
       </c>
-      <c r="E81" s="3">
+      <c r="F81" s="3">
         <v>72300</v>
       </c>
-      <c r="F81" s="3">
+      <c r="G81" s="3">
         <v>48300</v>
       </c>
-      <c r="G81" s="3">
+      <c r="H81" s="3">
         <v>11900</v>
       </c>
-      <c r="H81" s="3">
+      <c r="I81" s="3">
         <v>74900</v>
       </c>
-      <c r="I81" s="3">
+      <c r="J81" s="3">
         <v>11400</v>
       </c>
-      <c r="J81" s="3">
+      <c r="K81" s="3">
         <v>39200</v>
       </c>
-      <c r="K81" s="3">
+      <c r="L81" s="3">
         <v>28100</v>
       </c>
-      <c r="L81" s="3">
+      <c r="M81" s="3">
         <v>555000</v>
       </c>
-      <c r="M81" s="3">
+      <c r="N81" s="3">
         <v>499000</v>
       </c>
-      <c r="N81" s="3">
+      <c r="O81" s="3">
         <v>604000</v>
       </c>
-      <c r="O81" s="3">
+      <c r="P81" s="3">
         <v>454000</v>
       </c>
-      <c r="P81" s="3">
+      <c r="Q81" s="3">
         <v>451000</v>
       </c>
-      <c r="Q81" s="3">
+      <c r="R81" s="3">
         <v>271000</v>
       </c>
-      <c r="R81" s="3">
+      <c r="S81" s="3">
         <v>297000</v>
       </c>
-      <c r="S81" s="3">
+      <c r="T81" s="3">
         <v>211000</v>
       </c>
-      <c r="T81" s="3">
+      <c r="U81" s="3">
         <v>231000</v>
       </c>
-      <c r="U81" s="3">
+      <c r="V81" s="3">
         <v>214000</v>
       </c>
-      <c r="V81" s="3">
+      <c r="W81" s="3">
         <v>216000</v>
       </c>
-      <c r="W81" s="3">
+      <c r="X81" s="3">
         <v>185000</v>
       </c>
     </row>
-    <row r="82" spans="3:23" x14ac:dyDescent="0.2">
+    <row r="82" spans="3:24" x14ac:dyDescent="0.2">
       <c r="C82" s="1" t="s">
         <v>71</v>
       </c>
@@ -5019,8 +5217,9 @@
       <c r="U82" s="3"/>
       <c r="V82" s="3"/>
       <c r="W82" s="3"/>
-    </row>
-    <row r="83" spans="3:23" x14ac:dyDescent="0.2">
+      <c r="X82" s="3"/>
+    </row>
+    <row r="83" spans="3:24" x14ac:dyDescent="0.2">
       <c r="C83" s="1" t="s">
         <v>72</v>
       </c>
@@ -5049,43 +5248,46 @@
         <v>0</v>
       </c>
       <c r="L83" s="3">
+        <v>0</v>
+      </c>
+      <c r="M83" s="3">
         <v>69000</v>
       </c>
-      <c r="M83" s="3">
+      <c r="N83" s="3">
         <v>67000</v>
       </c>
-      <c r="N83" s="3">
+      <c r="O83" s="3">
         <v>66000</v>
       </c>
-      <c r="O83" s="3">
+      <c r="P83" s="3">
         <v>70000</v>
       </c>
-      <c r="P83" s="3">
+      <c r="Q83" s="3">
         <v>69000</v>
-      </c>
-      <c r="Q83" s="3">
-        <v>72000</v>
       </c>
       <c r="R83" s="3">
         <v>72000</v>
       </c>
       <c r="S83" s="3">
+        <v>72000</v>
+      </c>
+      <c r="T83" s="3">
         <v>50000</v>
-      </c>
-      <c r="T83" s="3">
-        <v>44000</v>
       </c>
       <c r="U83" s="3">
         <v>44000</v>
       </c>
       <c r="V83" s="3">
+        <v>44000</v>
+      </c>
+      <c r="W83" s="3">
         <v>43000</v>
       </c>
-      <c r="W83" s="3">
+      <c r="X83" s="3">
         <v>45000</v>
       </c>
     </row>
-    <row r="84" spans="3:23" x14ac:dyDescent="0.2">
+    <row r="84" spans="3:24" x14ac:dyDescent="0.2">
       <c r="C84" s="1" t="s">
         <v>73</v>
       </c>
@@ -5149,8 +5351,11 @@
       <c r="W84" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="85" spans="3:23" x14ac:dyDescent="0.2">
+      <c r="X84" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="85" spans="3:24" x14ac:dyDescent="0.2">
       <c r="C85" s="1" t="s">
         <v>74</v>
       </c>
@@ -5214,8 +5419,11 @@
       <c r="W85" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="86" spans="3:23" x14ac:dyDescent="0.2">
+      <c r="X85" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="86" spans="3:24" x14ac:dyDescent="0.2">
       <c r="C86" s="1" t="s">
         <v>75</v>
       </c>
@@ -5279,8 +5487,11 @@
       <c r="W86" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="87" spans="3:23" x14ac:dyDescent="0.2">
+      <c r="X86" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="87" spans="3:24" x14ac:dyDescent="0.2">
       <c r="C87" s="1" t="s">
         <v>76</v>
       </c>
@@ -5344,8 +5555,11 @@
       <c r="W87" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="88" spans="3:23" x14ac:dyDescent="0.2">
+      <c r="X87" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="88" spans="3:24" x14ac:dyDescent="0.2">
       <c r="C88" s="1" t="s">
         <v>77</v>
       </c>
@@ -5409,8 +5623,11 @@
       <c r="W88" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="89" spans="3:23" x14ac:dyDescent="0.2">
+      <c r="X88" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="89" spans="3:24" x14ac:dyDescent="0.2">
       <c r="C89" s="1" t="s">
         <v>78</v>
       </c>
@@ -5439,43 +5656,46 @@
         <v>0</v>
       </c>
       <c r="L89" s="3">
+        <v>0</v>
+      </c>
+      <c r="M89" s="3">
         <v>2438000</v>
       </c>
-      <c r="M89" s="3">
+      <c r="N89" s="3">
         <v>573000</v>
       </c>
-      <c r="N89" s="3">
+      <c r="O89" s="3">
         <v>2762000</v>
       </c>
-      <c r="O89" s="3">
+      <c r="P89" s="3">
         <v>1821000</v>
       </c>
-      <c r="P89" s="3">
+      <c r="Q89" s="3">
         <v>349000</v>
       </c>
-      <c r="Q89" s="3">
+      <c r="R89" s="3">
         <v>124000</v>
       </c>
-      <c r="R89" s="3">
+      <c r="S89" s="3">
         <v>-386000</v>
       </c>
-      <c r="S89" s="3">
+      <c r="T89" s="3">
         <v>23000</v>
       </c>
-      <c r="T89" s="3">
+      <c r="U89" s="3">
         <v>27000</v>
       </c>
-      <c r="U89" s="3">
+      <c r="V89" s="3">
         <v>718000</v>
       </c>
-      <c r="V89" s="3">
+      <c r="W89" s="3">
         <v>-81000</v>
       </c>
-      <c r="W89" s="3">
+      <c r="X89" s="3">
         <v>436000</v>
       </c>
     </row>
-    <row r="90" spans="3:23" x14ac:dyDescent="0.2">
+    <row r="90" spans="3:24" x14ac:dyDescent="0.2">
       <c r="C90" s="1" t="s">
         <v>79</v>
       </c>
@@ -5499,8 +5719,9 @@
       <c r="U90" s="3"/>
       <c r="V90" s="3"/>
       <c r="W90" s="3"/>
-    </row>
-    <row r="91" spans="3:23" x14ac:dyDescent="0.2">
+      <c r="X90" s="3"/>
+    </row>
+    <row r="91" spans="3:24" x14ac:dyDescent="0.2">
       <c r="C91" s="1" t="s">
         <v>80</v>
       </c>
@@ -5529,43 +5750,46 @@
         <v>0</v>
       </c>
       <c r="L91" s="3">
+        <v>0</v>
+      </c>
+      <c r="M91" s="3">
         <v>-59000</v>
       </c>
-      <c r="M91" s="3">
+      <c r="N91" s="3">
         <v>-48000</v>
       </c>
-      <c r="N91" s="3">
+      <c r="O91" s="3">
         <v>-44000</v>
       </c>
-      <c r="O91" s="3">
+      <c r="P91" s="3">
         <v>-63000</v>
       </c>
-      <c r="P91" s="3">
+      <c r="Q91" s="3">
         <v>-47000</v>
       </c>
-      <c r="Q91" s="3">
+      <c r="R91" s="3">
         <v>-56000</v>
       </c>
-      <c r="R91" s="3">
+      <c r="S91" s="3">
         <v>-63000</v>
       </c>
-      <c r="S91" s="3">
+      <c r="T91" s="3">
         <v>-56000</v>
       </c>
-      <c r="T91" s="3">
+      <c r="U91" s="3">
         <v>-62000</v>
       </c>
-      <c r="U91" s="3">
+      <c r="V91" s="3">
         <v>-100000</v>
       </c>
-      <c r="V91" s="3">
+      <c r="W91" s="3">
         <v>-58000</v>
       </c>
-      <c r="W91" s="3">
+      <c r="X91" s="3">
         <v>-27000</v>
       </c>
     </row>
-    <row r="92" spans="3:23" x14ac:dyDescent="0.2">
+    <row r="92" spans="3:24" x14ac:dyDescent="0.2">
       <c r="C92" s="1" t="s">
         <v>81</v>
       </c>
@@ -5629,8 +5853,11 @@
       <c r="W92" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="93" spans="3:23" x14ac:dyDescent="0.2">
+      <c r="X92" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="93" spans="3:24" x14ac:dyDescent="0.2">
       <c r="C93" s="1" t="s">
         <v>82</v>
       </c>
@@ -5694,8 +5921,11 @@
       <c r="W93" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="94" spans="3:23" x14ac:dyDescent="0.2">
+      <c r="X93" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="94" spans="3:24" x14ac:dyDescent="0.2">
       <c r="C94" s="1" t="s">
         <v>83</v>
       </c>
@@ -5724,43 +5954,46 @@
         <v>0</v>
       </c>
       <c r="L94" s="3">
+        <v>0</v>
+      </c>
+      <c r="M94" s="3">
         <v>-195000</v>
       </c>
-      <c r="M94" s="3">
+      <c r="N94" s="3">
         <v>-48000</v>
       </c>
-      <c r="N94" s="3">
+      <c r="O94" s="3">
         <v>-426000</v>
       </c>
-      <c r="O94" s="3">
+      <c r="P94" s="3">
         <v>-66000</v>
       </c>
-      <c r="P94" s="3">
+      <c r="Q94" s="3">
         <v>-35000</v>
       </c>
-      <c r="Q94" s="3">
+      <c r="R94" s="3">
         <v>-440000</v>
       </c>
-      <c r="R94" s="3">
+      <c r="S94" s="3">
         <v>633000</v>
       </c>
-      <c r="S94" s="3">
+      <c r="T94" s="3">
         <v>-1406000</v>
       </c>
-      <c r="T94" s="3">
+      <c r="U94" s="3">
         <v>-62000</v>
       </c>
-      <c r="U94" s="3">
+      <c r="V94" s="3">
         <v>-50000</v>
       </c>
-      <c r="V94" s="3">
+      <c r="W94" s="3">
         <v>-29000</v>
       </c>
-      <c r="W94" s="3">
+      <c r="X94" s="3">
         <v>-384000</v>
       </c>
     </row>
-    <row r="95" spans="3:23" x14ac:dyDescent="0.2">
+    <row r="95" spans="3:24" x14ac:dyDescent="0.2">
       <c r="C95" s="1" t="s">
         <v>84</v>
       </c>
@@ -5784,8 +6017,9 @@
       <c r="U95" s="3"/>
       <c r="V95" s="3"/>
       <c r="W95" s="3"/>
-    </row>
-    <row r="96" spans="3:23" x14ac:dyDescent="0.2">
+      <c r="X95" s="3"/>
+    </row>
+    <row r="96" spans="3:24" x14ac:dyDescent="0.2">
       <c r="C96" s="1" t="s">
         <v>85</v>
       </c>
@@ -5814,19 +6048,19 @@
         <v>0</v>
       </c>
       <c r="L96" s="3">
+        <v>0</v>
+      </c>
+      <c r="M96" s="3">
         <v>-166000</v>
       </c>
-      <c r="M96" s="3">
+      <c r="N96" s="3">
         <v>-169000</v>
       </c>
-      <c r="N96" s="3">
+      <c r="O96" s="3">
         <v>-168000</v>
       </c>
-      <c r="O96" s="3">
+      <c r="P96" s="3">
         <v>-120000</v>
-      </c>
-      <c r="P96" s="3">
-        <v>-119000</v>
       </c>
       <c r="Q96" s="3">
         <v>-119000</v>
@@ -5835,10 +6069,10 @@
         <v>-119000</v>
       </c>
       <c r="S96" s="3">
+        <v>-119000</v>
+      </c>
+      <c r="T96" s="3">
         <v>-94000</v>
-      </c>
-      <c r="T96" s="3">
-        <v>-95000</v>
       </c>
       <c r="U96" s="3">
         <v>-95000</v>
@@ -5847,10 +6081,13 @@
         <v>-95000</v>
       </c>
       <c r="W96" s="3">
+        <v>-95000</v>
+      </c>
+      <c r="X96" s="3">
         <v>-90000</v>
       </c>
     </row>
-    <row r="97" spans="3:23" x14ac:dyDescent="0.2">
+    <row r="97" spans="3:24" x14ac:dyDescent="0.2">
       <c r="C97" s="1" t="s">
         <v>86</v>
       </c>
@@ -5914,8 +6151,11 @@
       <c r="W97" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="98" spans="3:23" x14ac:dyDescent="0.2">
+      <c r="X97" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="98" spans="3:24" x14ac:dyDescent="0.2">
       <c r="C98" s="1" t="s">
         <v>87</v>
       </c>
@@ -5979,8 +6219,11 @@
       <c r="W98" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="99" spans="3:23" x14ac:dyDescent="0.2">
+      <c r="X98" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="99" spans="3:24" x14ac:dyDescent="0.2">
       <c r="C99" s="1" t="s">
         <v>88</v>
       </c>
@@ -6044,8 +6287,11 @@
       <c r="W99" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="100" spans="3:23" x14ac:dyDescent="0.2">
+      <c r="X99" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="100" spans="3:24" x14ac:dyDescent="0.2">
       <c r="C100" s="1" t="s">
         <v>89</v>
       </c>
@@ -6074,43 +6320,46 @@
         <v>0</v>
       </c>
       <c r="L100" s="3">
+        <v>0</v>
+      </c>
+      <c r="M100" s="3">
         <v>-409000</v>
       </c>
-      <c r="M100" s="3">
+      <c r="N100" s="3">
         <v>-552000</v>
       </c>
-      <c r="N100" s="3">
+      <c r="O100" s="3">
         <v>594000</v>
       </c>
-      <c r="O100" s="3">
+      <c r="P100" s="3">
         <v>-408000</v>
       </c>
-      <c r="P100" s="3">
+      <c r="Q100" s="3">
         <v>-344000</v>
       </c>
-      <c r="Q100" s="3">
+      <c r="R100" s="3">
         <v>45000</v>
       </c>
-      <c r="R100" s="3">
+      <c r="S100" s="3">
         <v>-75000</v>
       </c>
-      <c r="S100" s="3">
+      <c r="T100" s="3">
         <v>-37000</v>
       </c>
-      <c r="T100" s="3">
+      <c r="U100" s="3">
         <v>685000</v>
       </c>
-      <c r="U100" s="3">
+      <c r="V100" s="3">
         <v>-97000</v>
       </c>
-      <c r="V100" s="3">
+      <c r="W100" s="3">
         <v>-74000</v>
       </c>
-      <c r="W100" s="3">
+      <c r="X100" s="3">
         <v>-114000</v>
       </c>
     </row>
-    <row r="101" spans="3:23" x14ac:dyDescent="0.2">
+    <row r="101" spans="3:24" x14ac:dyDescent="0.2">
       <c r="C101" s="1" t="s">
         <v>90</v>
       </c>
@@ -6174,8 +6423,11 @@
       <c r="W101" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="102" spans="3:23" x14ac:dyDescent="0.2">
+      <c r="X101" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="102" spans="3:24" x14ac:dyDescent="0.2">
       <c r="C102" s="1" t="s">
         <v>91</v>
       </c>
@@ -6204,39 +6456,42 @@
         <v>0</v>
       </c>
       <c r="L102" s="3">
+        <v>0</v>
+      </c>
+      <c r="M102" s="3">
         <v>1834000</v>
       </c>
-      <c r="M102" s="3">
+      <c r="N102" s="3">
         <v>-27000</v>
       </c>
-      <c r="N102" s="3">
+      <c r="O102" s="3">
         <v>2930000</v>
       </c>
-      <c r="O102" s="3">
+      <c r="P102" s="3">
         <v>1347000</v>
       </c>
-      <c r="P102" s="3">
+      <c r="Q102" s="3">
         <v>-30000</v>
       </c>
-      <c r="Q102" s="3">
+      <c r="R102" s="3">
         <v>-271000</v>
       </c>
-      <c r="R102" s="3">
+      <c r="S102" s="3">
         <v>172000</v>
       </c>
-      <c r="S102" s="3">
+      <c r="T102" s="3">
         <v>-1408000</v>
       </c>
-      <c r="T102" s="3">
+      <c r="U102" s="3">
         <v>649000</v>
       </c>
-      <c r="U102" s="3">
+      <c r="V102" s="3">
         <v>569000</v>
       </c>
-      <c r="V102" s="3">
+      <c r="W102" s="3">
         <v>-193000</v>
       </c>
-      <c r="W102" s="3">
+      <c r="X102" s="3">
         <v>-62000</v>
       </c>
     </row>

--- a/AAII_Financials/Quarterly/AMTD_QTR_FIN.xlsx
+++ b/AAII_Financials/Quarterly/AMTD_QTR_FIN.xlsx
@@ -1292,7 +1292,7 @@
         <v>12</v>
       </c>
       <c r="D17" s="3">
-        <v>15300</v>
+        <v>15200</v>
       </c>
       <c r="E17" s="3">
         <v>12000</v>
@@ -1363,10 +1363,10 @@
         <v>59800</v>
       </c>
       <c r="E18" s="3">
-        <v>30700</v>
+        <v>30600</v>
       </c>
       <c r="F18" s="3">
-        <v>55400</v>
+        <v>55300</v>
       </c>
       <c r="G18" s="3">
         <v>15400</v>
@@ -1375,7 +1375,7 @@
         <v>4100</v>
       </c>
       <c r="I18" s="3">
-        <v>52300</v>
+        <v>52200</v>
       </c>
       <c r="J18" s="3">
         <v>12900</v>
@@ -1457,7 +1457,7 @@
         <v>51600</v>
       </c>
       <c r="E20" s="3">
-        <v>50300</v>
+        <v>50200</v>
       </c>
       <c r="F20" s="3">
         <v>35000</v>
@@ -1658,13 +1658,13 @@
         <v>18</v>
       </c>
       <c r="D23" s="3">
-        <v>111100</v>
+        <v>111000</v>
       </c>
       <c r="E23" s="3">
         <v>80100</v>
       </c>
       <c r="F23" s="3">
-        <v>89600</v>
+        <v>89500</v>
       </c>
       <c r="G23" s="3">
         <v>55600</v>
@@ -1673,7 +1673,7 @@
         <v>17200</v>
       </c>
       <c r="I23" s="3">
-        <v>54900</v>
+        <v>54800</v>
       </c>
       <c r="J23" s="3">
         <v>13800</v>
@@ -1862,22 +1862,22 @@
         <v>21</v>
       </c>
       <c r="D26" s="3">
-        <v>102200</v>
+        <v>102100</v>
       </c>
       <c r="E26" s="3">
-        <v>75500</v>
+        <v>75400</v>
       </c>
       <c r="F26" s="3">
-        <v>80300</v>
+        <v>80200</v>
       </c>
       <c r="G26" s="3">
         <v>52300</v>
       </c>
       <c r="H26" s="3">
-        <v>15900</v>
+        <v>15800</v>
       </c>
       <c r="I26" s="3">
-        <v>77000</v>
+        <v>76900</v>
       </c>
       <c r="J26" s="3">
         <v>11400</v>
@@ -1933,10 +1933,10 @@
         <v>94500</v>
       </c>
       <c r="E27" s="3">
-        <v>67500</v>
+        <v>67400</v>
       </c>
       <c r="F27" s="3">
-        <v>72300</v>
+        <v>72200</v>
       </c>
       <c r="G27" s="3">
         <v>48300</v>
@@ -2273,7 +2273,7 @@
         <v>-51600</v>
       </c>
       <c r="E32" s="3">
-        <v>-50300</v>
+        <v>-50200</v>
       </c>
       <c r="F32" s="3">
         <v>-35000</v>
@@ -2341,10 +2341,10 @@
         <v>94500</v>
       </c>
       <c r="E33" s="3">
-        <v>67500</v>
+        <v>67400</v>
       </c>
       <c r="F33" s="3">
-        <v>72300</v>
+        <v>72200</v>
       </c>
       <c r="G33" s="3">
         <v>48300</v>
@@ -2477,10 +2477,10 @@
         <v>94500</v>
       </c>
       <c r="E35" s="3">
-        <v>67500</v>
+        <v>67400</v>
       </c>
       <c r="F35" s="3">
-        <v>72300</v>
+        <v>72200</v>
       </c>
       <c r="G35" s="3">
         <v>48300</v>
@@ -2679,13 +2679,13 @@
         <v>83000</v>
       </c>
       <c r="H41" s="3">
-        <v>82600</v>
+        <v>82500</v>
       </c>
       <c r="I41" s="3">
-        <v>147100</v>
+        <v>147000</v>
       </c>
       <c r="J41" s="3">
-        <v>129000</v>
+        <v>128900</v>
       </c>
       <c r="K41" s="3">
         <v>122000</v>
@@ -2747,13 +2747,13 @@
         <v>8000</v>
       </c>
       <c r="H42" s="3">
-        <v>136400</v>
+        <v>136300</v>
       </c>
       <c r="I42" s="3">
-        <v>128800</v>
+        <v>128700</v>
       </c>
       <c r="J42" s="3">
-        <v>200500</v>
+        <v>200400</v>
       </c>
       <c r="K42" s="3">
         <v>223100</v>
@@ -2803,25 +2803,25 @@
         <v>36</v>
       </c>
       <c r="D43" s="3">
-        <v>657700</v>
+        <v>657300</v>
       </c>
       <c r="E43" s="3">
-        <v>284500</v>
+        <v>284300</v>
       </c>
       <c r="F43" s="3">
-        <v>895800</v>
+        <v>895200</v>
       </c>
       <c r="G43" s="3">
-        <v>835700</v>
+        <v>835200</v>
       </c>
       <c r="H43" s="3">
-        <v>955500</v>
+        <v>954900</v>
       </c>
       <c r="I43" s="3">
-        <v>889200</v>
+        <v>888700</v>
       </c>
       <c r="J43" s="3">
-        <v>569800</v>
+        <v>569500</v>
       </c>
       <c r="K43" s="3">
         <v>446400</v>
@@ -2939,25 +2939,25 @@
         <v>38</v>
       </c>
       <c r="D45" s="3">
-        <v>226700</v>
+        <v>226500</v>
       </c>
       <c r="E45" s="3">
         <v>126400</v>
       </c>
       <c r="F45" s="3">
-        <v>129900</v>
+        <v>129800</v>
       </c>
       <c r="G45" s="3">
-        <v>133600</v>
+        <v>133500</v>
       </c>
       <c r="H45" s="3">
         <v>130100</v>
       </c>
       <c r="I45" s="3">
-        <v>120600</v>
+        <v>120500</v>
       </c>
       <c r="J45" s="3">
-        <v>153100</v>
+        <v>153000</v>
       </c>
       <c r="K45" s="3">
         <v>109800</v>
@@ -3007,25 +3007,25 @@
         <v>39</v>
       </c>
       <c r="D46" s="3">
-        <v>914700</v>
+        <v>914100</v>
       </c>
       <c r="E46" s="3">
-        <v>495300</v>
+        <v>495000</v>
       </c>
       <c r="F46" s="3">
-        <v>1100400</v>
+        <v>1099700</v>
       </c>
       <c r="G46" s="3">
-        <v>1060300</v>
+        <v>1059600</v>
       </c>
       <c r="H46" s="3">
-        <v>1304700</v>
+        <v>1303800</v>
       </c>
       <c r="I46" s="3">
-        <v>1285700</v>
+        <v>1284900</v>
       </c>
       <c r="J46" s="3">
-        <v>1052400</v>
+        <v>1051700</v>
       </c>
       <c r="K46" s="3">
         <v>901300</v>
@@ -3075,16 +3075,16 @@
         <v>40</v>
       </c>
       <c r="D47" s="3">
-        <v>38300</v>
+        <v>38200</v>
       </c>
       <c r="E47" s="3">
         <v>26900</v>
       </c>
       <c r="F47" s="3">
-        <v>116000</v>
+        <v>115900</v>
       </c>
       <c r="G47" s="3">
-        <v>112000</v>
+        <v>111900</v>
       </c>
       <c r="H47" s="3" t="s">
         <v>5</v>
@@ -3415,16 +3415,16 @@
         <v>45</v>
       </c>
       <c r="D52" s="3">
-        <v>183100</v>
+        <v>183000</v>
       </c>
       <c r="E52" s="3">
-        <v>328200</v>
+        <v>328000</v>
       </c>
       <c r="F52" s="3">
-        <v>194200</v>
+        <v>194100</v>
       </c>
       <c r="G52" s="3">
-        <v>167700</v>
+        <v>167600</v>
       </c>
       <c r="H52" s="3" t="s">
         <v>5</v>
@@ -3551,25 +3551,25 @@
         <v>47</v>
       </c>
       <c r="D54" s="3">
-        <v>1238100</v>
+        <v>1237300</v>
       </c>
       <c r="E54" s="3">
-        <v>852400</v>
+        <v>851900</v>
       </c>
       <c r="F54" s="3">
-        <v>1412600</v>
+        <v>1411700</v>
       </c>
       <c r="G54" s="3">
-        <v>1341900</v>
+        <v>1341000</v>
       </c>
       <c r="H54" s="3">
-        <v>1306600</v>
+        <v>1305800</v>
       </c>
       <c r="I54" s="3">
-        <v>1287600</v>
+        <v>1286800</v>
       </c>
       <c r="J54" s="3">
-        <v>1054300</v>
+        <v>1053700</v>
       </c>
       <c r="K54" s="3">
         <v>903200</v>
@@ -3683,10 +3683,10 @@
         <v>36100</v>
       </c>
       <c r="H57" s="3">
-        <v>53800</v>
+        <v>53700</v>
       </c>
       <c r="I57" s="3">
-        <v>81900</v>
+        <v>81800</v>
       </c>
       <c r="J57" s="3">
         <v>71100</v>
@@ -3742,7 +3742,7 @@
         <v>20900</v>
       </c>
       <c r="E58" s="3">
-        <v>49600</v>
+        <v>49500</v>
       </c>
       <c r="F58" s="3">
         <v>29600</v>
@@ -3810,7 +3810,7 @@
         <v>20400</v>
       </c>
       <c r="E59" s="3">
-        <v>17400</v>
+        <v>17300</v>
       </c>
       <c r="F59" s="3">
         <v>12700</v>
@@ -3875,25 +3875,25 @@
         <v>53</v>
       </c>
       <c r="D60" s="3">
-        <v>101000</v>
+        <v>100900</v>
       </c>
       <c r="E60" s="3">
         <v>98400</v>
       </c>
       <c r="F60" s="3">
-        <v>83300</v>
+        <v>83200</v>
       </c>
       <c r="G60" s="3">
         <v>87400</v>
       </c>
       <c r="H60" s="3">
-        <v>95900</v>
+        <v>95800</v>
       </c>
       <c r="I60" s="3">
-        <v>93000</v>
+        <v>92900</v>
       </c>
       <c r="J60" s="3">
-        <v>138000</v>
+        <v>137900</v>
       </c>
       <c r="K60" s="3">
         <v>113100</v>
@@ -4283,16 +4283,16 @@
         <v>58</v>
       </c>
       <c r="D66" s="3">
-        <v>124100</v>
+        <v>124000</v>
       </c>
       <c r="E66" s="3">
         <v>116400</v>
       </c>
       <c r="F66" s="3">
-        <v>100700</v>
+        <v>100600</v>
       </c>
       <c r="G66" s="3">
-        <v>102300</v>
+        <v>102200</v>
       </c>
       <c r="H66" s="3">
         <v>111400</v>
@@ -4301,7 +4301,7 @@
         <v>108300</v>
       </c>
       <c r="J66" s="3">
-        <v>183900</v>
+        <v>183700</v>
       </c>
       <c r="K66" s="3">
         <v>144000</v>
@@ -4649,25 +4649,25 @@
         <v>64</v>
       </c>
       <c r="D72" s="3">
-        <v>1525400</v>
+        <v>1524500</v>
       </c>
       <c r="E72" s="3">
-        <v>1147400</v>
+        <v>1146700</v>
       </c>
       <c r="F72" s="3">
-        <v>1077900</v>
+        <v>1077200</v>
       </c>
       <c r="G72" s="3">
-        <v>1005600</v>
+        <v>1005000</v>
       </c>
       <c r="H72" s="3">
-        <v>957300</v>
+        <v>956700</v>
       </c>
       <c r="I72" s="3">
-        <v>945400</v>
+        <v>944800</v>
       </c>
       <c r="J72" s="3">
-        <v>870500</v>
+        <v>869900</v>
       </c>
       <c r="K72" s="3">
         <v>759100</v>
@@ -4921,25 +4921,25 @@
         <v>68</v>
       </c>
       <c r="D76" s="3">
-        <v>1114000</v>
+        <v>1113300</v>
       </c>
       <c r="E76" s="3">
-        <v>736000</v>
+        <v>735500</v>
       </c>
       <c r="F76" s="3">
-        <v>1311900</v>
+        <v>1311100</v>
       </c>
       <c r="G76" s="3">
-        <v>1239600</v>
+        <v>1238900</v>
       </c>
       <c r="H76" s="3">
-        <v>1195200</v>
+        <v>1194400</v>
       </c>
       <c r="I76" s="3">
-        <v>1179300</v>
+        <v>1178600</v>
       </c>
       <c r="J76" s="3">
-        <v>870500</v>
+        <v>870000</v>
       </c>
       <c r="K76" s="3">
         <v>759200</v>
@@ -5133,10 +5133,10 @@
         <v>94500</v>
       </c>
       <c r="E81" s="3">
-        <v>67500</v>
+        <v>67400</v>
       </c>
       <c r="F81" s="3">
-        <v>72300</v>
+        <v>72200</v>
       </c>
       <c r="G81" s="3">
         <v>48300</v>

--- a/AAII_Financials/Quarterly/AMTD_QTR_FIN.xlsx
+++ b/AAII_Financials/Quarterly/AMTD_QTR_FIN.xlsx
@@ -22,7 +22,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="209" uniqueCount="92">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="227" uniqueCount="92">
   <si>
     <t>AMTD</t>
   </si>
@@ -656,7 +656,7 @@
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
   <sheetPr codeName="Sheet2"/>
-  <dimension ref="A5:X102"/>
+  <dimension ref="A5:Y102"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0"/>
   </sheetViews>
@@ -665,172 +665,179 @@
     <col min="1" max="1" width="7.85546875" style="1" bestFit="1" customWidth="1"/>
     <col min="2" max="2" width="26.85546875" style="1" bestFit="1" customWidth="1"/>
     <col min="3" max="3" width="69.140625" style="1" bestFit="1" customWidth="1"/>
-    <col min="4" max="4" width="14.42578125" style="1" bestFit="1" customWidth="1"/>
-    <col min="5" max="5" width="14.7109375" style="1" bestFit="1" customWidth="1"/>
-    <col min="6" max="6" width="14.42578125" style="1" bestFit="1" customWidth="1"/>
-    <col min="7" max="8" width="14.7109375" style="1" bestFit="1" customWidth="1"/>
-    <col min="9" max="9" width="14.42578125" style="1" bestFit="1" customWidth="1"/>
-    <col min="10" max="11" width="14.7109375" style="1" bestFit="1" customWidth="1"/>
-    <col min="12" max="12" width="14.42578125" style="1" bestFit="1" customWidth="1"/>
-    <col min="13" max="13" width="14.5703125" style="1" bestFit="1" customWidth="1"/>
-    <col min="14" max="14" width="14.85546875" style="1" bestFit="1" customWidth="1"/>
-    <col min="15" max="16" width="14.7109375" style="1" bestFit="1" customWidth="1"/>
-    <col min="17" max="17" width="14.5703125" style="1" bestFit="1" customWidth="1"/>
-    <col min="18" max="18" width="14.85546875" style="1" bestFit="1" customWidth="1"/>
-    <col min="19" max="20" width="14.7109375" style="1" bestFit="1" customWidth="1"/>
-    <col min="21" max="21" width="14.5703125" style="1" bestFit="1" customWidth="1"/>
-    <col min="22" max="22" width="14.85546875" style="1" bestFit="1" customWidth="1"/>
-    <col min="23" max="24" width="14.7109375" style="1" bestFit="1" customWidth="1"/>
-    <col min="25" max="16384" width="9.140625" style="1"/>
+    <col min="4" max="4" width="14.7109375" style="1" bestFit="1" customWidth="1"/>
+    <col min="5" max="5" width="14.42578125" style="1" bestFit="1" customWidth="1"/>
+    <col min="6" max="6" width="14.7109375" style="1" bestFit="1" customWidth="1"/>
+    <col min="7" max="7" width="14.42578125" style="1" bestFit="1" customWidth="1"/>
+    <col min="8" max="9" width="14.7109375" style="1" bestFit="1" customWidth="1"/>
+    <col min="10" max="10" width="14.42578125" style="1" bestFit="1" customWidth="1"/>
+    <col min="11" max="12" width="14.7109375" style="1" bestFit="1" customWidth="1"/>
+    <col min="13" max="13" width="14.42578125" style="1" bestFit="1" customWidth="1"/>
+    <col min="14" max="14" width="14.5703125" style="1" bestFit="1" customWidth="1"/>
+    <col min="15" max="15" width="14.85546875" style="1" bestFit="1" customWidth="1"/>
+    <col min="16" max="17" width="14.7109375" style="1" bestFit="1" customWidth="1"/>
+    <col min="18" max="18" width="14.5703125" style="1" bestFit="1" customWidth="1"/>
+    <col min="19" max="19" width="14.85546875" style="1" bestFit="1" customWidth="1"/>
+    <col min="20" max="21" width="14.7109375" style="1" bestFit="1" customWidth="1"/>
+    <col min="22" max="22" width="14.5703125" style="1" bestFit="1" customWidth="1"/>
+    <col min="23" max="23" width="14.85546875" style="1" bestFit="1" customWidth="1"/>
+    <col min="24" max="25" width="14.7109375" style="1" bestFit="1" customWidth="1"/>
+    <col min="26" max="16384" width="9.140625" style="1"/>
   </cols>
   <sheetData>
-    <row r="5" spans="1:24" x14ac:dyDescent="0.2">
+    <row r="5" spans="1:25" x14ac:dyDescent="0.2">
       <c r="A5" s="1" t="s">
         <v>0</v>
       </c>
     </row>
-    <row r="6" spans="1:24" x14ac:dyDescent="0.2">
+    <row r="6" spans="1:25" x14ac:dyDescent="0.2">
       <c r="B6" s="1" t="s">
         <v>1</v>
       </c>
     </row>
-    <row r="7" spans="1:24" x14ac:dyDescent="0.2">
+    <row r="7" spans="1:25" x14ac:dyDescent="0.2">
       <c r="C7" s="1" t="s">
         <v>2</v>
       </c>
       <c r="D7" s="2">
+        <v>44926</v>
+      </c>
+      <c r="E7" s="2">
         <v>44742</v>
       </c>
-      <c r="E7" s="2">
+      <c r="F7" s="2">
         <v>44561</v>
       </c>
-      <c r="F7" s="2">
+      <c r="G7" s="2">
         <v>44377</v>
       </c>
-      <c r="G7" s="2">
+      <c r="H7" s="2">
         <v>44196</v>
       </c>
-      <c r="H7" s="2">
+      <c r="I7" s="2">
         <v>44104</v>
       </c>
-      <c r="I7" s="2">
+      <c r="J7" s="2">
         <v>44012</v>
       </c>
-      <c r="J7" s="2">
+      <c r="K7" s="2">
         <v>43830</v>
       </c>
-      <c r="K7" s="2">
+      <c r="L7" s="2">
         <v>43738</v>
-      </c>
-      <c r="L7" s="2">
-        <v>43646</v>
       </c>
       <c r="M7" s="2">
         <v>43646</v>
       </c>
       <c r="N7" s="2">
+        <v>43646</v>
+      </c>
+      <c r="O7" s="2">
         <v>43555</v>
       </c>
-      <c r="O7" s="2">
+      <c r="P7" s="2">
         <v>43465</v>
       </c>
-      <c r="P7" s="2">
+      <c r="Q7" s="2">
         <v>43373</v>
       </c>
-      <c r="Q7" s="2">
+      <c r="R7" s="2">
         <v>43281</v>
       </c>
-      <c r="R7" s="2">
+      <c r="S7" s="2">
         <v>43190</v>
       </c>
-      <c r="S7" s="2">
+      <c r="T7" s="2">
         <v>43100</v>
       </c>
-      <c r="T7" s="2">
+      <c r="U7" s="2">
         <v>43008</v>
       </c>
-      <c r="U7" s="2">
+      <c r="V7" s="2">
         <v>42916</v>
       </c>
-      <c r="V7" s="2">
+      <c r="W7" s="2">
         <v>42825</v>
       </c>
-      <c r="W7" s="2">
+      <c r="X7" s="2">
         <v>42735</v>
       </c>
-      <c r="X7" s="2">
+      <c r="Y7" s="2">
         <v>42643</v>
       </c>
     </row>
-    <row r="8" spans="1:24" x14ac:dyDescent="0.2">
+    <row r="8" spans="1:25" x14ac:dyDescent="0.2">
       <c r="C8" s="1" t="s">
         <v>3</v>
       </c>
-      <c r="D8" s="3">
-        <v>75000</v>
+      <c r="D8" s="3" t="s">
+        <v>5</v>
       </c>
       <c r="E8" s="3">
-        <v>42700</v>
+        <v>75200</v>
       </c>
       <c r="F8" s="3">
-        <v>66200</v>
+        <v>42800</v>
       </c>
       <c r="G8" s="3">
+        <v>66400</v>
+      </c>
+      <c r="H8" s="3">
         <v>19800</v>
       </c>
-      <c r="H8" s="3">
+      <c r="I8" s="3">
         <v>10700</v>
       </c>
-      <c r="I8" s="3">
-        <v>68700</v>
-      </c>
       <c r="J8" s="3">
+        <v>68900</v>
+      </c>
+      <c r="K8" s="3">
         <v>20100</v>
       </c>
-      <c r="K8" s="3">
+      <c r="L8" s="3">
         <v>18500</v>
       </c>
-      <c r="L8" s="3">
+      <c r="M8" s="3">
         <v>25000</v>
       </c>
-      <c r="M8" s="3">
+      <c r="N8" s="3">
         <v>1491000</v>
       </c>
-      <c r="N8" s="3">
+      <c r="O8" s="3">
         <v>1451000</v>
       </c>
-      <c r="O8" s="3">
+      <c r="P8" s="3">
         <v>1516000</v>
       </c>
-      <c r="P8" s="3">
+      <c r="Q8" s="3">
         <v>1398000</v>
       </c>
-      <c r="Q8" s="3">
+      <c r="R8" s="3">
         <v>1382000</v>
       </c>
-      <c r="R8" s="3">
+      <c r="S8" s="3">
         <v>1415000</v>
       </c>
-      <c r="S8" s="3">
+      <c r="T8" s="3">
         <v>1257000</v>
       </c>
-      <c r="T8" s="3">
+      <c r="U8" s="3">
         <v>983000</v>
       </c>
-      <c r="U8" s="3">
+      <c r="V8" s="3">
         <v>931000</v>
       </c>
-      <c r="V8" s="3">
+      <c r="W8" s="3">
         <v>904000</v>
       </c>
-      <c r="W8" s="3">
+      <c r="X8" s="3">
         <v>859000</v>
       </c>
-      <c r="X8" s="3">
+      <c r="Y8" s="3">
         <v>830000</v>
       </c>
     </row>
-    <row r="9" spans="1:24" x14ac:dyDescent="0.2">
+    <row r="9" spans="1:25" x14ac:dyDescent="0.2">
       <c r="C9" s="1" t="s">
         <v>4</v>
       </c>
@@ -861,18 +868,18 @@
       <c r="L9" s="3" t="s">
         <v>5</v>
       </c>
-      <c r="M9" s="3">
+      <c r="M9" s="3" t="s">
+        <v>5</v>
+      </c>
+      <c r="N9" s="3">
         <v>59000</v>
       </c>
-      <c r="N9" s="3">
+      <c r="O9" s="3">
         <v>53000</v>
       </c>
-      <c r="O9" s="3">
+      <c r="P9" s="3">
         <v>49000</v>
       </c>
-      <c r="P9" s="3" t="s">
-        <v>5</v>
-      </c>
       <c r="Q9" s="3" t="s">
         <v>5</v>
       </c>
@@ -897,8 +904,11 @@
       <c r="X9" s="3" t="s">
         <v>5</v>
       </c>
-    </row>
-    <row r="10" spans="1:24" x14ac:dyDescent="0.2">
+      <c r="Y9" s="3" t="s">
+        <v>5</v>
+      </c>
+    </row>
+    <row r="10" spans="1:25" x14ac:dyDescent="0.2">
       <c r="C10" s="1" t="s">
         <v>6</v>
       </c>
@@ -929,18 +939,18 @@
       <c r="L10" s="3" t="s">
         <v>5</v>
       </c>
-      <c r="M10" s="3">
+      <c r="M10" s="3" t="s">
+        <v>5</v>
+      </c>
+      <c r="N10" s="3">
         <v>1432000</v>
       </c>
-      <c r="N10" s="3">
+      <c r="O10" s="3">
         <v>1398000</v>
       </c>
-      <c r="O10" s="3">
+      <c r="P10" s="3">
         <v>1467000</v>
       </c>
-      <c r="P10" s="3" t="s">
-        <v>5</v>
-      </c>
       <c r="Q10" s="3" t="s">
         <v>5</v>
       </c>
@@ -965,8 +975,11 @@
       <c r="X10" s="3" t="s">
         <v>5</v>
       </c>
-    </row>
-    <row r="11" spans="1:24" x14ac:dyDescent="0.2">
+      <c r="Y10" s="3" t="s">
+        <v>5</v>
+      </c>
+    </row>
+    <row r="11" spans="1:25" x14ac:dyDescent="0.2">
       <c r="C11" s="1" t="s">
         <v>7</v>
       </c>
@@ -991,8 +1004,9 @@
       <c r="V11" s="3"/>
       <c r="W11" s="3"/>
       <c r="X11" s="3"/>
-    </row>
-    <row r="12" spans="1:24" x14ac:dyDescent="0.2">
+      <c r="Y11" s="3"/>
+    </row>
+    <row r="12" spans="1:25" x14ac:dyDescent="0.2">
       <c r="C12" s="1" t="s">
         <v>8</v>
       </c>
@@ -1059,8 +1073,11 @@
       <c r="X12" s="3" t="s">
         <v>5</v>
       </c>
-    </row>
-    <row r="13" spans="1:24" x14ac:dyDescent="0.2">
+      <c r="Y12" s="3" t="s">
+        <v>5</v>
+      </c>
+    </row>
+    <row r="13" spans="1:25" x14ac:dyDescent="0.2">
       <c r="C13" s="1" t="s">
         <v>9</v>
       </c>
@@ -1127,8 +1144,11 @@
       <c r="X13" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="14" spans="1:24" x14ac:dyDescent="0.2">
+      <c r="Y13" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="14" spans="1:25" x14ac:dyDescent="0.2">
       <c r="C14" s="1" t="s">
         <v>10</v>
       </c>
@@ -1141,12 +1161,12 @@
       <c r="F14" s="3" t="s">
         <v>5</v>
       </c>
-      <c r="G14" s="3">
+      <c r="G14" s="3" t="s">
+        <v>5</v>
+      </c>
+      <c r="H14" s="3">
         <v>2200</v>
       </c>
-      <c r="H14" s="3" t="s">
-        <v>5</v>
-      </c>
       <c r="I14" s="3" t="s">
         <v>5</v>
       </c>
@@ -1159,44 +1179,47 @@
       <c r="L14" s="3" t="s">
         <v>5</v>
       </c>
-      <c r="M14" s="3">
+      <c r="M14" s="3" t="s">
+        <v>5</v>
+      </c>
+      <c r="N14" s="3">
         <v>-60000</v>
       </c>
-      <c r="N14" s="3" t="s">
-        <v>5</v>
-      </c>
       <c r="O14" s="3" t="s">
         <v>5</v>
       </c>
-      <c r="P14" s="3">
+      <c r="P14" s="3" t="s">
+        <v>5</v>
+      </c>
+      <c r="Q14" s="3">
         <v>1000</v>
       </c>
-      <c r="Q14" s="3" t="s">
-        <v>5</v>
-      </c>
       <c r="R14" s="3" t="s">
         <v>5</v>
       </c>
       <c r="S14" s="3" t="s">
         <v>5</v>
       </c>
-      <c r="T14" s="3">
-        <v>0</v>
+      <c r="T14" s="3" t="s">
+        <v>5</v>
       </c>
       <c r="U14" s="3">
+        <v>0</v>
+      </c>
+      <c r="V14" s="3">
         <v>1000</v>
       </c>
-      <c r="V14" s="3" t="s">
-        <v>5</v>
-      </c>
       <c r="W14" s="3" t="s">
         <v>5</v>
       </c>
       <c r="X14" s="3" t="s">
         <v>5</v>
       </c>
-    </row>
-    <row r="15" spans="1:24" x14ac:dyDescent="0.2">
+      <c r="Y14" s="3" t="s">
+        <v>5</v>
+      </c>
+    </row>
+    <row r="15" spans="1:25" x14ac:dyDescent="0.2">
       <c r="C15" s="1" t="s">
         <v>11</v>
       </c>
@@ -1228,43 +1251,46 @@
         <v>0</v>
       </c>
       <c r="M15" s="3">
+        <v>0</v>
+      </c>
+      <c r="N15" s="3">
         <v>69000</v>
       </c>
-      <c r="N15" s="3">
+      <c r="O15" s="3">
         <v>67000</v>
       </c>
-      <c r="O15" s="3">
+      <c r="P15" s="3">
         <v>66000</v>
       </c>
-      <c r="P15" s="3">
+      <c r="Q15" s="3">
         <v>70000</v>
       </c>
-      <c r="Q15" s="3">
+      <c r="R15" s="3">
         <v>69000</v>
-      </c>
-      <c r="R15" s="3">
-        <v>72000</v>
       </c>
       <c r="S15" s="3">
         <v>72000</v>
       </c>
       <c r="T15" s="3">
+        <v>72000</v>
+      </c>
+      <c r="U15" s="3">
         <v>50000</v>
-      </c>
-      <c r="U15" s="3">
-        <v>44000</v>
       </c>
       <c r="V15" s="3">
         <v>44000</v>
       </c>
       <c r="W15" s="3">
+        <v>44000</v>
+      </c>
+      <c r="X15" s="3">
         <v>43000</v>
       </c>
-      <c r="X15" s="3">
+      <c r="Y15" s="3">
         <v>45000</v>
       </c>
     </row>
-    <row r="16" spans="1:24" x14ac:dyDescent="0.2">
+    <row r="16" spans="1:25" x14ac:dyDescent="0.2">
       <c r="D16" s="3"/>
       <c r="E16" s="3"/>
       <c r="F16" s="3"/>
@@ -1286,144 +1312,151 @@
       <c r="V16" s="3"/>
       <c r="W16" s="3"/>
       <c r="X16" s="3"/>
-    </row>
-    <row r="17" spans="3:24" x14ac:dyDescent="0.2">
+      <c r="Y16" s="3"/>
+    </row>
+    <row r="17" spans="3:25" x14ac:dyDescent="0.2">
       <c r="C17" s="1" t="s">
         <v>12</v>
       </c>
-      <c r="D17" s="3">
-        <v>15200</v>
+      <c r="D17" s="3" t="s">
+        <v>5</v>
       </c>
       <c r="E17" s="3">
-        <v>12000</v>
+        <v>15300</v>
       </c>
       <c r="F17" s="3">
+        <v>12100</v>
+      </c>
+      <c r="G17" s="3">
         <v>10800</v>
       </c>
-      <c r="G17" s="3">
+      <c r="H17" s="3">
         <v>4400</v>
       </c>
-      <c r="H17" s="3">
+      <c r="I17" s="3">
         <v>6600</v>
       </c>
-      <c r="I17" s="3">
-        <v>16400</v>
-      </c>
       <c r="J17" s="3">
+        <v>16500</v>
+      </c>
+      <c r="K17" s="3">
         <v>7300</v>
-      </c>
-      <c r="K17" s="3">
-        <v>6900</v>
       </c>
       <c r="L17" s="3">
         <v>6900</v>
       </c>
       <c r="M17" s="3">
+        <v>6900</v>
+      </c>
+      <c r="N17" s="3">
         <v>711000</v>
       </c>
-      <c r="N17" s="3">
+      <c r="O17" s="3">
         <v>746000</v>
       </c>
-      <c r="O17" s="3">
+      <c r="P17" s="3">
         <v>720000</v>
       </c>
-      <c r="P17" s="3">
+      <c r="Q17" s="3">
         <v>764000</v>
       </c>
-      <c r="Q17" s="3">
+      <c r="R17" s="3">
         <v>751000</v>
       </c>
-      <c r="R17" s="3">
+      <c r="S17" s="3">
         <v>1019000</v>
       </c>
-      <c r="S17" s="3">
+      <c r="T17" s="3">
         <v>921000</v>
       </c>
-      <c r="T17" s="3">
+      <c r="U17" s="3">
         <v>622000</v>
       </c>
-      <c r="U17" s="3">
+      <c r="V17" s="3">
         <v>538000</v>
       </c>
-      <c r="V17" s="3">
+      <c r="W17" s="3">
         <v>546000</v>
       </c>
-      <c r="W17" s="3">
+      <c r="X17" s="3">
         <v>506000</v>
       </c>
-      <c r="X17" s="3">
+      <c r="Y17" s="3">
         <v>546000</v>
       </c>
     </row>
-    <row r="18" spans="3:24" x14ac:dyDescent="0.2">
+    <row r="18" spans="3:25" x14ac:dyDescent="0.2">
       <c r="C18" s="1" t="s">
         <v>13</v>
       </c>
-      <c r="D18" s="3">
-        <v>59800</v>
+      <c r="D18" s="3" t="s">
+        <v>5</v>
       </c>
       <c r="E18" s="3">
-        <v>30600</v>
+        <v>59900</v>
       </c>
       <c r="F18" s="3">
-        <v>55300</v>
+        <v>30700</v>
       </c>
       <c r="G18" s="3">
+        <v>55500</v>
+      </c>
+      <c r="H18" s="3">
         <v>15400</v>
       </c>
-      <c r="H18" s="3">
+      <c r="I18" s="3">
         <v>4100</v>
       </c>
-      <c r="I18" s="3">
-        <v>52200</v>
-      </c>
       <c r="J18" s="3">
+        <v>52400</v>
+      </c>
+      <c r="K18" s="3">
         <v>12900</v>
       </c>
-      <c r="K18" s="3">
+      <c r="L18" s="3">
         <v>11600</v>
       </c>
-      <c r="L18" s="3">
+      <c r="M18" s="3">
         <v>18200</v>
       </c>
-      <c r="M18" s="3">
+      <c r="N18" s="3">
         <v>780000</v>
       </c>
-      <c r="N18" s="3">
+      <c r="O18" s="3">
         <v>705000</v>
       </c>
-      <c r="O18" s="3">
+      <c r="P18" s="3">
         <v>796000</v>
       </c>
-      <c r="P18" s="3">
+      <c r="Q18" s="3">
         <v>634000</v>
       </c>
-      <c r="Q18" s="3">
+      <c r="R18" s="3">
         <v>631000</v>
       </c>
-      <c r="R18" s="3">
+      <c r="S18" s="3">
         <v>396000</v>
       </c>
-      <c r="S18" s="3">
+      <c r="T18" s="3">
         <v>336000</v>
       </c>
-      <c r="T18" s="3">
+      <c r="U18" s="3">
         <v>361000</v>
       </c>
-      <c r="U18" s="3">
+      <c r="V18" s="3">
         <v>393000</v>
       </c>
-      <c r="V18" s="3">
+      <c r="W18" s="3">
         <v>358000</v>
       </c>
-      <c r="W18" s="3">
+      <c r="X18" s="3">
         <v>353000</v>
       </c>
-      <c r="X18" s="3">
+      <c r="Y18" s="3">
         <v>284000</v>
       </c>
     </row>
-    <row r="19" spans="3:24" x14ac:dyDescent="0.2">
+    <row r="19" spans="3:25" x14ac:dyDescent="0.2">
       <c r="C19" s="1" t="s">
         <v>14</v>
       </c>
@@ -1448,62 +1481,63 @@
       <c r="V19" s="3"/>
       <c r="W19" s="3"/>
       <c r="X19" s="3"/>
-    </row>
-    <row r="20" spans="3:24" x14ac:dyDescent="0.2">
+      <c r="Y19" s="3"/>
+    </row>
+    <row r="20" spans="3:25" x14ac:dyDescent="0.2">
       <c r="C20" s="1" t="s">
         <v>15</v>
       </c>
-      <c r="D20" s="3">
-        <v>51600</v>
+      <c r="D20" s="3" t="s">
+        <v>5</v>
       </c>
       <c r="E20" s="3">
-        <v>50200</v>
+        <v>51700</v>
       </c>
       <c r="F20" s="3">
-        <v>35000</v>
+        <v>50400</v>
       </c>
       <c r="G20" s="3">
-        <v>40700</v>
+        <v>35100</v>
       </c>
       <c r="H20" s="3">
-        <v>13400</v>
+        <v>40800</v>
       </c>
       <c r="I20" s="3">
+        <v>13500</v>
+      </c>
+      <c r="J20" s="3">
         <v>4500</v>
       </c>
-      <c r="J20" s="3">
+      <c r="K20" s="3">
         <v>2400</v>
       </c>
-      <c r="K20" s="3">
+      <c r="L20" s="3">
         <v>36500</v>
       </c>
-      <c r="L20" s="3">
+      <c r="M20" s="3">
         <v>14800</v>
       </c>
-      <c r="M20" s="3">
-        <v>0</v>
-      </c>
       <c r="N20" s="3">
         <v>0</v>
       </c>
       <c r="O20" s="3">
+        <v>0</v>
+      </c>
+      <c r="P20" s="3">
         <v>14000</v>
       </c>
-      <c r="P20" s="3">
+      <c r="Q20" s="3">
         <v>2000</v>
       </c>
-      <c r="Q20" s="3">
-        <v>0</v>
-      </c>
       <c r="R20" s="3">
         <v>0</v>
       </c>
       <c r="S20" s="3">
+        <v>0</v>
+      </c>
+      <c r="T20" s="3">
         <v>-13000</v>
       </c>
-      <c r="T20" s="3">
-        <v>0</v>
-      </c>
       <c r="U20" s="3">
         <v>0</v>
       </c>
@@ -1516,8 +1550,11 @@
       <c r="X20" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="21" spans="3:24" x14ac:dyDescent="0.2">
+      <c r="Y20" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="21" spans="3:25" x14ac:dyDescent="0.2">
       <c r="C21" s="1" t="s">
         <v>16</v>
       </c>
@@ -1539,112 +1576,115 @@
       <c r="I21" s="3" t="s">
         <v>5</v>
       </c>
-      <c r="J21" s="3">
+      <c r="J21" s="3" t="s">
+        <v>5</v>
+      </c>
+      <c r="K21" s="3">
         <v>15300</v>
       </c>
-      <c r="K21" s="3" t="s">
-        <v>5</v>
-      </c>
       <c r="L21" s="3" t="s">
         <v>5</v>
       </c>
-      <c r="M21" s="3">
+      <c r="M21" s="3" t="s">
+        <v>5</v>
+      </c>
+      <c r="N21" s="3">
         <v>849000</v>
       </c>
-      <c r="N21" s="3">
+      <c r="O21" s="3">
         <v>772000</v>
       </c>
-      <c r="O21" s="3">
+      <c r="P21" s="3">
         <v>876000</v>
       </c>
-      <c r="P21" s="3">
+      <c r="Q21" s="3">
         <v>706000</v>
       </c>
-      <c r="Q21" s="3">
+      <c r="R21" s="3">
         <v>700000</v>
       </c>
-      <c r="R21" s="3">
+      <c r="S21" s="3">
         <v>468000</v>
       </c>
-      <c r="S21" s="3">
+      <c r="T21" s="3">
         <v>395000</v>
       </c>
-      <c r="T21" s="3">
+      <c r="U21" s="3">
         <v>411000</v>
       </c>
-      <c r="U21" s="3">
+      <c r="V21" s="3">
         <v>437000</v>
       </c>
-      <c r="V21" s="3">
+      <c r="W21" s="3">
         <v>402000</v>
       </c>
-      <c r="W21" s="3">
+      <c r="X21" s="3">
         <v>396000</v>
       </c>
-      <c r="X21" s="3">
+      <c r="Y21" s="3">
         <v>329000</v>
       </c>
     </row>
-    <row r="22" spans="3:24" x14ac:dyDescent="0.2">
+    <row r="22" spans="3:25" x14ac:dyDescent="0.2">
       <c r="C22" s="1" t="s">
         <v>17</v>
       </c>
       <c r="D22" s="3">
+        <v>500</v>
+      </c>
+      <c r="E22" s="3">
         <v>300</v>
-      </c>
-      <c r="E22" s="3">
-        <v>800</v>
       </c>
       <c r="F22" s="3">
         <v>800</v>
       </c>
       <c r="G22" s="3">
+        <v>800</v>
+      </c>
+      <c r="H22" s="3">
         <v>500</v>
       </c>
-      <c r="H22" s="3">
+      <c r="I22" s="3">
         <v>400</v>
       </c>
-      <c r="I22" s="3">
+      <c r="J22" s="3">
         <v>1900</v>
       </c>
-      <c r="J22" s="3">
+      <c r="K22" s="3">
         <v>1500</v>
-      </c>
-      <c r="K22" s="3">
-        <v>700</v>
       </c>
       <c r="L22" s="3">
         <v>700</v>
       </c>
       <c r="M22" s="3">
-        <v>37000</v>
+        <v>700</v>
       </c>
       <c r="N22" s="3">
         <v>37000</v>
       </c>
       <c r="O22" s="3">
+        <v>37000</v>
+      </c>
+      <c r="P22" s="3">
         <v>32000</v>
       </c>
-      <c r="P22" s="3">
+      <c r="Q22" s="3">
         <v>27000</v>
       </c>
-      <c r="Q22" s="3">
+      <c r="R22" s="3">
         <v>28000</v>
       </c>
-      <c r="R22" s="3">
+      <c r="S22" s="3">
         <v>24000</v>
       </c>
-      <c r="S22" s="3">
+      <c r="T22" s="3">
         <v>20000</v>
       </c>
-      <c r="T22" s="3">
+      <c r="U22" s="3">
         <v>23000</v>
       </c>
-      <c r="U22" s="3">
+      <c r="V22" s="3">
         <v>20000</v>
-      </c>
-      <c r="V22" s="3">
-        <v>14000</v>
       </c>
       <c r="W22" s="3">
         <v>14000</v>
@@ -1652,144 +1692,153 @@
       <c r="X22" s="3">
         <v>14000</v>
       </c>
-    </row>
-    <row r="23" spans="3:24" x14ac:dyDescent="0.2">
+      <c r="Y22" s="3">
+        <v>14000</v>
+      </c>
+    </row>
+    <row r="23" spans="3:25" x14ac:dyDescent="0.2">
       <c r="C23" s="1" t="s">
         <v>18</v>
       </c>
       <c r="D23" s="3">
-        <v>111000</v>
+        <v>62700</v>
       </c>
       <c r="E23" s="3">
-        <v>80100</v>
+        <v>111300</v>
       </c>
       <c r="F23" s="3">
-        <v>89500</v>
+        <v>80300</v>
       </c>
       <c r="G23" s="3">
-        <v>55600</v>
+        <v>89800</v>
       </c>
       <c r="H23" s="3">
+        <v>55700</v>
+      </c>
+      <c r="I23" s="3">
         <v>17200</v>
       </c>
-      <c r="I23" s="3">
-        <v>54800</v>
-      </c>
       <c r="J23" s="3">
+        <v>55000</v>
+      </c>
+      <c r="K23" s="3">
         <v>13800</v>
       </c>
-      <c r="K23" s="3">
+      <c r="L23" s="3">
         <v>47400</v>
       </c>
-      <c r="L23" s="3">
+      <c r="M23" s="3">
         <v>32300</v>
       </c>
-      <c r="M23" s="3">
+      <c r="N23" s="3">
         <v>743000</v>
       </c>
-      <c r="N23" s="3">
+      <c r="O23" s="3">
         <v>668000</v>
       </c>
-      <c r="O23" s="3">
+      <c r="P23" s="3">
         <v>778000</v>
       </c>
-      <c r="P23" s="3">
+      <c r="Q23" s="3">
         <v>609000</v>
       </c>
-      <c r="Q23" s="3">
+      <c r="R23" s="3">
         <v>603000</v>
       </c>
-      <c r="R23" s="3">
+      <c r="S23" s="3">
         <v>372000</v>
       </c>
-      <c r="S23" s="3">
+      <c r="T23" s="3">
         <v>303000</v>
       </c>
-      <c r="T23" s="3">
+      <c r="U23" s="3">
         <v>338000</v>
       </c>
-      <c r="U23" s="3">
+      <c r="V23" s="3">
         <v>373000</v>
       </c>
-      <c r="V23" s="3">
+      <c r="W23" s="3">
         <v>344000</v>
       </c>
-      <c r="W23" s="3">
+      <c r="X23" s="3">
         <v>339000</v>
       </c>
-      <c r="X23" s="3">
+      <c r="Y23" s="3">
         <v>270000</v>
       </c>
     </row>
-    <row r="24" spans="3:24" x14ac:dyDescent="0.2">
+    <row r="24" spans="3:25" x14ac:dyDescent="0.2">
       <c r="C24" s="1" t="s">
         <v>19</v>
       </c>
       <c r="D24" s="3">
+        <v>4500</v>
+      </c>
+      <c r="E24" s="3">
         <v>8900</v>
       </c>
-      <c r="E24" s="3">
+      <c r="F24" s="3">
         <v>4600</v>
       </c>
-      <c r="F24" s="3">
+      <c r="G24" s="3">
         <v>9300</v>
       </c>
-      <c r="G24" s="3">
-        <v>3200</v>
-      </c>
       <c r="H24" s="3">
+        <v>3300</v>
+      </c>
+      <c r="I24" s="3">
         <v>1300</v>
       </c>
-      <c r="I24" s="3">
-        <v>-22100</v>
-      </c>
       <c r="J24" s="3">
+        <v>-22200</v>
+      </c>
+      <c r="K24" s="3">
         <v>2400</v>
       </c>
-      <c r="K24" s="3">
+      <c r="L24" s="3">
         <v>8200</v>
       </c>
-      <c r="L24" s="3">
+      <c r="M24" s="3">
         <v>4200</v>
       </c>
-      <c r="M24" s="3">
+      <c r="N24" s="3">
         <v>188000</v>
       </c>
-      <c r="N24" s="3">
+      <c r="O24" s="3">
         <v>169000</v>
       </c>
-      <c r="O24" s="3">
+      <c r="P24" s="3">
         <v>174000</v>
-      </c>
-      <c r="P24" s="3">
-        <v>155000</v>
       </c>
       <c r="Q24" s="3">
         <v>155000</v>
       </c>
       <c r="R24" s="3">
+        <v>155000</v>
+      </c>
+      <c r="S24" s="3">
         <v>101000</v>
       </c>
-      <c r="S24" s="3">
+      <c r="T24" s="3">
         <v>74000</v>
       </c>
-      <c r="T24" s="3">
+      <c r="U24" s="3">
         <v>127000</v>
       </c>
-      <c r="U24" s="3">
+      <c r="V24" s="3">
         <v>142000</v>
       </c>
-      <c r="V24" s="3">
+      <c r="W24" s="3">
         <v>130000</v>
       </c>
-      <c r="W24" s="3">
+      <c r="X24" s="3">
         <v>123000</v>
       </c>
-      <c r="X24" s="3">
+      <c r="Y24" s="3">
         <v>85000</v>
       </c>
     </row>
-    <row r="25" spans="3:24" x14ac:dyDescent="0.2">
+    <row r="25" spans="3:25" x14ac:dyDescent="0.2">
       <c r="C25" s="1" t="s">
         <v>20</v>
       </c>
@@ -1856,144 +1905,153 @@
       <c r="X25" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="26" spans="3:24" x14ac:dyDescent="0.2">
+      <c r="Y25" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="26" spans="3:25" x14ac:dyDescent="0.2">
       <c r="C26" s="1" t="s">
         <v>21</v>
       </c>
-      <c r="D26" s="3">
-        <v>102100</v>
+      <c r="D26" s="3" t="s">
+        <v>5</v>
       </c>
       <c r="E26" s="3">
-        <v>75400</v>
+        <v>102400</v>
       </c>
       <c r="F26" s="3">
-        <v>80200</v>
+        <v>75700</v>
       </c>
       <c r="G26" s="3">
-        <v>52300</v>
+        <v>80500</v>
       </c>
       <c r="H26" s="3">
-        <v>15800</v>
+        <v>52500</v>
       </c>
       <c r="I26" s="3">
-        <v>76900</v>
+        <v>15900</v>
       </c>
       <c r="J26" s="3">
+        <v>77200</v>
+      </c>
+      <c r="K26" s="3">
         <v>11400</v>
       </c>
-      <c r="K26" s="3">
+      <c r="L26" s="3">
         <v>39200</v>
       </c>
-      <c r="L26" s="3">
+      <c r="M26" s="3">
         <v>28100</v>
       </c>
-      <c r="M26" s="3">
+      <c r="N26" s="3">
         <v>555000</v>
       </c>
-      <c r="N26" s="3">
+      <c r="O26" s="3">
         <v>499000</v>
       </c>
-      <c r="O26" s="3">
+      <c r="P26" s="3">
         <v>604000</v>
       </c>
-      <c r="P26" s="3">
+      <c r="Q26" s="3">
         <v>454000</v>
       </c>
-      <c r="Q26" s="3">
+      <c r="R26" s="3">
         <v>448000</v>
       </c>
-      <c r="R26" s="3">
+      <c r="S26" s="3">
         <v>271000</v>
       </c>
-      <c r="S26" s="3">
+      <c r="T26" s="3">
         <v>229000</v>
       </c>
-      <c r="T26" s="3">
+      <c r="U26" s="3">
         <v>211000</v>
       </c>
-      <c r="U26" s="3">
+      <c r="V26" s="3">
         <v>231000</v>
       </c>
-      <c r="V26" s="3">
+      <c r="W26" s="3">
         <v>214000</v>
       </c>
-      <c r="W26" s="3">
+      <c r="X26" s="3">
         <v>216000</v>
       </c>
-      <c r="X26" s="3">
+      <c r="Y26" s="3">
         <v>185000</v>
       </c>
     </row>
-    <row r="27" spans="3:24" x14ac:dyDescent="0.2">
+    <row r="27" spans="3:25" x14ac:dyDescent="0.2">
       <c r="C27" s="1" t="s">
         <v>22</v>
       </c>
-      <c r="D27" s="3">
-        <v>94500</v>
+      <c r="D27" s="3" t="s">
+        <v>5</v>
       </c>
       <c r="E27" s="3">
-        <v>67400</v>
+        <v>94800</v>
       </c>
       <c r="F27" s="3">
-        <v>72200</v>
+        <v>67600</v>
       </c>
       <c r="G27" s="3">
-        <v>48300</v>
+        <v>72500</v>
       </c>
       <c r="H27" s="3">
+        <v>48500</v>
+      </c>
+      <c r="I27" s="3">
         <v>11900</v>
       </c>
-      <c r="I27" s="3">
-        <v>74900</v>
-      </c>
       <c r="J27" s="3">
+        <v>75100</v>
+      </c>
+      <c r="K27" s="3">
         <v>11400</v>
       </c>
-      <c r="K27" s="3">
+      <c r="L27" s="3">
         <v>39200</v>
       </c>
-      <c r="L27" s="3">
+      <c r="M27" s="3">
         <v>28100</v>
       </c>
-      <c r="M27" s="3">
+      <c r="N27" s="3">
         <v>555000</v>
       </c>
-      <c r="N27" s="3">
+      <c r="O27" s="3">
         <v>499000</v>
       </c>
-      <c r="O27" s="3">
+      <c r="P27" s="3">
         <v>604000</v>
       </c>
-      <c r="P27" s="3">
+      <c r="Q27" s="3">
         <v>454000</v>
       </c>
-      <c r="Q27" s="3">
+      <c r="R27" s="3">
         <v>448000</v>
       </c>
-      <c r="R27" s="3">
+      <c r="S27" s="3">
         <v>271000</v>
       </c>
-      <c r="S27" s="3">
+      <c r="T27" s="3">
         <v>229000</v>
       </c>
-      <c r="T27" s="3">
+      <c r="U27" s="3">
         <v>211000</v>
       </c>
-      <c r="U27" s="3">
+      <c r="V27" s="3">
         <v>231000</v>
       </c>
-      <c r="V27" s="3">
+      <c r="W27" s="3">
         <v>214000</v>
       </c>
-      <c r="W27" s="3">
+      <c r="X27" s="3">
         <v>216000</v>
       </c>
-      <c r="X27" s="3">
+      <c r="Y27" s="3">
         <v>185000</v>
       </c>
     </row>
-    <row r="28" spans="3:24" x14ac:dyDescent="0.2">
+    <row r="28" spans="3:25" x14ac:dyDescent="0.2">
       <c r="C28" s="1" t="s">
         <v>23</v>
       </c>
@@ -2060,8 +2118,11 @@
       <c r="X28" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="29" spans="3:24" x14ac:dyDescent="0.2">
+      <c r="Y28" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="29" spans="3:25" x14ac:dyDescent="0.2">
       <c r="C29" s="1" t="s">
         <v>24</v>
       </c>
@@ -2092,8 +2153,8 @@
       <c r="L29" s="3">
         <v>0</v>
       </c>
-      <c r="M29" s="3" t="s">
-        <v>5</v>
+      <c r="M29" s="3">
+        <v>0</v>
       </c>
       <c r="N29" s="3" t="s">
         <v>5</v>
@@ -2101,21 +2162,21 @@
       <c r="O29" s="3" t="s">
         <v>5</v>
       </c>
-      <c r="P29" s="3">
-        <v>0</v>
+      <c r="P29" s="3" t="s">
+        <v>5</v>
       </c>
       <c r="Q29" s="3">
+        <v>0</v>
+      </c>
+      <c r="R29" s="3">
         <v>3000</v>
       </c>
-      <c r="R29" s="3">
-        <v>0</v>
-      </c>
       <c r="S29" s="3">
+        <v>0</v>
+      </c>
+      <c r="T29" s="3">
         <v>68000</v>
       </c>
-      <c r="T29" s="3" t="s">
-        <v>5</v>
-      </c>
       <c r="U29" s="3" t="s">
         <v>5</v>
       </c>
@@ -2128,8 +2189,11 @@
       <c r="X29" s="3" t="s">
         <v>5</v>
       </c>
-    </row>
-    <row r="30" spans="3:24" x14ac:dyDescent="0.2">
+      <c r="Y29" s="3" t="s">
+        <v>5</v>
+      </c>
+    </row>
+    <row r="30" spans="3:25" x14ac:dyDescent="0.2">
       <c r="C30" s="1" t="s">
         <v>25</v>
       </c>
@@ -2196,8 +2260,11 @@
       <c r="X30" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="31" spans="3:24" x14ac:dyDescent="0.2">
+      <c r="Y30" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="31" spans="3:25" x14ac:dyDescent="0.2">
       <c r="C31" s="1" t="s">
         <v>26</v>
       </c>
@@ -2264,62 +2331,65 @@
       <c r="X31" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="32" spans="3:24" x14ac:dyDescent="0.2">
+      <c r="Y31" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="32" spans="3:25" x14ac:dyDescent="0.2">
       <c r="C32" s="1" t="s">
         <v>27</v>
       </c>
-      <c r="D32" s="3">
-        <v>-51600</v>
+      <c r="D32" s="3" t="s">
+        <v>5</v>
       </c>
       <c r="E32" s="3">
-        <v>-50200</v>
+        <v>-51700</v>
       </c>
       <c r="F32" s="3">
-        <v>-35000</v>
+        <v>-50400</v>
       </c>
       <c r="G32" s="3">
-        <v>-40700</v>
+        <v>-35100</v>
       </c>
       <c r="H32" s="3">
-        <v>-13400</v>
+        <v>-40800</v>
       </c>
       <c r="I32" s="3">
+        <v>-13500</v>
+      </c>
+      <c r="J32" s="3">
         <v>-4500</v>
       </c>
-      <c r="J32" s="3">
+      <c r="K32" s="3">
         <v>-2400</v>
       </c>
-      <c r="K32" s="3">
+      <c r="L32" s="3">
         <v>-36500</v>
       </c>
-      <c r="L32" s="3">
+      <c r="M32" s="3">
         <v>-14800</v>
       </c>
-      <c r="M32" s="3">
-        <v>0</v>
-      </c>
       <c r="N32" s="3">
         <v>0</v>
       </c>
       <c r="O32" s="3">
+        <v>0</v>
+      </c>
+      <c r="P32" s="3">
         <v>-14000</v>
       </c>
-      <c r="P32" s="3">
+      <c r="Q32" s="3">
         <v>-2000</v>
       </c>
-      <c r="Q32" s="3">
-        <v>0</v>
-      </c>
       <c r="R32" s="3">
         <v>0</v>
       </c>
       <c r="S32" s="3">
+        <v>0</v>
+      </c>
+      <c r="T32" s="3">
         <v>13000</v>
       </c>
-      <c r="T32" s="3">
-        <v>0</v>
-      </c>
       <c r="U32" s="3">
         <v>0</v>
       </c>
@@ -2332,76 +2402,82 @@
       <c r="X32" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="33" spans="2:24" x14ac:dyDescent="0.2">
+      <c r="Y32" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="33" spans="2:25" x14ac:dyDescent="0.2">
       <c r="C33" s="1" t="s">
         <v>28</v>
       </c>
-      <c r="D33" s="3">
-        <v>94500</v>
+      <c r="D33" s="3" t="s">
+        <v>5</v>
       </c>
       <c r="E33" s="3">
-        <v>67400</v>
+        <v>94800</v>
       </c>
       <c r="F33" s="3">
-        <v>72200</v>
+        <v>67600</v>
       </c>
       <c r="G33" s="3">
-        <v>48300</v>
+        <v>72500</v>
       </c>
       <c r="H33" s="3">
+        <v>48500</v>
+      </c>
+      <c r="I33" s="3">
         <v>11900</v>
       </c>
-      <c r="I33" s="3">
-        <v>74900</v>
-      </c>
       <c r="J33" s="3">
+        <v>75100</v>
+      </c>
+      <c r="K33" s="3">
         <v>11400</v>
       </c>
-      <c r="K33" s="3">
+      <c r="L33" s="3">
         <v>39200</v>
       </c>
-      <c r="L33" s="3">
+      <c r="M33" s="3">
         <v>28100</v>
       </c>
-      <c r="M33" s="3">
+      <c r="N33" s="3">
         <v>555000</v>
       </c>
-      <c r="N33" s="3">
+      <c r="O33" s="3">
         <v>499000</v>
       </c>
-      <c r="O33" s="3">
+      <c r="P33" s="3">
         <v>604000</v>
       </c>
-      <c r="P33" s="3">
+      <c r="Q33" s="3">
         <v>454000</v>
       </c>
-      <c r="Q33" s="3">
+      <c r="R33" s="3">
         <v>451000</v>
       </c>
-      <c r="R33" s="3">
+      <c r="S33" s="3">
         <v>271000</v>
       </c>
-      <c r="S33" s="3">
+      <c r="T33" s="3">
         <v>297000</v>
       </c>
-      <c r="T33" s="3">
+      <c r="U33" s="3">
         <v>211000</v>
       </c>
-      <c r="U33" s="3">
+      <c r="V33" s="3">
         <v>231000</v>
       </c>
-      <c r="V33" s="3">
+      <c r="W33" s="3">
         <v>214000</v>
       </c>
-      <c r="W33" s="3">
+      <c r="X33" s="3">
         <v>216000</v>
       </c>
-      <c r="X33" s="3">
+      <c r="Y33" s="3">
         <v>185000</v>
       </c>
     </row>
-    <row r="34" spans="2:24" x14ac:dyDescent="0.2">
+    <row r="34" spans="2:25" x14ac:dyDescent="0.2">
       <c r="C34" s="1" t="s">
         <v>29</v>
       </c>
@@ -2468,149 +2544,158 @@
       <c r="X34" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="35" spans="2:24" x14ac:dyDescent="0.2">
+      <c r="Y34" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="35" spans="2:25" x14ac:dyDescent="0.2">
       <c r="C35" s="1" t="s">
         <v>30</v>
       </c>
-      <c r="D35" s="3">
-        <v>94500</v>
+      <c r="D35" s="3" t="s">
+        <v>5</v>
       </c>
       <c r="E35" s="3">
-        <v>67400</v>
+        <v>94800</v>
       </c>
       <c r="F35" s="3">
-        <v>72200</v>
+        <v>67600</v>
       </c>
       <c r="G35" s="3">
-        <v>48300</v>
+        <v>72500</v>
       </c>
       <c r="H35" s="3">
+        <v>48500</v>
+      </c>
+      <c r="I35" s="3">
         <v>11900</v>
       </c>
-      <c r="I35" s="3">
-        <v>74900</v>
-      </c>
       <c r="J35" s="3">
+        <v>75100</v>
+      </c>
+      <c r="K35" s="3">
         <v>11400</v>
       </c>
-      <c r="K35" s="3">
+      <c r="L35" s="3">
         <v>39200</v>
       </c>
-      <c r="L35" s="3">
+      <c r="M35" s="3">
         <v>28100</v>
       </c>
-      <c r="M35" s="3">
+      <c r="N35" s="3">
         <v>555000</v>
       </c>
-      <c r="N35" s="3">
+      <c r="O35" s="3">
         <v>499000</v>
       </c>
-      <c r="O35" s="3">
+      <c r="P35" s="3">
         <v>604000</v>
       </c>
-      <c r="P35" s="3">
+      <c r="Q35" s="3">
         <v>454000</v>
       </c>
-      <c r="Q35" s="3">
+      <c r="R35" s="3">
         <v>451000</v>
       </c>
-      <c r="R35" s="3">
+      <c r="S35" s="3">
         <v>271000</v>
       </c>
-      <c r="S35" s="3">
+      <c r="T35" s="3">
         <v>297000</v>
       </c>
-      <c r="T35" s="3">
+      <c r="U35" s="3">
         <v>211000</v>
       </c>
-      <c r="U35" s="3">
+      <c r="V35" s="3">
         <v>231000</v>
       </c>
-      <c r="V35" s="3">
+      <c r="W35" s="3">
         <v>214000</v>
       </c>
-      <c r="W35" s="3">
+      <c r="X35" s="3">
         <v>216000</v>
       </c>
-      <c r="X35" s="3">
+      <c r="Y35" s="3">
         <v>185000</v>
       </c>
     </row>
-    <row r="37" spans="2:24" x14ac:dyDescent="0.2">
+    <row r="37" spans="2:25" x14ac:dyDescent="0.2">
       <c r="B37" s="1" t="s">
         <v>31</v>
       </c>
     </row>
-    <row r="38" spans="2:24" x14ac:dyDescent="0.2">
+    <row r="38" spans="2:25" x14ac:dyDescent="0.2">
       <c r="C38" s="1" t="s">
         <v>2</v>
       </c>
       <c r="D38" s="2">
+        <v>44926</v>
+      </c>
+      <c r="E38" s="2">
         <v>44742</v>
       </c>
-      <c r="E38" s="2">
+      <c r="F38" s="2">
         <v>44561</v>
       </c>
-      <c r="F38" s="2">
+      <c r="G38" s="2">
         <v>44377</v>
       </c>
-      <c r="G38" s="2">
+      <c r="H38" s="2">
         <v>44196</v>
       </c>
-      <c r="H38" s="2">
+      <c r="I38" s="2">
         <v>44104</v>
       </c>
-      <c r="I38" s="2">
+      <c r="J38" s="2">
         <v>44012</v>
       </c>
-      <c r="J38" s="2">
+      <c r="K38" s="2">
         <v>43830</v>
       </c>
-      <c r="K38" s="2">
+      <c r="L38" s="2">
         <v>43738</v>
-      </c>
-      <c r="L38" s="2">
-        <v>43646</v>
       </c>
       <c r="M38" s="2">
         <v>43646</v>
       </c>
       <c r="N38" s="2">
+        <v>43646</v>
+      </c>
+      <c r="O38" s="2">
         <v>43555</v>
       </c>
-      <c r="O38" s="2">
+      <c r="P38" s="2">
         <v>43465</v>
       </c>
-      <c r="P38" s="2">
+      <c r="Q38" s="2">
         <v>43373</v>
       </c>
-      <c r="Q38" s="2">
+      <c r="R38" s="2">
         <v>43281</v>
       </c>
-      <c r="R38" s="2">
+      <c r="S38" s="2">
         <v>43190</v>
       </c>
-      <c r="S38" s="2">
+      <c r="T38" s="2">
         <v>43100</v>
       </c>
-      <c r="T38" s="2">
+      <c r="U38" s="2">
         <v>43008</v>
       </c>
-      <c r="U38" s="2">
+      <c r="V38" s="2">
         <v>42916</v>
       </c>
-      <c r="V38" s="2">
+      <c r="W38" s="2">
         <v>42825</v>
       </c>
-      <c r="W38" s="2">
+      <c r="X38" s="2">
         <v>42735</v>
       </c>
-      <c r="X38" s="2">
+      <c r="Y38" s="2">
         <v>42643</v>
       </c>
     </row>
-    <row r="39" spans="2:24" x14ac:dyDescent="0.2">
+    <row r="39" spans="2:25" x14ac:dyDescent="0.2">
       <c r="C39" s="1" t="s">
         <v>32</v>
       </c>
@@ -2635,8 +2720,9 @@
       <c r="V39" s="3"/>
       <c r="W39" s="3"/>
       <c r="X39" s="3"/>
-    </row>
-    <row r="40" spans="2:24" x14ac:dyDescent="0.2">
+      <c r="Y39" s="3"/>
+    </row>
+    <row r="40" spans="2:25" x14ac:dyDescent="0.2">
       <c r="C40" s="1" t="s">
         <v>33</v>
       </c>
@@ -2661,76 +2747,80 @@
       <c r="V40" s="3"/>
       <c r="W40" s="3"/>
       <c r="X40" s="3"/>
-    </row>
-    <row r="41" spans="2:24" x14ac:dyDescent="0.2">
+      <c r="Y40" s="3"/>
+    </row>
+    <row r="41" spans="2:25" x14ac:dyDescent="0.2">
       <c r="C41" s="1" t="s">
         <v>34</v>
       </c>
       <c r="D41" s="3">
-        <v>30300</v>
+        <v>139000</v>
       </c>
       <c r="E41" s="3">
-        <v>84400</v>
+        <v>30400</v>
       </c>
       <c r="F41" s="3">
-        <v>74700</v>
+        <v>84600</v>
       </c>
       <c r="G41" s="3">
-        <v>83000</v>
+        <v>74900</v>
       </c>
       <c r="H41" s="3">
-        <v>82500</v>
+        <v>83200</v>
       </c>
       <c r="I41" s="3">
-        <v>147000</v>
+        <v>82800</v>
       </c>
       <c r="J41" s="3">
+        <v>147400</v>
+      </c>
+      <c r="K41" s="3">
         <v>128900</v>
       </c>
-      <c r="K41" s="3">
+      <c r="L41" s="3">
         <v>122000</v>
       </c>
-      <c r="L41" s="3">
+      <c r="M41" s="3">
         <v>112500</v>
       </c>
-      <c r="M41" s="3">
+      <c r="N41" s="3">
         <v>2953000</v>
       </c>
-      <c r="N41" s="3">
+      <c r="O41" s="3">
         <v>2674000</v>
       </c>
-      <c r="O41" s="3">
+      <c r="P41" s="3">
         <v>5117000</v>
       </c>
-      <c r="P41" s="3">
+      <c r="Q41" s="3">
         <v>2690000</v>
       </c>
-      <c r="Q41" s="3">
+      <c r="R41" s="3">
         <v>1343000</v>
       </c>
-      <c r="R41" s="3">
+      <c r="S41" s="3">
         <v>1373000</v>
       </c>
-      <c r="S41" s="3">
+      <c r="T41" s="3">
         <v>1644000</v>
       </c>
-      <c r="T41" s="3">
+      <c r="U41" s="3">
         <v>1472000</v>
       </c>
-      <c r="U41" s="3">
+      <c r="V41" s="3">
         <v>2880000</v>
       </c>
-      <c r="V41" s="3">
+      <c r="W41" s="3">
         <v>2231000</v>
       </c>
-      <c r="W41" s="3">
+      <c r="X41" s="3">
         <v>1662000</v>
       </c>
-      <c r="X41" s="3">
+      <c r="Y41" s="3">
         <v>1855000</v>
       </c>
     </row>
-    <row r="42" spans="2:24" x14ac:dyDescent="0.2">
+    <row r="42" spans="2:25" x14ac:dyDescent="0.2">
       <c r="C42" s="1" t="s">
         <v>35</v>
       </c>
@@ -2743,27 +2833,27 @@
       <c r="F42" s="3" t="s">
         <v>5</v>
       </c>
-      <c r="G42" s="3">
+      <c r="G42" s="3" t="s">
+        <v>5</v>
+      </c>
+      <c r="H42" s="3">
         <v>8000</v>
       </c>
-      <c r="H42" s="3">
-        <v>136300</v>
-      </c>
       <c r="I42" s="3">
-        <v>128700</v>
+        <v>136700</v>
       </c>
       <c r="J42" s="3">
+        <v>129100</v>
+      </c>
+      <c r="K42" s="3">
         <v>200400</v>
       </c>
-      <c r="K42" s="3">
+      <c r="L42" s="3">
         <v>223100</v>
       </c>
-      <c r="L42" s="3">
+      <c r="M42" s="3">
         <v>246000</v>
       </c>
-      <c r="M42" s="3">
-        <v>0</v>
-      </c>
       <c r="N42" s="3">
         <v>0</v>
       </c>
@@ -2797,76 +2887,82 @@
       <c r="X42" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="43" spans="2:24" x14ac:dyDescent="0.2">
+      <c r="Y42" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="43" spans="2:25" x14ac:dyDescent="0.2">
       <c r="C43" s="1" t="s">
         <v>36</v>
       </c>
       <c r="D43" s="3">
-        <v>657300</v>
+        <v>310100</v>
       </c>
       <c r="E43" s="3">
-        <v>284300</v>
+        <v>659200</v>
       </c>
       <c r="F43" s="3">
-        <v>895200</v>
+        <v>285100</v>
       </c>
       <c r="G43" s="3">
-        <v>835200</v>
+        <v>897800</v>
       </c>
       <c r="H43" s="3">
-        <v>954900</v>
+        <v>837600</v>
       </c>
       <c r="I43" s="3">
-        <v>888700</v>
+        <v>957700</v>
       </c>
       <c r="J43" s="3">
+        <v>891300</v>
+      </c>
+      <c r="K43" s="3">
         <v>569500</v>
       </c>
-      <c r="K43" s="3">
+      <c r="L43" s="3">
         <v>446400</v>
       </c>
-      <c r="L43" s="3">
+      <c r="M43" s="3">
         <v>670500</v>
       </c>
-      <c r="M43" s="3">
+      <c r="N43" s="3">
         <v>23014000</v>
       </c>
-      <c r="N43" s="3">
+      <c r="O43" s="3">
         <v>22790000</v>
       </c>
-      <c r="O43" s="3">
+      <c r="P43" s="3">
         <v>21312000</v>
       </c>
-      <c r="P43" s="3">
+      <c r="Q43" s="3">
         <v>24445000</v>
       </c>
-      <c r="Q43" s="3">
+      <c r="R43" s="3">
         <v>24345000</v>
       </c>
-      <c r="R43" s="3">
+      <c r="S43" s="3">
         <v>22709000</v>
       </c>
-      <c r="S43" s="3">
+      <c r="T43" s="3">
         <v>20287000</v>
       </c>
-      <c r="T43" s="3">
+      <c r="U43" s="3">
         <v>18796000</v>
       </c>
-      <c r="U43" s="3">
+      <c r="V43" s="3">
         <v>15020000</v>
       </c>
-      <c r="V43" s="3">
+      <c r="W43" s="3">
         <v>13393000</v>
       </c>
-      <c r="W43" s="3">
+      <c r="X43" s="3">
         <v>13277000</v>
       </c>
-      <c r="X43" s="3">
+      <c r="Y43" s="3">
         <v>13397000</v>
       </c>
     </row>
-    <row r="44" spans="2:24" x14ac:dyDescent="0.2">
+    <row r="44" spans="2:25" x14ac:dyDescent="0.2">
       <c r="C44" s="1" t="s">
         <v>37</v>
       </c>
@@ -2933,109 +3029,115 @@
       <c r="X44" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="45" spans="2:24" x14ac:dyDescent="0.2">
+      <c r="Y44" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="45" spans="2:25" x14ac:dyDescent="0.2">
       <c r="C45" s="1" t="s">
         <v>38</v>
       </c>
       <c r="D45" s="3">
-        <v>226500</v>
+        <v>308200</v>
       </c>
       <c r="E45" s="3">
-        <v>126400</v>
+        <v>227200</v>
       </c>
       <c r="F45" s="3">
-        <v>129800</v>
+        <v>126700</v>
       </c>
       <c r="G45" s="3">
-        <v>133500</v>
+        <v>130200</v>
       </c>
       <c r="H45" s="3">
-        <v>130100</v>
+        <v>133900</v>
       </c>
       <c r="I45" s="3">
-        <v>120500</v>
+        <v>130400</v>
       </c>
       <c r="J45" s="3">
+        <v>120900</v>
+      </c>
+      <c r="K45" s="3">
         <v>153000</v>
       </c>
-      <c r="K45" s="3">
+      <c r="L45" s="3">
         <v>109800</v>
       </c>
-      <c r="L45" s="3">
+      <c r="M45" s="3">
         <v>31900</v>
       </c>
-      <c r="M45" s="3" t="s">
-        <v>5</v>
-      </c>
       <c r="N45" s="3" t="s">
         <v>5</v>
       </c>
       <c r="O45" s="3" t="s">
         <v>5</v>
       </c>
-      <c r="P45" s="3">
-        <v>0</v>
+      <c r="P45" s="3" t="s">
+        <v>5</v>
       </c>
       <c r="Q45" s="3">
+        <v>0</v>
+      </c>
+      <c r="R45" s="3">
         <v>4609000</v>
       </c>
-      <c r="R45" s="3">
+      <c r="S45" s="3">
         <v>6863000</v>
       </c>
-      <c r="S45" s="3">
+      <c r="T45" s="3">
         <v>10136000</v>
       </c>
-      <c r="T45" s="3">
+      <c r="U45" s="3">
         <v>10446000</v>
       </c>
-      <c r="U45" s="3">
+      <c r="V45" s="3">
         <v>7328000</v>
       </c>
-      <c r="V45" s="3">
-        <v>0</v>
-      </c>
       <c r="W45" s="3">
         <v>0</v>
       </c>
       <c r="X45" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="46" spans="2:24" x14ac:dyDescent="0.2">
+      <c r="Y45" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="46" spans="2:25" x14ac:dyDescent="0.2">
       <c r="C46" s="1" t="s">
         <v>39</v>
       </c>
       <c r="D46" s="3">
-        <v>914100</v>
+        <v>758100</v>
       </c>
       <c r="E46" s="3">
-        <v>495000</v>
+        <v>916800</v>
       </c>
       <c r="F46" s="3">
-        <v>1099700</v>
+        <v>496500</v>
       </c>
       <c r="G46" s="3">
-        <v>1059600</v>
+        <v>1102900</v>
       </c>
       <c r="H46" s="3">
-        <v>1303800</v>
+        <v>1062700</v>
       </c>
       <c r="I46" s="3">
-        <v>1284900</v>
+        <v>1307600</v>
       </c>
       <c r="J46" s="3">
+        <v>1288600</v>
+      </c>
+      <c r="K46" s="3">
         <v>1051700</v>
       </c>
-      <c r="K46" s="3">
+      <c r="L46" s="3">
         <v>901300</v>
       </c>
-      <c r="L46" s="3">
+      <c r="M46" s="3">
         <v>1060900</v>
       </c>
-      <c r="M46" s="3">
-        <v>0</v>
-      </c>
       <c r="N46" s="3">
         <v>0</v>
       </c>
@@ -3069,25 +3171,28 @@
       <c r="X46" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="47" spans="2:24" x14ac:dyDescent="0.2">
+      <c r="Y46" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="47" spans="2:25" x14ac:dyDescent="0.2">
       <c r="C47" s="1" t="s">
         <v>40</v>
       </c>
-      <c r="D47" s="3">
-        <v>38200</v>
+      <c r="D47" s="3" t="s">
+        <v>5</v>
       </c>
       <c r="E47" s="3">
-        <v>26900</v>
+        <v>38400</v>
       </c>
       <c r="F47" s="3">
-        <v>115900</v>
+        <v>27000</v>
       </c>
       <c r="G47" s="3">
-        <v>111900</v>
-      </c>
-      <c r="H47" s="3" t="s">
-        <v>5</v>
+        <v>116300</v>
+      </c>
+      <c r="H47" s="3">
+        <v>112200</v>
       </c>
       <c r="I47" s="3" t="s">
         <v>5</v>
@@ -3101,53 +3206,56 @@
       <c r="L47" s="3" t="s">
         <v>5</v>
       </c>
-      <c r="M47" s="3">
+      <c r="M47" s="3" t="s">
+        <v>5</v>
+      </c>
+      <c r="N47" s="3">
         <v>1447000</v>
       </c>
-      <c r="N47" s="3">
+      <c r="O47" s="3">
         <v>1053000</v>
       </c>
-      <c r="O47" s="3">
+      <c r="P47" s="3">
         <v>993000</v>
       </c>
-      <c r="P47" s="3">
+      <c r="Q47" s="3">
         <v>640000</v>
       </c>
-      <c r="Q47" s="3">
+      <c r="R47" s="3">
         <v>682000</v>
       </c>
-      <c r="R47" s="3">
+      <c r="S47" s="3">
         <v>901000</v>
       </c>
-      <c r="S47" s="3">
+      <c r="T47" s="3">
         <v>692000</v>
       </c>
-      <c r="T47" s="3">
+      <c r="U47" s="3">
         <v>1249000</v>
       </c>
-      <c r="U47" s="3">
+      <c r="V47" s="3">
         <v>1154000</v>
       </c>
-      <c r="V47" s="3">
+      <c r="W47" s="3">
         <v>9831000</v>
       </c>
-      <c r="W47" s="3">
+      <c r="X47" s="3">
         <v>10187000</v>
       </c>
-      <c r="X47" s="3">
+      <c r="Y47" s="3">
         <v>9817000</v>
       </c>
     </row>
-    <row r="48" spans="2:24" x14ac:dyDescent="0.2">
+    <row r="48" spans="2:25" x14ac:dyDescent="0.2">
       <c r="C48" s="1" t="s">
         <v>41</v>
       </c>
       <c r="D48" s="3">
+        <v>0</v>
+      </c>
+      <c r="E48" s="3">
         <v>500</v>
       </c>
-      <c r="E48" s="3">
-        <v>0</v>
-      </c>
       <c r="F48" s="3">
         <v>0</v>
       </c>
@@ -3170,51 +3278,54 @@
         <v>0</v>
       </c>
       <c r="M48" s="3">
+        <v>0</v>
+      </c>
+      <c r="N48" s="3">
         <v>833000</v>
       </c>
-      <c r="N48" s="3">
+      <c r="O48" s="3">
         <v>812000</v>
       </c>
-      <c r="O48" s="3">
+      <c r="P48" s="3">
         <v>797000</v>
       </c>
-      <c r="P48" s="3">
+      <c r="Q48" s="3">
         <v>792000</v>
       </c>
-      <c r="Q48" s="3">
+      <c r="R48" s="3">
         <v>778000</v>
       </c>
-      <c r="R48" s="3">
+      <c r="S48" s="3">
         <v>801000</v>
       </c>
-      <c r="S48" s="3">
+      <c r="T48" s="3">
         <v>780000</v>
       </c>
-      <c r="T48" s="3">
+      <c r="U48" s="3">
         <v>752000</v>
       </c>
-      <c r="U48" s="3">
+      <c r="V48" s="3">
         <v>592000</v>
       </c>
-      <c r="V48" s="3">
+      <c r="W48" s="3">
         <v>555000</v>
       </c>
-      <c r="W48" s="3">
+      <c r="X48" s="3">
         <v>531000</v>
       </c>
-      <c r="X48" s="3">
+      <c r="Y48" s="3">
         <v>526000</v>
       </c>
     </row>
-    <row r="49" spans="3:24" x14ac:dyDescent="0.2">
+    <row r="49" spans="3:25" x14ac:dyDescent="0.2">
       <c r="C49" s="1" t="s">
         <v>42</v>
       </c>
       <c r="D49" s="3">
-        <v>101500</v>
+        <v>104100</v>
       </c>
       <c r="E49" s="3">
-        <v>1900</v>
+        <v>101800</v>
       </c>
       <c r="F49" s="3">
         <v>1900</v>
@@ -3238,43 +3349,46 @@
         <v>1900</v>
       </c>
       <c r="M49" s="3">
+        <v>1900</v>
+      </c>
+      <c r="N49" s="3">
         <v>5463000</v>
       </c>
-      <c r="N49" s="3">
+      <c r="O49" s="3">
         <v>5494000</v>
       </c>
-      <c r="O49" s="3">
+      <c r="P49" s="3">
         <v>5525000</v>
       </c>
-      <c r="P49" s="3">
+      <c r="Q49" s="3">
         <v>5556000</v>
       </c>
-      <c r="Q49" s="3">
+      <c r="R49" s="3">
         <v>5561000</v>
       </c>
-      <c r="R49" s="3">
+      <c r="S49" s="3">
         <v>5597000</v>
       </c>
-      <c r="S49" s="3">
+      <c r="T49" s="3">
         <v>5629000</v>
       </c>
-      <c r="T49" s="3">
+      <c r="U49" s="3">
         <v>5683000</v>
       </c>
-      <c r="U49" s="3">
+      <c r="V49" s="3">
         <v>2985000</v>
       </c>
-      <c r="V49" s="3">
+      <c r="W49" s="3">
         <v>3004000</v>
       </c>
-      <c r="W49" s="3">
+      <c r="X49" s="3">
         <v>3023000</v>
       </c>
-      <c r="X49" s="3">
+      <c r="Y49" s="3">
         <v>3042000</v>
       </c>
     </row>
-    <row r="50" spans="3:24" x14ac:dyDescent="0.2">
+    <row r="50" spans="3:25" x14ac:dyDescent="0.2">
       <c r="C50" s="1" t="s">
         <v>43</v>
       </c>
@@ -3341,8 +3455,11 @@
       <c r="X50" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="51" spans="3:24" x14ac:dyDescent="0.2">
+      <c r="Y50" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="51" spans="3:25" x14ac:dyDescent="0.2">
       <c r="C51" s="1" t="s">
         <v>44</v>
       </c>
@@ -3409,25 +3526,28 @@
       <c r="X51" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="52" spans="3:24" x14ac:dyDescent="0.2">
+      <c r="Y51" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="52" spans="3:25" x14ac:dyDescent="0.2">
       <c r="C52" s="1" t="s">
         <v>45</v>
       </c>
-      <c r="D52" s="3">
-        <v>183000</v>
+      <c r="D52" s="3" t="s">
+        <v>5</v>
       </c>
       <c r="E52" s="3">
-        <v>328000</v>
+        <v>183600</v>
       </c>
       <c r="F52" s="3">
-        <v>194100</v>
+        <v>329000</v>
       </c>
       <c r="G52" s="3">
-        <v>167600</v>
-      </c>
-      <c r="H52" s="3" t="s">
-        <v>5</v>
+        <v>194700</v>
+      </c>
+      <c r="H52" s="3">
+        <v>168100</v>
       </c>
       <c r="I52" s="3" t="s">
         <v>5</v>
@@ -3441,20 +3561,20 @@
       <c r="L52" s="3" t="s">
         <v>5</v>
       </c>
-      <c r="M52" s="3">
+      <c r="M52" s="3" t="s">
+        <v>5</v>
+      </c>
+      <c r="N52" s="3">
         <v>7124000</v>
       </c>
-      <c r="N52" s="3">
+      <c r="O52" s="3">
         <v>5580000</v>
-      </c>
-      <c r="O52" s="3">
-        <v>3185000</v>
       </c>
       <c r="P52" s="3">
         <v>3185000</v>
       </c>
       <c r="Q52" s="3">
-        <v>0</v>
+        <v>3185000</v>
       </c>
       <c r="R52" s="3">
         <v>0</v>
@@ -3477,8 +3597,11 @@
       <c r="X52" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="53" spans="3:24" x14ac:dyDescent="0.2">
+      <c r="Y52" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="53" spans="3:25" x14ac:dyDescent="0.2">
       <c r="C53" s="1" t="s">
         <v>46</v>
       </c>
@@ -3545,76 +3668,82 @@
       <c r="X53" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="54" spans="3:24" x14ac:dyDescent="0.2">
+      <c r="Y53" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="54" spans="3:25" x14ac:dyDescent="0.2">
       <c r="C54" s="1" t="s">
         <v>47</v>
       </c>
       <c r="D54" s="3">
-        <v>1237300</v>
+        <v>1056800</v>
       </c>
       <c r="E54" s="3">
-        <v>851900</v>
+        <v>1240900</v>
       </c>
       <c r="F54" s="3">
-        <v>1411700</v>
+        <v>854400</v>
       </c>
       <c r="G54" s="3">
-        <v>1341000</v>
+        <v>1415800</v>
       </c>
       <c r="H54" s="3">
-        <v>1305800</v>
+        <v>1344900</v>
       </c>
       <c r="I54" s="3">
-        <v>1286800</v>
+        <v>1309600</v>
       </c>
       <c r="J54" s="3">
+        <v>1290600</v>
+      </c>
+      <c r="K54" s="3">
         <v>1053700</v>
       </c>
-      <c r="K54" s="3">
+      <c r="L54" s="3">
         <v>903200</v>
       </c>
-      <c r="L54" s="3">
+      <c r="M54" s="3">
         <v>1062800</v>
       </c>
-      <c r="M54" s="3">
+      <c r="N54" s="3">
         <v>41119000</v>
       </c>
-      <c r="N54" s="3">
+      <c r="O54" s="3">
         <v>38679000</v>
       </c>
-      <c r="O54" s="3">
+      <c r="P54" s="3">
         <v>37191000</v>
       </c>
-      <c r="P54" s="3">
+      <c r="Q54" s="3">
         <v>37520000</v>
       </c>
-      <c r="Q54" s="3">
+      <c r="R54" s="3">
         <v>37511000</v>
       </c>
-      <c r="R54" s="3">
+      <c r="S54" s="3">
         <v>38410000</v>
       </c>
-      <c r="S54" s="3">
+      <c r="T54" s="3">
         <v>39412000</v>
       </c>
-      <c r="T54" s="3">
+      <c r="U54" s="3">
         <v>38627000</v>
       </c>
-      <c r="U54" s="3">
+      <c r="V54" s="3">
         <v>30110000</v>
       </c>
-      <c r="V54" s="3">
+      <c r="W54" s="3">
         <v>29165000</v>
       </c>
-      <c r="W54" s="3">
+      <c r="X54" s="3">
         <v>28834000</v>
       </c>
-      <c r="X54" s="3">
+      <c r="Y54" s="3">
         <v>28818000</v>
       </c>
     </row>
-    <row r="55" spans="3:24" x14ac:dyDescent="0.2">
+    <row r="55" spans="3:25" x14ac:dyDescent="0.2">
       <c r="C55" s="1" t="s">
         <v>48</v>
       </c>
@@ -3639,8 +3768,9 @@
       <c r="V55" s="3"/>
       <c r="W55" s="3"/>
       <c r="X55" s="3"/>
-    </row>
-    <row r="56" spans="3:24" x14ac:dyDescent="0.2">
+      <c r="Y55" s="3"/>
+    </row>
+    <row r="56" spans="3:25" x14ac:dyDescent="0.2">
       <c r="C56" s="1" t="s">
         <v>49</v>
       </c>
@@ -3665,109 +3795,113 @@
       <c r="V56" s="3"/>
       <c r="W56" s="3"/>
       <c r="X56" s="3"/>
-    </row>
-    <row r="57" spans="3:24" x14ac:dyDescent="0.2">
+      <c r="Y56" s="3"/>
+    </row>
+    <row r="57" spans="3:25" x14ac:dyDescent="0.2">
       <c r="C57" s="1" t="s">
         <v>50</v>
       </c>
       <c r="D57" s="3">
-        <v>59700</v>
+        <v>27400</v>
       </c>
       <c r="E57" s="3">
-        <v>31500</v>
+        <v>59800</v>
       </c>
       <c r="F57" s="3">
-        <v>40900</v>
+        <v>31600</v>
       </c>
       <c r="G57" s="3">
-        <v>36100</v>
+        <v>41000</v>
       </c>
       <c r="H57" s="3">
-        <v>53700</v>
+        <v>36200</v>
       </c>
       <c r="I57" s="3">
-        <v>81800</v>
+        <v>53900</v>
       </c>
       <c r="J57" s="3">
+        <v>82000</v>
+      </c>
+      <c r="K57" s="3">
         <v>71100</v>
       </c>
-      <c r="K57" s="3">
+      <c r="L57" s="3">
         <v>62400</v>
       </c>
-      <c r="L57" s="3">
+      <c r="M57" s="3">
         <v>460100</v>
       </c>
-      <c r="M57" s="3">
+      <c r="N57" s="3">
         <v>28833000</v>
       </c>
-      <c r="N57" s="3">
+      <c r="O57" s="3">
         <v>26621000</v>
       </c>
-      <c r="O57" s="3">
+      <c r="P57" s="3">
         <v>25139000</v>
       </c>
-      <c r="P57" s="3">
+      <c r="Q57" s="3">
         <v>26805000</v>
       </c>
-      <c r="Q57" s="3">
+      <c r="R57" s="3">
         <v>26859000</v>
       </c>
-      <c r="R57" s="3">
+      <c r="S57" s="3">
         <v>27889000</v>
       </c>
-      <c r="S57" s="3">
+      <c r="T57" s="3">
         <v>29119000</v>
       </c>
-      <c r="T57" s="3">
+      <c r="U57" s="3">
         <v>28535000</v>
       </c>
-      <c r="U57" s="3">
+      <c r="V57" s="3">
         <v>21821000</v>
       </c>
-      <c r="V57" s="3">
+      <c r="W57" s="3">
         <v>21806000</v>
       </c>
-      <c r="W57" s="3">
+      <c r="X57" s="3">
         <v>21582000</v>
       </c>
-      <c r="X57" s="3">
+      <c r="Y57" s="3">
         <v>21669000</v>
       </c>
     </row>
-    <row r="58" spans="3:24" x14ac:dyDescent="0.2">
+    <row r="58" spans="3:25" x14ac:dyDescent="0.2">
       <c r="C58" s="1" t="s">
         <v>51</v>
       </c>
       <c r="D58" s="3">
+        <v>20000</v>
+      </c>
+      <c r="E58" s="3">
         <v>20900</v>
       </c>
-      <c r="E58" s="3">
-        <v>49500</v>
-      </c>
       <c r="F58" s="3">
-        <v>29600</v>
+        <v>49700</v>
       </c>
       <c r="G58" s="3">
-        <v>29600</v>
+        <v>29700</v>
       </c>
       <c r="H58" s="3">
-        <v>29600</v>
+        <v>29700</v>
       </c>
       <c r="I58" s="3">
-        <v>0</v>
+        <v>29700</v>
       </c>
       <c r="J58" s="3">
+        <v>0</v>
+      </c>
+      <c r="K58" s="3">
         <v>40500</v>
       </c>
-      <c r="K58" s="3">
+      <c r="L58" s="3">
         <v>41000</v>
       </c>
-      <c r="L58" s="3">
+      <c r="M58" s="3">
         <v>41100</v>
       </c>
-      <c r="M58" s="3">
-        <v>0</v>
-      </c>
       <c r="N58" s="3">
         <v>0</v>
       </c>
@@ -3775,23 +3909,23 @@
         <v>0</v>
       </c>
       <c r="P58" s="3">
+        <v>0</v>
+      </c>
+      <c r="Q58" s="3">
         <v>96000</v>
       </c>
-      <c r="Q58" s="3">
+      <c r="R58" s="3">
         <v>97000</v>
       </c>
-      <c r="R58" s="3">
+      <c r="S58" s="3">
         <v>318000</v>
       </c>
-      <c r="S58" s="3">
+      <c r="T58" s="3">
         <v>147000</v>
       </c>
-      <c r="T58" s="3">
+      <c r="U58" s="3">
         <v>97000</v>
       </c>
-      <c r="U58" s="3" t="s">
-        <v>5</v>
-      </c>
       <c r="V58" s="3" t="s">
         <v>5</v>
       </c>
@@ -3801,41 +3935,44 @@
       <c r="X58" s="3" t="s">
         <v>5</v>
       </c>
-    </row>
-    <row r="59" spans="3:24" x14ac:dyDescent="0.2">
+      <c r="Y58" s="3" t="s">
+        <v>5</v>
+      </c>
+    </row>
+    <row r="59" spans="3:25" x14ac:dyDescent="0.2">
       <c r="C59" s="1" t="s">
         <v>52</v>
       </c>
       <c r="D59" s="3">
+        <v>2900</v>
+      </c>
+      <c r="E59" s="3">
         <v>20400</v>
       </c>
-      <c r="E59" s="3">
-        <v>17300</v>
-      </c>
       <c r="F59" s="3">
-        <v>12700</v>
+        <v>17400</v>
       </c>
       <c r="G59" s="3">
-        <v>21700</v>
+        <v>12800</v>
       </c>
       <c r="H59" s="3">
+        <v>21800</v>
+      </c>
+      <c r="I59" s="3">
         <v>12500</v>
       </c>
-      <c r="I59" s="3">
-        <v>11100</v>
-      </c>
       <c r="J59" s="3">
+        <v>11200</v>
+      </c>
+      <c r="K59" s="3">
         <v>26300</v>
       </c>
-      <c r="K59" s="3">
+      <c r="L59" s="3">
         <v>9700</v>
       </c>
-      <c r="L59" s="3">
+      <c r="M59" s="3">
         <v>7500</v>
       </c>
-      <c r="M59" s="3" t="s">
-        <v>5</v>
-      </c>
       <c r="N59" s="3" t="s">
         <v>5</v>
       </c>
@@ -3848,8 +3985,8 @@
       <c r="Q59" s="3" t="s">
         <v>5</v>
       </c>
-      <c r="R59" s="3">
-        <v>0</v>
+      <c r="R59" s="3" t="s">
+        <v>5</v>
       </c>
       <c r="S59" s="3">
         <v>0</v>
@@ -3869,41 +4006,44 @@
       <c r="X59" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="60" spans="3:24" x14ac:dyDescent="0.2">
+      <c r="Y59" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="60" spans="3:25" x14ac:dyDescent="0.2">
       <c r="C60" s="1" t="s">
         <v>53</v>
       </c>
       <c r="D60" s="3">
-        <v>100900</v>
+        <v>54300</v>
       </c>
       <c r="E60" s="3">
-        <v>98400</v>
+        <v>101200</v>
       </c>
       <c r="F60" s="3">
-        <v>83200</v>
+        <v>98700</v>
       </c>
       <c r="G60" s="3">
-        <v>87400</v>
+        <v>83500</v>
       </c>
       <c r="H60" s="3">
-        <v>95800</v>
+        <v>87600</v>
       </c>
       <c r="I60" s="3">
-        <v>92900</v>
+        <v>96100</v>
       </c>
       <c r="J60" s="3">
+        <v>93200</v>
+      </c>
+      <c r="K60" s="3">
         <v>137900</v>
       </c>
-      <c r="K60" s="3">
+      <c r="L60" s="3">
         <v>113100</v>
       </c>
-      <c r="L60" s="3">
+      <c r="M60" s="3">
         <v>508800</v>
       </c>
-      <c r="M60" s="3">
-        <v>0</v>
-      </c>
       <c r="N60" s="3">
         <v>0</v>
       </c>
@@ -3937,8 +4077,11 @@
       <c r="X60" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="61" spans="3:24" x14ac:dyDescent="0.2">
+      <c r="Y60" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="61" spans="3:25" x14ac:dyDescent="0.2">
       <c r="C61" s="1" t="s">
         <v>54</v>
       </c>
@@ -3946,135 +4089,141 @@
         <v>0</v>
       </c>
       <c r="E61" s="3">
+        <v>0</v>
+      </c>
+      <c r="F61" s="3">
         <v>14300</v>
       </c>
-      <c r="F61" s="3">
+      <c r="G61" s="3">
         <v>13700</v>
       </c>
-      <c r="G61" s="3">
+      <c r="H61" s="3">
         <v>13200</v>
       </c>
-      <c r="H61" s="3">
-        <v>12900</v>
-      </c>
       <c r="I61" s="3">
+        <v>13000</v>
+      </c>
+      <c r="J61" s="3">
         <v>12700</v>
       </c>
-      <c r="J61" s="3">
+      <c r="K61" s="3">
         <v>12200</v>
       </c>
-      <c r="K61" s="3">
-        <v>0</v>
-      </c>
       <c r="L61" s="3">
         <v>0</v>
       </c>
       <c r="M61" s="3">
+        <v>0</v>
+      </c>
+      <c r="N61" s="3">
         <v>3574000</v>
       </c>
-      <c r="N61" s="3">
+      <c r="O61" s="3">
         <v>3520000</v>
       </c>
-      <c r="O61" s="3">
+      <c r="P61" s="3">
         <v>3484000</v>
       </c>
-      <c r="P61" s="3">
+      <c r="Q61" s="3">
         <v>2439000</v>
       </c>
-      <c r="Q61" s="3">
+      <c r="R61" s="3">
         <v>2456000</v>
       </c>
-      <c r="R61" s="3">
+      <c r="S61" s="3">
         <v>2477000</v>
       </c>
-      <c r="S61" s="3">
+      <c r="T61" s="3">
         <v>2531000</v>
       </c>
-      <c r="T61" s="3">
+      <c r="U61" s="3">
         <v>2555000</v>
       </c>
-      <c r="U61" s="3">
+      <c r="V61" s="3">
         <v>2561000</v>
       </c>
-      <c r="V61" s="3">
+      <c r="W61" s="3">
         <v>1765000</v>
       </c>
-      <c r="W61" s="3">
+      <c r="X61" s="3">
         <v>1769000</v>
       </c>
-      <c r="X61" s="3">
+      <c r="Y61" s="3">
         <v>1817000</v>
       </c>
     </row>
-    <row r="62" spans="3:24" x14ac:dyDescent="0.2">
+    <row r="62" spans="3:25" x14ac:dyDescent="0.2">
       <c r="C62" s="1" t="s">
         <v>55</v>
       </c>
       <c r="D62" s="3">
+        <v>3300</v>
+      </c>
+      <c r="E62" s="3">
         <v>9800</v>
       </c>
-      <c r="E62" s="3">
+      <c r="F62" s="3">
         <v>1800</v>
       </c>
-      <c r="F62" s="3">
+      <c r="G62" s="3">
+        <v>1800</v>
+      </c>
+      <c r="H62" s="3">
         <v>1700</v>
-      </c>
-      <c r="G62" s="3">
-        <v>1700</v>
-      </c>
-      <c r="H62" s="3">
-        <v>2600</v>
       </c>
       <c r="I62" s="3">
         <v>2600</v>
       </c>
       <c r="J62" s="3">
+        <v>2600</v>
+      </c>
+      <c r="K62" s="3">
         <v>33600</v>
       </c>
-      <c r="K62" s="3">
+      <c r="L62" s="3">
         <v>31000</v>
       </c>
-      <c r="L62" s="3">
+      <c r="M62" s="3">
         <v>25000</v>
       </c>
-      <c r="M62" s="3">
+      <c r="N62" s="3">
         <v>219000</v>
       </c>
-      <c r="N62" s="3">
+      <c r="O62" s="3">
         <v>215000</v>
       </c>
-      <c r="O62" s="3">
+      <c r="P62" s="3">
         <v>211000</v>
       </c>
-      <c r="P62" s="3">
+      <c r="Q62" s="3">
         <v>177000</v>
       </c>
-      <c r="Q62" s="3">
+      <c r="R62" s="3">
         <v>163000</v>
       </c>
-      <c r="R62" s="3">
+      <c r="S62" s="3">
         <v>131000</v>
       </c>
-      <c r="S62" s="3">
+      <c r="T62" s="3">
         <v>182000</v>
       </c>
-      <c r="T62" s="3">
+      <c r="U62" s="3">
         <v>193000</v>
       </c>
-      <c r="U62" s="3">
+      <c r="V62" s="3">
         <v>268000</v>
       </c>
-      <c r="V62" s="3">
+      <c r="W62" s="3">
         <v>269000</v>
       </c>
-      <c r="W62" s="3">
+      <c r="X62" s="3">
         <v>284000</v>
       </c>
-      <c r="X62" s="3">
+      <c r="Y62" s="3">
         <v>281000</v>
       </c>
     </row>
-    <row r="63" spans="3:24" x14ac:dyDescent="0.2">
+    <row r="63" spans="3:25" x14ac:dyDescent="0.2">
       <c r="C63" s="1" t="s">
         <v>56</v>
       </c>
@@ -4141,8 +4290,11 @@
       <c r="X63" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="64" spans="3:24" x14ac:dyDescent="0.2">
+      <c r="Y63" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="64" spans="3:25" x14ac:dyDescent="0.2">
       <c r="C64" s="1" t="s">
         <v>20</v>
       </c>
@@ -4209,8 +4361,11 @@
       <c r="X64" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="65" spans="2:24" x14ac:dyDescent="0.2">
+      <c r="Y64" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="65" spans="2:25" x14ac:dyDescent="0.2">
       <c r="C65" s="1" t="s">
         <v>57</v>
       </c>
@@ -4277,76 +4432,82 @@
       <c r="X65" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="66" spans="2:24" x14ac:dyDescent="0.2">
+      <c r="Y65" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="66" spans="2:25" x14ac:dyDescent="0.2">
       <c r="C66" s="1" t="s">
         <v>58</v>
       </c>
       <c r="D66" s="3">
-        <v>124000</v>
+        <v>89700</v>
       </c>
       <c r="E66" s="3">
-        <v>116400</v>
+        <v>124400</v>
       </c>
       <c r="F66" s="3">
-        <v>100600</v>
+        <v>116700</v>
       </c>
       <c r="G66" s="3">
-        <v>102200</v>
+        <v>100900</v>
       </c>
       <c r="H66" s="3">
-        <v>111400</v>
+        <v>102500</v>
       </c>
       <c r="I66" s="3">
-        <v>108300</v>
+        <v>111700</v>
       </c>
       <c r="J66" s="3">
+        <v>108600</v>
+      </c>
+      <c r="K66" s="3">
         <v>183700</v>
       </c>
-      <c r="K66" s="3">
+      <c r="L66" s="3">
         <v>144000</v>
       </c>
-      <c r="L66" s="3">
+      <c r="M66" s="3">
         <v>533700</v>
       </c>
-      <c r="M66" s="3">
+      <c r="N66" s="3">
         <v>32626000</v>
       </c>
-      <c r="N66" s="3">
+      <c r="O66" s="3">
         <v>30356000</v>
       </c>
-      <c r="O66" s="3">
+      <c r="P66" s="3">
         <v>28834000</v>
       </c>
-      <c r="P66" s="3">
+      <c r="Q66" s="3">
         <v>29517000</v>
       </c>
-      <c r="Q66" s="3">
+      <c r="R66" s="3">
         <v>29575000</v>
       </c>
-      <c r="R66" s="3">
+      <c r="S66" s="3">
         <v>30815000</v>
       </c>
-      <c r="S66" s="3">
+      <c r="T66" s="3">
         <v>31979000</v>
       </c>
-      <c r="T66" s="3">
+      <c r="U66" s="3">
         <v>31380000</v>
       </c>
-      <c r="U66" s="3">
+      <c r="V66" s="3">
         <v>24650000</v>
       </c>
-      <c r="V66" s="3">
+      <c r="W66" s="3">
         <v>23840000</v>
       </c>
-      <c r="W66" s="3">
+      <c r="X66" s="3">
         <v>23635000</v>
       </c>
-      <c r="X66" s="3">
+      <c r="Y66" s="3">
         <v>23767000</v>
       </c>
     </row>
-    <row r="67" spans="2:24" x14ac:dyDescent="0.2">
+    <row r="67" spans="2:25" x14ac:dyDescent="0.2">
       <c r="C67" s="1" t="s">
         <v>59</v>
       </c>
@@ -4371,8 +4532,9 @@
       <c r="V67" s="3"/>
       <c r="W67" s="3"/>
       <c r="X67" s="3"/>
-    </row>
-    <row r="68" spans="2:24" x14ac:dyDescent="0.2">
+      <c r="Y67" s="3"/>
+    </row>
+    <row r="68" spans="2:25" x14ac:dyDescent="0.2">
       <c r="C68" s="1" t="s">
         <v>60</v>
       </c>
@@ -4439,8 +4601,11 @@
       <c r="X68" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="69" spans="2:24" x14ac:dyDescent="0.2">
+      <c r="Y68" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="69" spans="2:25" x14ac:dyDescent="0.2">
       <c r="C69" s="1" t="s">
         <v>61</v>
       </c>
@@ -4507,8 +4672,11 @@
       <c r="X69" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="70" spans="2:24" x14ac:dyDescent="0.2">
+      <c r="Y69" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="70" spans="2:25" x14ac:dyDescent="0.2">
       <c r="C70" s="1" t="s">
         <v>62</v>
       </c>
@@ -4575,8 +4743,11 @@
       <c r="X70" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="71" spans="2:24" x14ac:dyDescent="0.2">
+      <c r="Y70" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="71" spans="2:25" x14ac:dyDescent="0.2">
       <c r="C71" s="1" t="s">
         <v>63</v>
       </c>
@@ -4643,76 +4814,82 @@
       <c r="X71" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="72" spans="2:24" x14ac:dyDescent="0.2">
+      <c r="Y71" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="72" spans="2:25" x14ac:dyDescent="0.2">
       <c r="C72" s="1" t="s">
         <v>64</v>
       </c>
       <c r="D72" s="3">
-        <v>1524500</v>
+        <v>1698600</v>
       </c>
       <c r="E72" s="3">
-        <v>1146700</v>
+        <v>1528900</v>
       </c>
       <c r="F72" s="3">
-        <v>1077200</v>
+        <v>1150000</v>
       </c>
       <c r="G72" s="3">
-        <v>1005000</v>
+        <v>1080300</v>
       </c>
       <c r="H72" s="3">
-        <v>956700</v>
+        <v>1007900</v>
       </c>
       <c r="I72" s="3">
-        <v>944800</v>
+        <v>959400</v>
       </c>
       <c r="J72" s="3">
+        <v>947600</v>
+      </c>
+      <c r="K72" s="3">
         <v>869900</v>
       </c>
-      <c r="K72" s="3">
+      <c r="L72" s="3">
         <v>759100</v>
       </c>
-      <c r="L72" s="3">
+      <c r="M72" s="3">
         <v>529100</v>
       </c>
-      <c r="M72" s="3">
+      <c r="N72" s="3">
         <v>8194000</v>
       </c>
-      <c r="N72" s="3">
+      <c r="O72" s="3">
         <v>7805000</v>
       </c>
-      <c r="O72" s="3">
+      <c r="P72" s="3">
         <v>7475000</v>
       </c>
-      <c r="P72" s="3">
+      <c r="Q72" s="3">
         <v>7011000</v>
       </c>
-      <c r="Q72" s="3">
+      <c r="R72" s="3">
         <v>6673000</v>
       </c>
-      <c r="R72" s="3">
+      <c r="S72" s="3">
         <v>6341000</v>
       </c>
-      <c r="S72" s="3">
+      <c r="T72" s="3">
         <v>6189000</v>
       </c>
-      <c r="T72" s="3">
+      <c r="U72" s="3">
         <v>6011000</v>
       </c>
-      <c r="U72" s="3">
+      <c r="V72" s="3">
         <v>5895000</v>
       </c>
-      <c r="V72" s="3">
+      <c r="W72" s="3">
         <v>5759000</v>
       </c>
-      <c r="W72" s="3">
+      <c r="X72" s="3">
         <v>5640000</v>
       </c>
-      <c r="X72" s="3">
+      <c r="Y72" s="3">
         <v>5518000</v>
       </c>
     </row>
-    <row r="73" spans="2:24" x14ac:dyDescent="0.2">
+    <row r="73" spans="2:25" x14ac:dyDescent="0.2">
       <c r="C73" s="1" t="s">
         <v>65</v>
       </c>
@@ -4779,8 +4956,11 @@
       <c r="X73" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="74" spans="2:24" x14ac:dyDescent="0.2">
+      <c r="Y73" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="74" spans="2:25" x14ac:dyDescent="0.2">
       <c r="C74" s="1" t="s">
         <v>66</v>
       </c>
@@ -4847,8 +5027,11 @@
       <c r="X74" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="75" spans="2:24" x14ac:dyDescent="0.2">
+      <c r="Y74" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="75" spans="2:25" x14ac:dyDescent="0.2">
       <c r="C75" s="1" t="s">
         <v>67</v>
       </c>
@@ -4915,76 +5098,82 @@
       <c r="X75" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="76" spans="2:24" x14ac:dyDescent="0.2">
+      <c r="Y75" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="76" spans="2:25" x14ac:dyDescent="0.2">
       <c r="C76" s="1" t="s">
         <v>68</v>
       </c>
       <c r="D76" s="3">
-        <v>1113300</v>
+        <v>740900</v>
       </c>
       <c r="E76" s="3">
-        <v>735500</v>
+        <v>1116500</v>
       </c>
       <c r="F76" s="3">
-        <v>1311100</v>
+        <v>737700</v>
       </c>
       <c r="G76" s="3">
-        <v>1238900</v>
+        <v>1314900</v>
       </c>
       <c r="H76" s="3">
-        <v>1194400</v>
+        <v>1242500</v>
       </c>
       <c r="I76" s="3">
-        <v>1178600</v>
+        <v>1197900</v>
       </c>
       <c r="J76" s="3">
+        <v>1182000</v>
+      </c>
+      <c r="K76" s="3">
         <v>870000</v>
       </c>
-      <c r="K76" s="3">
+      <c r="L76" s="3">
         <v>759200</v>
       </c>
-      <c r="L76" s="3">
+      <c r="M76" s="3">
         <v>529100</v>
       </c>
-      <c r="M76" s="3">
+      <c r="N76" s="3">
         <v>8493000</v>
       </c>
-      <c r="N76" s="3">
+      <c r="O76" s="3">
         <v>8323000</v>
       </c>
-      <c r="O76" s="3">
+      <c r="P76" s="3">
         <v>8357000</v>
       </c>
-      <c r="P76" s="3">
+      <c r="Q76" s="3">
         <v>8003000</v>
       </c>
-      <c r="Q76" s="3">
+      <c r="R76" s="3">
         <v>7936000</v>
       </c>
-      <c r="R76" s="3">
+      <c r="S76" s="3">
         <v>7595000</v>
       </c>
-      <c r="S76" s="3">
+      <c r="T76" s="3">
         <v>7433000</v>
       </c>
-      <c r="T76" s="3">
+      <c r="U76" s="3">
         <v>7247000</v>
       </c>
-      <c r="U76" s="3">
+      <c r="V76" s="3">
         <v>5460000</v>
       </c>
-      <c r="V76" s="3">
+      <c r="W76" s="3">
         <v>5325000</v>
       </c>
-      <c r="W76" s="3">
+      <c r="X76" s="3">
         <v>5199000</v>
       </c>
-      <c r="X76" s="3">
+      <c r="Y76" s="3">
         <v>5051000</v>
       </c>
     </row>
-    <row r="77" spans="2:24" x14ac:dyDescent="0.2">
+    <row r="77" spans="2:25" x14ac:dyDescent="0.2">
       <c r="C77" s="1" t="s">
         <v>69</v>
       </c>
@@ -5051,149 +5240,158 @@
       <c r="X77" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="79" spans="2:24" x14ac:dyDescent="0.2">
+      <c r="Y77" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="79" spans="2:25" x14ac:dyDescent="0.2">
       <c r="B79" s="1" t="s">
         <v>70</v>
       </c>
     </row>
-    <row r="80" spans="2:24" x14ac:dyDescent="0.2">
+    <row r="80" spans="2:25" x14ac:dyDescent="0.2">
       <c r="C80" s="1" t="s">
         <v>2</v>
       </c>
       <c r="D80" s="2">
+        <v>44926</v>
+      </c>
+      <c r="E80" s="2">
         <v>44742</v>
       </c>
-      <c r="E80" s="2">
+      <c r="F80" s="2">
         <v>44561</v>
       </c>
-      <c r="F80" s="2">
+      <c r="G80" s="2">
         <v>44377</v>
       </c>
-      <c r="G80" s="2">
+      <c r="H80" s="2">
         <v>44196</v>
       </c>
-      <c r="H80" s="2">
+      <c r="I80" s="2">
         <v>44104</v>
       </c>
-      <c r="I80" s="2">
+      <c r="J80" s="2">
         <v>44012</v>
       </c>
-      <c r="J80" s="2">
+      <c r="K80" s="2">
         <v>43830</v>
       </c>
-      <c r="K80" s="2">
+      <c r="L80" s="2">
         <v>43738</v>
-      </c>
-      <c r="L80" s="2">
-        <v>43646</v>
       </c>
       <c r="M80" s="2">
         <v>43646</v>
       </c>
       <c r="N80" s="2">
+        <v>43646</v>
+      </c>
+      <c r="O80" s="2">
         <v>43555</v>
       </c>
-      <c r="O80" s="2">
+      <c r="P80" s="2">
         <v>43465</v>
       </c>
-      <c r="P80" s="2">
+      <c r="Q80" s="2">
         <v>43373</v>
       </c>
-      <c r="Q80" s="2">
+      <c r="R80" s="2">
         <v>43281</v>
       </c>
-      <c r="R80" s="2">
+      <c r="S80" s="2">
         <v>43190</v>
       </c>
-      <c r="S80" s="2">
+      <c r="T80" s="2">
         <v>43100</v>
       </c>
-      <c r="T80" s="2">
+      <c r="U80" s="2">
         <v>43008</v>
       </c>
-      <c r="U80" s="2">
+      <c r="V80" s="2">
         <v>42916</v>
       </c>
-      <c r="V80" s="2">
+      <c r="W80" s="2">
         <v>42825</v>
       </c>
-      <c r="W80" s="2">
+      <c r="X80" s="2">
         <v>42735</v>
       </c>
-      <c r="X80" s="2">
+      <c r="Y80" s="2">
         <v>42643</v>
       </c>
     </row>
-    <row r="81" spans="3:24" x14ac:dyDescent="0.2">
+    <row r="81" spans="3:25" x14ac:dyDescent="0.2">
       <c r="C81" s="1" t="s">
         <v>28</v>
       </c>
-      <c r="D81" s="3">
-        <v>94500</v>
+      <c r="D81" s="3" t="s">
+        <v>5</v>
       </c>
       <c r="E81" s="3">
-        <v>67400</v>
+        <v>94800</v>
       </c>
       <c r="F81" s="3">
-        <v>72200</v>
+        <v>67600</v>
       </c>
       <c r="G81" s="3">
-        <v>48300</v>
+        <v>72500</v>
       </c>
       <c r="H81" s="3">
+        <v>48500</v>
+      </c>
+      <c r="I81" s="3">
         <v>11900</v>
       </c>
-      <c r="I81" s="3">
-        <v>74900</v>
-      </c>
       <c r="J81" s="3">
+        <v>75100</v>
+      </c>
+      <c r="K81" s="3">
         <v>11400</v>
       </c>
-      <c r="K81" s="3">
+      <c r="L81" s="3">
         <v>39200</v>
       </c>
-      <c r="L81" s="3">
+      <c r="M81" s="3">
         <v>28100</v>
       </c>
-      <c r="M81" s="3">
+      <c r="N81" s="3">
         <v>555000</v>
       </c>
-      <c r="N81" s="3">
+      <c r="O81" s="3">
         <v>499000</v>
       </c>
-      <c r="O81" s="3">
+      <c r="P81" s="3">
         <v>604000</v>
       </c>
-      <c r="P81" s="3">
+      <c r="Q81" s="3">
         <v>454000</v>
       </c>
-      <c r="Q81" s="3">
+      <c r="R81" s="3">
         <v>451000</v>
       </c>
-      <c r="R81" s="3">
+      <c r="S81" s="3">
         <v>271000</v>
       </c>
-      <c r="S81" s="3">
+      <c r="T81" s="3">
         <v>297000</v>
       </c>
-      <c r="T81" s="3">
+      <c r="U81" s="3">
         <v>211000</v>
       </c>
-      <c r="U81" s="3">
+      <c r="V81" s="3">
         <v>231000</v>
       </c>
-      <c r="V81" s="3">
+      <c r="W81" s="3">
         <v>214000</v>
       </c>
-      <c r="W81" s="3">
+      <c r="X81" s="3">
         <v>216000</v>
       </c>
-      <c r="X81" s="3">
+      <c r="Y81" s="3">
         <v>185000</v>
       </c>
     </row>
-    <row r="82" spans="3:24" x14ac:dyDescent="0.2">
+    <row r="82" spans="3:25" x14ac:dyDescent="0.2">
       <c r="C82" s="1" t="s">
         <v>71</v>
       </c>
@@ -5218,8 +5416,9 @@
       <c r="V82" s="3"/>
       <c r="W82" s="3"/>
       <c r="X82" s="3"/>
-    </row>
-    <row r="83" spans="3:24" x14ac:dyDescent="0.2">
+      <c r="Y82" s="3"/>
+    </row>
+    <row r="83" spans="3:25" x14ac:dyDescent="0.2">
       <c r="C83" s="1" t="s">
         <v>72</v>
       </c>
@@ -5251,43 +5450,46 @@
         <v>0</v>
       </c>
       <c r="M83" s="3">
+        <v>0</v>
+      </c>
+      <c r="N83" s="3">
         <v>69000</v>
       </c>
-      <c r="N83" s="3">
+      <c r="O83" s="3">
         <v>67000</v>
       </c>
-      <c r="O83" s="3">
+      <c r="P83" s="3">
         <v>66000</v>
       </c>
-      <c r="P83" s="3">
+      <c r="Q83" s="3">
         <v>70000</v>
       </c>
-      <c r="Q83" s="3">
+      <c r="R83" s="3">
         <v>69000</v>
-      </c>
-      <c r="R83" s="3">
-        <v>72000</v>
       </c>
       <c r="S83" s="3">
         <v>72000</v>
       </c>
       <c r="T83" s="3">
+        <v>72000</v>
+      </c>
+      <c r="U83" s="3">
         <v>50000</v>
-      </c>
-      <c r="U83" s="3">
-        <v>44000</v>
       </c>
       <c r="V83" s="3">
         <v>44000</v>
       </c>
       <c r="W83" s="3">
+        <v>44000</v>
+      </c>
+      <c r="X83" s="3">
         <v>43000</v>
       </c>
-      <c r="X83" s="3">
+      <c r="Y83" s="3">
         <v>45000</v>
       </c>
     </row>
-    <row r="84" spans="3:24" x14ac:dyDescent="0.2">
+    <row r="84" spans="3:25" x14ac:dyDescent="0.2">
       <c r="C84" s="1" t="s">
         <v>73</v>
       </c>
@@ -5354,8 +5556,11 @@
       <c r="X84" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="85" spans="3:24" x14ac:dyDescent="0.2">
+      <c r="Y84" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="85" spans="3:25" x14ac:dyDescent="0.2">
       <c r="C85" s="1" t="s">
         <v>74</v>
       </c>
@@ -5422,8 +5627,11 @@
       <c r="X85" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="86" spans="3:24" x14ac:dyDescent="0.2">
+      <c r="Y85" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="86" spans="3:25" x14ac:dyDescent="0.2">
       <c r="C86" s="1" t="s">
         <v>75</v>
       </c>
@@ -5490,8 +5698,11 @@
       <c r="X86" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="87" spans="3:24" x14ac:dyDescent="0.2">
+      <c r="Y86" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="87" spans="3:25" x14ac:dyDescent="0.2">
       <c r="C87" s="1" t="s">
         <v>76</v>
       </c>
@@ -5558,8 +5769,11 @@
       <c r="X87" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="88" spans="3:24" x14ac:dyDescent="0.2">
+      <c r="Y87" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="88" spans="3:25" x14ac:dyDescent="0.2">
       <c r="C88" s="1" t="s">
         <v>77</v>
       </c>
@@ -5626,8 +5840,11 @@
       <c r="X88" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="89" spans="3:24" x14ac:dyDescent="0.2">
+      <c r="Y88" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="89" spans="3:25" x14ac:dyDescent="0.2">
       <c r="C89" s="1" t="s">
         <v>78</v>
       </c>
@@ -5659,43 +5876,46 @@
         <v>0</v>
       </c>
       <c r="M89" s="3">
+        <v>0</v>
+      </c>
+      <c r="N89" s="3">
         <v>2438000</v>
       </c>
-      <c r="N89" s="3">
+      <c r="O89" s="3">
         <v>573000</v>
       </c>
-      <c r="O89" s="3">
+      <c r="P89" s="3">
         <v>2762000</v>
       </c>
-      <c r="P89" s="3">
+      <c r="Q89" s="3">
         <v>1821000</v>
       </c>
-      <c r="Q89" s="3">
+      <c r="R89" s="3">
         <v>349000</v>
       </c>
-      <c r="R89" s="3">
+      <c r="S89" s="3">
         <v>124000</v>
       </c>
-      <c r="S89" s="3">
+      <c r="T89" s="3">
         <v>-386000</v>
       </c>
-      <c r="T89" s="3">
+      <c r="U89" s="3">
         <v>23000</v>
       </c>
-      <c r="U89" s="3">
+      <c r="V89" s="3">
         <v>27000</v>
       </c>
-      <c r="V89" s="3">
+      <c r="W89" s="3">
         <v>718000</v>
       </c>
-      <c r="W89" s="3">
+      <c r="X89" s="3">
         <v>-81000</v>
       </c>
-      <c r="X89" s="3">
+      <c r="Y89" s="3">
         <v>436000</v>
       </c>
     </row>
-    <row r="90" spans="3:24" x14ac:dyDescent="0.2">
+    <row r="90" spans="3:25" x14ac:dyDescent="0.2">
       <c r="C90" s="1" t="s">
         <v>79</v>
       </c>
@@ -5720,8 +5940,9 @@
       <c r="V90" s="3"/>
       <c r="W90" s="3"/>
       <c r="X90" s="3"/>
-    </row>
-    <row r="91" spans="3:24" x14ac:dyDescent="0.2">
+      <c r="Y90" s="3"/>
+    </row>
+    <row r="91" spans="3:25" x14ac:dyDescent="0.2">
       <c r="C91" s="1" t="s">
         <v>80</v>
       </c>
@@ -5753,43 +5974,46 @@
         <v>0</v>
       </c>
       <c r="M91" s="3">
+        <v>0</v>
+      </c>
+      <c r="N91" s="3">
         <v>-59000</v>
       </c>
-      <c r="N91" s="3">
+      <c r="O91" s="3">
         <v>-48000</v>
       </c>
-      <c r="O91" s="3">
+      <c r="P91" s="3">
         <v>-44000</v>
       </c>
-      <c r="P91" s="3">
+      <c r="Q91" s="3">
         <v>-63000</v>
       </c>
-      <c r="Q91" s="3">
+      <c r="R91" s="3">
         <v>-47000</v>
       </c>
-      <c r="R91" s="3">
+      <c r="S91" s="3">
         <v>-56000</v>
       </c>
-      <c r="S91" s="3">
+      <c r="T91" s="3">
         <v>-63000</v>
       </c>
-      <c r="T91" s="3">
+      <c r="U91" s="3">
         <v>-56000</v>
       </c>
-      <c r="U91" s="3">
+      <c r="V91" s="3">
         <v>-62000</v>
       </c>
-      <c r="V91" s="3">
+      <c r="W91" s="3">
         <v>-100000</v>
       </c>
-      <c r="W91" s="3">
+      <c r="X91" s="3">
         <v>-58000</v>
       </c>
-      <c r="X91" s="3">
+      <c r="Y91" s="3">
         <v>-27000</v>
       </c>
     </row>
-    <row r="92" spans="3:24" x14ac:dyDescent="0.2">
+    <row r="92" spans="3:25" x14ac:dyDescent="0.2">
       <c r="C92" s="1" t="s">
         <v>81</v>
       </c>
@@ -5856,8 +6080,11 @@
       <c r="X92" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="93" spans="3:24" x14ac:dyDescent="0.2">
+      <c r="Y92" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="93" spans="3:25" x14ac:dyDescent="0.2">
       <c r="C93" s="1" t="s">
         <v>82</v>
       </c>
@@ -5924,8 +6151,11 @@
       <c r="X93" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="94" spans="3:24" x14ac:dyDescent="0.2">
+      <c r="Y93" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="94" spans="3:25" x14ac:dyDescent="0.2">
       <c r="C94" s="1" t="s">
         <v>83</v>
       </c>
@@ -5957,43 +6187,46 @@
         <v>0</v>
       </c>
       <c r="M94" s="3">
+        <v>0</v>
+      </c>
+      <c r="N94" s="3">
         <v>-195000</v>
       </c>
-      <c r="N94" s="3">
+      <c r="O94" s="3">
         <v>-48000</v>
       </c>
-      <c r="O94" s="3">
+      <c r="P94" s="3">
         <v>-426000</v>
       </c>
-      <c r="P94" s="3">
+      <c r="Q94" s="3">
         <v>-66000</v>
       </c>
-      <c r="Q94" s="3">
+      <c r="R94" s="3">
         <v>-35000</v>
       </c>
-      <c r="R94" s="3">
+      <c r="S94" s="3">
         <v>-440000</v>
       </c>
-      <c r="S94" s="3">
+      <c r="T94" s="3">
         <v>633000</v>
       </c>
-      <c r="T94" s="3">
+      <c r="U94" s="3">
         <v>-1406000</v>
       </c>
-      <c r="U94" s="3">
+      <c r="V94" s="3">
         <v>-62000</v>
       </c>
-      <c r="V94" s="3">
+      <c r="W94" s="3">
         <v>-50000</v>
       </c>
-      <c r="W94" s="3">
+      <c r="X94" s="3">
         <v>-29000</v>
       </c>
-      <c r="X94" s="3">
+      <c r="Y94" s="3">
         <v>-384000</v>
       </c>
     </row>
-    <row r="95" spans="3:24" x14ac:dyDescent="0.2">
+    <row r="95" spans="3:25" x14ac:dyDescent="0.2">
       <c r="C95" s="1" t="s">
         <v>84</v>
       </c>
@@ -6018,8 +6251,9 @@
       <c r="V95" s="3"/>
       <c r="W95" s="3"/>
       <c r="X95" s="3"/>
-    </row>
-    <row r="96" spans="3:24" x14ac:dyDescent="0.2">
+      <c r="Y95" s="3"/>
+    </row>
+    <row r="96" spans="3:25" x14ac:dyDescent="0.2">
       <c r="C96" s="1" t="s">
         <v>85</v>
       </c>
@@ -6051,19 +6285,19 @@
         <v>0</v>
       </c>
       <c r="M96" s="3">
+        <v>0</v>
+      </c>
+      <c r="N96" s="3">
         <v>-166000</v>
       </c>
-      <c r="N96" s="3">
+      <c r="O96" s="3">
         <v>-169000</v>
       </c>
-      <c r="O96" s="3">
+      <c r="P96" s="3">
         <v>-168000</v>
       </c>
-      <c r="P96" s="3">
+      <c r="Q96" s="3">
         <v>-120000</v>
-      </c>
-      <c r="Q96" s="3">
-        <v>-119000</v>
       </c>
       <c r="R96" s="3">
         <v>-119000</v>
@@ -6072,10 +6306,10 @@
         <v>-119000</v>
       </c>
       <c r="T96" s="3">
+        <v>-119000</v>
+      </c>
+      <c r="U96" s="3">
         <v>-94000</v>
-      </c>
-      <c r="U96" s="3">
-        <v>-95000</v>
       </c>
       <c r="V96" s="3">
         <v>-95000</v>
@@ -6084,10 +6318,13 @@
         <v>-95000</v>
       </c>
       <c r="X96" s="3">
+        <v>-95000</v>
+      </c>
+      <c r="Y96" s="3">
         <v>-90000</v>
       </c>
     </row>
-    <row r="97" spans="3:24" x14ac:dyDescent="0.2">
+    <row r="97" spans="3:25" x14ac:dyDescent="0.2">
       <c r="C97" s="1" t="s">
         <v>86</v>
       </c>
@@ -6154,8 +6391,11 @@
       <c r="X97" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="98" spans="3:24" x14ac:dyDescent="0.2">
+      <c r="Y97" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="98" spans="3:25" x14ac:dyDescent="0.2">
       <c r="C98" s="1" t="s">
         <v>87</v>
       </c>
@@ -6222,8 +6462,11 @@
       <c r="X98" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="99" spans="3:24" x14ac:dyDescent="0.2">
+      <c r="Y98" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="99" spans="3:25" x14ac:dyDescent="0.2">
       <c r="C99" s="1" t="s">
         <v>88</v>
       </c>
@@ -6290,8 +6533,11 @@
       <c r="X99" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="100" spans="3:24" x14ac:dyDescent="0.2">
+      <c r="Y99" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="100" spans="3:25" x14ac:dyDescent="0.2">
       <c r="C100" s="1" t="s">
         <v>89</v>
       </c>
@@ -6323,43 +6569,46 @@
         <v>0</v>
       </c>
       <c r="M100" s="3">
+        <v>0</v>
+      </c>
+      <c r="N100" s="3">
         <v>-409000</v>
       </c>
-      <c r="N100" s="3">
+      <c r="O100" s="3">
         <v>-552000</v>
       </c>
-      <c r="O100" s="3">
+      <c r="P100" s="3">
         <v>594000</v>
       </c>
-      <c r="P100" s="3">
+      <c r="Q100" s="3">
         <v>-408000</v>
       </c>
-      <c r="Q100" s="3">
+      <c r="R100" s="3">
         <v>-344000</v>
       </c>
-      <c r="R100" s="3">
+      <c r="S100" s="3">
         <v>45000</v>
       </c>
-      <c r="S100" s="3">
+      <c r="T100" s="3">
         <v>-75000</v>
       </c>
-      <c r="T100" s="3">
+      <c r="U100" s="3">
         <v>-37000</v>
       </c>
-      <c r="U100" s="3">
+      <c r="V100" s="3">
         <v>685000</v>
       </c>
-      <c r="V100" s="3">
+      <c r="W100" s="3">
         <v>-97000</v>
       </c>
-      <c r="W100" s="3">
+      <c r="X100" s="3">
         <v>-74000</v>
       </c>
-      <c r="X100" s="3">
+      <c r="Y100" s="3">
         <v>-114000</v>
       </c>
     </row>
-    <row r="101" spans="3:24" x14ac:dyDescent="0.2">
+    <row r="101" spans="3:25" x14ac:dyDescent="0.2">
       <c r="C101" s="1" t="s">
         <v>90</v>
       </c>
@@ -6426,8 +6675,11 @@
       <c r="X101" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="102" spans="3:24" x14ac:dyDescent="0.2">
+      <c r="Y101" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="102" spans="3:25" x14ac:dyDescent="0.2">
       <c r="C102" s="1" t="s">
         <v>91</v>
       </c>
@@ -6459,39 +6711,42 @@
         <v>0</v>
       </c>
       <c r="M102" s="3">
+        <v>0</v>
+      </c>
+      <c r="N102" s="3">
         <v>1834000</v>
       </c>
-      <c r="N102" s="3">
+      <c r="O102" s="3">
         <v>-27000</v>
       </c>
-      <c r="O102" s="3">
+      <c r="P102" s="3">
         <v>2930000</v>
       </c>
-      <c r="P102" s="3">
+      <c r="Q102" s="3">
         <v>1347000</v>
       </c>
-      <c r="Q102" s="3">
+      <c r="R102" s="3">
         <v>-30000</v>
       </c>
-      <c r="R102" s="3">
+      <c r="S102" s="3">
         <v>-271000</v>
       </c>
-      <c r="S102" s="3">
+      <c r="T102" s="3">
         <v>172000</v>
       </c>
-      <c r="T102" s="3">
+      <c r="U102" s="3">
         <v>-1408000</v>
       </c>
-      <c r="U102" s="3">
+      <c r="V102" s="3">
         <v>649000</v>
       </c>
-      <c r="V102" s="3">
+      <c r="W102" s="3">
         <v>569000</v>
       </c>
-      <c r="W102" s="3">
+      <c r="X102" s="3">
         <v>-193000</v>
       </c>
-      <c r="X102" s="3">
+      <c r="Y102" s="3">
         <v>-62000</v>
       </c>
     </row>

--- a/AAII_Financials/Quarterly/AMTD_QTR_FIN.xlsx
+++ b/AAII_Financials/Quarterly/AMTD_QTR_FIN.xlsx
@@ -22,7 +22,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="227" uniqueCount="92">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="215" uniqueCount="92">
   <si>
     <t>AMTD</t>
   </si>
@@ -770,17 +770,17 @@
       <c r="C8" s="1" t="s">
         <v>3</v>
       </c>
-      <c r="D8" s="3" t="s">
-        <v>5</v>
+      <c r="D8" s="3">
+        <v>58600</v>
       </c>
       <c r="E8" s="3">
-        <v>75200</v>
+        <v>75100</v>
       </c>
       <c r="F8" s="3">
-        <v>42800</v>
+        <v>42700</v>
       </c>
       <c r="G8" s="3">
-        <v>66400</v>
+        <v>66200</v>
       </c>
       <c r="H8" s="3">
         <v>19800</v>
@@ -789,7 +789,7 @@
         <v>10700</v>
       </c>
       <c r="J8" s="3">
-        <v>68900</v>
+        <v>68700</v>
       </c>
       <c r="K8" s="3">
         <v>20100</v>
@@ -1152,8 +1152,8 @@
       <c r="C14" s="1" t="s">
         <v>10</v>
       </c>
-      <c r="D14" s="3" t="s">
-        <v>5</v>
+      <c r="D14" s="3">
+        <v>500</v>
       </c>
       <c r="E14" s="3" t="s">
         <v>5</v>
@@ -1318,14 +1318,14 @@
       <c r="C17" s="1" t="s">
         <v>12</v>
       </c>
-      <c r="D17" s="3" t="s">
-        <v>5</v>
+      <c r="D17" s="3">
+        <v>4900</v>
       </c>
       <c r="E17" s="3">
         <v>15300</v>
       </c>
       <c r="F17" s="3">
-        <v>12100</v>
+        <v>12000</v>
       </c>
       <c r="G17" s="3">
         <v>10800</v>
@@ -1389,17 +1389,17 @@
       <c r="C18" s="1" t="s">
         <v>13</v>
       </c>
-      <c r="D18" s="3" t="s">
-        <v>5</v>
+      <c r="D18" s="3">
+        <v>53700</v>
       </c>
       <c r="E18" s="3">
-        <v>59900</v>
+        <v>59800</v>
       </c>
       <c r="F18" s="3">
         <v>30700</v>
       </c>
       <c r="G18" s="3">
-        <v>55500</v>
+        <v>55400</v>
       </c>
       <c r="H18" s="3">
         <v>15400</v>
@@ -1408,7 +1408,7 @@
         <v>4100</v>
       </c>
       <c r="J18" s="3">
-        <v>52400</v>
+        <v>52300</v>
       </c>
       <c r="K18" s="3">
         <v>12900</v>
@@ -1487,23 +1487,23 @@
       <c r="C20" s="1" t="s">
         <v>15</v>
       </c>
-      <c r="D20" s="3" t="s">
-        <v>5</v>
+      <c r="D20" s="3">
+        <v>9400</v>
       </c>
       <c r="E20" s="3">
-        <v>51700</v>
+        <v>51600</v>
       </c>
       <c r="F20" s="3">
-        <v>50400</v>
+        <v>50300</v>
       </c>
       <c r="G20" s="3">
-        <v>35100</v>
+        <v>35000</v>
       </c>
       <c r="H20" s="3">
-        <v>40800</v>
+        <v>40700</v>
       </c>
       <c r="I20" s="3">
-        <v>13500</v>
+        <v>13400</v>
       </c>
       <c r="J20" s="3">
         <v>4500</v>
@@ -1701,25 +1701,25 @@
         <v>18</v>
       </c>
       <c r="D23" s="3">
-        <v>62700</v>
+        <v>62500</v>
       </c>
       <c r="E23" s="3">
-        <v>111300</v>
+        <v>111100</v>
       </c>
       <c r="F23" s="3">
-        <v>80300</v>
+        <v>80100</v>
       </c>
       <c r="G23" s="3">
-        <v>89800</v>
+        <v>89600</v>
       </c>
       <c r="H23" s="3">
-        <v>55700</v>
+        <v>55600</v>
       </c>
       <c r="I23" s="3">
         <v>17200</v>
       </c>
       <c r="J23" s="3">
-        <v>55000</v>
+        <v>54900</v>
       </c>
       <c r="K23" s="3">
         <v>13800</v>
@@ -1784,13 +1784,13 @@
         <v>9300</v>
       </c>
       <c r="H24" s="3">
-        <v>3300</v>
+        <v>3200</v>
       </c>
       <c r="I24" s="3">
         <v>1300</v>
       </c>
       <c r="J24" s="3">
-        <v>-22200</v>
+        <v>-22100</v>
       </c>
       <c r="K24" s="3">
         <v>2400</v>
@@ -1913,26 +1913,26 @@
       <c r="C26" s="1" t="s">
         <v>21</v>
       </c>
-      <c r="D26" s="3" t="s">
-        <v>5</v>
+      <c r="D26" s="3">
+        <v>58100</v>
       </c>
       <c r="E26" s="3">
-        <v>102400</v>
+        <v>102200</v>
       </c>
       <c r="F26" s="3">
-        <v>75700</v>
+        <v>75500</v>
       </c>
       <c r="G26" s="3">
-        <v>80500</v>
+        <v>80300</v>
       </c>
       <c r="H26" s="3">
-        <v>52500</v>
+        <v>52400</v>
       </c>
       <c r="I26" s="3">
         <v>15900</v>
       </c>
       <c r="J26" s="3">
-        <v>77200</v>
+        <v>77000</v>
       </c>
       <c r="K26" s="3">
         <v>11400</v>
@@ -1984,26 +1984,26 @@
       <c r="C27" s="1" t="s">
         <v>22</v>
       </c>
-      <c r="D27" s="3" t="s">
-        <v>5</v>
+      <c r="D27" s="3">
+        <v>47000</v>
       </c>
       <c r="E27" s="3">
-        <v>94800</v>
+        <v>94600</v>
       </c>
       <c r="F27" s="3">
-        <v>67600</v>
+        <v>67500</v>
       </c>
       <c r="G27" s="3">
-        <v>72500</v>
+        <v>72300</v>
       </c>
       <c r="H27" s="3">
-        <v>48500</v>
+        <v>48400</v>
       </c>
       <c r="I27" s="3">
         <v>11900</v>
       </c>
       <c r="J27" s="3">
-        <v>75100</v>
+        <v>74900</v>
       </c>
       <c r="K27" s="3">
         <v>11400</v>
@@ -2339,23 +2339,23 @@
       <c r="C32" s="1" t="s">
         <v>27</v>
       </c>
-      <c r="D32" s="3" t="s">
-        <v>5</v>
+      <c r="D32" s="3">
+        <v>-9400</v>
       </c>
       <c r="E32" s="3">
-        <v>-51700</v>
+        <v>-51600</v>
       </c>
       <c r="F32" s="3">
-        <v>-50400</v>
+        <v>-50300</v>
       </c>
       <c r="G32" s="3">
-        <v>-35100</v>
+        <v>-35000</v>
       </c>
       <c r="H32" s="3">
-        <v>-40800</v>
+        <v>-40700</v>
       </c>
       <c r="I32" s="3">
-        <v>-13500</v>
+        <v>-13400</v>
       </c>
       <c r="J32" s="3">
         <v>-4500</v>
@@ -2410,26 +2410,26 @@
       <c r="C33" s="1" t="s">
         <v>28</v>
       </c>
-      <c r="D33" s="3" t="s">
-        <v>5</v>
+      <c r="D33" s="3">
+        <v>47000</v>
       </c>
       <c r="E33" s="3">
-        <v>94800</v>
+        <v>94600</v>
       </c>
       <c r="F33" s="3">
-        <v>67600</v>
+        <v>67500</v>
       </c>
       <c r="G33" s="3">
-        <v>72500</v>
+        <v>72300</v>
       </c>
       <c r="H33" s="3">
-        <v>48500</v>
+        <v>48400</v>
       </c>
       <c r="I33" s="3">
         <v>11900</v>
       </c>
       <c r="J33" s="3">
-        <v>75100</v>
+        <v>74900</v>
       </c>
       <c r="K33" s="3">
         <v>11400</v>
@@ -2552,26 +2552,26 @@
       <c r="C35" s="1" t="s">
         <v>30</v>
       </c>
-      <c r="D35" s="3" t="s">
-        <v>5</v>
+      <c r="D35" s="3">
+        <v>47000</v>
       </c>
       <c r="E35" s="3">
-        <v>94800</v>
+        <v>94600</v>
       </c>
       <c r="F35" s="3">
-        <v>67600</v>
+        <v>67500</v>
       </c>
       <c r="G35" s="3">
-        <v>72500</v>
+        <v>72300</v>
       </c>
       <c r="H35" s="3">
-        <v>48500</v>
+        <v>48400</v>
       </c>
       <c r="I35" s="3">
         <v>11900</v>
       </c>
       <c r="J35" s="3">
-        <v>75100</v>
+        <v>74900</v>
       </c>
       <c r="K35" s="3">
         <v>11400</v>
@@ -2754,25 +2754,25 @@
         <v>34</v>
       </c>
       <c r="D41" s="3">
-        <v>139000</v>
+        <v>138700</v>
       </c>
       <c r="E41" s="3">
-        <v>30400</v>
+        <v>30300</v>
       </c>
       <c r="F41" s="3">
-        <v>84600</v>
+        <v>84500</v>
       </c>
       <c r="G41" s="3">
-        <v>74900</v>
+        <v>74800</v>
       </c>
       <c r="H41" s="3">
-        <v>83200</v>
+        <v>83100</v>
       </c>
       <c r="I41" s="3">
-        <v>82800</v>
+        <v>82600</v>
       </c>
       <c r="J41" s="3">
-        <v>147400</v>
+        <v>147100</v>
       </c>
       <c r="K41" s="3">
         <v>128900</v>
@@ -2840,10 +2840,10 @@
         <v>8000</v>
       </c>
       <c r="I42" s="3">
-        <v>136700</v>
+        <v>136400</v>
       </c>
       <c r="J42" s="3">
-        <v>129100</v>
+        <v>128800</v>
       </c>
       <c r="K42" s="3">
         <v>200400</v>
@@ -2896,25 +2896,25 @@
         <v>36</v>
       </c>
       <c r="D43" s="3">
-        <v>310100</v>
+        <v>309900</v>
       </c>
       <c r="E43" s="3">
-        <v>659200</v>
+        <v>657900</v>
       </c>
       <c r="F43" s="3">
-        <v>285100</v>
+        <v>284600</v>
       </c>
       <c r="G43" s="3">
-        <v>897800</v>
+        <v>896100</v>
       </c>
       <c r="H43" s="3">
-        <v>837600</v>
+        <v>836000</v>
       </c>
       <c r="I43" s="3">
-        <v>957700</v>
+        <v>955800</v>
       </c>
       <c r="J43" s="3">
-        <v>891300</v>
+        <v>889500</v>
       </c>
       <c r="K43" s="3">
         <v>569500</v>
@@ -3038,25 +3038,25 @@
         <v>38</v>
       </c>
       <c r="D45" s="3">
-        <v>308200</v>
+        <v>308000</v>
       </c>
       <c r="E45" s="3">
-        <v>227200</v>
+        <v>226800</v>
       </c>
       <c r="F45" s="3">
-        <v>126700</v>
+        <v>126500</v>
       </c>
       <c r="G45" s="3">
+        <v>129900</v>
+      </c>
+      <c r="H45" s="3">
+        <v>133600</v>
+      </c>
+      <c r="I45" s="3">
         <v>130200</v>
       </c>
-      <c r="H45" s="3">
-        <v>133900</v>
-      </c>
-      <c r="I45" s="3">
-        <v>130400</v>
-      </c>
       <c r="J45" s="3">
-        <v>120900</v>
+        <v>120700</v>
       </c>
       <c r="K45" s="3">
         <v>153000</v>
@@ -3109,25 +3109,25 @@
         <v>39</v>
       </c>
       <c r="D46" s="3">
-        <v>758100</v>
+        <v>756600</v>
       </c>
       <c r="E46" s="3">
-        <v>916800</v>
+        <v>915000</v>
       </c>
       <c r="F46" s="3">
-        <v>496500</v>
+        <v>495500</v>
       </c>
       <c r="G46" s="3">
-        <v>1102900</v>
+        <v>1100800</v>
       </c>
       <c r="H46" s="3">
-        <v>1062700</v>
+        <v>1060600</v>
       </c>
       <c r="I46" s="3">
-        <v>1307600</v>
+        <v>1305100</v>
       </c>
       <c r="J46" s="3">
-        <v>1288600</v>
+        <v>1286100</v>
       </c>
       <c r="K46" s="3">
         <v>1051700</v>
@@ -3183,16 +3183,16 @@
         <v>5</v>
       </c>
       <c r="E47" s="3">
-        <v>38400</v>
+        <v>38300</v>
       </c>
       <c r="F47" s="3">
-        <v>27000</v>
+        <v>26900</v>
       </c>
       <c r="G47" s="3">
-        <v>116300</v>
+        <v>116100</v>
       </c>
       <c r="H47" s="3">
-        <v>112200</v>
+        <v>112000</v>
       </c>
       <c r="I47" s="3" t="s">
         <v>5</v>
@@ -3322,10 +3322,10 @@
         <v>42</v>
       </c>
       <c r="D49" s="3">
-        <v>104100</v>
+        <v>103900</v>
       </c>
       <c r="E49" s="3">
-        <v>101800</v>
+        <v>101600</v>
       </c>
       <c r="F49" s="3">
         <v>1900</v>
@@ -3534,20 +3534,20 @@
       <c r="C52" s="1" t="s">
         <v>45</v>
       </c>
-      <c r="D52" s="3" t="s">
-        <v>5</v>
+      <c r="D52" s="3">
+        <v>194200</v>
       </c>
       <c r="E52" s="3">
-        <v>183600</v>
+        <v>183200</v>
       </c>
       <c r="F52" s="3">
-        <v>329000</v>
+        <v>328300</v>
       </c>
       <c r="G52" s="3">
-        <v>194700</v>
+        <v>194300</v>
       </c>
       <c r="H52" s="3">
-        <v>168100</v>
+        <v>167700</v>
       </c>
       <c r="I52" s="3" t="s">
         <v>5</v>
@@ -3677,25 +3677,25 @@
         <v>47</v>
       </c>
       <c r="D54" s="3">
-        <v>1056800</v>
+        <v>1054800</v>
       </c>
       <c r="E54" s="3">
-        <v>1240900</v>
+        <v>1238500</v>
       </c>
       <c r="F54" s="3">
-        <v>854400</v>
+        <v>852700</v>
       </c>
       <c r="G54" s="3">
-        <v>1415800</v>
+        <v>1413100</v>
       </c>
       <c r="H54" s="3">
-        <v>1344900</v>
+        <v>1342300</v>
       </c>
       <c r="I54" s="3">
-        <v>1309600</v>
+        <v>1307000</v>
       </c>
       <c r="J54" s="3">
-        <v>1290600</v>
+        <v>1288100</v>
       </c>
       <c r="K54" s="3">
         <v>1053700</v>
@@ -3802,25 +3802,25 @@
         <v>50</v>
       </c>
       <c r="D57" s="3">
-        <v>27400</v>
+        <v>27300</v>
       </c>
       <c r="E57" s="3">
-        <v>59800</v>
+        <v>59700</v>
       </c>
       <c r="F57" s="3">
-        <v>31600</v>
+        <v>31500</v>
       </c>
       <c r="G57" s="3">
-        <v>41000</v>
+        <v>40900</v>
       </c>
       <c r="H57" s="3">
-        <v>36200</v>
+        <v>36100</v>
       </c>
       <c r="I57" s="3">
-        <v>53900</v>
+        <v>53800</v>
       </c>
       <c r="J57" s="3">
-        <v>82000</v>
+        <v>81900</v>
       </c>
       <c r="K57" s="3">
         <v>71100</v>
@@ -3879,16 +3879,16 @@
         <v>20900</v>
       </c>
       <c r="F58" s="3">
-        <v>49700</v>
+        <v>49600</v>
       </c>
       <c r="G58" s="3">
-        <v>29700</v>
+        <v>29600</v>
       </c>
       <c r="H58" s="3">
-        <v>29700</v>
+        <v>29600</v>
       </c>
       <c r="I58" s="3">
-        <v>29700</v>
+        <v>29600</v>
       </c>
       <c r="J58" s="3">
         <v>0</v>
@@ -3944,7 +3944,7 @@
         <v>52</v>
       </c>
       <c r="D59" s="3">
-        <v>2900</v>
+        <v>6900</v>
       </c>
       <c r="E59" s="3">
         <v>20400</v>
@@ -3953,16 +3953,16 @@
         <v>17400</v>
       </c>
       <c r="G59" s="3">
-        <v>12800</v>
+        <v>12700</v>
       </c>
       <c r="H59" s="3">
-        <v>21800</v>
+        <v>21700</v>
       </c>
       <c r="I59" s="3">
         <v>12500</v>
       </c>
       <c r="J59" s="3">
-        <v>11200</v>
+        <v>11100</v>
       </c>
       <c r="K59" s="3">
         <v>26300</v>
@@ -4015,25 +4015,25 @@
         <v>53</v>
       </c>
       <c r="D60" s="3">
-        <v>54300</v>
+        <v>54200</v>
       </c>
       <c r="E60" s="3">
-        <v>101200</v>
+        <v>101000</v>
       </c>
       <c r="F60" s="3">
-        <v>98700</v>
+        <v>98500</v>
       </c>
       <c r="G60" s="3">
-        <v>83500</v>
+        <v>83300</v>
       </c>
       <c r="H60" s="3">
-        <v>87600</v>
+        <v>87500</v>
       </c>
       <c r="I60" s="3">
-        <v>96100</v>
+        <v>95900</v>
       </c>
       <c r="J60" s="3">
-        <v>93200</v>
+        <v>93000</v>
       </c>
       <c r="K60" s="3">
         <v>137900</v>
@@ -4086,7 +4086,7 @@
         <v>54</v>
       </c>
       <c r="D61" s="3">
-        <v>0</v>
+        <v>500</v>
       </c>
       <c r="E61" s="3">
         <v>0</v>
@@ -4101,7 +4101,7 @@
         <v>13200</v>
       </c>
       <c r="I61" s="3">
-        <v>13000</v>
+        <v>12900</v>
       </c>
       <c r="J61" s="3">
         <v>12700</v>
@@ -4166,7 +4166,7 @@
         <v>1800</v>
       </c>
       <c r="G62" s="3">
-        <v>1800</v>
+        <v>1700</v>
       </c>
       <c r="H62" s="3">
         <v>1700</v>
@@ -4441,25 +4441,25 @@
         <v>58</v>
       </c>
       <c r="D66" s="3">
-        <v>89700</v>
+        <v>89500</v>
       </c>
       <c r="E66" s="3">
-        <v>124400</v>
+        <v>124200</v>
       </c>
       <c r="F66" s="3">
-        <v>116700</v>
+        <v>116500</v>
       </c>
       <c r="G66" s="3">
-        <v>100900</v>
+        <v>100700</v>
       </c>
       <c r="H66" s="3">
-        <v>102500</v>
+        <v>102300</v>
       </c>
       <c r="I66" s="3">
-        <v>111700</v>
+        <v>111500</v>
       </c>
       <c r="J66" s="3">
-        <v>108600</v>
+        <v>108400</v>
       </c>
       <c r="K66" s="3">
         <v>183700</v>
@@ -4823,25 +4823,25 @@
         <v>64</v>
       </c>
       <c r="D72" s="3">
-        <v>1698600</v>
+        <v>1695200</v>
       </c>
       <c r="E72" s="3">
-        <v>1528900</v>
+        <v>1525900</v>
       </c>
       <c r="F72" s="3">
-        <v>1150000</v>
+        <v>1147800</v>
       </c>
       <c r="G72" s="3">
-        <v>1080300</v>
+        <v>1078200</v>
       </c>
       <c r="H72" s="3">
-        <v>1007900</v>
+        <v>1005900</v>
       </c>
       <c r="I72" s="3">
-        <v>959400</v>
+        <v>957600</v>
       </c>
       <c r="J72" s="3">
-        <v>947600</v>
+        <v>945700</v>
       </c>
       <c r="K72" s="3">
         <v>869900</v>
@@ -5107,25 +5107,25 @@
         <v>68</v>
       </c>
       <c r="D76" s="3">
-        <v>740900</v>
+        <v>965200</v>
       </c>
       <c r="E76" s="3">
-        <v>1116500</v>
+        <v>1114300</v>
       </c>
       <c r="F76" s="3">
-        <v>737700</v>
+        <v>736200</v>
       </c>
       <c r="G76" s="3">
-        <v>1314900</v>
+        <v>1312400</v>
       </c>
       <c r="H76" s="3">
-        <v>1242500</v>
+        <v>1240000</v>
       </c>
       <c r="I76" s="3">
-        <v>1197900</v>
+        <v>1195600</v>
       </c>
       <c r="J76" s="3">
-        <v>1182000</v>
+        <v>1179700</v>
       </c>
       <c r="K76" s="3">
         <v>870000</v>
@@ -5324,26 +5324,26 @@
       <c r="C81" s="1" t="s">
         <v>28</v>
       </c>
-      <c r="D81" s="3" t="s">
-        <v>5</v>
+      <c r="D81" s="3">
+        <v>47000</v>
       </c>
       <c r="E81" s="3">
-        <v>94800</v>
+        <v>94600</v>
       </c>
       <c r="F81" s="3">
-        <v>67600</v>
+        <v>67500</v>
       </c>
       <c r="G81" s="3">
-        <v>72500</v>
+        <v>72300</v>
       </c>
       <c r="H81" s="3">
-        <v>48500</v>
+        <v>48400</v>
       </c>
       <c r="I81" s="3">
         <v>11900</v>
       </c>
       <c r="J81" s="3">
-        <v>75100</v>
+        <v>74900</v>
       </c>
       <c r="K81" s="3">
         <v>11400</v>

--- a/AAII_Financials/Quarterly/AMTD_QTR_FIN.xlsx
+++ b/AAII_Financials/Quarterly/AMTD_QTR_FIN.xlsx
@@ -771,25 +771,25 @@
         <v>3</v>
       </c>
       <c r="D8" s="3">
-        <v>58600</v>
+        <v>58900</v>
       </c>
       <c r="E8" s="3">
-        <v>75100</v>
+        <v>75500</v>
       </c>
       <c r="F8" s="3">
-        <v>42700</v>
+        <v>42900</v>
       </c>
       <c r="G8" s="3">
-        <v>66200</v>
+        <v>66600</v>
       </c>
       <c r="H8" s="3">
-        <v>19800</v>
+        <v>19900</v>
       </c>
       <c r="I8" s="3">
-        <v>10700</v>
+        <v>10800</v>
       </c>
       <c r="J8" s="3">
-        <v>68700</v>
+        <v>69100</v>
       </c>
       <c r="K8" s="3">
         <v>20100</v>
@@ -1325,13 +1325,13 @@
         <v>15300</v>
       </c>
       <c r="F17" s="3">
-        <v>12000</v>
+        <v>12100</v>
       </c>
       <c r="G17" s="3">
-        <v>10800</v>
+        <v>10900</v>
       </c>
       <c r="H17" s="3">
-        <v>4400</v>
+        <v>4500</v>
       </c>
       <c r="I17" s="3">
         <v>6600</v>
@@ -1390,25 +1390,25 @@
         <v>13</v>
       </c>
       <c r="D18" s="3">
-        <v>53700</v>
+        <v>54000</v>
       </c>
       <c r="E18" s="3">
-        <v>59800</v>
+        <v>60100</v>
       </c>
       <c r="F18" s="3">
-        <v>30700</v>
+        <v>30800</v>
       </c>
       <c r="G18" s="3">
-        <v>55400</v>
+        <v>55700</v>
       </c>
       <c r="H18" s="3">
-        <v>15400</v>
+        <v>15500</v>
       </c>
       <c r="I18" s="3">
-        <v>4100</v>
+        <v>4200</v>
       </c>
       <c r="J18" s="3">
-        <v>52300</v>
+        <v>52600</v>
       </c>
       <c r="K18" s="3">
         <v>12900</v>
@@ -1491,19 +1491,19 @@
         <v>9400</v>
       </c>
       <c r="E20" s="3">
-        <v>51600</v>
+        <v>51900</v>
       </c>
       <c r="F20" s="3">
-        <v>50300</v>
+        <v>50500</v>
       </c>
       <c r="G20" s="3">
-        <v>35000</v>
+        <v>35200</v>
       </c>
       <c r="H20" s="3">
-        <v>40700</v>
+        <v>41000</v>
       </c>
       <c r="I20" s="3">
-        <v>13400</v>
+        <v>13500</v>
       </c>
       <c r="J20" s="3">
         <v>4500</v>
@@ -1701,25 +1701,25 @@
         <v>18</v>
       </c>
       <c r="D23" s="3">
-        <v>62500</v>
+        <v>62900</v>
       </c>
       <c r="E23" s="3">
-        <v>111100</v>
+        <v>111700</v>
       </c>
       <c r="F23" s="3">
-        <v>80100</v>
+        <v>80600</v>
       </c>
       <c r="G23" s="3">
-        <v>89600</v>
+        <v>90100</v>
       </c>
       <c r="H23" s="3">
-        <v>55600</v>
+        <v>55900</v>
       </c>
       <c r="I23" s="3">
-        <v>17200</v>
+        <v>17300</v>
       </c>
       <c r="J23" s="3">
-        <v>54900</v>
+        <v>55200</v>
       </c>
       <c r="K23" s="3">
         <v>13800</v>
@@ -1775,22 +1775,22 @@
         <v>4500</v>
       </c>
       <c r="E24" s="3">
-        <v>8900</v>
+        <v>9000</v>
       </c>
       <c r="F24" s="3">
         <v>4600</v>
       </c>
       <c r="G24" s="3">
-        <v>9300</v>
+        <v>9400</v>
       </c>
       <c r="H24" s="3">
-        <v>3200</v>
+        <v>3300</v>
       </c>
       <c r="I24" s="3">
         <v>1300</v>
       </c>
       <c r="J24" s="3">
-        <v>-22100</v>
+        <v>-22200</v>
       </c>
       <c r="K24" s="3">
         <v>2400</v>
@@ -1914,25 +1914,25 @@
         <v>21</v>
       </c>
       <c r="D26" s="3">
-        <v>58100</v>
+        <v>58400</v>
       </c>
       <c r="E26" s="3">
-        <v>102200</v>
+        <v>102700</v>
       </c>
       <c r="F26" s="3">
-        <v>75500</v>
+        <v>75900</v>
       </c>
       <c r="G26" s="3">
-        <v>80300</v>
+        <v>80700</v>
       </c>
       <c r="H26" s="3">
-        <v>52400</v>
+        <v>52600</v>
       </c>
       <c r="I26" s="3">
         <v>15900</v>
       </c>
       <c r="J26" s="3">
-        <v>77000</v>
+        <v>77400</v>
       </c>
       <c r="K26" s="3">
         <v>11400</v>
@@ -1985,25 +1985,25 @@
         <v>22</v>
       </c>
       <c r="D27" s="3">
-        <v>47000</v>
+        <v>47200</v>
       </c>
       <c r="E27" s="3">
-        <v>94600</v>
+        <v>95100</v>
       </c>
       <c r="F27" s="3">
-        <v>67500</v>
+        <v>67900</v>
       </c>
       <c r="G27" s="3">
-        <v>72300</v>
+        <v>72700</v>
       </c>
       <c r="H27" s="3">
-        <v>48400</v>
+        <v>48600</v>
       </c>
       <c r="I27" s="3">
         <v>11900</v>
       </c>
       <c r="J27" s="3">
-        <v>74900</v>
+        <v>75300</v>
       </c>
       <c r="K27" s="3">
         <v>11400</v>
@@ -2343,19 +2343,19 @@
         <v>-9400</v>
       </c>
       <c r="E32" s="3">
-        <v>-51600</v>
+        <v>-51900</v>
       </c>
       <c r="F32" s="3">
-        <v>-50300</v>
+        <v>-50500</v>
       </c>
       <c r="G32" s="3">
-        <v>-35000</v>
+        <v>-35200</v>
       </c>
       <c r="H32" s="3">
-        <v>-40700</v>
+        <v>-41000</v>
       </c>
       <c r="I32" s="3">
-        <v>-13400</v>
+        <v>-13500</v>
       </c>
       <c r="J32" s="3">
         <v>-4500</v>
@@ -2411,25 +2411,25 @@
         <v>28</v>
       </c>
       <c r="D33" s="3">
-        <v>47000</v>
+        <v>47200</v>
       </c>
       <c r="E33" s="3">
-        <v>94600</v>
+        <v>95100</v>
       </c>
       <c r="F33" s="3">
-        <v>67500</v>
+        <v>67900</v>
       </c>
       <c r="G33" s="3">
-        <v>72300</v>
+        <v>72700</v>
       </c>
       <c r="H33" s="3">
-        <v>48400</v>
+        <v>48600</v>
       </c>
       <c r="I33" s="3">
         <v>11900</v>
       </c>
       <c r="J33" s="3">
-        <v>74900</v>
+        <v>75300</v>
       </c>
       <c r="K33" s="3">
         <v>11400</v>
@@ -2553,25 +2553,25 @@
         <v>30</v>
       </c>
       <c r="D35" s="3">
-        <v>47000</v>
+        <v>47200</v>
       </c>
       <c r="E35" s="3">
-        <v>94600</v>
+        <v>95100</v>
       </c>
       <c r="F35" s="3">
-        <v>67500</v>
+        <v>67900</v>
       </c>
       <c r="G35" s="3">
-        <v>72300</v>
+        <v>72700</v>
       </c>
       <c r="H35" s="3">
-        <v>48400</v>
+        <v>48600</v>
       </c>
       <c r="I35" s="3">
         <v>11900</v>
       </c>
       <c r="J35" s="3">
-        <v>74900</v>
+        <v>75300</v>
       </c>
       <c r="K35" s="3">
         <v>11400</v>
@@ -2754,25 +2754,25 @@
         <v>34</v>
       </c>
       <c r="D41" s="3">
-        <v>138700</v>
+        <v>139500</v>
       </c>
       <c r="E41" s="3">
-        <v>30300</v>
+        <v>30500</v>
       </c>
       <c r="F41" s="3">
-        <v>84500</v>
+        <v>84900</v>
       </c>
       <c r="G41" s="3">
-        <v>74800</v>
+        <v>75200</v>
       </c>
       <c r="H41" s="3">
-        <v>83100</v>
+        <v>83500</v>
       </c>
       <c r="I41" s="3">
-        <v>82600</v>
+        <v>83000</v>
       </c>
       <c r="J41" s="3">
-        <v>147100</v>
+        <v>147900</v>
       </c>
       <c r="K41" s="3">
         <v>128900</v>
@@ -2840,10 +2840,10 @@
         <v>8000</v>
       </c>
       <c r="I42" s="3">
-        <v>136400</v>
+        <v>137200</v>
       </c>
       <c r="J42" s="3">
-        <v>128800</v>
+        <v>129500</v>
       </c>
       <c r="K42" s="3">
         <v>200400</v>
@@ -2896,25 +2896,25 @@
         <v>36</v>
       </c>
       <c r="D43" s="3">
-        <v>309900</v>
+        <v>311500</v>
       </c>
       <c r="E43" s="3">
-        <v>657900</v>
+        <v>661300</v>
       </c>
       <c r="F43" s="3">
-        <v>284600</v>
+        <v>286100</v>
       </c>
       <c r="G43" s="3">
-        <v>896100</v>
+        <v>900800</v>
       </c>
       <c r="H43" s="3">
-        <v>836000</v>
+        <v>840400</v>
       </c>
       <c r="I43" s="3">
-        <v>955800</v>
+        <v>960900</v>
       </c>
       <c r="J43" s="3">
-        <v>889500</v>
+        <v>894200</v>
       </c>
       <c r="K43" s="3">
         <v>569500</v>
@@ -3038,25 +3038,25 @@
         <v>38</v>
       </c>
       <c r="D45" s="3">
-        <v>308000</v>
+        <v>309600</v>
       </c>
       <c r="E45" s="3">
-        <v>226800</v>
+        <v>228000</v>
       </c>
       <c r="F45" s="3">
-        <v>126500</v>
+        <v>127100</v>
       </c>
       <c r="G45" s="3">
-        <v>129900</v>
+        <v>130600</v>
       </c>
       <c r="H45" s="3">
-        <v>133600</v>
+        <v>134300</v>
       </c>
       <c r="I45" s="3">
-        <v>130200</v>
+        <v>130900</v>
       </c>
       <c r="J45" s="3">
-        <v>120700</v>
+        <v>121300</v>
       </c>
       <c r="K45" s="3">
         <v>153000</v>
@@ -3109,25 +3109,25 @@
         <v>39</v>
       </c>
       <c r="D46" s="3">
-        <v>756600</v>
+        <v>760600</v>
       </c>
       <c r="E46" s="3">
-        <v>915000</v>
+        <v>919800</v>
       </c>
       <c r="F46" s="3">
-        <v>495500</v>
+        <v>498100</v>
       </c>
       <c r="G46" s="3">
-        <v>1100800</v>
+        <v>1106600</v>
       </c>
       <c r="H46" s="3">
-        <v>1060600</v>
+        <v>1066200</v>
       </c>
       <c r="I46" s="3">
-        <v>1305100</v>
+        <v>1311900</v>
       </c>
       <c r="J46" s="3">
-        <v>1286100</v>
+        <v>1292900</v>
       </c>
       <c r="K46" s="3">
         <v>1051700</v>
@@ -3183,16 +3183,16 @@
         <v>5</v>
       </c>
       <c r="E47" s="3">
-        <v>38300</v>
+        <v>38500</v>
       </c>
       <c r="F47" s="3">
-        <v>26900</v>
+        <v>27100</v>
       </c>
       <c r="G47" s="3">
-        <v>116100</v>
+        <v>116700</v>
       </c>
       <c r="H47" s="3">
-        <v>112000</v>
+        <v>112600</v>
       </c>
       <c r="I47" s="3" t="s">
         <v>5</v>
@@ -3322,10 +3322,10 @@
         <v>42</v>
       </c>
       <c r="D49" s="3">
-        <v>103900</v>
+        <v>104500</v>
       </c>
       <c r="E49" s="3">
-        <v>101600</v>
+        <v>102100</v>
       </c>
       <c r="F49" s="3">
         <v>1900</v>
@@ -3535,19 +3535,19 @@
         <v>45</v>
       </c>
       <c r="D52" s="3">
-        <v>194200</v>
+        <v>195300</v>
       </c>
       <c r="E52" s="3">
-        <v>183200</v>
+        <v>184200</v>
       </c>
       <c r="F52" s="3">
-        <v>328300</v>
+        <v>330100</v>
       </c>
       <c r="G52" s="3">
-        <v>194300</v>
+        <v>195300</v>
       </c>
       <c r="H52" s="3">
-        <v>167700</v>
+        <v>168600</v>
       </c>
       <c r="I52" s="3" t="s">
         <v>5</v>
@@ -3677,25 +3677,25 @@
         <v>47</v>
       </c>
       <c r="D54" s="3">
-        <v>1054800</v>
+        <v>1060300</v>
       </c>
       <c r="E54" s="3">
-        <v>1238500</v>
+        <v>1245000</v>
       </c>
       <c r="F54" s="3">
-        <v>852700</v>
+        <v>857200</v>
       </c>
       <c r="G54" s="3">
-        <v>1413100</v>
+        <v>1420500</v>
       </c>
       <c r="H54" s="3">
-        <v>1342300</v>
+        <v>1349400</v>
       </c>
       <c r="I54" s="3">
-        <v>1307000</v>
+        <v>1313900</v>
       </c>
       <c r="J54" s="3">
-        <v>1288100</v>
+        <v>1294800</v>
       </c>
       <c r="K54" s="3">
         <v>1053700</v>
@@ -3802,25 +3802,25 @@
         <v>50</v>
       </c>
       <c r="D57" s="3">
-        <v>27300</v>
+        <v>27400</v>
       </c>
       <c r="E57" s="3">
-        <v>59700</v>
+        <v>60000</v>
       </c>
       <c r="F57" s="3">
-        <v>31500</v>
+        <v>31700</v>
       </c>
       <c r="G57" s="3">
-        <v>40900</v>
+        <v>41100</v>
       </c>
       <c r="H57" s="3">
-        <v>36100</v>
+        <v>36300</v>
       </c>
       <c r="I57" s="3">
-        <v>53800</v>
+        <v>54100</v>
       </c>
       <c r="J57" s="3">
-        <v>81900</v>
+        <v>82300</v>
       </c>
       <c r="K57" s="3">
         <v>71100</v>
@@ -3873,22 +3873,22 @@
         <v>51</v>
       </c>
       <c r="D58" s="3">
-        <v>20000</v>
+        <v>20100</v>
       </c>
       <c r="E58" s="3">
-        <v>20900</v>
+        <v>21000</v>
       </c>
       <c r="F58" s="3">
-        <v>49600</v>
+        <v>49800</v>
       </c>
       <c r="G58" s="3">
-        <v>29600</v>
+        <v>29800</v>
       </c>
       <c r="H58" s="3">
-        <v>29600</v>
+        <v>29800</v>
       </c>
       <c r="I58" s="3">
-        <v>29600</v>
+        <v>29800</v>
       </c>
       <c r="J58" s="3">
         <v>0</v>
@@ -3944,25 +3944,25 @@
         <v>52</v>
       </c>
       <c r="D59" s="3">
-        <v>6900</v>
+        <v>7000</v>
       </c>
       <c r="E59" s="3">
-        <v>20400</v>
+        <v>20500</v>
       </c>
       <c r="F59" s="3">
         <v>17400</v>
       </c>
       <c r="G59" s="3">
-        <v>12700</v>
+        <v>12800</v>
       </c>
       <c r="H59" s="3">
-        <v>21700</v>
+        <v>21900</v>
       </c>
       <c r="I59" s="3">
         <v>12500</v>
       </c>
       <c r="J59" s="3">
-        <v>11100</v>
+        <v>11200</v>
       </c>
       <c r="K59" s="3">
         <v>26300</v>
@@ -4015,25 +4015,25 @@
         <v>53</v>
       </c>
       <c r="D60" s="3">
-        <v>54200</v>
+        <v>54500</v>
       </c>
       <c r="E60" s="3">
-        <v>101000</v>
+        <v>101500</v>
       </c>
       <c r="F60" s="3">
-        <v>98500</v>
+        <v>99000</v>
       </c>
       <c r="G60" s="3">
-        <v>83300</v>
+        <v>83800</v>
       </c>
       <c r="H60" s="3">
-        <v>87500</v>
+        <v>87900</v>
       </c>
       <c r="I60" s="3">
-        <v>95900</v>
+        <v>96400</v>
       </c>
       <c r="J60" s="3">
-        <v>93000</v>
+        <v>93500</v>
       </c>
       <c r="K60" s="3">
         <v>137900</v>
@@ -4092,19 +4092,19 @@
         <v>0</v>
       </c>
       <c r="F61" s="3">
-        <v>14300</v>
+        <v>14400</v>
       </c>
       <c r="G61" s="3">
-        <v>13700</v>
+        <v>13800</v>
       </c>
       <c r="H61" s="3">
         <v>13200</v>
       </c>
       <c r="I61" s="3">
-        <v>12900</v>
+        <v>13000</v>
       </c>
       <c r="J61" s="3">
-        <v>12700</v>
+        <v>12800</v>
       </c>
       <c r="K61" s="3">
         <v>12200</v>
@@ -4166,16 +4166,16 @@
         <v>1800</v>
       </c>
       <c r="G62" s="3">
-        <v>1700</v>
+        <v>1800</v>
       </c>
       <c r="H62" s="3">
         <v>1700</v>
       </c>
       <c r="I62" s="3">
-        <v>2600</v>
+        <v>2700</v>
       </c>
       <c r="J62" s="3">
-        <v>2600</v>
+        <v>2700</v>
       </c>
       <c r="K62" s="3">
         <v>33600</v>
@@ -4441,25 +4441,25 @@
         <v>58</v>
       </c>
       <c r="D66" s="3">
-        <v>89500</v>
+        <v>90000</v>
       </c>
       <c r="E66" s="3">
-        <v>124200</v>
+        <v>124800</v>
       </c>
       <c r="F66" s="3">
-        <v>116500</v>
+        <v>117100</v>
       </c>
       <c r="G66" s="3">
-        <v>100700</v>
+        <v>101300</v>
       </c>
       <c r="H66" s="3">
-        <v>102300</v>
+        <v>102800</v>
       </c>
       <c r="I66" s="3">
-        <v>111500</v>
+        <v>112000</v>
       </c>
       <c r="J66" s="3">
-        <v>108400</v>
+        <v>108900</v>
       </c>
       <c r="K66" s="3">
         <v>183700</v>
@@ -4823,25 +4823,25 @@
         <v>64</v>
       </c>
       <c r="D72" s="3">
-        <v>1695200</v>
+        <v>1704200</v>
       </c>
       <c r="E72" s="3">
-        <v>1525900</v>
+        <v>1533900</v>
       </c>
       <c r="F72" s="3">
-        <v>1147800</v>
+        <v>1153800</v>
       </c>
       <c r="G72" s="3">
-        <v>1078200</v>
+        <v>1083900</v>
       </c>
       <c r="H72" s="3">
-        <v>1005900</v>
+        <v>1011200</v>
       </c>
       <c r="I72" s="3">
-        <v>957600</v>
+        <v>962600</v>
       </c>
       <c r="J72" s="3">
-        <v>945700</v>
+        <v>950700</v>
       </c>
       <c r="K72" s="3">
         <v>869900</v>
@@ -5107,25 +5107,25 @@
         <v>68</v>
       </c>
       <c r="D76" s="3">
-        <v>965200</v>
+        <v>970300</v>
       </c>
       <c r="E76" s="3">
-        <v>1114300</v>
+        <v>1120200</v>
       </c>
       <c r="F76" s="3">
-        <v>736200</v>
+        <v>740100</v>
       </c>
       <c r="G76" s="3">
-        <v>1312400</v>
+        <v>1319200</v>
       </c>
       <c r="H76" s="3">
-        <v>1240000</v>
+        <v>1246500</v>
       </c>
       <c r="I76" s="3">
-        <v>1195600</v>
+        <v>1201800</v>
       </c>
       <c r="J76" s="3">
-        <v>1179700</v>
+        <v>1185900</v>
       </c>
       <c r="K76" s="3">
         <v>870000</v>
@@ -5325,25 +5325,25 @@
         <v>28</v>
       </c>
       <c r="D81" s="3">
-        <v>47000</v>
+        <v>47200</v>
       </c>
       <c r="E81" s="3">
-        <v>94600</v>
+        <v>95100</v>
       </c>
       <c r="F81" s="3">
-        <v>67500</v>
+        <v>67900</v>
       </c>
       <c r="G81" s="3">
-        <v>72300</v>
+        <v>72700</v>
       </c>
       <c r="H81" s="3">
-        <v>48400</v>
+        <v>48600</v>
       </c>
       <c r="I81" s="3">
         <v>11900</v>
       </c>
       <c r="J81" s="3">
-        <v>74900</v>
+        <v>75300</v>
       </c>
       <c r="K81" s="3">
         <v>11400</v>
